--- a/raw_data/2021/EGI-2021.xlsx
+++ b/raw_data/2021/EGI-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d135da842735aabe/Documentos/GitHub/e-gov-index/raw_data/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="820" documentId="13_ncr:1_{DA2DAC24-6B37-4FAD-B3D2-40D90F3F52C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE02753F-F173-4DDA-98DF-232BED7CD9A1}"/>
+  <xr:revisionPtr revIDLastSave="1524" documentId="13_ncr:1_{DA2DAC24-6B37-4FAD-B3D2-40D90F3F52C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9719A5D5-E1E2-4F73-8859-3FF2CEAA0758}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2B66F953-E5AF-4F8D-B634-188287D0A235}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="444">
   <si>
     <t>region</t>
   </si>
@@ -1273,6 +1273,102 @@
   </si>
   <si>
     <t>https://imda.cl/nuevo/</t>
+  </si>
+  <si>
+    <t>http://nuevo.imhuasco.cl/</t>
+  </si>
+  <si>
+    <t>seccion tramites aparece enunciada pero con links que no funcionan</t>
+  </si>
+  <si>
+    <t>https://www.tierramarilla.com/</t>
+  </si>
+  <si>
+    <t>https://www.vallenar.cl/</t>
+  </si>
+  <si>
+    <t>https://www.combarbala.cl/</t>
+  </si>
+  <si>
+    <t>https://www.salamanca.cl/</t>
+  </si>
+  <si>
+    <t>https://www.concon.cl/</t>
+  </si>
+  <si>
+    <t>https://andacollochile.cl/</t>
+  </si>
+  <si>
+    <t>https://canela.cl/nuevo/</t>
+  </si>
+  <si>
+    <t>https://www.municoquimbo.cl/</t>
+  </si>
+  <si>
+    <t>https://www.munipaihuano.cl/</t>
+  </si>
+  <si>
+    <t>https://www.munipunitaqui.cl/</t>
+  </si>
+  <si>
+    <t>https://www.municatemu.cl/</t>
+  </si>
+  <si>
+    <t>https://municipalidadillapel.cl/</t>
+  </si>
+  <si>
+    <t>https://www.munilahiguera.cl/</t>
+  </si>
+  <si>
+    <t>http://www.laserena.cl/</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>https://www.munilosvilos.cl/</t>
+  </si>
+  <si>
+    <t>https://www.munimontepatria.cl/web/</t>
+  </si>
+  <si>
+    <t>https://municipalidadovalle.cl/sitio/</t>
+  </si>
+  <si>
+    <t>https://riohurtado.cl/</t>
+  </si>
+  <si>
+    <t>https://www.municipalidadvicuna.cl/</t>
+  </si>
+  <si>
+    <t>http://200.50.125.18/</t>
+  </si>
+  <si>
+    <t>https://municipiocabildo.cl/</t>
+  </si>
+  <si>
+    <t>https://lacalera.cl/</t>
+  </si>
+  <si>
+    <t>https://www.municallelarga.cl/</t>
+  </si>
+  <si>
+    <t>https://www.municipalidadcartagena.cl/</t>
+  </si>
+  <si>
+    <t>seccion "nuevo portal de pagos" no funciona</t>
+  </si>
+  <si>
+    <t>https://municipalidadcasablanca.cl/index.php</t>
+  </si>
+  <si>
+    <t>https://www.elquisco.cl/</t>
+  </si>
+  <si>
+    <t>las DOM, como en este municipio, suelen ofrecer servicios digitales, lo que no ocurre con otros trámites dirigidos exclusivamentes a ciudadanos (y no inmobiliarias o EGIS que son las que frecuentemente trabajan con las DOM)</t>
+  </si>
+  <si>
+    <t>https://www.eltabo.cl/web2/</t>
   </si>
 </sst>
 </file>
@@ -1776,8 +1872,8 @@
   <dimension ref="A1:AA347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A24" sqref="A24"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3990,27 +4086,78 @@
       <c r="C28" s="2">
         <v>3304</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="13"/>
+      <c r="D28" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="E28" s="12">
+        <v>44504</v>
+      </c>
+      <c r="F28" s="18">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="13">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="13">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1</v>
+      </c>
+      <c r="L28" s="13">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1</v>
+      </c>
+      <c r="N28" s="13">
+        <v>1</v>
+      </c>
+      <c r="O28" s="2">
+        <v>1</v>
+      </c>
+      <c r="P28" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0</v>
+      </c>
+      <c r="R28" s="13">
+        <v>0</v>
+      </c>
+      <c r="S28" s="2">
+        <v>0</v>
+      </c>
+      <c r="T28" s="13">
+        <v>0</v>
+      </c>
+      <c r="U28" s="14">
+        <v>0</v>
+      </c>
+      <c r="V28" s="13">
+        <v>0</v>
+      </c>
+      <c r="W28" s="2">
+        <v>0</v>
+      </c>
+      <c r="X28" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="14">
+        <v>35</v>
+      </c>
+      <c r="Z28" s="24">
+        <v>66</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
@@ -4022,27 +4169,78 @@
       <c r="C29" s="2">
         <v>3103</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="13"/>
+      <c r="D29" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="E29" s="12">
+        <v>44504</v>
+      </c>
+      <c r="F29" s="18">
+        <v>0.50972222222222219</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="13">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="13">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="13">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1</v>
+      </c>
+      <c r="N29" s="13">
+        <v>1</v>
+      </c>
+      <c r="O29" s="2">
+        <v>1</v>
+      </c>
+      <c r="P29" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0</v>
+      </c>
+      <c r="R29" s="13">
+        <v>0</v>
+      </c>
+      <c r="S29" s="2">
+        <v>0</v>
+      </c>
+      <c r="T29" s="13">
+        <v>0</v>
+      </c>
+      <c r="U29" s="14">
+        <v>0</v>
+      </c>
+      <c r="V29" s="13">
+        <v>0</v>
+      </c>
+      <c r="W29" s="2">
+        <v>0</v>
+      </c>
+      <c r="X29" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="14">
+        <v>45</v>
+      </c>
+      <c r="Z29" s="24">
+        <v>72</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
@@ -4054,27 +4252,75 @@
       <c r="C30" s="2">
         <v>3301</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="13"/>
+      <c r="D30" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="E30" s="12">
+        <v>44504</v>
+      </c>
+      <c r="F30" s="18">
+        <v>0.51250000000000007</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="13">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="13">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1</v>
+      </c>
+      <c r="L30" s="13">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1</v>
+      </c>
+      <c r="N30" s="13">
+        <v>1</v>
+      </c>
+      <c r="O30" s="2">
+        <v>1</v>
+      </c>
+      <c r="P30" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>1</v>
+      </c>
+      <c r="R30" s="13">
+        <v>0</v>
+      </c>
+      <c r="S30" s="2">
+        <v>0</v>
+      </c>
+      <c r="T30" s="13">
+        <v>0</v>
+      </c>
+      <c r="U30" s="14">
+        <v>1</v>
+      </c>
+      <c r="V30" s="13">
+        <v>0</v>
+      </c>
+      <c r="W30" s="2">
+        <v>0</v>
+      </c>
+      <c r="X30" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="14">
+        <v>42</v>
+      </c>
+      <c r="Z30" s="24">
+        <v>74</v>
+      </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
@@ -4086,27 +4332,75 @@
       <c r="C31" s="2">
         <v>4103</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="13"/>
+      <c r="D31" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="E31" s="12">
+        <v>44504</v>
+      </c>
+      <c r="F31" s="18">
+        <v>0.51597222222222217</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="13">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="13">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="13">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1</v>
+      </c>
+      <c r="N31" s="13">
+        <v>1</v>
+      </c>
+      <c r="O31" s="2">
+        <v>1</v>
+      </c>
+      <c r="P31" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0</v>
+      </c>
+      <c r="R31" s="13">
+        <v>0</v>
+      </c>
+      <c r="S31" s="2">
+        <v>0</v>
+      </c>
+      <c r="T31" s="13">
+        <v>0</v>
+      </c>
+      <c r="U31" s="14">
+        <v>0</v>
+      </c>
+      <c r="V31" s="13">
+        <v>0</v>
+      </c>
+      <c r="W31" s="2">
+        <v>0</v>
+      </c>
+      <c r="X31" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="14">
+        <v>28</v>
+      </c>
+      <c r="Z31" s="24">
+        <v>48</v>
+      </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
@@ -4118,29 +4412,77 @@
       <c r="C32" s="2">
         <v>4202</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="13"/>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D32" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="E32" s="12">
+        <v>44504</v>
+      </c>
+      <c r="F32" s="18">
+        <v>0.51874999999999993</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="13">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="13">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1</v>
+      </c>
+      <c r="L32" s="13">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1</v>
+      </c>
+      <c r="N32" s="13">
+        <v>1</v>
+      </c>
+      <c r="O32" s="2">
+        <v>1</v>
+      </c>
+      <c r="P32" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0</v>
+      </c>
+      <c r="R32" s="13">
+        <v>0</v>
+      </c>
+      <c r="S32" s="2">
+        <v>0</v>
+      </c>
+      <c r="T32" s="13">
+        <v>0</v>
+      </c>
+      <c r="U32" s="14">
+        <v>1</v>
+      </c>
+      <c r="V32" s="13">
+        <v>0</v>
+      </c>
+      <c r="W32" s="2">
+        <v>0</v>
+      </c>
+      <c r="X32" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="14">
+        <v>35</v>
+      </c>
+      <c r="Z32" s="24">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>12</v>
       </c>
@@ -4150,29 +4492,77 @@
       <c r="C33" s="2">
         <v>4302</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="13"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D33" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="E33" s="12">
+        <v>44504</v>
+      </c>
+      <c r="F33" s="18">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="13">
+        <v>1</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33" s="13">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="13">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>1</v>
+      </c>
+      <c r="N33" s="13">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
+        <v>1</v>
+      </c>
+      <c r="P33" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0</v>
+      </c>
+      <c r="R33" s="13">
+        <v>0</v>
+      </c>
+      <c r="S33" s="2">
+        <v>0</v>
+      </c>
+      <c r="T33" s="13">
+        <v>0</v>
+      </c>
+      <c r="U33" s="14">
+        <v>0</v>
+      </c>
+      <c r="V33" s="13">
+        <v>0</v>
+      </c>
+      <c r="W33" s="2">
+        <v>0</v>
+      </c>
+      <c r="X33" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="14">
+        <v>40</v>
+      </c>
+      <c r="Z33" s="24">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>2</v>
       </c>
@@ -4182,29 +4572,77 @@
       <c r="C34" s="2">
         <v>4102</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="13"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D34" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="E34" s="12">
+        <v>44504</v>
+      </c>
+      <c r="F34" s="18">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="13">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="13">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1</v>
+      </c>
+      <c r="L34" s="13">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1</v>
+      </c>
+      <c r="N34" s="13">
+        <v>1</v>
+      </c>
+      <c r="O34" s="2">
+        <v>1</v>
+      </c>
+      <c r="P34" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>1</v>
+      </c>
+      <c r="R34" s="13">
+        <v>0</v>
+      </c>
+      <c r="S34" s="2">
+        <v>0</v>
+      </c>
+      <c r="T34" s="13">
+        <v>0</v>
+      </c>
+      <c r="U34" s="14">
+        <v>1</v>
+      </c>
+      <c r="V34" s="13">
+        <v>0</v>
+      </c>
+      <c r="W34" s="2">
+        <v>0</v>
+      </c>
+      <c r="X34" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="14">
+        <v>33</v>
+      </c>
+      <c r="Z34" s="24">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>7</v>
       </c>
@@ -4214,29 +4652,77 @@
       <c r="C35" s="2">
         <v>4201</v>
       </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="14"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="13"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D35" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="E35" s="12">
+        <v>44504</v>
+      </c>
+      <c r="F35" s="18">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="13">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35" s="13">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="13">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>1</v>
+      </c>
+      <c r="N35" s="13">
+        <v>1</v>
+      </c>
+      <c r="O35" s="2">
+        <v>1</v>
+      </c>
+      <c r="P35" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>1</v>
+      </c>
+      <c r="R35" s="13">
+        <v>1</v>
+      </c>
+      <c r="S35" s="2">
+        <v>0</v>
+      </c>
+      <c r="T35" s="13">
+        <v>1</v>
+      </c>
+      <c r="U35" s="14">
+        <v>1</v>
+      </c>
+      <c r="V35" s="13">
+        <v>0</v>
+      </c>
+      <c r="W35" s="2">
+        <v>0</v>
+      </c>
+      <c r="X35" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="14">
+        <v>18</v>
+      </c>
+      <c r="Z35" s="24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>4</v>
       </c>
@@ -4246,29 +4732,77 @@
       <c r="C36" s="2">
         <v>4104</v>
       </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="13"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D36" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="E36" s="12">
+        <v>44504</v>
+      </c>
+      <c r="F36" s="18">
+        <v>0.53125</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="13">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="13">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="13">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36" s="13">
+        <v>1</v>
+      </c>
+      <c r="O36" s="2">
+        <v>1</v>
+      </c>
+      <c r="P36" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>0</v>
+      </c>
+      <c r="R36" s="13">
+        <v>0</v>
+      </c>
+      <c r="S36" s="2">
+        <v>0</v>
+      </c>
+      <c r="T36" s="13">
+        <v>0</v>
+      </c>
+      <c r="U36" s="14">
+        <v>1</v>
+      </c>
+      <c r="V36" s="13">
+        <v>0</v>
+      </c>
+      <c r="W36" s="2">
+        <v>0</v>
+      </c>
+      <c r="X36" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="14">
+        <v>55</v>
+      </c>
+      <c r="Z36" s="24">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>1</v>
       </c>
@@ -4278,29 +4812,77 @@
       <c r="C37" s="2">
         <v>4101</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="14"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="13"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D37" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="E37" s="12">
+        <v>44504</v>
+      </c>
+      <c r="F37" s="18">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="13">
+        <v>1</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1</v>
+      </c>
+      <c r="J37" s="13">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <v>1</v>
+      </c>
+      <c r="L37" s="13">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37" s="13">
+        <v>1</v>
+      </c>
+      <c r="O37" s="2">
+        <v>1</v>
+      </c>
+      <c r="P37" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>0</v>
+      </c>
+      <c r="R37" s="13">
+        <v>0</v>
+      </c>
+      <c r="S37" s="2">
+        <v>0</v>
+      </c>
+      <c r="T37" s="13">
+        <v>0</v>
+      </c>
+      <c r="U37" s="14">
+        <v>1</v>
+      </c>
+      <c r="V37" s="13">
+        <v>0</v>
+      </c>
+      <c r="W37" s="2">
+        <v>0</v>
+      </c>
+      <c r="X37" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z37" s="24" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>9</v>
       </c>
@@ -4310,29 +4892,77 @@
       <c r="C38" s="2">
         <v>4203</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="13"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D38" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="E38" s="12">
+        <v>44504</v>
+      </c>
+      <c r="F38" s="18">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="13">
+        <v>1</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+      <c r="J38" s="13">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1</v>
+      </c>
+      <c r="L38" s="13">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
+        <v>1</v>
+      </c>
+      <c r="N38" s="13">
+        <v>1</v>
+      </c>
+      <c r="O38" s="2">
+        <v>1</v>
+      </c>
+      <c r="P38" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>1</v>
+      </c>
+      <c r="R38" s="13">
+        <v>0</v>
+      </c>
+      <c r="S38" s="2">
+        <v>0</v>
+      </c>
+      <c r="T38" s="13">
+        <v>0</v>
+      </c>
+      <c r="U38" s="14">
+        <v>0</v>
+      </c>
+      <c r="V38" s="13">
+        <v>0</v>
+      </c>
+      <c r="W38" s="2">
+        <v>0</v>
+      </c>
+      <c r="X38" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="14">
+        <v>44</v>
+      </c>
+      <c r="Z38" s="24">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>13</v>
       </c>
@@ -4342,29 +4972,77 @@
       <c r="C39" s="2">
         <v>4303</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="14"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="13"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D39" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="E39" s="12">
+        <v>44504</v>
+      </c>
+      <c r="F39" s="18">
+        <v>0.54722222222222217</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="13">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39" s="13">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39" s="13">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2">
+        <v>1</v>
+      </c>
+      <c r="N39" s="13">
+        <v>0</v>
+      </c>
+      <c r="O39" s="2">
+        <v>1</v>
+      </c>
+      <c r="P39" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>0</v>
+      </c>
+      <c r="R39" s="13">
+        <v>0</v>
+      </c>
+      <c r="S39" s="2">
+        <v>0</v>
+      </c>
+      <c r="T39" s="13">
+        <v>0</v>
+      </c>
+      <c r="U39" s="14">
+        <v>1</v>
+      </c>
+      <c r="V39" s="13">
+        <v>0</v>
+      </c>
+      <c r="W39" s="2">
+        <v>0</v>
+      </c>
+      <c r="X39" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="14">
+        <v>11</v>
+      </c>
+      <c r="Z39" s="24">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>11</v>
       </c>
@@ -4374,29 +5052,77 @@
       <c r="C40" s="2">
         <v>4301</v>
       </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="13"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D40" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="E40" s="12">
+        <v>44504</v>
+      </c>
+      <c r="F40" s="18">
+        <v>0.55069444444444449</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="13">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="13">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="13">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
+        <v>1</v>
+      </c>
+      <c r="N40" s="13">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2">
+        <v>1</v>
+      </c>
+      <c r="P40" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>0</v>
+      </c>
+      <c r="R40" s="13">
+        <v>0</v>
+      </c>
+      <c r="S40" s="2">
+        <v>0</v>
+      </c>
+      <c r="T40" s="13">
+        <v>0</v>
+      </c>
+      <c r="U40" s="14">
+        <v>1</v>
+      </c>
+      <c r="V40" s="13">
+        <v>0</v>
+      </c>
+      <c r="W40" s="2">
+        <v>0</v>
+      </c>
+      <c r="X40" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="14">
+        <v>16</v>
+      </c>
+      <c r="Z40" s="24">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>5</v>
       </c>
@@ -4406,29 +5132,77 @@
       <c r="C41" s="2">
         <v>4105</v>
       </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="14"/>
-      <c r="V41" s="13"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="13"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D41" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="E41" s="12">
+        <v>44504</v>
+      </c>
+      <c r="F41" s="18">
+        <v>0.55277777777777781</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="13">
+        <v>1</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="13">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+      <c r="L41" s="13">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2">
+        <v>1</v>
+      </c>
+      <c r="N41" s="13">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
+        <v>1</v>
+      </c>
+      <c r="P41" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>0</v>
+      </c>
+      <c r="R41" s="13">
+        <v>0</v>
+      </c>
+      <c r="S41" s="2">
+        <v>0</v>
+      </c>
+      <c r="T41" s="13">
+        <v>0</v>
+      </c>
+      <c r="U41" s="14">
+        <v>0</v>
+      </c>
+      <c r="V41" s="13">
+        <v>0</v>
+      </c>
+      <c r="W41" s="2">
+        <v>0</v>
+      </c>
+      <c r="X41" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="14">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="24">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>14</v>
       </c>
@@ -4438,29 +5212,77 @@
       <c r="C42" s="2">
         <v>4304</v>
       </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="13"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D42" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="E42" s="12">
+        <v>44504</v>
+      </c>
+      <c r="F42" s="18">
+        <v>0.55486111111111114</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="13">
+        <v>1</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+      <c r="J42" s="13">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1</v>
+      </c>
+      <c r="L42" s="13">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0</v>
+      </c>
+      <c r="N42" s="13">
+        <v>0</v>
+      </c>
+      <c r="O42" s="2">
+        <v>1</v>
+      </c>
+      <c r="P42" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>0</v>
+      </c>
+      <c r="R42" s="13">
+        <v>0</v>
+      </c>
+      <c r="S42" s="2">
+        <v>0</v>
+      </c>
+      <c r="T42" s="13">
+        <v>0</v>
+      </c>
+      <c r="U42" s="14">
+        <v>0</v>
+      </c>
+      <c r="V42" s="13">
+        <v>0</v>
+      </c>
+      <c r="W42" s="2">
+        <v>0</v>
+      </c>
+      <c r="X42" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="14">
+        <v>42</v>
+      </c>
+      <c r="Z42" s="24">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>15</v>
       </c>
@@ -4470,29 +5292,77 @@
       <c r="C43" s="2">
         <v>4305</v>
       </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="14"/>
-      <c r="V43" s="13"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="13"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D43" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="E43" s="12">
+        <v>44504</v>
+      </c>
+      <c r="F43" s="18">
+        <v>0.55763888888888891</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="13">
+        <v>1</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+      <c r="J43" s="13">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
+        <v>1</v>
+      </c>
+      <c r="L43" s="13">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
+        <v>1</v>
+      </c>
+      <c r="N43" s="13">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
+        <v>1</v>
+      </c>
+      <c r="P43" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>0</v>
+      </c>
+      <c r="R43" s="13">
+        <v>0</v>
+      </c>
+      <c r="S43" s="2">
+        <v>0</v>
+      </c>
+      <c r="T43" s="13">
+        <v>0</v>
+      </c>
+      <c r="U43" s="14">
+        <v>1</v>
+      </c>
+      <c r="V43" s="13">
+        <v>0</v>
+      </c>
+      <c r="W43" s="2">
+        <v>0</v>
+      </c>
+      <c r="X43" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="14">
+        <v>28</v>
+      </c>
+      <c r="Z43" s="24">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>10</v>
       </c>
@@ -4502,29 +5372,77 @@
       <c r="C44" s="2">
         <v>4204</v>
       </c>
-      <c r="D44" s="15"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="15"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="15"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="15"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="15"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D44" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="E44" s="12">
+        <v>44504</v>
+      </c>
+      <c r="F44" s="18">
+        <v>0.56041666666666667</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="15">
+        <v>1</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="15">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="15">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>1</v>
+      </c>
+      <c r="N44" s="15">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>1</v>
+      </c>
+      <c r="P44" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="15">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="15">
+        <v>0</v>
+      </c>
+      <c r="U44" s="14">
+        <v>0</v>
+      </c>
+      <c r="V44" s="15">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="14">
+        <v>43</v>
+      </c>
+      <c r="Z44" s="24">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>6</v>
       </c>
@@ -4534,29 +5452,77 @@
       <c r="C45" s="2">
         <v>4106</v>
       </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="14"/>
-      <c r="V45" s="13"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="13"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D45" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="E45" s="12">
+        <v>44504</v>
+      </c>
+      <c r="F45" s="18">
+        <v>0.56319444444444444</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="13">
+        <v>1</v>
+      </c>
+      <c r="I45" s="2">
+        <v>1</v>
+      </c>
+      <c r="J45" s="13">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="13">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2">
+        <v>1</v>
+      </c>
+      <c r="N45" s="13">
+        <v>0</v>
+      </c>
+      <c r="O45" s="2">
+        <v>1</v>
+      </c>
+      <c r="P45" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>1</v>
+      </c>
+      <c r="R45" s="13">
+        <v>0</v>
+      </c>
+      <c r="S45" s="2">
+        <v>0</v>
+      </c>
+      <c r="T45" s="13">
+        <v>0</v>
+      </c>
+      <c r="U45" s="14">
+        <v>1</v>
+      </c>
+      <c r="V45" s="13">
+        <v>0</v>
+      </c>
+      <c r="W45" s="2">
+        <v>0</v>
+      </c>
+      <c r="X45" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="14">
+        <v>26</v>
+      </c>
+      <c r="Z45" s="24">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>38</v>
       </c>
@@ -4566,29 +5532,77 @@
       <c r="C46" s="2">
         <v>5602</v>
       </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="14"/>
-      <c r="V46" s="13"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="13"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D46" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="E46" s="12">
+        <v>44504</v>
+      </c>
+      <c r="F46" s="18">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="13">
+        <v>1</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="13">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="13">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
+        <v>1</v>
+      </c>
+      <c r="N46" s="13">
+        <v>1</v>
+      </c>
+      <c r="O46" s="2">
+        <v>1</v>
+      </c>
+      <c r="P46" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>0</v>
+      </c>
+      <c r="R46" s="13">
+        <v>0</v>
+      </c>
+      <c r="S46" s="2">
+        <v>0</v>
+      </c>
+      <c r="T46" s="13">
+        <v>0</v>
+      </c>
+      <c r="U46" s="14">
+        <v>1</v>
+      </c>
+      <c r="V46" s="13">
+        <v>0</v>
+      </c>
+      <c r="W46" s="2">
+        <v>0</v>
+      </c>
+      <c r="X46" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="14">
+        <v>30</v>
+      </c>
+      <c r="Z46" s="24">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>29</v>
       </c>
@@ -4598,29 +5612,77 @@
       <c r="C47" s="2">
         <v>5402</v>
       </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="14"/>
-      <c r="V47" s="13"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="13"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D47" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="E47" s="12">
+        <v>44504</v>
+      </c>
+      <c r="F47" s="18">
+        <v>0.57222222222222219</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1</v>
+      </c>
+      <c r="H47" s="13">
+        <v>1</v>
+      </c>
+      <c r="I47" s="2">
+        <v>1</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="13">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
+        <v>1</v>
+      </c>
+      <c r="N47" s="13">
+        <v>0</v>
+      </c>
+      <c r="O47" s="2">
+        <v>1</v>
+      </c>
+      <c r="P47" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>0</v>
+      </c>
+      <c r="R47" s="13">
+        <v>0</v>
+      </c>
+      <c r="S47" s="2">
+        <v>0</v>
+      </c>
+      <c r="T47" s="13">
+        <v>0</v>
+      </c>
+      <c r="U47" s="14">
+        <v>0</v>
+      </c>
+      <c r="V47" s="13">
+        <v>0</v>
+      </c>
+      <c r="W47" s="2">
+        <v>0</v>
+      </c>
+      <c r="X47" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="14">
+        <v>16</v>
+      </c>
+      <c r="Z47" s="24">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>232</v>
       </c>
@@ -4630,29 +5692,77 @@
       <c r="C48" s="2">
         <v>5502</v>
       </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="14"/>
-      <c r="V48" s="13"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="13"/>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D48" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="E48" s="12">
+        <v>44504</v>
+      </c>
+      <c r="F48" s="18">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="13">
+        <v>1</v>
+      </c>
+      <c r="I48" s="2">
+        <v>1</v>
+      </c>
+      <c r="J48" s="13">
+        <v>0</v>
+      </c>
+      <c r="K48" s="2">
+        <v>1</v>
+      </c>
+      <c r="L48" s="13">
+        <v>0</v>
+      </c>
+      <c r="M48" s="2">
+        <v>1</v>
+      </c>
+      <c r="N48" s="13">
+        <v>0</v>
+      </c>
+      <c r="O48" s="2">
+        <v>1</v>
+      </c>
+      <c r="P48" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>0</v>
+      </c>
+      <c r="R48" s="13">
+        <v>0</v>
+      </c>
+      <c r="S48" s="2">
+        <v>0</v>
+      </c>
+      <c r="T48" s="13">
+        <v>0</v>
+      </c>
+      <c r="U48" s="14">
+        <v>1</v>
+      </c>
+      <c r="V48" s="13">
+        <v>0</v>
+      </c>
+      <c r="W48" s="2">
+        <v>0</v>
+      </c>
+      <c r="X48" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z48" s="24" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>25</v>
       </c>
@@ -4662,29 +5772,77 @@
       <c r="C49" s="2">
         <v>5302</v>
       </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="13"/>
-      <c r="U49" s="14"/>
-      <c r="V49" s="13"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="13"/>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D49" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E49" s="12">
+        <v>44504</v>
+      </c>
+      <c r="F49" s="18">
+        <v>0.57847222222222217</v>
+      </c>
+      <c r="G49" s="2">
+        <v>1</v>
+      </c>
+      <c r="H49" s="13">
+        <v>1</v>
+      </c>
+      <c r="I49" s="2">
+        <v>1</v>
+      </c>
+      <c r="J49" s="13">
+        <v>0</v>
+      </c>
+      <c r="K49" s="2">
+        <v>1</v>
+      </c>
+      <c r="L49" s="13">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2">
+        <v>1</v>
+      </c>
+      <c r="N49" s="13">
+        <v>0</v>
+      </c>
+      <c r="O49" s="2">
+        <v>1</v>
+      </c>
+      <c r="P49" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>0</v>
+      </c>
+      <c r="R49" s="13">
+        <v>0</v>
+      </c>
+      <c r="S49" s="2">
+        <v>0</v>
+      </c>
+      <c r="T49" s="13">
+        <v>0</v>
+      </c>
+      <c r="U49" s="14">
+        <v>1</v>
+      </c>
+      <c r="V49" s="13">
+        <v>0</v>
+      </c>
+      <c r="W49" s="2">
+        <v>0</v>
+      </c>
+      <c r="X49" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="14">
+        <v>31</v>
+      </c>
+      <c r="Z49" s="24">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>39</v>
       </c>
@@ -4694,29 +5852,80 @@
       <c r="C50" s="2">
         <v>5603</v>
       </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="13"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="13"/>
-      <c r="U50" s="14"/>
-      <c r="V50" s="13"/>
-      <c r="W50" s="2"/>
-      <c r="X50" s="13"/>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D50" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="E50" s="12">
+        <v>44504</v>
+      </c>
+      <c r="F50" s="18">
+        <v>0.58194444444444449</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="13">
+        <v>1</v>
+      </c>
+      <c r="I50" s="2">
+        <v>1</v>
+      </c>
+      <c r="J50" s="13">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="L50" s="13">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2">
+        <v>1</v>
+      </c>
+      <c r="N50" s="13">
+        <v>0</v>
+      </c>
+      <c r="O50" s="2">
+        <v>1</v>
+      </c>
+      <c r="P50" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>0</v>
+      </c>
+      <c r="R50" s="13">
+        <v>0</v>
+      </c>
+      <c r="S50" s="2">
+        <v>0</v>
+      </c>
+      <c r="T50" s="13">
+        <v>0</v>
+      </c>
+      <c r="U50" s="14">
+        <v>0</v>
+      </c>
+      <c r="V50" s="13">
+        <v>0</v>
+      </c>
+      <c r="W50" s="2">
+        <v>0</v>
+      </c>
+      <c r="X50" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="14">
+        <v>22</v>
+      </c>
+      <c r="Z50" s="24">
+        <v>69</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>17</v>
       </c>
@@ -4726,29 +5935,77 @@
       <c r="C51" s="2">
         <v>5102</v>
       </c>
-      <c r="D51" s="13"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="13"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="13"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="13"/>
-      <c r="U51" s="14"/>
-      <c r="V51" s="13"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="13"/>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D51" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="E51" s="12">
+        <v>44504</v>
+      </c>
+      <c r="F51" s="18">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="13">
+        <v>1</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="13">
+        <v>0</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+      <c r="L51" s="13">
+        <v>0</v>
+      </c>
+      <c r="M51" s="2">
+        <v>0</v>
+      </c>
+      <c r="N51" s="13">
+        <v>0</v>
+      </c>
+      <c r="O51" s="2">
+        <v>0</v>
+      </c>
+      <c r="P51" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>0</v>
+      </c>
+      <c r="R51" s="13">
+        <v>0</v>
+      </c>
+      <c r="S51" s="2">
+        <v>0</v>
+      </c>
+      <c r="T51" s="13">
+        <v>0</v>
+      </c>
+      <c r="U51" s="14">
+        <v>1</v>
+      </c>
+      <c r="V51" s="13">
+        <v>0</v>
+      </c>
+      <c r="W51" s="2">
+        <v>0</v>
+      </c>
+      <c r="X51" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="14">
+        <v>43</v>
+      </c>
+      <c r="Z51" s="24">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>44</v>
       </c>
@@ -4758,29 +6015,77 @@
       <c r="C52" s="2">
         <v>5702</v>
       </c>
-      <c r="D52" s="13"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="13"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="13"/>
-      <c r="U52" s="14"/>
-      <c r="V52" s="13"/>
-      <c r="W52" s="2"/>
-      <c r="X52" s="13"/>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D52" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="E52" s="12">
+        <v>44504</v>
+      </c>
+      <c r="F52" s="18">
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="13">
+        <v>1</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+      <c r="J52" s="13">
+        <v>0</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
+      <c r="L52" s="13">
+        <v>0</v>
+      </c>
+      <c r="M52" s="2">
+        <v>0</v>
+      </c>
+      <c r="N52" s="13">
+        <v>0</v>
+      </c>
+      <c r="O52" s="2">
+        <v>1</v>
+      </c>
+      <c r="P52" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>0</v>
+      </c>
+      <c r="R52" s="13">
+        <v>0</v>
+      </c>
+      <c r="S52" s="2">
+        <v>0</v>
+      </c>
+      <c r="T52" s="13">
+        <v>0</v>
+      </c>
+      <c r="U52" s="14">
+        <v>0</v>
+      </c>
+      <c r="V52" s="13">
+        <v>0</v>
+      </c>
+      <c r="W52" s="2">
+        <v>0</v>
+      </c>
+      <c r="X52" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="14">
+        <v>10</v>
+      </c>
+      <c r="Z52" s="24">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>18</v>
       </c>
@@ -4790,29 +6095,77 @@
       <c r="C53" s="2">
         <v>5103</v>
       </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="13"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="13"/>
-      <c r="U53" s="14"/>
-      <c r="V53" s="13"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="13"/>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D53" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="E53" s="12">
+        <v>44504</v>
+      </c>
+      <c r="F53" s="18">
+        <v>0.59513888888888888</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53" s="13">
+        <v>1</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" s="13">
+        <v>0</v>
+      </c>
+      <c r="K53" s="2">
+        <v>1</v>
+      </c>
+      <c r="L53" s="13">
+        <v>0</v>
+      </c>
+      <c r="M53" s="2">
+        <v>1</v>
+      </c>
+      <c r="N53" s="13">
+        <v>1</v>
+      </c>
+      <c r="O53" s="2">
+        <v>1</v>
+      </c>
+      <c r="P53" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>0</v>
+      </c>
+      <c r="R53" s="13">
+        <v>0</v>
+      </c>
+      <c r="S53" s="2">
+        <v>0</v>
+      </c>
+      <c r="T53" s="13">
+        <v>0</v>
+      </c>
+      <c r="U53" s="14">
+        <v>1</v>
+      </c>
+      <c r="V53" s="13">
+        <v>0</v>
+      </c>
+      <c r="W53" s="2">
+        <v>0</v>
+      </c>
+      <c r="X53" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="14">
+        <v>28</v>
+      </c>
+      <c r="Z53" s="24">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>40</v>
       </c>
@@ -4822,29 +6175,80 @@
       <c r="C54" s="2">
         <v>5604</v>
       </c>
-      <c r="D54" s="13"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="13"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="13"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="13"/>
-      <c r="U54" s="14"/>
-      <c r="V54" s="13"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="13"/>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D54" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="E54" s="12">
+        <v>44504</v>
+      </c>
+      <c r="F54" s="18">
+        <v>0.59861111111111109</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0</v>
+      </c>
+      <c r="H54" s="13">
+        <v>1</v>
+      </c>
+      <c r="I54" s="2">
+        <v>1</v>
+      </c>
+      <c r="J54" s="13">
+        <v>0</v>
+      </c>
+      <c r="K54" s="2">
+        <v>0</v>
+      </c>
+      <c r="L54" s="13">
+        <v>0</v>
+      </c>
+      <c r="M54" s="2">
+        <v>1</v>
+      </c>
+      <c r="N54" s="13">
+        <v>0</v>
+      </c>
+      <c r="O54" s="2">
+        <v>1</v>
+      </c>
+      <c r="P54" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>0</v>
+      </c>
+      <c r="R54" s="13">
+        <v>0</v>
+      </c>
+      <c r="S54" s="2">
+        <v>0</v>
+      </c>
+      <c r="T54" s="13">
+        <v>0</v>
+      </c>
+      <c r="U54" s="14">
+        <v>1</v>
+      </c>
+      <c r="V54" s="13">
+        <v>0</v>
+      </c>
+      <c r="W54" s="2">
+        <v>0</v>
+      </c>
+      <c r="X54" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="14">
+        <v>4</v>
+      </c>
+      <c r="Z54" s="24">
+        <v>37</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>41</v>
       </c>
@@ -4854,29 +6258,77 @@
       <c r="C55" s="2">
         <v>5605</v>
       </c>
-      <c r="D55" s="13"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="13"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="13"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="13"/>
-      <c r="U55" s="14"/>
-      <c r="V55" s="13"/>
-      <c r="W55" s="2"/>
-      <c r="X55" s="13"/>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D55" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E55" s="12">
+        <v>44504</v>
+      </c>
+      <c r="F55" s="18">
+        <v>0.60138888888888886</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0</v>
+      </c>
+      <c r="H55" s="13">
+        <v>1</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+      <c r="J55" s="13">
+        <v>0</v>
+      </c>
+      <c r="K55" s="2">
+        <v>0</v>
+      </c>
+      <c r="L55" s="13">
+        <v>0</v>
+      </c>
+      <c r="M55" s="2">
+        <v>1</v>
+      </c>
+      <c r="N55" s="13">
+        <v>0</v>
+      </c>
+      <c r="O55" s="2">
+        <v>0</v>
+      </c>
+      <c r="P55" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>1</v>
+      </c>
+      <c r="R55" s="13">
+        <v>1</v>
+      </c>
+      <c r="S55" s="2">
+        <v>1</v>
+      </c>
+      <c r="T55" s="13">
+        <v>1</v>
+      </c>
+      <c r="U55" s="14">
+        <v>1</v>
+      </c>
+      <c r="V55" s="13">
+        <v>0</v>
+      </c>
+      <c r="W55" s="2">
+        <v>0</v>
+      </c>
+      <c r="X55" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="14">
+        <v>33</v>
+      </c>
+      <c r="Z55" s="24">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>34</v>
       </c>
@@ -4908,7 +6360,7 @@
       <c r="W56" s="2"/>
       <c r="X56" s="13"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>23</v>
       </c>
@@ -4940,7 +6392,7 @@
       <c r="W57" s="2"/>
       <c r="X57" s="13"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>19</v>
       </c>
@@ -4972,7 +6424,7 @@
       <c r="W58" s="2"/>
       <c r="X58" s="13"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>35</v>
       </c>
@@ -5004,7 +6456,7 @@
       <c r="W59" s="2"/>
       <c r="X59" s="13"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>28</v>
       </c>
@@ -5036,7 +6488,7 @@
       <c r="W60" s="2"/>
       <c r="X60" s="13"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>50</v>
       </c>
@@ -5068,7 +6520,7 @@
       <c r="W61" s="2"/>
       <c r="X61" s="13"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>45</v>
       </c>
@@ -5100,7 +6552,7 @@
       <c r="W62" s="2"/>
       <c r="X62" s="13"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>24</v>
       </c>
@@ -5132,7 +6584,7 @@
       <c r="W63" s="2"/>
       <c r="X63" s="13"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>36</v>
       </c>
@@ -14243,8 +15695,36 @@
     <hyperlink ref="D25" r:id="rId24" xr:uid="{F582F1FB-0A69-4560-B307-D614B93F2E0B}"/>
     <hyperlink ref="D26" r:id="rId25" xr:uid="{74D45692-F859-439C-BE7A-EECD1CCBFFAB}"/>
     <hyperlink ref="D27" r:id="rId26" xr:uid="{5B91CC10-2644-4F3E-A460-03488DE6BD26}"/>
+    <hyperlink ref="D28" r:id="rId27" xr:uid="{D0154B09-3806-4B80-949F-688FF3270960}"/>
+    <hyperlink ref="D29" r:id="rId28" xr:uid="{9E774916-0B27-49D1-92AA-B86562D34712}"/>
+    <hyperlink ref="D30" r:id="rId29" xr:uid="{112E67F4-12BA-477B-B03A-7C0937CF74BF}"/>
+    <hyperlink ref="D31" r:id="rId30" xr:uid="{C79D57EC-4526-4E03-8D9E-2C4D2A73109C}"/>
+    <hyperlink ref="D32" r:id="rId31" xr:uid="{7F307DB4-367E-42C5-89FD-BA1FF0A407C6}"/>
+    <hyperlink ref="D33" r:id="rId32" xr:uid="{5E5037D0-F7F6-4460-9A29-28954BAD141F}"/>
+    <hyperlink ref="D34" r:id="rId33" xr:uid="{5C3E7650-F0FB-47B9-9D9E-39CF76BFD8A2}"/>
+    <hyperlink ref="D35" r:id="rId34" xr:uid="{6369BE22-1A24-4C00-919E-94467D3F8CB3}"/>
+    <hyperlink ref="D36" r:id="rId35" xr:uid="{157E8541-9AC4-4508-94A4-1DC1FFDCDD07}"/>
+    <hyperlink ref="D37" r:id="rId36" xr:uid="{40CD7ED4-FFB6-47A8-B458-F14ECE7826BB}"/>
+    <hyperlink ref="D38" r:id="rId37" xr:uid="{DA0EC892-22D9-459B-A1E3-425D0AA230C3}"/>
+    <hyperlink ref="D39" r:id="rId38" xr:uid="{B242FE19-09FF-467B-B649-D4095F00BBC7}"/>
+    <hyperlink ref="D40" r:id="rId39" xr:uid="{0C37AEEB-8ADC-422C-93AD-463CB34461B6}"/>
+    <hyperlink ref="D41" r:id="rId40" xr:uid="{A7E2CECA-A010-47D5-9A05-B3B03DB42F68}"/>
+    <hyperlink ref="D42" r:id="rId41" xr:uid="{32B41F65-4BEA-47B6-932B-8759A230AB0B}"/>
+    <hyperlink ref="D43" r:id="rId42" xr:uid="{E1A2CC17-67F0-49A3-8FA1-1EFC86B2F78F}"/>
+    <hyperlink ref="D44" r:id="rId43" xr:uid="{E9E0EE08-18AA-4489-8AA2-EADD557F0F5D}"/>
+    <hyperlink ref="D45" r:id="rId44" xr:uid="{B8EB2EC1-00CC-4A3F-AFE4-CD88714C9CD1}"/>
+    <hyperlink ref="D46" r:id="rId45" xr:uid="{91397937-FE6F-4669-A327-AFE024554106}"/>
+    <hyperlink ref="D47" r:id="rId46" xr:uid="{7AA69F5F-6CAB-40F0-BB1A-CB51E0A10BCB}"/>
+    <hyperlink ref="D48" r:id="rId47" xr:uid="{0E0060CB-3DC3-415F-B999-7394DEFAC80F}"/>
+    <hyperlink ref="D49" r:id="rId48" xr:uid="{DA0D9384-81DA-4C36-91DB-9C54A6A70B1B}"/>
+    <hyperlink ref="D50" r:id="rId49" xr:uid="{5FABD8A6-2BEC-40B0-A2A5-FF0C2652DE00}"/>
+    <hyperlink ref="D51" r:id="rId50" xr:uid="{316707B2-2BB6-42D1-8F64-C3885905B98D}"/>
+    <hyperlink ref="D52" r:id="rId51" xr:uid="{290082CA-B372-4651-B6C6-F5F4E7A641D8}"/>
+    <hyperlink ref="D53" r:id="rId52" xr:uid="{481C3FD0-A6E5-492F-967B-B9562F6E2A93}"/>
+    <hyperlink ref="D54" r:id="rId53" xr:uid="{5826D196-139A-4D62-BBC7-643FB36EE36B}"/>
+    <hyperlink ref="D55" r:id="rId54" xr:uid="{9AABBB79-49B5-46A9-8A40-073E0A7E7115}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId27"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId55"/>
 </worksheet>
 </file>
--- a/raw_data/2021/EGI-2021.xlsx
+++ b/raw_data/2021/EGI-2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d135da842735aabe/Documentos/GitHub/e-gov-index/raw_data/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1524" documentId="13_ncr:1_{DA2DAC24-6B37-4FAD-B3D2-40D90F3F52C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9719A5D5-E1E2-4F73-8859-3FF2CEAA0758}"/>
+  <xr:revisionPtr revIDLastSave="2169" documentId="13_ncr:1_{DA2DAC24-6B37-4FAD-B3D2-40D90F3F52C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B23669D-7644-4197-8A8E-830F425A7DBD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2B66F953-E5AF-4F8D-B634-188287D0A235}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B66F953-E5AF-4F8D-B634-188287D0A235}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="474">
   <si>
     <t>region</t>
   </si>
@@ -1369,6 +1369,96 @@
   </si>
   <si>
     <t>https://www.eltabo.cl/web2/</t>
+  </si>
+  <si>
+    <t>https://www.hijuelas.cl/</t>
+  </si>
+  <si>
+    <t>https://www.rapanui.net/</t>
+  </si>
+  <si>
+    <t>http://www.comunajuanfernandez.cl/?fbclid=IwAR3bXNpmJunT1sBTtfqms-F4AWBceB2vlQSlFaXIKcHze6DRJthd0oJ9ojY</t>
+  </si>
+  <si>
+    <t>https://lacruz.cl/</t>
+  </si>
+  <si>
+    <t>https://limache.cl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sitio web con problemas de seguridad </t>
+  </si>
+  <si>
+    <t>https://www.comunadelaligua.cl/</t>
+  </si>
+  <si>
+    <t>https://www.municipalidadllayllay.cl/</t>
+  </si>
+  <si>
+    <t>http://www.losandes.cl/</t>
+  </si>
+  <si>
+    <t>https://muninogales.cl/</t>
+  </si>
+  <si>
+    <t>https://www.muniolmue.cl/</t>
+  </si>
+  <si>
+    <t>http://www.impanquehue.cl/</t>
+  </si>
+  <si>
+    <t>http://www.municipalidadpapudo.cl/</t>
+  </si>
+  <si>
+    <t>https://municipalidadpetorca.cl/v1/</t>
+  </si>
+  <si>
+    <t>https://www.putaendo.cl/</t>
+  </si>
+  <si>
+    <t>https://www.quilpue.cl/</t>
+  </si>
+  <si>
+    <t>https://www.munipuchuncavi.cl/</t>
+  </si>
+  <si>
+    <t>https://www.muniquintero.cl/</t>
+  </si>
+  <si>
+    <t>https://quillota.cl/municipalidad/</t>
+  </si>
+  <si>
+    <t>https://www.munizapallar.cl/</t>
+  </si>
+  <si>
+    <t>https://munirinconada.cl/medaconfianza/</t>
+  </si>
+  <si>
+    <t>https://www.sanantonio.cl/</t>
+  </si>
+  <si>
+    <t>https://www.munisanesteban.cl/home</t>
+  </si>
+  <si>
+    <t>https://www.munisanfelipe.cl/</t>
+  </si>
+  <si>
+    <t>https://imsantamaria.com/</t>
+  </si>
+  <si>
+    <t>No se puede acceder a este sitio web</t>
+  </si>
+  <si>
+    <t>https://santodomingo.cl/</t>
+  </si>
+  <si>
+    <t>https://web.municipalidaddevalparaiso.cl/</t>
+  </si>
+  <si>
+    <t>https://www.villalemana.cl/</t>
+  </si>
+  <si>
+    <t>https://www.munivina.cl/</t>
   </si>
 </sst>
 </file>
@@ -1486,7 +1576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1552,6 +1642,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1872,8 +1968,8 @@
   <dimension ref="A1:AA347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6338,27 +6434,75 @@
       <c r="C56" s="2">
         <v>5503</v>
       </c>
-      <c r="D56" s="13"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="2"/>
-      <c r="T56" s="13"/>
-      <c r="U56" s="14"/>
-      <c r="V56" s="13"/>
-      <c r="W56" s="2"/>
-      <c r="X56" s="13"/>
+      <c r="D56" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="E56" s="12">
+        <v>44505</v>
+      </c>
+      <c r="F56" s="18">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="13">
+        <v>1</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="13">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <v>1</v>
+      </c>
+      <c r="L56" s="13">
+        <v>0</v>
+      </c>
+      <c r="M56" s="2">
+        <v>1</v>
+      </c>
+      <c r="N56" s="13">
+        <v>1</v>
+      </c>
+      <c r="O56" s="2">
+        <v>1</v>
+      </c>
+      <c r="P56" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>0</v>
+      </c>
+      <c r="R56" s="13">
+        <v>0</v>
+      </c>
+      <c r="S56" s="2">
+        <v>0</v>
+      </c>
+      <c r="T56" s="13">
+        <v>0</v>
+      </c>
+      <c r="U56" s="14">
+        <v>1</v>
+      </c>
+      <c r="V56" s="13">
+        <v>0</v>
+      </c>
+      <c r="W56" s="2">
+        <v>0</v>
+      </c>
+      <c r="X56" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="14">
+        <v>65</v>
+      </c>
+      <c r="Z56" s="24">
+        <v>91</v>
+      </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
@@ -6370,27 +6514,75 @@
       <c r="C57" s="2">
         <v>5201</v>
       </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="2"/>
-      <c r="T57" s="13"/>
-      <c r="U57" s="14"/>
-      <c r="V57" s="13"/>
-      <c r="W57" s="2"/>
-      <c r="X57" s="13"/>
+      <c r="D57" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="E57" s="12">
+        <v>44505</v>
+      </c>
+      <c r="F57" s="18">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="H57" s="13">
+        <v>1</v>
+      </c>
+      <c r="I57" s="2">
+        <v>1</v>
+      </c>
+      <c r="J57" s="13">
+        <v>0</v>
+      </c>
+      <c r="K57" s="2">
+        <v>0</v>
+      </c>
+      <c r="L57" s="13">
+        <v>0</v>
+      </c>
+      <c r="M57" s="2">
+        <v>1</v>
+      </c>
+      <c r="N57" s="13">
+        <v>0</v>
+      </c>
+      <c r="O57" s="2">
+        <v>1</v>
+      </c>
+      <c r="P57" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>0</v>
+      </c>
+      <c r="R57" s="13">
+        <v>0</v>
+      </c>
+      <c r="S57" s="2">
+        <v>0</v>
+      </c>
+      <c r="T57" s="13">
+        <v>0</v>
+      </c>
+      <c r="U57" s="14">
+        <v>0</v>
+      </c>
+      <c r="V57" s="13">
+        <v>0</v>
+      </c>
+      <c r="W57" s="2">
+        <v>0</v>
+      </c>
+      <c r="X57" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="14">
+        <v>44</v>
+      </c>
+      <c r="Z57" s="24">
+        <v>76</v>
+      </c>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
@@ -6402,27 +6594,78 @@
       <c r="C58" s="2">
         <v>5104</v>
       </c>
-      <c r="D58" s="13"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="13"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="13"/>
-      <c r="U58" s="14"/>
-      <c r="V58" s="13"/>
-      <c r="W58" s="2"/>
-      <c r="X58" s="13"/>
+      <c r="D58" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E58" s="12">
+        <v>44505</v>
+      </c>
+      <c r="F58" s="18">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+      <c r="H58" s="13">
+        <v>1</v>
+      </c>
+      <c r="I58" s="2">
+        <v>1</v>
+      </c>
+      <c r="J58" s="13">
+        <v>0</v>
+      </c>
+      <c r="K58" s="2">
+        <v>1</v>
+      </c>
+      <c r="L58" s="13">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2">
+        <v>1</v>
+      </c>
+      <c r="N58" s="13">
+        <v>0</v>
+      </c>
+      <c r="O58" s="2">
+        <v>1</v>
+      </c>
+      <c r="P58" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>0</v>
+      </c>
+      <c r="R58" s="13">
+        <v>0</v>
+      </c>
+      <c r="S58" s="2">
+        <v>0</v>
+      </c>
+      <c r="T58" s="13">
+        <v>0</v>
+      </c>
+      <c r="U58" s="14">
+        <v>0</v>
+      </c>
+      <c r="V58" s="13">
+        <v>0</v>
+      </c>
+      <c r="W58" s="2">
+        <v>0</v>
+      </c>
+      <c r="X58" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="14">
+        <v>27</v>
+      </c>
+      <c r="Z58" s="24">
+        <v>67</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
@@ -6434,27 +6677,75 @@
       <c r="C59" s="2">
         <v>5504</v>
       </c>
-      <c r="D59" s="13"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="13"/>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="13"/>
-      <c r="S59" s="2"/>
-      <c r="T59" s="13"/>
-      <c r="U59" s="14"/>
-      <c r="V59" s="13"/>
-      <c r="W59" s="2"/>
-      <c r="X59" s="13"/>
+      <c r="D59" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="E59" s="12">
+        <v>44505</v>
+      </c>
+      <c r="F59" s="18">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+      <c r="H59" s="13">
+        <v>1</v>
+      </c>
+      <c r="I59" s="2">
+        <v>1</v>
+      </c>
+      <c r="J59" s="13">
+        <v>0</v>
+      </c>
+      <c r="K59" s="2">
+        <v>0</v>
+      </c>
+      <c r="L59" s="13">
+        <v>0</v>
+      </c>
+      <c r="M59" s="2">
+        <v>0</v>
+      </c>
+      <c r="N59" s="13">
+        <v>0</v>
+      </c>
+      <c r="O59" s="2">
+        <v>1</v>
+      </c>
+      <c r="P59" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>0</v>
+      </c>
+      <c r="R59" s="13">
+        <v>0</v>
+      </c>
+      <c r="S59" s="2">
+        <v>0</v>
+      </c>
+      <c r="T59" s="13">
+        <v>0</v>
+      </c>
+      <c r="U59" s="14">
+        <v>1</v>
+      </c>
+      <c r="V59" s="13">
+        <v>0</v>
+      </c>
+      <c r="W59" s="2">
+        <v>0</v>
+      </c>
+      <c r="X59" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="14">
+        <v>40</v>
+      </c>
+      <c r="Z59" s="24">
+        <v>65</v>
+      </c>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
@@ -6466,27 +6757,75 @@
       <c r="C60" s="2">
         <v>5401</v>
       </c>
-      <c r="D60" s="13"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="13"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="13"/>
-      <c r="S60" s="2"/>
-      <c r="T60" s="13"/>
-      <c r="U60" s="14"/>
-      <c r="V60" s="13"/>
-      <c r="W60" s="2"/>
-      <c r="X60" s="13"/>
+      <c r="D60" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="E60" s="12">
+        <v>44505</v>
+      </c>
+      <c r="F60" s="18">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1</v>
+      </c>
+      <c r="H60" s="13">
+        <v>1</v>
+      </c>
+      <c r="I60" s="2">
+        <v>1</v>
+      </c>
+      <c r="J60" s="13">
+        <v>0</v>
+      </c>
+      <c r="K60" s="2">
+        <v>1</v>
+      </c>
+      <c r="L60" s="13">
+        <v>0</v>
+      </c>
+      <c r="M60" s="2">
+        <v>1</v>
+      </c>
+      <c r="N60" s="13">
+        <v>1</v>
+      </c>
+      <c r="O60" s="2">
+        <v>1</v>
+      </c>
+      <c r="P60" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>0</v>
+      </c>
+      <c r="R60" s="13">
+        <v>0</v>
+      </c>
+      <c r="S60" s="2">
+        <v>0</v>
+      </c>
+      <c r="T60" s="13">
+        <v>1</v>
+      </c>
+      <c r="U60" s="14">
+        <v>0</v>
+      </c>
+      <c r="V60" s="13">
+        <v>0</v>
+      </c>
+      <c r="W60" s="2">
+        <v>0</v>
+      </c>
+      <c r="X60" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="14">
+        <v>3</v>
+      </c>
+      <c r="Z60" s="24">
+        <v>19</v>
+      </c>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
@@ -6498,27 +6837,75 @@
       <c r="C61" s="2">
         <v>5802</v>
       </c>
-      <c r="D61" s="13"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="13"/>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="13"/>
-      <c r="S61" s="2"/>
-      <c r="T61" s="13"/>
-      <c r="U61" s="14"/>
-      <c r="V61" s="13"/>
-      <c r="W61" s="2"/>
-      <c r="X61" s="13"/>
+      <c r="D61" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="E61" s="12">
+        <v>44505</v>
+      </c>
+      <c r="F61" s="18">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0</v>
+      </c>
+      <c r="H61" s="13">
+        <v>1</v>
+      </c>
+      <c r="I61" s="2">
+        <v>1</v>
+      </c>
+      <c r="J61" s="13">
+        <v>0</v>
+      </c>
+      <c r="K61" s="2">
+        <v>0</v>
+      </c>
+      <c r="L61" s="13">
+        <v>0</v>
+      </c>
+      <c r="M61" s="2">
+        <v>1</v>
+      </c>
+      <c r="N61" s="13">
+        <v>1</v>
+      </c>
+      <c r="O61" s="2">
+        <v>1</v>
+      </c>
+      <c r="P61" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>0</v>
+      </c>
+      <c r="R61" s="13">
+        <v>0</v>
+      </c>
+      <c r="S61" s="2">
+        <v>0</v>
+      </c>
+      <c r="T61" s="13">
+        <v>0</v>
+      </c>
+      <c r="U61" s="14">
+        <v>1</v>
+      </c>
+      <c r="V61" s="13">
+        <v>0</v>
+      </c>
+      <c r="W61" s="2">
+        <v>0</v>
+      </c>
+      <c r="X61" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="14">
+        <v>19</v>
+      </c>
+      <c r="Z61" s="24">
+        <v>57</v>
+      </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
@@ -6530,27 +6917,75 @@
       <c r="C62" s="2">
         <v>5703</v>
       </c>
-      <c r="D62" s="13"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="13"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="13"/>
-      <c r="S62" s="2"/>
-      <c r="T62" s="13"/>
-      <c r="U62" s="14"/>
-      <c r="V62" s="13"/>
-      <c r="W62" s="2"/>
-      <c r="X62" s="13"/>
+      <c r="D62" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="E62" s="12">
+        <v>44505</v>
+      </c>
+      <c r="F62" s="18">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="G62" s="2">
+        <v>1</v>
+      </c>
+      <c r="H62" s="13">
+        <v>1</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+      <c r="J62" s="13">
+        <v>0</v>
+      </c>
+      <c r="K62" s="2">
+        <v>0</v>
+      </c>
+      <c r="L62" s="13">
+        <v>0</v>
+      </c>
+      <c r="M62" s="2">
+        <v>1</v>
+      </c>
+      <c r="N62" s="13">
+        <v>0</v>
+      </c>
+      <c r="O62" s="2">
+        <v>1</v>
+      </c>
+      <c r="P62" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>0</v>
+      </c>
+      <c r="R62" s="13">
+        <v>0</v>
+      </c>
+      <c r="S62" s="2">
+        <v>0</v>
+      </c>
+      <c r="T62" s="13">
+        <v>0</v>
+      </c>
+      <c r="U62" s="14">
+        <v>0</v>
+      </c>
+      <c r="V62" s="13">
+        <v>0</v>
+      </c>
+      <c r="W62" s="2">
+        <v>0</v>
+      </c>
+      <c r="X62" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="14">
+        <v>15</v>
+      </c>
+      <c r="Z62" s="24">
+        <v>15</v>
+      </c>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
@@ -6562,27 +6997,75 @@
       <c r="C63" s="2">
         <v>5301</v>
       </c>
-      <c r="D63" s="13"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="13"/>
-      <c r="S63" s="2"/>
-      <c r="T63" s="13"/>
-      <c r="U63" s="14"/>
-      <c r="V63" s="13"/>
-      <c r="W63" s="2"/>
-      <c r="X63" s="13"/>
+      <c r="D63" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="E63" s="12">
+        <v>44505</v>
+      </c>
+      <c r="F63" s="18">
+        <v>0.49027777777777781</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0</v>
+      </c>
+      <c r="H63" s="13">
+        <v>1</v>
+      </c>
+      <c r="I63" s="2">
+        <v>1</v>
+      </c>
+      <c r="J63" s="13">
+        <v>0</v>
+      </c>
+      <c r="K63" s="2">
+        <v>1</v>
+      </c>
+      <c r="L63" s="13">
+        <v>0</v>
+      </c>
+      <c r="M63" s="2">
+        <v>1</v>
+      </c>
+      <c r="N63" s="13">
+        <v>1</v>
+      </c>
+      <c r="O63" s="2">
+        <v>1</v>
+      </c>
+      <c r="P63" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>0</v>
+      </c>
+      <c r="R63" s="13">
+        <v>0</v>
+      </c>
+      <c r="S63" s="2">
+        <v>0</v>
+      </c>
+      <c r="T63" s="13">
+        <v>0</v>
+      </c>
+      <c r="U63" s="14">
+        <v>1</v>
+      </c>
+      <c r="V63" s="13">
+        <v>0</v>
+      </c>
+      <c r="W63" s="2">
+        <v>0</v>
+      </c>
+      <c r="X63" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="14">
+        <v>4</v>
+      </c>
+      <c r="Z63" s="24">
+        <v>25</v>
+      </c>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
@@ -6594,29 +7077,77 @@
       <c r="C64" s="2">
         <v>5506</v>
       </c>
-      <c r="D64" s="13"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="13"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="13"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="13"/>
-      <c r="S64" s="2"/>
-      <c r="T64" s="13"/>
-      <c r="U64" s="14"/>
-      <c r="V64" s="13"/>
-      <c r="W64" s="2"/>
-      <c r="X64" s="13"/>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D64" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="E64" s="12">
+        <v>44505</v>
+      </c>
+      <c r="F64" s="18">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0</v>
+      </c>
+      <c r="H64" s="13">
+        <v>1</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
+      <c r="J64" s="13">
+        <v>0</v>
+      </c>
+      <c r="K64" s="2">
+        <v>0</v>
+      </c>
+      <c r="L64" s="13">
+        <v>0</v>
+      </c>
+      <c r="M64" s="2">
+        <v>1</v>
+      </c>
+      <c r="N64" s="13">
+        <v>1</v>
+      </c>
+      <c r="O64" s="2">
+        <v>1</v>
+      </c>
+      <c r="P64" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>0</v>
+      </c>
+      <c r="R64" s="13">
+        <v>0</v>
+      </c>
+      <c r="S64" s="2">
+        <v>0</v>
+      </c>
+      <c r="T64" s="13">
+        <v>0</v>
+      </c>
+      <c r="U64" s="14">
+        <v>1</v>
+      </c>
+      <c r="V64" s="13">
+        <v>0</v>
+      </c>
+      <c r="W64" s="2">
+        <v>0</v>
+      </c>
+      <c r="X64" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="14">
+        <v>66</v>
+      </c>
+      <c r="Z64" s="24">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>51</v>
       </c>
@@ -6626,29 +7157,77 @@
       <c r="C65" s="2">
         <v>5803</v>
       </c>
-      <c r="D65" s="13"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="13"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="13"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="13"/>
-      <c r="S65" s="2"/>
-      <c r="T65" s="13"/>
-      <c r="U65" s="14"/>
-      <c r="V65" s="13"/>
-      <c r="W65" s="2"/>
-      <c r="X65" s="13"/>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D65" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="E65" s="12">
+        <v>44505</v>
+      </c>
+      <c r="F65" s="18">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0</v>
+      </c>
+      <c r="H65" s="13">
+        <v>1</v>
+      </c>
+      <c r="I65" s="2">
+        <v>0</v>
+      </c>
+      <c r="J65" s="13">
+        <v>0</v>
+      </c>
+      <c r="K65" s="2">
+        <v>0</v>
+      </c>
+      <c r="L65" s="13">
+        <v>0</v>
+      </c>
+      <c r="M65" s="2">
+        <v>1</v>
+      </c>
+      <c r="N65" s="13">
+        <v>1</v>
+      </c>
+      <c r="O65" s="2">
+        <v>1</v>
+      </c>
+      <c r="P65" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>0</v>
+      </c>
+      <c r="R65" s="13">
+        <v>0</v>
+      </c>
+      <c r="S65" s="2">
+        <v>0</v>
+      </c>
+      <c r="T65" s="13">
+        <v>0</v>
+      </c>
+      <c r="U65" s="14">
+        <v>0</v>
+      </c>
+      <c r="V65" s="13">
+        <v>0</v>
+      </c>
+      <c r="W65" s="2">
+        <v>0</v>
+      </c>
+      <c r="X65" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="14">
+        <v>64</v>
+      </c>
+      <c r="Z65" s="24">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>46</v>
       </c>
@@ -6658,29 +7237,77 @@
       <c r="C66" s="2">
         <v>5704</v>
       </c>
-      <c r="D66" s="13"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="13"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="13"/>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="13"/>
-      <c r="S66" s="2"/>
-      <c r="T66" s="13"/>
-      <c r="U66" s="14"/>
-      <c r="V66" s="13"/>
-      <c r="W66" s="2"/>
-      <c r="X66" s="13"/>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D66" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="E66" s="12">
+        <v>44505</v>
+      </c>
+      <c r="F66" s="18">
+        <v>0.4993055555555555</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0</v>
+      </c>
+      <c r="H66" s="13">
+        <v>1</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0</v>
+      </c>
+      <c r="J66" s="13">
+        <v>0</v>
+      </c>
+      <c r="K66" s="2">
+        <v>0</v>
+      </c>
+      <c r="L66" s="13">
+        <v>0</v>
+      </c>
+      <c r="M66" s="2">
+        <v>1</v>
+      </c>
+      <c r="N66" s="13">
+        <v>0</v>
+      </c>
+      <c r="O66" s="2">
+        <v>1</v>
+      </c>
+      <c r="P66" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>0</v>
+      </c>
+      <c r="R66" s="13">
+        <v>0</v>
+      </c>
+      <c r="S66" s="2">
+        <v>0</v>
+      </c>
+      <c r="T66" s="13">
+        <v>0</v>
+      </c>
+      <c r="U66" s="14">
+        <v>0</v>
+      </c>
+      <c r="V66" s="13">
+        <v>0</v>
+      </c>
+      <c r="W66" s="2">
+        <v>0</v>
+      </c>
+      <c r="X66" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="14">
+        <v>26</v>
+      </c>
+      <c r="Z66" s="24">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>30</v>
       </c>
@@ -6690,29 +7317,77 @@
       <c r="C67" s="2">
         <v>5403</v>
       </c>
-      <c r="D67" s="13"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="13"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="13"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="13"/>
-      <c r="S67" s="2"/>
-      <c r="T67" s="13"/>
-      <c r="U67" s="14"/>
-      <c r="V67" s="13"/>
-      <c r="W67" s="2"/>
-      <c r="X67" s="13"/>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D67" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E67" s="12">
+        <v>44505</v>
+      </c>
+      <c r="F67" s="18">
+        <v>0.51111111111111118</v>
+      </c>
+      <c r="G67" s="2">
+        <v>0</v>
+      </c>
+      <c r="H67" s="13">
+        <v>1</v>
+      </c>
+      <c r="I67" s="2">
+        <v>0</v>
+      </c>
+      <c r="J67" s="13">
+        <v>0</v>
+      </c>
+      <c r="K67" s="2">
+        <v>0</v>
+      </c>
+      <c r="L67" s="13">
+        <v>0</v>
+      </c>
+      <c r="M67" s="2">
+        <v>1</v>
+      </c>
+      <c r="N67" s="13">
+        <v>1</v>
+      </c>
+      <c r="O67" s="2">
+        <v>1</v>
+      </c>
+      <c r="P67" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>0</v>
+      </c>
+      <c r="R67" s="13">
+        <v>0</v>
+      </c>
+      <c r="S67" s="2">
+        <v>0</v>
+      </c>
+      <c r="T67" s="13">
+        <v>0</v>
+      </c>
+      <c r="U67" s="14">
+        <v>1</v>
+      </c>
+      <c r="V67" s="13">
+        <v>0</v>
+      </c>
+      <c r="W67" s="2">
+        <v>0</v>
+      </c>
+      <c r="X67" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="14">
+        <v>47</v>
+      </c>
+      <c r="Z67" s="24">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>31</v>
       </c>
@@ -6722,29 +7397,77 @@
       <c r="C68" s="2">
         <v>5404</v>
       </c>
-      <c r="D68" s="13"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="13"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="13"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="13"/>
-      <c r="S68" s="2"/>
-      <c r="T68" s="13"/>
-      <c r="U68" s="14"/>
-      <c r="V68" s="13"/>
-      <c r="W68" s="2"/>
-      <c r="X68" s="13"/>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D68" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="E68" s="12">
+        <v>44505</v>
+      </c>
+      <c r="F68" s="18">
+        <v>0.51458333333333328</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0</v>
+      </c>
+      <c r="H68" s="13">
+        <v>1</v>
+      </c>
+      <c r="I68" s="2">
+        <v>1</v>
+      </c>
+      <c r="J68" s="13">
+        <v>0</v>
+      </c>
+      <c r="K68" s="2">
+        <v>1</v>
+      </c>
+      <c r="L68" s="13">
+        <v>0</v>
+      </c>
+      <c r="M68" s="2">
+        <v>1</v>
+      </c>
+      <c r="N68" s="13">
+        <v>0</v>
+      </c>
+      <c r="O68" s="2">
+        <v>1</v>
+      </c>
+      <c r="P68" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>0</v>
+      </c>
+      <c r="R68" s="13">
+        <v>0</v>
+      </c>
+      <c r="S68" s="2">
+        <v>0</v>
+      </c>
+      <c r="T68" s="13">
+        <v>0</v>
+      </c>
+      <c r="U68" s="14">
+        <v>1</v>
+      </c>
+      <c r="V68" s="13">
+        <v>0</v>
+      </c>
+      <c r="W68" s="2">
+        <v>0</v>
+      </c>
+      <c r="X68" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="14">
+        <v>19</v>
+      </c>
+      <c r="Z68" s="24">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>20</v>
       </c>
@@ -6754,29 +7477,77 @@
       <c r="C69" s="2">
         <v>5105</v>
       </c>
-      <c r="D69" s="13"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="13"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="13"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="13"/>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="13"/>
-      <c r="S69" s="2"/>
-      <c r="T69" s="13"/>
-      <c r="U69" s="14"/>
-      <c r="V69" s="13"/>
-      <c r="W69" s="2"/>
-      <c r="X69" s="13"/>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D69" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="E69" s="12">
+        <v>44505</v>
+      </c>
+      <c r="F69" s="18">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0</v>
+      </c>
+      <c r="H69" s="13">
+        <v>1</v>
+      </c>
+      <c r="I69" s="2">
+        <v>0</v>
+      </c>
+      <c r="J69" s="13">
+        <v>0</v>
+      </c>
+      <c r="K69" s="2">
+        <v>0</v>
+      </c>
+      <c r="L69" s="13">
+        <v>0</v>
+      </c>
+      <c r="M69" s="2">
+        <v>1</v>
+      </c>
+      <c r="N69" s="13">
+        <v>1</v>
+      </c>
+      <c r="O69" s="2">
+        <v>1</v>
+      </c>
+      <c r="P69" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>0</v>
+      </c>
+      <c r="R69" s="13">
+        <v>0</v>
+      </c>
+      <c r="S69" s="2">
+        <v>0</v>
+      </c>
+      <c r="T69" s="13">
+        <v>0</v>
+      </c>
+      <c r="U69" s="14">
+        <v>1</v>
+      </c>
+      <c r="V69" s="13">
+        <v>0</v>
+      </c>
+      <c r="W69" s="2">
+        <v>0</v>
+      </c>
+      <c r="X69" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="14">
+        <v>35</v>
+      </c>
+      <c r="Z69" s="24">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>47</v>
       </c>
@@ -6786,29 +7557,77 @@
       <c r="C70" s="2">
         <v>5705</v>
       </c>
-      <c r="D70" s="13"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="13"/>
-      <c r="O70" s="2"/>
-      <c r="P70" s="13"/>
-      <c r="Q70" s="2"/>
-      <c r="R70" s="13"/>
-      <c r="S70" s="2"/>
-      <c r="T70" s="13"/>
-      <c r="U70" s="14"/>
-      <c r="V70" s="13"/>
-      <c r="W70" s="2"/>
-      <c r="X70" s="13"/>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D70" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="E70" s="12">
+        <v>44505</v>
+      </c>
+      <c r="F70" s="18">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0</v>
+      </c>
+      <c r="H70" s="13">
+        <v>1</v>
+      </c>
+      <c r="I70" s="2">
+        <v>1</v>
+      </c>
+      <c r="J70" s="13">
+        <v>0</v>
+      </c>
+      <c r="K70" s="2">
+        <v>1</v>
+      </c>
+      <c r="L70" s="13">
+        <v>0</v>
+      </c>
+      <c r="M70" s="2">
+        <v>1</v>
+      </c>
+      <c r="N70" s="13">
+        <v>0</v>
+      </c>
+      <c r="O70" s="2">
+        <v>1</v>
+      </c>
+      <c r="P70" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>0</v>
+      </c>
+      <c r="R70" s="13">
+        <v>0</v>
+      </c>
+      <c r="S70" s="2">
+        <v>0</v>
+      </c>
+      <c r="T70" s="13">
+        <v>0</v>
+      </c>
+      <c r="U70" s="14">
+        <v>1</v>
+      </c>
+      <c r="V70" s="13">
+        <v>0</v>
+      </c>
+      <c r="W70" s="2">
+        <v>0</v>
+      </c>
+      <c r="X70" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="14">
+        <v>28</v>
+      </c>
+      <c r="Z70" s="24">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>33</v>
       </c>
@@ -6818,29 +7637,77 @@
       <c r="C71" s="2">
         <v>5501</v>
       </c>
-      <c r="D71" s="13"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="13"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="13"/>
-      <c r="O71" s="2"/>
-      <c r="P71" s="13"/>
-      <c r="Q71" s="2"/>
-      <c r="R71" s="13"/>
-      <c r="S71" s="2"/>
-      <c r="T71" s="13"/>
-      <c r="U71" s="14"/>
-      <c r="V71" s="13"/>
-      <c r="W71" s="2"/>
-      <c r="X71" s="13"/>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D71" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="E71" s="12">
+        <v>44505</v>
+      </c>
+      <c r="F71" s="18">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="G71" s="2">
+        <v>1</v>
+      </c>
+      <c r="H71" s="13">
+        <v>1</v>
+      </c>
+      <c r="I71" s="2">
+        <v>0</v>
+      </c>
+      <c r="J71" s="13">
+        <v>0</v>
+      </c>
+      <c r="K71" s="2">
+        <v>0</v>
+      </c>
+      <c r="L71" s="13">
+        <v>0</v>
+      </c>
+      <c r="M71" s="2">
+        <v>1</v>
+      </c>
+      <c r="N71" s="13">
+        <v>0</v>
+      </c>
+      <c r="O71" s="2">
+        <v>1</v>
+      </c>
+      <c r="P71" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>0</v>
+      </c>
+      <c r="R71" s="13">
+        <v>0</v>
+      </c>
+      <c r="S71" s="2">
+        <v>0</v>
+      </c>
+      <c r="T71" s="13">
+        <v>0</v>
+      </c>
+      <c r="U71" s="14">
+        <v>1</v>
+      </c>
+      <c r="V71" s="13">
+        <v>0</v>
+      </c>
+      <c r="W71" s="2">
+        <v>0</v>
+      </c>
+      <c r="X71" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="14">
+        <v>12</v>
+      </c>
+      <c r="Z71" s="24">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>49</v>
       </c>
@@ -6850,29 +7717,77 @@
       <c r="C72" s="2">
         <v>5801</v>
       </c>
-      <c r="D72" s="13"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="13"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="13"/>
-      <c r="Q72" s="2"/>
-      <c r="R72" s="13"/>
-      <c r="S72" s="2"/>
-      <c r="T72" s="13"/>
-      <c r="U72" s="14"/>
-      <c r="V72" s="13"/>
-      <c r="W72" s="2"/>
-      <c r="X72" s="13"/>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D72" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="E72" s="12">
+        <v>44505</v>
+      </c>
+      <c r="F72" s="18">
+        <v>0.52847222222222223</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0</v>
+      </c>
+      <c r="H72" s="13">
+        <v>1</v>
+      </c>
+      <c r="I72" s="2">
+        <v>1</v>
+      </c>
+      <c r="J72" s="13">
+        <v>0</v>
+      </c>
+      <c r="K72" s="2">
+        <v>0</v>
+      </c>
+      <c r="L72" s="13">
+        <v>0</v>
+      </c>
+      <c r="M72" s="2">
+        <v>1</v>
+      </c>
+      <c r="N72" s="13">
+        <v>0</v>
+      </c>
+      <c r="O72" s="2">
+        <v>1</v>
+      </c>
+      <c r="P72" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>0</v>
+      </c>
+      <c r="R72" s="13">
+        <v>0</v>
+      </c>
+      <c r="S72" s="2">
+        <v>0</v>
+      </c>
+      <c r="T72" s="13">
+        <v>0</v>
+      </c>
+      <c r="U72" s="14">
+        <v>1</v>
+      </c>
+      <c r="V72" s="13">
+        <v>0</v>
+      </c>
+      <c r="W72" s="2">
+        <v>0</v>
+      </c>
+      <c r="X72" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="14">
+        <v>34</v>
+      </c>
+      <c r="Z72" s="24">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>21</v>
       </c>
@@ -6882,29 +7797,77 @@
       <c r="C73" s="2">
         <v>5107</v>
       </c>
-      <c r="D73" s="13"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="13"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="13"/>
-      <c r="Q73" s="2"/>
-      <c r="R73" s="13"/>
-      <c r="S73" s="2"/>
-      <c r="T73" s="13"/>
-      <c r="U73" s="14"/>
-      <c r="V73" s="13"/>
-      <c r="W73" s="2"/>
-      <c r="X73" s="13"/>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D73" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="E73" s="12">
+        <v>44505</v>
+      </c>
+      <c r="F73" s="18">
+        <v>0.53402777777777777</v>
+      </c>
+      <c r="G73" s="2">
+        <v>0</v>
+      </c>
+      <c r="H73" s="13">
+        <v>1</v>
+      </c>
+      <c r="I73" s="2">
+        <v>0</v>
+      </c>
+      <c r="J73" s="13">
+        <v>0</v>
+      </c>
+      <c r="K73" s="2">
+        <v>0</v>
+      </c>
+      <c r="L73" s="13">
+        <v>0</v>
+      </c>
+      <c r="M73" s="2">
+        <v>1</v>
+      </c>
+      <c r="N73" s="13">
+        <v>0</v>
+      </c>
+      <c r="O73" s="2">
+        <v>1</v>
+      </c>
+      <c r="P73" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>0</v>
+      </c>
+      <c r="R73" s="13">
+        <v>0</v>
+      </c>
+      <c r="S73" s="2">
+        <v>0</v>
+      </c>
+      <c r="T73" s="13">
+        <v>0</v>
+      </c>
+      <c r="U73" s="14">
+        <v>1</v>
+      </c>
+      <c r="V73" s="13">
+        <v>0</v>
+      </c>
+      <c r="W73" s="2">
+        <v>0</v>
+      </c>
+      <c r="X73" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="14">
+        <v>27</v>
+      </c>
+      <c r="Z73" s="24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>26</v>
       </c>
@@ -6914,29 +7877,77 @@
       <c r="C74" s="2">
         <v>5303</v>
       </c>
-      <c r="D74" s="13"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="13"/>
-      <c r="O74" s="2"/>
-      <c r="P74" s="13"/>
-      <c r="Q74" s="2"/>
-      <c r="R74" s="13"/>
-      <c r="S74" s="2"/>
-      <c r="T74" s="13"/>
-      <c r="U74" s="14"/>
-      <c r="V74" s="13"/>
-      <c r="W74" s="2"/>
-      <c r="X74" s="13"/>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D74" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="E74" s="12">
+        <v>44505</v>
+      </c>
+      <c r="F74" s="18">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="G74" s="2">
+        <v>0</v>
+      </c>
+      <c r="H74" s="13">
+        <v>1</v>
+      </c>
+      <c r="I74" s="2">
+        <v>1</v>
+      </c>
+      <c r="J74" s="13">
+        <v>0</v>
+      </c>
+      <c r="K74" s="2">
+        <v>1</v>
+      </c>
+      <c r="L74" s="13">
+        <v>0</v>
+      </c>
+      <c r="M74" s="2">
+        <v>1</v>
+      </c>
+      <c r="N74" s="13">
+        <v>1</v>
+      </c>
+      <c r="O74" s="2">
+        <v>1</v>
+      </c>
+      <c r="P74" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>0</v>
+      </c>
+      <c r="R74" s="13">
+        <v>0</v>
+      </c>
+      <c r="S74" s="2">
+        <v>0</v>
+      </c>
+      <c r="T74" s="13">
+        <v>0</v>
+      </c>
+      <c r="U74" s="14">
+        <v>1</v>
+      </c>
+      <c r="V74" s="13">
+        <v>0</v>
+      </c>
+      <c r="W74" s="2">
+        <v>0</v>
+      </c>
+      <c r="X74" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="14">
+        <v>23</v>
+      </c>
+      <c r="Z74" s="24">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>37</v>
       </c>
@@ -6946,29 +7957,77 @@
       <c r="C75" s="2">
         <v>5601</v>
       </c>
-      <c r="D75" s="13"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="13"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="13"/>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="13"/>
-      <c r="S75" s="2"/>
-      <c r="T75" s="13"/>
-      <c r="U75" s="14"/>
-      <c r="V75" s="13"/>
-      <c r="W75" s="2"/>
-      <c r="X75" s="13"/>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D75" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="E75" s="12">
+        <v>44505</v>
+      </c>
+      <c r="F75" s="18">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="G75" s="2">
+        <v>0</v>
+      </c>
+      <c r="H75" s="13">
+        <v>1</v>
+      </c>
+      <c r="I75" s="2">
+        <v>0</v>
+      </c>
+      <c r="J75" s="13">
+        <v>0</v>
+      </c>
+      <c r="K75" s="2">
+        <v>1</v>
+      </c>
+      <c r="L75" s="13">
+        <v>0</v>
+      </c>
+      <c r="M75" s="2">
+        <v>1</v>
+      </c>
+      <c r="N75" s="13">
+        <v>1</v>
+      </c>
+      <c r="O75" s="2">
+        <v>1</v>
+      </c>
+      <c r="P75" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>1</v>
+      </c>
+      <c r="R75" s="13">
+        <v>1</v>
+      </c>
+      <c r="S75" s="2">
+        <v>1</v>
+      </c>
+      <c r="T75" s="13">
+        <v>1</v>
+      </c>
+      <c r="U75" s="14">
+        <v>1</v>
+      </c>
+      <c r="V75" s="13">
+        <v>0</v>
+      </c>
+      <c r="W75" s="2">
+        <v>0</v>
+      </c>
+      <c r="X75" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="14">
+        <v>12</v>
+      </c>
+      <c r="Z75" s="24">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>27</v>
       </c>
@@ -6978,29 +8037,77 @@
       <c r="C76" s="2">
         <v>5304</v>
       </c>
-      <c r="D76" s="13"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="13"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="13"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="13"/>
-      <c r="S76" s="2"/>
-      <c r="T76" s="13"/>
-      <c r="U76" s="14"/>
-      <c r="V76" s="13"/>
-      <c r="W76" s="2"/>
-      <c r="X76" s="13"/>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D76" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="E76" s="12">
+        <v>44505</v>
+      </c>
+      <c r="F76" s="18">
+        <v>0.54027777777777775</v>
+      </c>
+      <c r="G76" s="2">
+        <v>0</v>
+      </c>
+      <c r="H76" s="13">
+        <v>1</v>
+      </c>
+      <c r="I76" s="2">
+        <v>0</v>
+      </c>
+      <c r="J76" s="13">
+        <v>0</v>
+      </c>
+      <c r="K76" s="2">
+        <v>0</v>
+      </c>
+      <c r="L76" s="13">
+        <v>0</v>
+      </c>
+      <c r="M76" s="2">
+        <v>1</v>
+      </c>
+      <c r="N76" s="13">
+        <v>1</v>
+      </c>
+      <c r="O76" s="2">
+        <v>1</v>
+      </c>
+      <c r="P76" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>0</v>
+      </c>
+      <c r="R76" s="13">
+        <v>0</v>
+      </c>
+      <c r="S76" s="2">
+        <v>0</v>
+      </c>
+      <c r="T76" s="13">
+        <v>0</v>
+      </c>
+      <c r="U76" s="14">
+        <v>1</v>
+      </c>
+      <c r="V76" s="13">
+        <v>0</v>
+      </c>
+      <c r="W76" s="2">
+        <v>0</v>
+      </c>
+      <c r="X76" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="14">
+        <v>32</v>
+      </c>
+      <c r="Z76" s="24">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>43</v>
       </c>
@@ -7010,29 +8117,77 @@
       <c r="C77" s="2">
         <v>5701</v>
       </c>
-      <c r="D77" s="13"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="13"/>
-      <c r="S77" s="2"/>
-      <c r="T77" s="13"/>
-      <c r="U77" s="14"/>
-      <c r="V77" s="13"/>
-      <c r="W77" s="2"/>
-      <c r="X77" s="13"/>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D77" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="E77" s="12">
+        <v>44505</v>
+      </c>
+      <c r="F77" s="18">
+        <v>0.54236111111111118</v>
+      </c>
+      <c r="G77" s="2">
+        <v>0</v>
+      </c>
+      <c r="H77" s="13">
+        <v>1</v>
+      </c>
+      <c r="I77" s="2">
+        <v>0</v>
+      </c>
+      <c r="J77" s="13">
+        <v>0</v>
+      </c>
+      <c r="K77" s="2">
+        <v>0</v>
+      </c>
+      <c r="L77" s="13">
+        <v>0</v>
+      </c>
+      <c r="M77" s="2">
+        <v>1</v>
+      </c>
+      <c r="N77" s="13">
+        <v>1</v>
+      </c>
+      <c r="O77" s="2">
+        <v>1</v>
+      </c>
+      <c r="P77" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>0</v>
+      </c>
+      <c r="R77" s="13">
+        <v>0</v>
+      </c>
+      <c r="S77" s="2">
+        <v>0</v>
+      </c>
+      <c r="T77" s="13">
+        <v>0</v>
+      </c>
+      <c r="U77" s="14">
+        <v>1</v>
+      </c>
+      <c r="V77" s="13">
+        <v>0</v>
+      </c>
+      <c r="W77" s="2">
+        <v>0</v>
+      </c>
+      <c r="X77" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="14">
+        <v>6</v>
+      </c>
+      <c r="Z77" s="24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>48</v>
       </c>
@@ -7042,29 +8197,80 @@
       <c r="C78" s="2">
         <v>5706</v>
       </c>
-      <c r="D78" s="13"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="13"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="13"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="13"/>
-      <c r="S78" s="2"/>
-      <c r="T78" s="13"/>
-      <c r="U78" s="14"/>
-      <c r="V78" s="13"/>
-      <c r="W78" s="2"/>
-      <c r="X78" s="13"/>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D78" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="E78" s="12">
+        <v>44505</v>
+      </c>
+      <c r="F78" s="18">
+        <v>0.54583333333333328</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="R78" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="S78" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="U78" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="V78" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="W78" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="X78" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y78" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z78" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA78" s="25" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>42</v>
       </c>
@@ -7074,29 +8280,77 @@
       <c r="C79" s="2">
         <v>5606</v>
       </c>
-      <c r="D79" s="13"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="13"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="13"/>
-      <c r="O79" s="2"/>
-      <c r="P79" s="13"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="13"/>
-      <c r="S79" s="2"/>
-      <c r="T79" s="13"/>
-      <c r="U79" s="14"/>
-      <c r="V79" s="13"/>
-      <c r="W79" s="2"/>
-      <c r="X79" s="13"/>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D79" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="E79" s="12">
+        <v>44505</v>
+      </c>
+      <c r="F79" s="18">
+        <v>0.54722222222222217</v>
+      </c>
+      <c r="G79" s="2">
+        <v>0</v>
+      </c>
+      <c r="H79" s="13">
+        <v>1</v>
+      </c>
+      <c r="I79" s="2">
+        <v>0</v>
+      </c>
+      <c r="J79" s="13">
+        <v>0</v>
+      </c>
+      <c r="K79" s="2">
+        <v>0</v>
+      </c>
+      <c r="L79" s="13">
+        <v>0</v>
+      </c>
+      <c r="M79" s="2">
+        <v>1</v>
+      </c>
+      <c r="N79" s="13">
+        <v>1</v>
+      </c>
+      <c r="O79" s="2">
+        <v>1</v>
+      </c>
+      <c r="P79" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>1</v>
+      </c>
+      <c r="R79" s="13">
+        <v>0</v>
+      </c>
+      <c r="S79" s="2">
+        <v>0</v>
+      </c>
+      <c r="T79" s="13">
+        <v>0</v>
+      </c>
+      <c r="U79" s="14">
+        <v>1</v>
+      </c>
+      <c r="V79" s="13">
+        <v>0</v>
+      </c>
+      <c r="W79" s="2">
+        <v>0</v>
+      </c>
+      <c r="X79" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="26">
+        <v>51</v>
+      </c>
+      <c r="Z79" s="24">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>16</v>
       </c>
@@ -7106,29 +8360,77 @@
       <c r="C80" s="2">
         <v>5101</v>
       </c>
-      <c r="D80" s="13"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="13"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="13"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="13"/>
-      <c r="O80" s="2"/>
-      <c r="P80" s="13"/>
-      <c r="Q80" s="2"/>
-      <c r="R80" s="13"/>
-      <c r="S80" s="2"/>
-      <c r="T80" s="13"/>
-      <c r="U80" s="14"/>
-      <c r="V80" s="13"/>
-      <c r="W80" s="2"/>
-      <c r="X80" s="13"/>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D80" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="E80" s="12">
+        <v>44505</v>
+      </c>
+      <c r="F80" s="18">
+        <v>0.5493055555555556</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0</v>
+      </c>
+      <c r="H80" s="13">
+        <v>1</v>
+      </c>
+      <c r="I80" s="2">
+        <v>0</v>
+      </c>
+      <c r="J80" s="13">
+        <v>0</v>
+      </c>
+      <c r="K80" s="2">
+        <v>0</v>
+      </c>
+      <c r="L80" s="13">
+        <v>0</v>
+      </c>
+      <c r="M80" s="2">
+        <v>1</v>
+      </c>
+      <c r="N80" s="13">
+        <v>1</v>
+      </c>
+      <c r="O80" s="2">
+        <v>1</v>
+      </c>
+      <c r="P80" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>0</v>
+      </c>
+      <c r="R80" s="13">
+        <v>0</v>
+      </c>
+      <c r="S80" s="2">
+        <v>0</v>
+      </c>
+      <c r="T80" s="13">
+        <v>0</v>
+      </c>
+      <c r="U80" s="14">
+        <v>1</v>
+      </c>
+      <c r="V80" s="13">
+        <v>0</v>
+      </c>
+      <c r="W80" s="2">
+        <v>0</v>
+      </c>
+      <c r="X80" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="26">
+        <v>19</v>
+      </c>
+      <c r="Z80" s="24">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>52</v>
       </c>
@@ -7138,29 +8440,77 @@
       <c r="C81" s="2">
         <v>5804</v>
       </c>
-      <c r="D81" s="13"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="2"/>
-      <c r="L81" s="13"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="13"/>
-      <c r="O81" s="2"/>
-      <c r="P81" s="13"/>
-      <c r="Q81" s="2"/>
-      <c r="R81" s="13"/>
-      <c r="S81" s="2"/>
-      <c r="T81" s="13"/>
-      <c r="U81" s="14"/>
-      <c r="V81" s="13"/>
-      <c r="W81" s="2"/>
-      <c r="X81" s="13"/>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D81" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="E81" s="12">
+        <v>44505</v>
+      </c>
+      <c r="F81" s="18">
+        <v>0.55277777777777781</v>
+      </c>
+      <c r="G81" s="2">
+        <v>1</v>
+      </c>
+      <c r="H81" s="13">
+        <v>1</v>
+      </c>
+      <c r="I81" s="2">
+        <v>1</v>
+      </c>
+      <c r="J81" s="13">
+        <v>0</v>
+      </c>
+      <c r="K81" s="2">
+        <v>0</v>
+      </c>
+      <c r="L81" s="13">
+        <v>0</v>
+      </c>
+      <c r="M81" s="2">
+        <v>1</v>
+      </c>
+      <c r="N81" s="13">
+        <v>0</v>
+      </c>
+      <c r="O81" s="2">
+        <v>1</v>
+      </c>
+      <c r="P81" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="2">
+        <v>1</v>
+      </c>
+      <c r="R81" s="13">
+        <v>1</v>
+      </c>
+      <c r="S81" s="2">
+        <v>1</v>
+      </c>
+      <c r="T81" s="13">
+        <v>1</v>
+      </c>
+      <c r="U81" s="14">
+        <v>1</v>
+      </c>
+      <c r="V81" s="13">
+        <v>0</v>
+      </c>
+      <c r="W81" s="2">
+        <v>0</v>
+      </c>
+      <c r="X81" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="26">
+        <v>22</v>
+      </c>
+      <c r="Z81" s="24">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>22</v>
       </c>
@@ -7170,29 +8520,77 @@
       <c r="C82" s="2">
         <v>5109</v>
       </c>
-      <c r="D82" s="13"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="13"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="13"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="13"/>
-      <c r="O82" s="2"/>
-      <c r="P82" s="13"/>
-      <c r="Q82" s="2"/>
-      <c r="R82" s="13"/>
-      <c r="S82" s="2"/>
-      <c r="T82" s="13"/>
-      <c r="U82" s="14"/>
-      <c r="V82" s="13"/>
-      <c r="W82" s="2"/>
-      <c r="X82" s="13"/>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D82" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="E82" s="12">
+        <v>44505</v>
+      </c>
+      <c r="F82" s="18">
+        <v>0.55486111111111114</v>
+      </c>
+      <c r="G82" s="2">
+        <v>1</v>
+      </c>
+      <c r="H82" s="13">
+        <v>1</v>
+      </c>
+      <c r="I82" s="2">
+        <v>1</v>
+      </c>
+      <c r="J82" s="13">
+        <v>0</v>
+      </c>
+      <c r="K82" s="2">
+        <v>1</v>
+      </c>
+      <c r="L82" s="13">
+        <v>0</v>
+      </c>
+      <c r="M82" s="2">
+        <v>1</v>
+      </c>
+      <c r="N82" s="13">
+        <v>1</v>
+      </c>
+      <c r="O82" s="2">
+        <v>1</v>
+      </c>
+      <c r="P82" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>1</v>
+      </c>
+      <c r="R82" s="13">
+        <v>1</v>
+      </c>
+      <c r="S82" s="2">
+        <v>1</v>
+      </c>
+      <c r="T82" s="13">
+        <v>1</v>
+      </c>
+      <c r="U82" s="14">
+        <v>1</v>
+      </c>
+      <c r="V82" s="13">
+        <v>0</v>
+      </c>
+      <c r="W82" s="2">
+        <v>0</v>
+      </c>
+      <c r="X82" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z82" s="14" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
         <v>32</v>
       </c>
@@ -7202,29 +8600,77 @@
       <c r="C83" s="2">
         <v>5405</v>
       </c>
-      <c r="D83" s="13"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="13"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="13"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="13"/>
-      <c r="O83" s="2"/>
-      <c r="P83" s="13"/>
-      <c r="Q83" s="2"/>
-      <c r="R83" s="13"/>
-      <c r="S83" s="2"/>
-      <c r="T83" s="13"/>
-      <c r="U83" s="14"/>
-      <c r="V83" s="13"/>
-      <c r="W83" s="2"/>
-      <c r="X83" s="13"/>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D83" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="E83" s="12">
+        <v>44505</v>
+      </c>
+      <c r="F83" s="18">
+        <v>0.55763888888888891</v>
+      </c>
+      <c r="G83" s="2">
+        <v>0</v>
+      </c>
+      <c r="H83" s="13">
+        <v>1</v>
+      </c>
+      <c r="I83" s="2">
+        <v>1</v>
+      </c>
+      <c r="J83" s="13">
+        <v>0</v>
+      </c>
+      <c r="K83" s="2">
+        <v>1</v>
+      </c>
+      <c r="L83" s="13">
+        <v>0</v>
+      </c>
+      <c r="M83" s="2">
+        <v>1</v>
+      </c>
+      <c r="N83" s="13">
+        <v>1</v>
+      </c>
+      <c r="O83" s="2">
+        <v>1</v>
+      </c>
+      <c r="P83" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>1</v>
+      </c>
+      <c r="R83" s="13">
+        <v>1</v>
+      </c>
+      <c r="S83" s="2">
+        <v>1</v>
+      </c>
+      <c r="T83" s="13">
+        <v>1</v>
+      </c>
+      <c r="U83" s="14">
+        <v>1</v>
+      </c>
+      <c r="V83" s="13">
+        <v>0</v>
+      </c>
+      <c r="W83" s="2">
+        <v>0</v>
+      </c>
+      <c r="X83" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="26">
+        <v>72</v>
+      </c>
+      <c r="Z83" s="24">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
         <v>182</v>
       </c>
@@ -7256,7 +8702,7 @@
       <c r="W84" s="2"/>
       <c r="X84" s="13"/>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>178</v>
       </c>
@@ -7288,7 +8734,7 @@
       <c r="W85" s="2"/>
       <c r="X85" s="13"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>179</v>
       </c>
@@ -7320,7 +8766,7 @@
       <c r="W86" s="2"/>
       <c r="X86" s="13"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>140</v>
       </c>
@@ -7352,7 +8798,7 @@
       <c r="W87" s="2"/>
       <c r="X87" s="13"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>141</v>
       </c>
@@ -7384,7 +8830,7 @@
       <c r="W88" s="2"/>
       <c r="X88" s="13"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>174</v>
       </c>
@@ -7416,7 +8862,7 @@
       <c r="W89" s="2"/>
       <c r="X89" s="13"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>142</v>
       </c>
@@ -7448,7 +8894,7 @@
       <c r="W90" s="2"/>
       <c r="X90" s="13"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>183</v>
       </c>
@@ -7480,7 +8926,7 @@
       <c r="W91" s="2"/>
       <c r="X91" s="13"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
         <v>143</v>
       </c>
@@ -7512,7 +8958,7 @@
       <c r="W92" s="2"/>
       <c r="X92" s="13"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>187</v>
       </c>
@@ -7544,7 +8990,7 @@
       <c r="W93" s="2"/>
       <c r="X93" s="13"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>144</v>
       </c>
@@ -7576,7 +9022,7 @@
       <c r="W94" s="2"/>
       <c r="X94" s="13"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>145</v>
       </c>
@@ -7608,7 +9054,7 @@
       <c r="W95" s="2"/>
       <c r="X95" s="13"/>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>146</v>
       </c>
@@ -15723,8 +17169,36 @@
     <hyperlink ref="D53" r:id="rId52" xr:uid="{481C3FD0-A6E5-492F-967B-B9562F6E2A93}"/>
     <hyperlink ref="D54" r:id="rId53" xr:uid="{5826D196-139A-4D62-BBC7-643FB36EE36B}"/>
     <hyperlink ref="D55" r:id="rId54" xr:uid="{9AABBB79-49B5-46A9-8A40-073E0A7E7115}"/>
+    <hyperlink ref="D56" r:id="rId55" xr:uid="{91C4A485-97E9-436B-9894-AE465DF25FE9}"/>
+    <hyperlink ref="D57" r:id="rId56" xr:uid="{2C2023E6-E479-4FCC-94AB-D0EA6AC20F23}"/>
+    <hyperlink ref="D58" r:id="rId57" xr:uid="{4880F583-688C-4BEA-A137-775FD91D89C3}"/>
+    <hyperlink ref="D59" r:id="rId58" xr:uid="{D4199282-0350-4EE4-9952-5D92DCDACF73}"/>
+    <hyperlink ref="D60" r:id="rId59" xr:uid="{07705EB7-9504-42ED-9219-A53C395CCAF6}"/>
+    <hyperlink ref="D61" r:id="rId60" xr:uid="{32D4BE0F-C2E3-457A-A3CD-A91B96203298}"/>
+    <hyperlink ref="D62" r:id="rId61" xr:uid="{8474054F-B26D-44D1-851D-DA1530107BF8}"/>
+    <hyperlink ref="D63" r:id="rId62" xr:uid="{E6408207-1AE7-47F8-9A7D-202926C04BC0}"/>
+    <hyperlink ref="D64" r:id="rId63" xr:uid="{215C09FC-5F65-4C99-A13A-7230671689E8}"/>
+    <hyperlink ref="D65" r:id="rId64" xr:uid="{A132A425-43D0-4F02-B60B-EA052A880761}"/>
+    <hyperlink ref="D66" r:id="rId65" xr:uid="{C17DBEF7-1E3B-45CF-B268-F017ADAF5075}"/>
+    <hyperlink ref="D67" r:id="rId66" xr:uid="{F73F7A52-ED39-4C9D-B3D3-15F90FF11C19}"/>
+    <hyperlink ref="D68" r:id="rId67" xr:uid="{D6D87B86-458B-4626-A084-D24A89EF2ED0}"/>
+    <hyperlink ref="D70" r:id="rId68" xr:uid="{60A408EE-72AC-4668-80F0-FA578CDC656B}"/>
+    <hyperlink ref="D69" r:id="rId69" xr:uid="{90C0AB4C-F3D3-49CE-9B0B-D6534D89C8FE}"/>
+    <hyperlink ref="D71" r:id="rId70" xr:uid="{86F7FEE5-42D6-4316-9908-308BC3D71F1D}"/>
+    <hyperlink ref="D72" r:id="rId71" xr:uid="{1081F459-6248-49E6-9CF0-AF2E528355DB}"/>
+    <hyperlink ref="D73" r:id="rId72" xr:uid="{126D92F3-41D2-4CD5-9C18-FCAF8C281A9F}"/>
+    <hyperlink ref="D74" r:id="rId73" xr:uid="{9405DC85-313F-406E-9043-C027D46A3246}"/>
+    <hyperlink ref="D75" r:id="rId74" xr:uid="{1AE92CDB-E654-4B57-BD58-F0C7F7D7EA9F}"/>
+    <hyperlink ref="D76" r:id="rId75" xr:uid="{DB97E11A-C804-4516-A42C-CFFEBCA8E5C1}"/>
+    <hyperlink ref="D77" r:id="rId76" xr:uid="{B4679245-2A05-4236-962E-168BA8BBE3F5}"/>
+    <hyperlink ref="D78" r:id="rId77" xr:uid="{9C41BD16-F7A2-47D2-97CF-F8158AEC3B44}"/>
+    <hyperlink ref="D79" r:id="rId78" xr:uid="{FB69B1DD-E5F3-4B4C-BBC9-117C83B14172}"/>
+    <hyperlink ref="D80" r:id="rId79" xr:uid="{B8C0A7E2-5828-4A18-8155-65B0CF176B2B}"/>
+    <hyperlink ref="D81" r:id="rId80" xr:uid="{E004D06F-F377-4A19-9164-62DD3B992DCB}"/>
+    <hyperlink ref="D82" r:id="rId81" xr:uid="{90A05DD9-5872-4368-8D13-4C6E5EE80650}"/>
+    <hyperlink ref="D83" r:id="rId82" xr:uid="{956E250E-5148-4893-A7AD-8875B8B446EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId55"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId83"/>
 </worksheet>
 </file>
--- a/raw_data/2021/EGI-2021.xlsx
+++ b/raw_data/2021/EGI-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d135da842735aabe/Documentos/GitHub/e-gov-index/raw_data/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2169" documentId="13_ncr:1_{DA2DAC24-6B37-4FAD-B3D2-40D90F3F52C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B23669D-7644-4197-8A8E-830F425A7DBD}"/>
+  <xr:revisionPtr revIDLastSave="2860" documentId="13_ncr:1_{DA2DAC24-6B37-4FAD-B3D2-40D90F3F52C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6878B5CE-7854-4502-B7A1-CCB728C13323}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B66F953-E5AF-4F8D-B634-188287D0A235}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="503">
   <si>
     <t>region</t>
   </si>
@@ -1459,6 +1459,93 @@
   </si>
   <si>
     <t>https://www.munivina.cl/</t>
+  </si>
+  <si>
+    <t>https://municipalidadalhue.cl/portal/</t>
+  </si>
+  <si>
+    <t>https://www.buin.cl/</t>
+  </si>
+  <si>
+    <t>https://www.colina.cl/</t>
+  </si>
+  <si>
+    <t>https://www.conchali.cl/</t>
+  </si>
+  <si>
+    <t>https://www.huechuraba.cl/</t>
+  </si>
+  <si>
+    <t>https://www.independencia.cl/</t>
+  </si>
+  <si>
+    <t>https://www.melipilla.cl/</t>
+  </si>
+  <si>
+    <t>https://municaleradetango.cl/</t>
+  </si>
+  <si>
+    <t>http://www.mcerrillos.cl/cerrillos/</t>
+  </si>
+  <si>
+    <t>https://www.cerronavia.cl/</t>
+  </si>
+  <si>
+    <t>https://www.lareina.cl/</t>
+  </si>
+  <si>
+    <t>https://www.lascondes.cl/</t>
+  </si>
+  <si>
+    <t>https://www.loespejo.cl/</t>
+  </si>
+  <si>
+    <t>https://www.municipalidadcuracavi.cl/</t>
+  </si>
+  <si>
+    <t>https://www.municipalidadmaipu.cl/</t>
+  </si>
+  <si>
+    <t>https://www.municipalidadelbosque.cl/</t>
+  </si>
+  <si>
+    <t>https://www.munielmonte.cl/</t>
+  </si>
+  <si>
+    <t>https://municipalidadestacioncentral.cl/</t>
+  </si>
+  <si>
+    <t>http://www.islademaipo.cl/</t>
+  </si>
+  <si>
+    <t>https://www.cisterna.cl/home</t>
+  </si>
+  <si>
+    <t>https://www.laflorida.cl/sitio/</t>
+  </si>
+  <si>
+    <t>https://www.municipalidadlagranja.cl/</t>
+  </si>
+  <si>
+    <t>https://www.lampa.cl/inicio/</t>
+  </si>
+  <si>
+    <t>sitio web básico</t>
+  </si>
+  <si>
+    <t>https://www.pintana.cl/</t>
+  </si>
+  <si>
+    <t>https://lobarnechea.cl/</t>
+  </si>
+  <si>
+    <t>https://loprado.cl/</t>
+  </si>
+  <si>
+    <t>https://www.munimacul.cl/</t>
+  </si>
+  <si>
+    <t>https://www.mpinto.cl/</t>
   </si>
 </sst>
 </file>
@@ -1968,8 +2055,8 @@
   <dimension ref="A1:AA347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A83" sqref="A83"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8680,27 +8767,75 @@
       <c r="C84" s="2">
         <v>13502</v>
       </c>
-      <c r="D84" s="13"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="13"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="13"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="13"/>
-      <c r="O84" s="2"/>
-      <c r="P84" s="13"/>
-      <c r="Q84" s="2"/>
-      <c r="R84" s="13"/>
-      <c r="S84" s="2"/>
-      <c r="T84" s="13"/>
-      <c r="U84" s="14"/>
-      <c r="V84" s="13"/>
-      <c r="W84" s="2"/>
-      <c r="X84" s="13"/>
+      <c r="D84" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="E84" s="12">
+        <v>44508</v>
+      </c>
+      <c r="F84" s="18">
+        <v>0.49791666666666662</v>
+      </c>
+      <c r="G84" s="2">
+        <v>0</v>
+      </c>
+      <c r="H84" s="13">
+        <v>1</v>
+      </c>
+      <c r="I84" s="2">
+        <v>1</v>
+      </c>
+      <c r="J84" s="13">
+        <v>0</v>
+      </c>
+      <c r="K84" s="2">
+        <v>1</v>
+      </c>
+      <c r="L84" s="13">
+        <v>0</v>
+      </c>
+      <c r="M84" s="2">
+        <v>1</v>
+      </c>
+      <c r="N84" s="13">
+        <v>0</v>
+      </c>
+      <c r="O84" s="2">
+        <v>1</v>
+      </c>
+      <c r="P84" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="2">
+        <v>0</v>
+      </c>
+      <c r="R84" s="13">
+        <v>0</v>
+      </c>
+      <c r="S84" s="2">
+        <v>0</v>
+      </c>
+      <c r="T84" s="13">
+        <v>0</v>
+      </c>
+      <c r="U84" s="14">
+        <v>0</v>
+      </c>
+      <c r="V84" s="13">
+        <v>0</v>
+      </c>
+      <c r="W84" s="2">
+        <v>0</v>
+      </c>
+      <c r="X84" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z84" s="2" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
@@ -8712,27 +8847,75 @@
       <c r="C85" s="2">
         <v>13402</v>
       </c>
-      <c r="D85" s="13"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="13"/>
-      <c r="K85" s="2"/>
-      <c r="L85" s="13"/>
-      <c r="M85" s="2"/>
-      <c r="N85" s="13"/>
-      <c r="O85" s="2"/>
-      <c r="P85" s="13"/>
-      <c r="Q85" s="2"/>
-      <c r="R85" s="13"/>
-      <c r="S85" s="2"/>
-      <c r="T85" s="13"/>
-      <c r="U85" s="14"/>
-      <c r="V85" s="13"/>
-      <c r="W85" s="2"/>
-      <c r="X85" s="13"/>
+      <c r="D85" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="E85" s="12">
+        <v>44508</v>
+      </c>
+      <c r="F85" s="18">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="G85" s="2">
+        <v>0</v>
+      </c>
+      <c r="H85" s="13">
+        <v>1</v>
+      </c>
+      <c r="I85" s="2">
+        <v>0</v>
+      </c>
+      <c r="J85" s="13">
+        <v>0</v>
+      </c>
+      <c r="K85" s="2">
+        <v>1</v>
+      </c>
+      <c r="L85" s="13">
+        <v>0</v>
+      </c>
+      <c r="M85" s="2">
+        <v>1</v>
+      </c>
+      <c r="N85" s="13">
+        <v>0</v>
+      </c>
+      <c r="O85" s="2">
+        <v>1</v>
+      </c>
+      <c r="P85" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>1</v>
+      </c>
+      <c r="R85" s="13">
+        <v>1</v>
+      </c>
+      <c r="S85" s="2">
+        <v>1</v>
+      </c>
+      <c r="T85" s="13">
+        <v>1</v>
+      </c>
+      <c r="U85" s="14">
+        <v>1</v>
+      </c>
+      <c r="V85" s="13">
+        <v>0</v>
+      </c>
+      <c r="W85" s="2">
+        <v>0</v>
+      </c>
+      <c r="X85" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="26">
+        <v>28</v>
+      </c>
+      <c r="Z85" s="24">
+        <v>56</v>
+      </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
@@ -8744,27 +8927,75 @@
       <c r="C86" s="2">
         <v>13403</v>
       </c>
-      <c r="D86" s="13"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="13"/>
-      <c r="K86" s="2"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="2"/>
-      <c r="N86" s="13"/>
-      <c r="O86" s="2"/>
-      <c r="P86" s="13"/>
-      <c r="Q86" s="2"/>
-      <c r="R86" s="13"/>
-      <c r="S86" s="2"/>
-      <c r="T86" s="13"/>
-      <c r="U86" s="14"/>
-      <c r="V86" s="13"/>
-      <c r="W86" s="2"/>
-      <c r="X86" s="13"/>
+      <c r="D86" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="E86" s="12">
+        <v>44508</v>
+      </c>
+      <c r="F86" s="18">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="G86" s="2">
+        <v>0</v>
+      </c>
+      <c r="H86" s="13">
+        <v>0</v>
+      </c>
+      <c r="I86" s="2">
+        <v>1</v>
+      </c>
+      <c r="J86" s="13">
+        <v>0</v>
+      </c>
+      <c r="K86" s="2">
+        <v>0</v>
+      </c>
+      <c r="L86" s="13">
+        <v>0</v>
+      </c>
+      <c r="M86" s="2">
+        <v>0</v>
+      </c>
+      <c r="N86" s="13">
+        <v>1</v>
+      </c>
+      <c r="O86" s="2">
+        <v>1</v>
+      </c>
+      <c r="P86" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>0</v>
+      </c>
+      <c r="R86" s="13">
+        <v>0</v>
+      </c>
+      <c r="S86" s="2">
+        <v>0</v>
+      </c>
+      <c r="T86" s="13">
+        <v>0</v>
+      </c>
+      <c r="U86" s="14">
+        <v>0</v>
+      </c>
+      <c r="V86" s="13">
+        <v>0</v>
+      </c>
+      <c r="W86" s="2">
+        <v>0</v>
+      </c>
+      <c r="X86" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="26">
+        <v>38</v>
+      </c>
+      <c r="Z86" s="20">
+        <v>59</v>
+      </c>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
@@ -8776,27 +9007,75 @@
       <c r="C87" s="2">
         <v>13102</v>
       </c>
-      <c r="D87" s="13"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="13"/>
-      <c r="K87" s="2"/>
-      <c r="L87" s="13"/>
-      <c r="M87" s="2"/>
-      <c r="N87" s="13"/>
-      <c r="O87" s="2"/>
-      <c r="P87" s="13"/>
-      <c r="Q87" s="2"/>
-      <c r="R87" s="13"/>
-      <c r="S87" s="2"/>
-      <c r="T87" s="13"/>
-      <c r="U87" s="14"/>
-      <c r="V87" s="13"/>
-      <c r="W87" s="2"/>
-      <c r="X87" s="13"/>
+      <c r="D87" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="E87" s="12">
+        <v>44508</v>
+      </c>
+      <c r="F87" s="18">
+        <v>0.50486111111111109</v>
+      </c>
+      <c r="G87" s="2">
+        <v>0</v>
+      </c>
+      <c r="H87" s="13">
+        <v>1</v>
+      </c>
+      <c r="I87" s="2">
+        <v>1</v>
+      </c>
+      <c r="J87" s="13">
+        <v>0</v>
+      </c>
+      <c r="K87" s="2">
+        <v>0</v>
+      </c>
+      <c r="L87" s="13">
+        <v>0</v>
+      </c>
+      <c r="M87" s="2">
+        <v>1</v>
+      </c>
+      <c r="N87" s="13">
+        <v>0</v>
+      </c>
+      <c r="O87" s="2">
+        <v>1</v>
+      </c>
+      <c r="P87" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q87" s="2">
+        <v>1</v>
+      </c>
+      <c r="R87" s="13">
+        <v>1</v>
+      </c>
+      <c r="S87" s="2">
+        <v>1</v>
+      </c>
+      <c r="T87" s="13">
+        <v>1</v>
+      </c>
+      <c r="U87" s="14">
+        <v>1</v>
+      </c>
+      <c r="V87" s="13">
+        <v>0</v>
+      </c>
+      <c r="W87" s="2">
+        <v>0</v>
+      </c>
+      <c r="X87" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="26">
+        <v>21</v>
+      </c>
+      <c r="Z87" s="24">
+        <v>37</v>
+      </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
@@ -8808,27 +9087,75 @@
       <c r="C88" s="2">
         <v>13103</v>
       </c>
-      <c r="D88" s="13"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="13"/>
-      <c r="K88" s="2"/>
-      <c r="L88" s="13"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="13"/>
-      <c r="O88" s="2"/>
-      <c r="P88" s="13"/>
-      <c r="Q88" s="2"/>
-      <c r="R88" s="13"/>
-      <c r="S88" s="2"/>
-      <c r="T88" s="13"/>
-      <c r="U88" s="14"/>
-      <c r="V88" s="13"/>
-      <c r="W88" s="2"/>
-      <c r="X88" s="13"/>
+      <c r="D88" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="E88" s="12">
+        <v>44508</v>
+      </c>
+      <c r="F88" s="18">
+        <v>0.50763888888888886</v>
+      </c>
+      <c r="G88" s="2">
+        <v>0</v>
+      </c>
+      <c r="H88" s="13">
+        <v>1</v>
+      </c>
+      <c r="I88" s="2">
+        <v>1</v>
+      </c>
+      <c r="J88" s="13">
+        <v>0</v>
+      </c>
+      <c r="K88" s="2">
+        <v>1</v>
+      </c>
+      <c r="L88" s="13">
+        <v>0</v>
+      </c>
+      <c r="M88" s="2">
+        <v>1</v>
+      </c>
+      <c r="N88" s="13">
+        <v>0</v>
+      </c>
+      <c r="O88" s="2">
+        <v>1</v>
+      </c>
+      <c r="P88" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="2">
+        <v>1</v>
+      </c>
+      <c r="R88" s="13">
+        <v>1</v>
+      </c>
+      <c r="S88" s="2">
+        <v>1</v>
+      </c>
+      <c r="T88" s="13">
+        <v>1</v>
+      </c>
+      <c r="U88" s="14">
+        <v>1</v>
+      </c>
+      <c r="V88" s="13">
+        <v>0</v>
+      </c>
+      <c r="W88" s="2">
+        <v>1</v>
+      </c>
+      <c r="X88" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="26">
+        <v>11</v>
+      </c>
+      <c r="Z88" s="20">
+        <v>9</v>
+      </c>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
@@ -8840,27 +9167,75 @@
       <c r="C89" s="2">
         <v>13301</v>
       </c>
-      <c r="D89" s="13"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="13"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="13"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="13"/>
-      <c r="O89" s="2"/>
-      <c r="P89" s="13"/>
-      <c r="Q89" s="2"/>
-      <c r="R89" s="13"/>
-      <c r="S89" s="2"/>
-      <c r="T89" s="13"/>
-      <c r="U89" s="14"/>
-      <c r="V89" s="13"/>
-      <c r="W89" s="2"/>
-      <c r="X89" s="13"/>
+      <c r="D89" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="E89" s="12">
+        <v>44508</v>
+      </c>
+      <c r="F89" s="18">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="G89" s="2">
+        <v>0</v>
+      </c>
+      <c r="H89" s="13">
+        <v>1</v>
+      </c>
+      <c r="I89" s="2">
+        <v>1</v>
+      </c>
+      <c r="J89" s="13">
+        <v>0</v>
+      </c>
+      <c r="K89" s="2">
+        <v>0</v>
+      </c>
+      <c r="L89" s="13">
+        <v>0</v>
+      </c>
+      <c r="M89" s="2">
+        <v>1</v>
+      </c>
+      <c r="N89" s="13">
+        <v>0</v>
+      </c>
+      <c r="O89" s="2">
+        <v>1</v>
+      </c>
+      <c r="P89" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q89" s="2">
+        <v>1</v>
+      </c>
+      <c r="R89" s="13">
+        <v>1</v>
+      </c>
+      <c r="S89" s="2">
+        <v>1</v>
+      </c>
+      <c r="T89" s="13">
+        <v>1</v>
+      </c>
+      <c r="U89" s="14">
+        <v>1</v>
+      </c>
+      <c r="V89" s="13">
+        <v>0</v>
+      </c>
+      <c r="W89" s="2">
+        <v>0</v>
+      </c>
+      <c r="X89" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y89" s="26">
+        <v>14</v>
+      </c>
+      <c r="Z89" s="24">
+        <v>44</v>
+      </c>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
@@ -8872,27 +9247,75 @@
       <c r="C90" s="2">
         <v>13104</v>
       </c>
-      <c r="D90" s="13"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="13"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="13"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="13"/>
-      <c r="O90" s="2"/>
-      <c r="P90" s="13"/>
-      <c r="Q90" s="2"/>
-      <c r="R90" s="13"/>
-      <c r="S90" s="2"/>
-      <c r="T90" s="13"/>
-      <c r="U90" s="14"/>
-      <c r="V90" s="13"/>
-      <c r="W90" s="2"/>
-      <c r="X90" s="13"/>
+      <c r="D90" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="E90" s="12">
+        <v>44508</v>
+      </c>
+      <c r="F90" s="18">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="G90" s="2">
+        <v>1</v>
+      </c>
+      <c r="H90" s="13">
+        <v>1</v>
+      </c>
+      <c r="I90" s="2">
+        <v>1</v>
+      </c>
+      <c r="J90" s="13">
+        <v>1</v>
+      </c>
+      <c r="K90" s="2">
+        <v>0</v>
+      </c>
+      <c r="L90" s="13">
+        <v>0</v>
+      </c>
+      <c r="M90" s="2">
+        <v>1</v>
+      </c>
+      <c r="N90" s="13">
+        <v>0</v>
+      </c>
+      <c r="O90" s="2">
+        <v>1</v>
+      </c>
+      <c r="P90" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q90" s="2">
+        <v>0</v>
+      </c>
+      <c r="R90" s="13">
+        <v>0</v>
+      </c>
+      <c r="S90" s="2">
+        <v>0</v>
+      </c>
+      <c r="T90" s="13">
+        <v>0</v>
+      </c>
+      <c r="U90" s="14">
+        <v>1</v>
+      </c>
+      <c r="V90" s="13">
+        <v>0</v>
+      </c>
+      <c r="W90" s="2">
+        <v>0</v>
+      </c>
+      <c r="X90" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y90" s="26">
+        <v>9</v>
+      </c>
+      <c r="Z90" s="20">
+        <v>46</v>
+      </c>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
@@ -8904,27 +9327,75 @@
       <c r="C91" s="2">
         <v>13503</v>
       </c>
-      <c r="D91" s="13"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="13"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="13"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="13"/>
-      <c r="O91" s="2"/>
-      <c r="P91" s="13"/>
-      <c r="Q91" s="2"/>
-      <c r="R91" s="13"/>
-      <c r="S91" s="2"/>
-      <c r="T91" s="13"/>
-      <c r="U91" s="14"/>
-      <c r="V91" s="13"/>
-      <c r="W91" s="2"/>
-      <c r="X91" s="13"/>
+      <c r="D91" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="E91" s="12">
+        <v>44508</v>
+      </c>
+      <c r="F91" s="18">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="G91" s="2">
+        <v>0</v>
+      </c>
+      <c r="H91" s="13">
+        <v>1</v>
+      </c>
+      <c r="I91" s="2">
+        <v>0</v>
+      </c>
+      <c r="J91" s="13">
+        <v>0</v>
+      </c>
+      <c r="K91" s="2">
+        <v>0</v>
+      </c>
+      <c r="L91" s="13">
+        <v>0</v>
+      </c>
+      <c r="M91" s="2">
+        <v>1</v>
+      </c>
+      <c r="N91" s="13">
+        <v>1</v>
+      </c>
+      <c r="O91" s="2">
+        <v>1</v>
+      </c>
+      <c r="P91" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="2">
+        <v>0</v>
+      </c>
+      <c r="R91" s="13">
+        <v>0</v>
+      </c>
+      <c r="S91" s="2">
+        <v>0</v>
+      </c>
+      <c r="T91" s="13">
+        <v>0</v>
+      </c>
+      <c r="U91" s="14">
+        <v>0</v>
+      </c>
+      <c r="V91" s="13">
+        <v>0</v>
+      </c>
+      <c r="W91" s="2">
+        <v>0</v>
+      </c>
+      <c r="X91" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="26">
+        <v>19</v>
+      </c>
+      <c r="Z91" s="24">
+        <v>48</v>
+      </c>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
@@ -8936,27 +9407,75 @@
       <c r="C92" s="2">
         <v>13105</v>
       </c>
-      <c r="D92" s="13"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="13"/>
-      <c r="K92" s="2"/>
-      <c r="L92" s="13"/>
-      <c r="M92" s="2"/>
-      <c r="N92" s="13"/>
-      <c r="O92" s="2"/>
-      <c r="P92" s="13"/>
-      <c r="Q92" s="2"/>
-      <c r="R92" s="13"/>
-      <c r="S92" s="2"/>
-      <c r="T92" s="13"/>
-      <c r="U92" s="14"/>
-      <c r="V92" s="13"/>
-      <c r="W92" s="2"/>
-      <c r="X92" s="13"/>
+      <c r="D92" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="E92" s="12">
+        <v>44508</v>
+      </c>
+      <c r="F92" s="18">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="G92" s="2">
+        <v>0</v>
+      </c>
+      <c r="H92" s="13">
+        <v>1</v>
+      </c>
+      <c r="I92" s="2">
+        <v>0</v>
+      </c>
+      <c r="J92" s="13">
+        <v>0</v>
+      </c>
+      <c r="K92" s="2">
+        <v>1</v>
+      </c>
+      <c r="L92" s="13">
+        <v>0</v>
+      </c>
+      <c r="M92" s="2">
+        <v>1</v>
+      </c>
+      <c r="N92" s="13">
+        <v>0</v>
+      </c>
+      <c r="O92" s="2">
+        <v>1</v>
+      </c>
+      <c r="P92" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q92" s="2">
+        <v>1</v>
+      </c>
+      <c r="R92" s="13">
+        <v>1</v>
+      </c>
+      <c r="S92" s="2">
+        <v>1</v>
+      </c>
+      <c r="T92" s="13">
+        <v>0</v>
+      </c>
+      <c r="U92" s="14">
+        <v>1</v>
+      </c>
+      <c r="V92" s="13">
+        <v>0</v>
+      </c>
+      <c r="W92" s="2">
+        <v>0</v>
+      </c>
+      <c r="X92" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y92" s="26">
+        <v>18</v>
+      </c>
+      <c r="Z92" s="20">
+        <v>62</v>
+      </c>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
@@ -8968,27 +9487,75 @@
       <c r="C93" s="2">
         <v>13602</v>
       </c>
-      <c r="D93" s="13"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="13"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="13"/>
-      <c r="M93" s="2"/>
-      <c r="N93" s="13"/>
-      <c r="O93" s="2"/>
-      <c r="P93" s="13"/>
-      <c r="Q93" s="2"/>
-      <c r="R93" s="13"/>
-      <c r="S93" s="2"/>
-      <c r="T93" s="13"/>
-      <c r="U93" s="14"/>
-      <c r="V93" s="13"/>
-      <c r="W93" s="2"/>
-      <c r="X93" s="13"/>
+      <c r="D93" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="E93" s="12">
+        <v>44508</v>
+      </c>
+      <c r="F93" s="18">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="G93" s="2">
+        <v>0</v>
+      </c>
+      <c r="H93" s="13">
+        <v>1</v>
+      </c>
+      <c r="I93" s="2">
+        <v>1</v>
+      </c>
+      <c r="J93" s="13">
+        <v>0</v>
+      </c>
+      <c r="K93" s="2">
+        <v>1</v>
+      </c>
+      <c r="L93" s="13">
+        <v>0</v>
+      </c>
+      <c r="M93" s="2">
+        <v>1</v>
+      </c>
+      <c r="N93" s="13">
+        <v>1</v>
+      </c>
+      <c r="O93" s="2">
+        <v>1</v>
+      </c>
+      <c r="P93" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>0</v>
+      </c>
+      <c r="R93" s="13">
+        <v>0</v>
+      </c>
+      <c r="S93" s="2">
+        <v>0</v>
+      </c>
+      <c r="T93" s="13">
+        <v>0</v>
+      </c>
+      <c r="U93" s="14">
+        <v>0</v>
+      </c>
+      <c r="V93" s="13">
+        <v>0</v>
+      </c>
+      <c r="W93" s="2">
+        <v>0</v>
+      </c>
+      <c r="X93" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="26">
+        <v>47</v>
+      </c>
+      <c r="Z93" s="24">
+        <v>83</v>
+      </c>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
@@ -9000,27 +9567,75 @@
       <c r="C94" s="2">
         <v>13106</v>
       </c>
-      <c r="D94" s="13"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="13"/>
-      <c r="K94" s="2"/>
-      <c r="L94" s="13"/>
-      <c r="M94" s="2"/>
-      <c r="N94" s="13"/>
-      <c r="O94" s="2"/>
-      <c r="P94" s="13"/>
-      <c r="Q94" s="2"/>
-      <c r="R94" s="13"/>
-      <c r="S94" s="2"/>
-      <c r="T94" s="13"/>
-      <c r="U94" s="14"/>
-      <c r="V94" s="13"/>
-      <c r="W94" s="2"/>
-      <c r="X94" s="13"/>
+      <c r="D94" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="E94" s="12">
+        <v>44508</v>
+      </c>
+      <c r="F94" s="18">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="G94" s="2">
+        <v>1</v>
+      </c>
+      <c r="H94" s="13">
+        <v>1</v>
+      </c>
+      <c r="I94" s="2">
+        <v>1</v>
+      </c>
+      <c r="J94" s="13">
+        <v>0</v>
+      </c>
+      <c r="K94" s="2">
+        <v>0</v>
+      </c>
+      <c r="L94" s="13">
+        <v>0</v>
+      </c>
+      <c r="M94" s="2">
+        <v>1</v>
+      </c>
+      <c r="N94" s="13">
+        <v>0</v>
+      </c>
+      <c r="O94" s="2">
+        <v>1</v>
+      </c>
+      <c r="P94" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="2">
+        <v>0</v>
+      </c>
+      <c r="R94" s="13">
+        <v>0</v>
+      </c>
+      <c r="S94" s="2">
+        <v>0</v>
+      </c>
+      <c r="T94" s="13">
+        <v>0</v>
+      </c>
+      <c r="U94" s="14">
+        <v>1</v>
+      </c>
+      <c r="V94" s="13">
+        <v>0</v>
+      </c>
+      <c r="W94" s="2">
+        <v>0</v>
+      </c>
+      <c r="X94" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="26">
+        <v>16</v>
+      </c>
+      <c r="Z94" s="14" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
@@ -9032,27 +9647,75 @@
       <c r="C95" s="2">
         <v>13107</v>
       </c>
-      <c r="D95" s="13"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="13"/>
-      <c r="K95" s="2"/>
-      <c r="L95" s="13"/>
-      <c r="M95" s="2"/>
-      <c r="N95" s="13"/>
-      <c r="O95" s="2"/>
-      <c r="P95" s="13"/>
-      <c r="Q95" s="2"/>
-      <c r="R95" s="13"/>
-      <c r="S95" s="2"/>
-      <c r="T95" s="13"/>
-      <c r="U95" s="14"/>
-      <c r="V95" s="13"/>
-      <c r="W95" s="2"/>
-      <c r="X95" s="13"/>
+      <c r="D95" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E95" s="12">
+        <v>44508</v>
+      </c>
+      <c r="F95" s="18">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="G95" s="2">
+        <v>1</v>
+      </c>
+      <c r="H95" s="13">
+        <v>1</v>
+      </c>
+      <c r="I95" s="2">
+        <v>1</v>
+      </c>
+      <c r="J95" s="13">
+        <v>0</v>
+      </c>
+      <c r="K95" s="2">
+        <v>0</v>
+      </c>
+      <c r="L95" s="13">
+        <v>0</v>
+      </c>
+      <c r="M95" s="2">
+        <v>1</v>
+      </c>
+      <c r="N95" s="13">
+        <v>0</v>
+      </c>
+      <c r="O95" s="2">
+        <v>1</v>
+      </c>
+      <c r="P95" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="2">
+        <v>0</v>
+      </c>
+      <c r="R95" s="13">
+        <v>0</v>
+      </c>
+      <c r="S95" s="2">
+        <v>0</v>
+      </c>
+      <c r="T95" s="13">
+        <v>0</v>
+      </c>
+      <c r="U95" s="14">
+        <v>1</v>
+      </c>
+      <c r="V95" s="13">
+        <v>0</v>
+      </c>
+      <c r="W95" s="2">
+        <v>0</v>
+      </c>
+      <c r="X95" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y95" s="26">
+        <v>22</v>
+      </c>
+      <c r="Z95" s="24">
+        <v>28</v>
+      </c>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
@@ -9064,29 +9727,77 @@
       <c r="C96" s="2">
         <v>13108</v>
       </c>
-      <c r="D96" s="13"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="13"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="13"/>
-      <c r="K96" s="2"/>
-      <c r="L96" s="13"/>
-      <c r="M96" s="2"/>
-      <c r="N96" s="13"/>
-      <c r="O96" s="2"/>
-      <c r="P96" s="13"/>
-      <c r="Q96" s="2"/>
-      <c r="R96" s="13"/>
-      <c r="S96" s="2"/>
-      <c r="T96" s="13"/>
-      <c r="U96" s="14"/>
-      <c r="V96" s="13"/>
-      <c r="W96" s="2"/>
-      <c r="X96" s="13"/>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D96" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="E96" s="12">
+        <v>44508</v>
+      </c>
+      <c r="F96" s="18">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="G96" s="2">
+        <v>0</v>
+      </c>
+      <c r="H96" s="13">
+        <v>1</v>
+      </c>
+      <c r="I96" s="2">
+        <v>1</v>
+      </c>
+      <c r="J96" s="13">
+        <v>0</v>
+      </c>
+      <c r="K96" s="2">
+        <v>1</v>
+      </c>
+      <c r="L96" s="13">
+        <v>0</v>
+      </c>
+      <c r="M96" s="2">
+        <v>1</v>
+      </c>
+      <c r="N96" s="13">
+        <v>0</v>
+      </c>
+      <c r="O96" s="2">
+        <v>1</v>
+      </c>
+      <c r="P96" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q96" s="2">
+        <v>0</v>
+      </c>
+      <c r="R96" s="13">
+        <v>0</v>
+      </c>
+      <c r="S96" s="2">
+        <v>0</v>
+      </c>
+      <c r="T96" s="13">
+        <v>0</v>
+      </c>
+      <c r="U96" s="14">
+        <v>1</v>
+      </c>
+      <c r="V96" s="13">
+        <v>0</v>
+      </c>
+      <c r="W96" s="2">
+        <v>0</v>
+      </c>
+      <c r="X96" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="26">
+        <v>11</v>
+      </c>
+      <c r="Z96" s="14">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>188</v>
       </c>
@@ -9096,29 +9807,77 @@
       <c r="C97" s="2">
         <v>13603</v>
       </c>
-      <c r="D97" s="13"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="13"/>
-      <c r="K97" s="2"/>
-      <c r="L97" s="13"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="13"/>
-      <c r="O97" s="2"/>
-      <c r="P97" s="13"/>
-      <c r="Q97" s="2"/>
-      <c r="R97" s="13"/>
-      <c r="S97" s="2"/>
-      <c r="T97" s="13"/>
-      <c r="U97" s="14"/>
-      <c r="V97" s="13"/>
-      <c r="W97" s="2"/>
-      <c r="X97" s="13"/>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D97" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="E97" s="12">
+        <v>44508</v>
+      </c>
+      <c r="F97" s="18">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="G97" s="2">
+        <v>1</v>
+      </c>
+      <c r="H97" s="13">
+        <v>1</v>
+      </c>
+      <c r="I97" s="2">
+        <v>1</v>
+      </c>
+      <c r="J97" s="13">
+        <v>0</v>
+      </c>
+      <c r="K97" s="2">
+        <v>0</v>
+      </c>
+      <c r="L97" s="13">
+        <v>0</v>
+      </c>
+      <c r="M97" s="2">
+        <v>1</v>
+      </c>
+      <c r="N97" s="13">
+        <v>1</v>
+      </c>
+      <c r="O97" s="2">
+        <v>1</v>
+      </c>
+      <c r="P97" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="2">
+        <v>0</v>
+      </c>
+      <c r="R97" s="13">
+        <v>0</v>
+      </c>
+      <c r="S97" s="2">
+        <v>0</v>
+      </c>
+      <c r="T97" s="13">
+        <v>0</v>
+      </c>
+      <c r="U97" s="14">
+        <v>0</v>
+      </c>
+      <c r="V97" s="13">
+        <v>0</v>
+      </c>
+      <c r="W97" s="2">
+        <v>0</v>
+      </c>
+      <c r="X97" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="26">
+        <v>38</v>
+      </c>
+      <c r="Z97" s="24">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>147</v>
       </c>
@@ -9128,29 +9887,77 @@
       <c r="C98" s="2">
         <v>13109</v>
       </c>
-      <c r="D98" s="13"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="13"/>
-      <c r="K98" s="2"/>
-      <c r="L98" s="13"/>
-      <c r="M98" s="2"/>
-      <c r="N98" s="13"/>
-      <c r="O98" s="2"/>
-      <c r="P98" s="13"/>
-      <c r="Q98" s="2"/>
-      <c r="R98" s="13"/>
-      <c r="S98" s="2"/>
-      <c r="T98" s="13"/>
-      <c r="U98" s="14"/>
-      <c r="V98" s="13"/>
-      <c r="W98" s="2"/>
-      <c r="X98" s="13"/>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D98" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="E98" s="12">
+        <v>44508</v>
+      </c>
+      <c r="F98" s="18">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="G98" s="2">
+        <v>0</v>
+      </c>
+      <c r="H98" s="13">
+        <v>1</v>
+      </c>
+      <c r="I98" s="2">
+        <v>0</v>
+      </c>
+      <c r="J98" s="13">
+        <v>0</v>
+      </c>
+      <c r="K98" s="2">
+        <v>0</v>
+      </c>
+      <c r="L98" s="13">
+        <v>0</v>
+      </c>
+      <c r="M98" s="2">
+        <v>1</v>
+      </c>
+      <c r="N98" s="13">
+        <v>0</v>
+      </c>
+      <c r="O98" s="2">
+        <v>1</v>
+      </c>
+      <c r="P98" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q98" s="2">
+        <v>0</v>
+      </c>
+      <c r="R98" s="13">
+        <v>0</v>
+      </c>
+      <c r="S98" s="2">
+        <v>0</v>
+      </c>
+      <c r="T98" s="13">
+        <v>0</v>
+      </c>
+      <c r="U98" s="14">
+        <v>1</v>
+      </c>
+      <c r="V98" s="13">
+        <v>0</v>
+      </c>
+      <c r="W98" s="2">
+        <v>0</v>
+      </c>
+      <c r="X98" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="26">
+        <v>6</v>
+      </c>
+      <c r="Z98" s="14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>148</v>
       </c>
@@ -9160,29 +9967,77 @@
       <c r="C99" s="2">
         <v>13110</v>
       </c>
-      <c r="D99" s="13"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="13"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="13"/>
-      <c r="K99" s="2"/>
-      <c r="L99" s="13"/>
-      <c r="M99" s="2"/>
-      <c r="N99" s="13"/>
-      <c r="O99" s="2"/>
-      <c r="P99" s="13"/>
-      <c r="Q99" s="2"/>
-      <c r="R99" s="13"/>
-      <c r="S99" s="2"/>
-      <c r="T99" s="13"/>
-      <c r="U99" s="14"/>
-      <c r="V99" s="13"/>
-      <c r="W99" s="2"/>
-      <c r="X99" s="13"/>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D99" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="E99" s="12">
+        <v>44508</v>
+      </c>
+      <c r="F99" s="18">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="G99" s="2">
+        <v>1</v>
+      </c>
+      <c r="H99" s="13">
+        <v>1</v>
+      </c>
+      <c r="I99" s="2">
+        <v>1</v>
+      </c>
+      <c r="J99" s="13">
+        <v>0</v>
+      </c>
+      <c r="K99" s="2">
+        <v>0</v>
+      </c>
+      <c r="L99" s="13">
+        <v>0</v>
+      </c>
+      <c r="M99" s="2">
+        <v>1</v>
+      </c>
+      <c r="N99" s="13">
+        <v>0</v>
+      </c>
+      <c r="O99" s="2">
+        <v>0</v>
+      </c>
+      <c r="P99" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q99" s="2">
+        <v>0</v>
+      </c>
+      <c r="R99" s="13">
+        <v>0</v>
+      </c>
+      <c r="S99" s="2">
+        <v>0</v>
+      </c>
+      <c r="T99" s="13">
+        <v>0</v>
+      </c>
+      <c r="U99" s="14">
+        <v>1</v>
+      </c>
+      <c r="V99" s="13">
+        <v>0</v>
+      </c>
+      <c r="W99" s="2">
+        <v>0</v>
+      </c>
+      <c r="X99" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="26">
+        <v>17</v>
+      </c>
+      <c r="Z99" s="24">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>149</v>
       </c>
@@ -9192,29 +10047,77 @@
       <c r="C100" s="2">
         <v>13111</v>
       </c>
-      <c r="D100" s="13"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="13"/>
-      <c r="K100" s="2"/>
-      <c r="L100" s="13"/>
-      <c r="M100" s="2"/>
-      <c r="N100" s="13"/>
-      <c r="O100" s="2"/>
-      <c r="P100" s="13"/>
-      <c r="Q100" s="2"/>
-      <c r="R100" s="13"/>
-      <c r="S100" s="2"/>
-      <c r="T100" s="13"/>
-      <c r="U100" s="14"/>
-      <c r="V100" s="13"/>
-      <c r="W100" s="2"/>
-      <c r="X100" s="13"/>
-    </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D100" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="E100" s="12">
+        <v>44508</v>
+      </c>
+      <c r="F100" s="18">
+        <v>0.54652777777777783</v>
+      </c>
+      <c r="G100" s="2">
+        <v>0</v>
+      </c>
+      <c r="H100" s="13">
+        <v>1</v>
+      </c>
+      <c r="I100" s="2">
+        <v>1</v>
+      </c>
+      <c r="J100" s="13">
+        <v>0</v>
+      </c>
+      <c r="K100" s="2">
+        <v>0</v>
+      </c>
+      <c r="L100" s="13">
+        <v>0</v>
+      </c>
+      <c r="M100" s="2">
+        <v>1</v>
+      </c>
+      <c r="N100" s="13">
+        <v>0</v>
+      </c>
+      <c r="O100" s="2">
+        <v>1</v>
+      </c>
+      <c r="P100" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q100" s="2">
+        <v>0</v>
+      </c>
+      <c r="R100" s="13">
+        <v>1</v>
+      </c>
+      <c r="S100" s="2">
+        <v>0</v>
+      </c>
+      <c r="T100" s="13">
+        <v>0</v>
+      </c>
+      <c r="U100" s="14">
+        <v>1</v>
+      </c>
+      <c r="V100" s="13">
+        <v>0</v>
+      </c>
+      <c r="W100" s="2">
+        <v>0</v>
+      </c>
+      <c r="X100" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="26">
+        <v>6</v>
+      </c>
+      <c r="Z100" s="14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
         <v>175</v>
       </c>
@@ -9224,29 +10127,80 @@
       <c r="C101" s="2">
         <v>13302</v>
       </c>
-      <c r="D101" s="13"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="13"/>
-      <c r="K101" s="2"/>
-      <c r="L101" s="13"/>
-      <c r="M101" s="2"/>
-      <c r="N101" s="13"/>
-      <c r="O101" s="2"/>
-      <c r="P101" s="13"/>
-      <c r="Q101" s="2"/>
-      <c r="R101" s="13"/>
-      <c r="S101" s="2"/>
-      <c r="T101" s="13"/>
-      <c r="U101" s="14"/>
-      <c r="V101" s="13"/>
-      <c r="W101" s="2"/>
-      <c r="X101" s="13"/>
-    </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D101" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="E101" s="12">
+        <v>44508</v>
+      </c>
+      <c r="F101" s="18">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="G101" s="2">
+        <v>0</v>
+      </c>
+      <c r="H101" s="13">
+        <v>0</v>
+      </c>
+      <c r="I101" s="2">
+        <v>0</v>
+      </c>
+      <c r="J101" s="13">
+        <v>0</v>
+      </c>
+      <c r="K101" s="2">
+        <v>0</v>
+      </c>
+      <c r="L101" s="13">
+        <v>0</v>
+      </c>
+      <c r="M101" s="2">
+        <v>1</v>
+      </c>
+      <c r="N101" s="13">
+        <v>0</v>
+      </c>
+      <c r="O101" s="2">
+        <v>0</v>
+      </c>
+      <c r="P101" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="2">
+        <v>0</v>
+      </c>
+      <c r="R101" s="13">
+        <v>0</v>
+      </c>
+      <c r="S101" s="2">
+        <v>0</v>
+      </c>
+      <c r="T101" s="13">
+        <v>0</v>
+      </c>
+      <c r="U101" s="14">
+        <v>0</v>
+      </c>
+      <c r="V101" s="13">
+        <v>0</v>
+      </c>
+      <c r="W101" s="2">
+        <v>0</v>
+      </c>
+      <c r="X101" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="26">
+        <v>27</v>
+      </c>
+      <c r="Z101" s="24">
+        <v>29</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>150</v>
       </c>
@@ -9256,29 +10210,77 @@
       <c r="C102" s="2">
         <v>13112</v>
       </c>
-      <c r="D102" s="13"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="13"/>
-      <c r="K102" s="2"/>
-      <c r="L102" s="13"/>
-      <c r="M102" s="2"/>
-      <c r="N102" s="13"/>
-      <c r="O102" s="2"/>
-      <c r="P102" s="13"/>
-      <c r="Q102" s="2"/>
-      <c r="R102" s="13"/>
-      <c r="S102" s="2"/>
-      <c r="T102" s="13"/>
-      <c r="U102" s="14"/>
-      <c r="V102" s="13"/>
-      <c r="W102" s="2"/>
-      <c r="X102" s="13"/>
-    </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D102" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="E102" s="12">
+        <v>44508</v>
+      </c>
+      <c r="F102" s="18">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="G102" s="2">
+        <v>0</v>
+      </c>
+      <c r="H102" s="13">
+        <v>1</v>
+      </c>
+      <c r="I102" s="2">
+        <v>1</v>
+      </c>
+      <c r="J102" s="13">
+        <v>0</v>
+      </c>
+      <c r="K102" s="2">
+        <v>1</v>
+      </c>
+      <c r="L102" s="13">
+        <v>0</v>
+      </c>
+      <c r="M102" s="2">
+        <v>1</v>
+      </c>
+      <c r="N102" s="13">
+        <v>1</v>
+      </c>
+      <c r="O102" s="2">
+        <v>1</v>
+      </c>
+      <c r="P102" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q102" s="2">
+        <v>0</v>
+      </c>
+      <c r="R102" s="13">
+        <v>0</v>
+      </c>
+      <c r="S102" s="2">
+        <v>0</v>
+      </c>
+      <c r="T102" s="13">
+        <v>0</v>
+      </c>
+      <c r="U102" s="14">
+        <v>1</v>
+      </c>
+      <c r="V102" s="13">
+        <v>0</v>
+      </c>
+      <c r="W102" s="2">
+        <v>0</v>
+      </c>
+      <c r="X102" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y102" s="26">
+        <v>21</v>
+      </c>
+      <c r="Z102" s="14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>151</v>
       </c>
@@ -9288,29 +10290,77 @@
       <c r="C103" s="2">
         <v>13113</v>
       </c>
-      <c r="D103" s="13"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="13"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="13"/>
-      <c r="K103" s="2"/>
-      <c r="L103" s="13"/>
-      <c r="M103" s="2"/>
-      <c r="N103" s="13"/>
-      <c r="O103" s="2"/>
-      <c r="P103" s="13"/>
-      <c r="Q103" s="2"/>
-      <c r="R103" s="13"/>
-      <c r="S103" s="2"/>
-      <c r="T103" s="13"/>
-      <c r="U103" s="14"/>
-      <c r="V103" s="13"/>
-      <c r="W103" s="2"/>
-      <c r="X103" s="13"/>
-    </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D103" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="E103" s="12">
+        <v>44508</v>
+      </c>
+      <c r="F103" s="18">
+        <v>0.56458333333333333</v>
+      </c>
+      <c r="G103" s="2">
+        <v>0</v>
+      </c>
+      <c r="H103" s="13">
+        <v>1</v>
+      </c>
+      <c r="I103" s="2">
+        <v>1</v>
+      </c>
+      <c r="J103" s="13">
+        <v>0</v>
+      </c>
+      <c r="K103" s="2">
+        <v>1</v>
+      </c>
+      <c r="L103" s="13">
+        <v>0</v>
+      </c>
+      <c r="M103" s="2">
+        <v>1</v>
+      </c>
+      <c r="N103" s="13">
+        <v>0</v>
+      </c>
+      <c r="O103" s="2">
+        <v>1</v>
+      </c>
+      <c r="P103" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q103" s="2">
+        <v>1</v>
+      </c>
+      <c r="R103" s="13">
+        <v>1</v>
+      </c>
+      <c r="S103" s="2">
+        <v>1</v>
+      </c>
+      <c r="T103" s="13">
+        <v>1</v>
+      </c>
+      <c r="U103" s="14">
+        <v>1</v>
+      </c>
+      <c r="V103" s="13">
+        <v>0</v>
+      </c>
+      <c r="W103" s="2">
+        <v>0</v>
+      </c>
+      <c r="X103" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y103" s="26">
+        <v>31</v>
+      </c>
+      <c r="Z103" s="24">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>152</v>
       </c>
@@ -9320,29 +10370,77 @@
       <c r="C104" s="2">
         <v>13114</v>
       </c>
-      <c r="D104" s="13"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="13"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="13"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="13"/>
-      <c r="K104" s="2"/>
-      <c r="L104" s="13"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="13"/>
-      <c r="O104" s="2"/>
-      <c r="P104" s="13"/>
-      <c r="Q104" s="2"/>
-      <c r="R104" s="13"/>
-      <c r="S104" s="2"/>
-      <c r="T104" s="13"/>
-      <c r="U104" s="14"/>
-      <c r="V104" s="13"/>
-      <c r="W104" s="2"/>
-      <c r="X104" s="13"/>
-    </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D104" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="E104" s="12">
+        <v>44508</v>
+      </c>
+      <c r="F104" s="18">
+        <v>0.56736111111111109</v>
+      </c>
+      <c r="G104" s="2">
+        <v>1</v>
+      </c>
+      <c r="H104" s="13">
+        <v>1</v>
+      </c>
+      <c r="I104" s="2">
+        <v>1</v>
+      </c>
+      <c r="J104" s="13">
+        <v>0</v>
+      </c>
+      <c r="K104" s="2">
+        <v>1</v>
+      </c>
+      <c r="L104" s="13">
+        <v>0</v>
+      </c>
+      <c r="M104" s="2">
+        <v>1</v>
+      </c>
+      <c r="N104" s="13">
+        <v>0</v>
+      </c>
+      <c r="O104" s="2">
+        <v>1</v>
+      </c>
+      <c r="P104" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q104" s="2">
+        <v>0</v>
+      </c>
+      <c r="R104" s="13">
+        <v>1</v>
+      </c>
+      <c r="S104" s="2">
+        <v>0</v>
+      </c>
+      <c r="T104" s="13">
+        <v>0</v>
+      </c>
+      <c r="U104" s="14">
+        <v>1</v>
+      </c>
+      <c r="V104" s="13">
+        <v>0</v>
+      </c>
+      <c r="W104" s="2">
+        <v>1</v>
+      </c>
+      <c r="X104" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y104" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z104" s="14" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>153</v>
       </c>
@@ -9352,29 +10450,77 @@
       <c r="C105" s="2">
         <v>13115</v>
       </c>
-      <c r="D105" s="13"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="13"/>
-      <c r="K105" s="2"/>
-      <c r="L105" s="13"/>
-      <c r="M105" s="2"/>
-      <c r="N105" s="13"/>
-      <c r="O105" s="2"/>
-      <c r="P105" s="13"/>
-      <c r="Q105" s="2"/>
-      <c r="R105" s="13"/>
-      <c r="S105" s="2"/>
-      <c r="T105" s="13"/>
-      <c r="U105" s="14"/>
-      <c r="V105" s="13"/>
-      <c r="W105" s="2"/>
-      <c r="X105" s="13"/>
-    </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D105" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="E105" s="12">
+        <v>44508</v>
+      </c>
+      <c r="F105" s="18">
+        <v>0.57222222222222219</v>
+      </c>
+      <c r="G105" s="2">
+        <v>0</v>
+      </c>
+      <c r="H105" s="13">
+        <v>1</v>
+      </c>
+      <c r="I105" s="2">
+        <v>1</v>
+      </c>
+      <c r="J105" s="13">
+        <v>0</v>
+      </c>
+      <c r="K105" s="2">
+        <v>1</v>
+      </c>
+      <c r="L105" s="13">
+        <v>0</v>
+      </c>
+      <c r="M105" s="2">
+        <v>1</v>
+      </c>
+      <c r="N105" s="13">
+        <v>1</v>
+      </c>
+      <c r="O105" s="2">
+        <v>1</v>
+      </c>
+      <c r="P105" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q105" s="2">
+        <v>0</v>
+      </c>
+      <c r="R105" s="13">
+        <v>1</v>
+      </c>
+      <c r="S105" s="2">
+        <v>0</v>
+      </c>
+      <c r="T105" s="13">
+        <v>0</v>
+      </c>
+      <c r="U105" s="14">
+        <v>1</v>
+      </c>
+      <c r="V105" s="13">
+        <v>0</v>
+      </c>
+      <c r="W105" s="2">
+        <v>0</v>
+      </c>
+      <c r="X105" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y105" s="14">
+        <v>16</v>
+      </c>
+      <c r="Z105" s="24">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>154</v>
       </c>
@@ -9384,29 +10530,77 @@
       <c r="C106" s="2">
         <v>13116</v>
       </c>
-      <c r="D106" s="13"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="13"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="13"/>
-      <c r="K106" s="2"/>
-      <c r="L106" s="13"/>
-      <c r="M106" s="2"/>
-      <c r="N106" s="13"/>
-      <c r="O106" s="2"/>
-      <c r="P106" s="13"/>
-      <c r="Q106" s="2"/>
-      <c r="R106" s="13"/>
-      <c r="S106" s="2"/>
-      <c r="T106" s="13"/>
-      <c r="U106" s="14"/>
-      <c r="V106" s="13"/>
-      <c r="W106" s="2"/>
-      <c r="X106" s="13"/>
-    </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D106" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="E106" s="12">
+        <v>44508</v>
+      </c>
+      <c r="F106" s="18">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="G106" s="2">
+        <v>0</v>
+      </c>
+      <c r="H106" s="13">
+        <v>1</v>
+      </c>
+      <c r="I106" s="2">
+        <v>1</v>
+      </c>
+      <c r="J106" s="13">
+        <v>0</v>
+      </c>
+      <c r="K106" s="2">
+        <v>1</v>
+      </c>
+      <c r="L106" s="13">
+        <v>0</v>
+      </c>
+      <c r="M106" s="2">
+        <v>1</v>
+      </c>
+      <c r="N106" s="13">
+        <v>0</v>
+      </c>
+      <c r="O106" s="2">
+        <v>0</v>
+      </c>
+      <c r="P106" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q106" s="2">
+        <v>0</v>
+      </c>
+      <c r="R106" s="13">
+        <v>0</v>
+      </c>
+      <c r="S106" s="2">
+        <v>0</v>
+      </c>
+      <c r="T106" s="13">
+        <v>0</v>
+      </c>
+      <c r="U106" s="14">
+        <v>1</v>
+      </c>
+      <c r="V106" s="13">
+        <v>0</v>
+      </c>
+      <c r="W106" s="2">
+        <v>0</v>
+      </c>
+      <c r="X106" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y106" s="14">
+        <v>12</v>
+      </c>
+      <c r="Z106" s="14">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>155</v>
       </c>
@@ -9416,29 +10610,77 @@
       <c r="C107" s="2">
         <v>13117</v>
       </c>
-      <c r="D107" s="13"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="2"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="2"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="2"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="2"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="2"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="14"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="2"/>
-      <c r="X107" s="13"/>
-    </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D107" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E107" s="12">
+        <v>44508</v>
+      </c>
+      <c r="F107" s="18">
+        <v>0.57847222222222217</v>
+      </c>
+      <c r="G107" s="2">
+        <v>0</v>
+      </c>
+      <c r="H107" s="13">
+        <v>1</v>
+      </c>
+      <c r="I107" s="2">
+        <v>1</v>
+      </c>
+      <c r="J107" s="13">
+        <v>0</v>
+      </c>
+      <c r="K107" s="2">
+        <v>0</v>
+      </c>
+      <c r="L107" s="13">
+        <v>0</v>
+      </c>
+      <c r="M107" s="2">
+        <v>1</v>
+      </c>
+      <c r="N107" s="13">
+        <v>1</v>
+      </c>
+      <c r="O107" s="2">
+        <v>1</v>
+      </c>
+      <c r="P107" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q107" s="2">
+        <v>0</v>
+      </c>
+      <c r="R107" s="13">
+        <v>0</v>
+      </c>
+      <c r="S107" s="2">
+        <v>0</v>
+      </c>
+      <c r="T107" s="13">
+        <v>0</v>
+      </c>
+      <c r="U107" s="14">
+        <v>0</v>
+      </c>
+      <c r="V107" s="13">
+        <v>0</v>
+      </c>
+      <c r="W107" s="2">
+        <v>0</v>
+      </c>
+      <c r="X107" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y107" s="14">
+        <v>24</v>
+      </c>
+      <c r="Z107" s="24">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>156</v>
       </c>
@@ -9448,29 +10690,77 @@
       <c r="C108" s="2">
         <v>13118</v>
       </c>
-      <c r="D108" s="13"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="13"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="13"/>
-      <c r="K108" s="2"/>
-      <c r="L108" s="13"/>
-      <c r="M108" s="2"/>
-      <c r="N108" s="13"/>
-      <c r="O108" s="2"/>
-      <c r="P108" s="13"/>
-      <c r="Q108" s="2"/>
-      <c r="R108" s="13"/>
-      <c r="S108" s="2"/>
-      <c r="T108" s="13"/>
-      <c r="U108" s="14"/>
-      <c r="V108" s="13"/>
-      <c r="W108" s="2"/>
-      <c r="X108" s="13"/>
-    </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D108" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E108" s="12">
+        <v>44508</v>
+      </c>
+      <c r="F108" s="18">
+        <v>0.58402777777777781</v>
+      </c>
+      <c r="G108" s="2">
+        <v>0</v>
+      </c>
+      <c r="H108" s="13">
+        <v>1</v>
+      </c>
+      <c r="I108" s="2">
+        <v>0</v>
+      </c>
+      <c r="J108" s="13">
+        <v>0</v>
+      </c>
+      <c r="K108" s="2">
+        <v>1</v>
+      </c>
+      <c r="L108" s="13">
+        <v>0</v>
+      </c>
+      <c r="M108" s="2">
+        <v>1</v>
+      </c>
+      <c r="N108" s="13">
+        <v>1</v>
+      </c>
+      <c r="O108" s="2">
+        <v>1</v>
+      </c>
+      <c r="P108" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q108" s="2">
+        <v>0</v>
+      </c>
+      <c r="R108" s="13">
+        <v>0</v>
+      </c>
+      <c r="S108" s="2">
+        <v>0</v>
+      </c>
+      <c r="T108" s="13">
+        <v>0</v>
+      </c>
+      <c r="U108" s="14">
+        <v>1</v>
+      </c>
+      <c r="V108" s="13">
+        <v>0</v>
+      </c>
+      <c r="W108" s="2">
+        <v>0</v>
+      </c>
+      <c r="X108" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y108" s="14">
+        <v>10</v>
+      </c>
+      <c r="Z108" s="14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>157</v>
       </c>
@@ -9480,29 +10770,77 @@
       <c r="C109" s="2">
         <v>13119</v>
       </c>
-      <c r="D109" s="13"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="13"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="13"/>
-      <c r="K109" s="2"/>
-      <c r="L109" s="13"/>
-      <c r="M109" s="2"/>
-      <c r="N109" s="13"/>
-      <c r="O109" s="2"/>
-      <c r="P109" s="13"/>
-      <c r="Q109" s="2"/>
-      <c r="R109" s="13"/>
-      <c r="S109" s="2"/>
-      <c r="T109" s="13"/>
-      <c r="U109" s="14"/>
-      <c r="V109" s="13"/>
-      <c r="W109" s="2"/>
-      <c r="X109" s="13"/>
-    </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D109" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="E109" s="12">
+        <v>44508</v>
+      </c>
+      <c r="F109" s="18">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="G109" s="2">
+        <v>0</v>
+      </c>
+      <c r="H109" s="13">
+        <v>1</v>
+      </c>
+      <c r="I109" s="2">
+        <v>1</v>
+      </c>
+      <c r="J109" s="13">
+        <v>0</v>
+      </c>
+      <c r="K109" s="2">
+        <v>1</v>
+      </c>
+      <c r="L109" s="13">
+        <v>1</v>
+      </c>
+      <c r="M109" s="2">
+        <v>1</v>
+      </c>
+      <c r="N109" s="13">
+        <v>0</v>
+      </c>
+      <c r="O109" s="2">
+        <v>1</v>
+      </c>
+      <c r="P109" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q109" s="2">
+        <v>0</v>
+      </c>
+      <c r="R109" s="13">
+        <v>1</v>
+      </c>
+      <c r="S109" s="2">
+        <v>0</v>
+      </c>
+      <c r="T109" s="13">
+        <v>0</v>
+      </c>
+      <c r="U109" s="14">
+        <v>1</v>
+      </c>
+      <c r="V109" s="13">
+        <v>0</v>
+      </c>
+      <c r="W109" s="2">
+        <v>0</v>
+      </c>
+      <c r="X109" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y109" s="14">
+        <v>18</v>
+      </c>
+      <c r="Z109" s="24">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
         <v>184</v>
       </c>
@@ -9512,29 +10850,77 @@
       <c r="C110" s="2">
         <v>13504</v>
       </c>
-      <c r="D110" s="13"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="13"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="13"/>
-      <c r="K110" s="2"/>
-      <c r="L110" s="13"/>
-      <c r="M110" s="2"/>
-      <c r="N110" s="13"/>
-      <c r="O110" s="2"/>
-      <c r="P110" s="13"/>
-      <c r="Q110" s="2"/>
-      <c r="R110" s="13"/>
-      <c r="S110" s="2"/>
-      <c r="T110" s="13"/>
-      <c r="U110" s="14"/>
-      <c r="V110" s="13"/>
-      <c r="W110" s="2"/>
-      <c r="X110" s="13"/>
-    </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D110" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="E110" s="12">
+        <v>44508</v>
+      </c>
+      <c r="F110" s="18">
+        <v>0.59097222222222223</v>
+      </c>
+      <c r="G110" s="2">
+        <v>0</v>
+      </c>
+      <c r="H110" s="13">
+        <v>0</v>
+      </c>
+      <c r="I110" s="2">
+        <v>0</v>
+      </c>
+      <c r="J110" s="13">
+        <v>0</v>
+      </c>
+      <c r="K110" s="2">
+        <v>0</v>
+      </c>
+      <c r="L110" s="13">
+        <v>0</v>
+      </c>
+      <c r="M110" s="2">
+        <v>0</v>
+      </c>
+      <c r="N110" s="13">
+        <v>0</v>
+      </c>
+      <c r="O110" s="2">
+        <v>0</v>
+      </c>
+      <c r="P110" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q110" s="2">
+        <v>1</v>
+      </c>
+      <c r="R110" s="13">
+        <v>1</v>
+      </c>
+      <c r="S110" s="2">
+        <v>1</v>
+      </c>
+      <c r="T110" s="13">
+        <v>1</v>
+      </c>
+      <c r="U110" s="14">
+        <v>1</v>
+      </c>
+      <c r="V110" s="13">
+        <v>0</v>
+      </c>
+      <c r="W110" s="2">
+        <v>0</v>
+      </c>
+      <c r="X110" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y110" s="14">
+        <v>65</v>
+      </c>
+      <c r="Z110" s="14">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
         <v>181</v>
       </c>
@@ -9544,29 +10930,77 @@
       <c r="C111" s="2">
         <v>13501</v>
       </c>
-      <c r="D111" s="13"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="13"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="13"/>
-      <c r="K111" s="2"/>
-      <c r="L111" s="13"/>
-      <c r="M111" s="2"/>
-      <c r="N111" s="13"/>
-      <c r="O111" s="2"/>
-      <c r="P111" s="13"/>
-      <c r="Q111" s="2"/>
-      <c r="R111" s="13"/>
-      <c r="S111" s="2"/>
-      <c r="T111" s="13"/>
-      <c r="U111" s="14"/>
-      <c r="V111" s="13"/>
-      <c r="W111" s="2"/>
-      <c r="X111" s="13"/>
-    </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D111" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="E111" s="12">
+        <v>44508</v>
+      </c>
+      <c r="F111" s="18">
+        <v>0.59166666666666667</v>
+      </c>
+      <c r="G111" s="2">
+        <v>0</v>
+      </c>
+      <c r="H111" s="13">
+        <v>1</v>
+      </c>
+      <c r="I111" s="2">
+        <v>1</v>
+      </c>
+      <c r="J111" s="13">
+        <v>0</v>
+      </c>
+      <c r="K111" s="2">
+        <v>1</v>
+      </c>
+      <c r="L111" s="13">
+        <v>0</v>
+      </c>
+      <c r="M111" s="2">
+        <v>1</v>
+      </c>
+      <c r="N111" s="13">
+        <v>0</v>
+      </c>
+      <c r="O111" s="2">
+        <v>1</v>
+      </c>
+      <c r="P111" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q111" s="2">
+        <v>0</v>
+      </c>
+      <c r="R111" s="13">
+        <v>0</v>
+      </c>
+      <c r="S111" s="2">
+        <v>0</v>
+      </c>
+      <c r="T111" s="13">
+        <v>0</v>
+      </c>
+      <c r="U111" s="14">
+        <v>1</v>
+      </c>
+      <c r="V111" s="13">
+        <v>0</v>
+      </c>
+      <c r="W111" s="2">
+        <v>0</v>
+      </c>
+      <c r="X111" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y111" s="14">
+        <v>20</v>
+      </c>
+      <c r="Z111" s="24">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
         <v>158</v>
       </c>
@@ -17197,8 +18631,36 @@
     <hyperlink ref="D81" r:id="rId80" xr:uid="{E004D06F-F377-4A19-9164-62DD3B992DCB}"/>
     <hyperlink ref="D82" r:id="rId81" xr:uid="{90A05DD9-5872-4368-8D13-4C6E5EE80650}"/>
     <hyperlink ref="D83" r:id="rId82" xr:uid="{956E250E-5148-4893-A7AD-8875B8B446EC}"/>
+    <hyperlink ref="D84" r:id="rId83" xr:uid="{F3819AE4-65D9-4C86-B11F-0DF4C44AF16A}"/>
+    <hyperlink ref="D85" r:id="rId84" xr:uid="{8A07673F-3BF6-4437-9DD9-04904FF6E218}"/>
+    <hyperlink ref="D86" r:id="rId85" xr:uid="{B869C4DB-0E40-4586-BC4C-7C15F237D352}"/>
+    <hyperlink ref="D87" r:id="rId86" xr:uid="{F549FA57-9C2E-434E-87C4-11D127F2753A}"/>
+    <hyperlink ref="D89" r:id="rId87" xr:uid="{649C95A5-496C-4549-8782-81E9F4855435}"/>
+    <hyperlink ref="D88" r:id="rId88" xr:uid="{6D261808-EFA3-486C-9A1A-B158177B750B}"/>
+    <hyperlink ref="D90" r:id="rId89" xr:uid="{9D032DA1-973A-4A82-A436-3713FF0F816C}"/>
+    <hyperlink ref="D91" r:id="rId90" xr:uid="{9EDF39D0-CE6A-4F5E-BBEF-241DB1A857B8}"/>
+    <hyperlink ref="D92" r:id="rId91" xr:uid="{7ADD6496-504E-4BB0-999E-9A964B9AB413}"/>
+    <hyperlink ref="D93" r:id="rId92" xr:uid="{71043A5B-1CB0-4EE4-AD17-A6042A504E4C}"/>
+    <hyperlink ref="D94" r:id="rId93" xr:uid="{C78C567E-BA3C-4145-AA03-105F809C3770}"/>
+    <hyperlink ref="D95" r:id="rId94" xr:uid="{E726D4C2-6E8E-470E-A4C2-B8B3515F2A88}"/>
+    <hyperlink ref="D96" r:id="rId95" xr:uid="{32DCE81E-785D-4A00-A157-93DEE0835A67}"/>
+    <hyperlink ref="D97" r:id="rId96" xr:uid="{78901A53-0292-4211-8A2D-4508A07290A2}"/>
+    <hyperlink ref="D98" r:id="rId97" xr:uid="{2A27DA82-4704-4FB6-80F5-21BF5D0F00FF}"/>
+    <hyperlink ref="D99" r:id="rId98" xr:uid="{27BAF6E1-217F-4856-8D36-7F044CF32530}"/>
+    <hyperlink ref="D100" r:id="rId99" xr:uid="{5F0E87EB-245D-4237-A650-1EFD55316869}"/>
+    <hyperlink ref="D101" r:id="rId100" xr:uid="{320BC9C9-E665-40F3-A5AC-FC89DBC8FD15}"/>
+    <hyperlink ref="D102" r:id="rId101" xr:uid="{FBEA6E7A-F860-4270-89D8-80C0A00B3F1E}"/>
+    <hyperlink ref="D103" r:id="rId102" xr:uid="{E5E015FE-0293-418A-BD89-52A94F67BAE3}"/>
+    <hyperlink ref="D104" r:id="rId103" xr:uid="{E70BE590-38D1-4D50-BA16-5A26CF0EAC9D}"/>
+    <hyperlink ref="D105" r:id="rId104" xr:uid="{8AB7958D-E620-4C53-A7B7-BB6205F234ED}"/>
+    <hyperlink ref="D106" r:id="rId105" xr:uid="{AB5520FF-D055-47AC-BCB9-47FA29D9ACCB}"/>
+    <hyperlink ref="D107" r:id="rId106" xr:uid="{6D9CAE68-E211-45C5-8986-BE3078301792}"/>
+    <hyperlink ref="D108" r:id="rId107" xr:uid="{6669CF25-845A-453F-A77B-DE6396E9FD92}"/>
+    <hyperlink ref="D109" r:id="rId108" xr:uid="{60A01FDF-849F-41B4-BD62-E9908E9F135E}"/>
+    <hyperlink ref="D110" r:id="rId109" xr:uid="{D76B8CF9-238A-4E71-B415-C066E827AED6}"/>
+    <hyperlink ref="D111" r:id="rId110" xr:uid="{AE381EE2-4DE1-47E5-8262-4FBF7F65592E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId83"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId111"/>
 </worksheet>
 </file>
--- a/raw_data/2021/EGI-2021.xlsx
+++ b/raw_data/2021/EGI-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d135da842735aabe/Documentos/GitHub/e-gov-index/raw_data/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2860" documentId="13_ncr:1_{DA2DAC24-6B37-4FAD-B3D2-40D90F3F52C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6878B5CE-7854-4502-B7A1-CCB728C13323}"/>
+  <xr:revisionPtr revIDLastSave="4256" documentId="13_ncr:1_{DA2DAC24-6B37-4FAD-B3D2-40D90F3F52C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19872714-3F61-4CEA-963C-0C8591E350FD}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B66F953-E5AF-4F8D-B634-188287D0A235}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="564">
   <si>
     <t>region</t>
   </si>
@@ -1546,6 +1546,189 @@
   </si>
   <si>
     <t>https://www.mpinto.cl/</t>
+  </si>
+  <si>
+    <t>https://www.nunoa.cl/</t>
+  </si>
+  <si>
+    <t>http://portal.mph.cl/</t>
+  </si>
+  <si>
+    <t>https://www.paine.cl/</t>
+  </si>
+  <si>
+    <t>https://www.pedroaguirrecerda.cl/w15/</t>
+  </si>
+  <si>
+    <t>https://penaflor.cl/</t>
+  </si>
+  <si>
+    <t>https://www.penalolen.cl/</t>
+  </si>
+  <si>
+    <t>https://pirque.cl/</t>
+  </si>
+  <si>
+    <t>https://providencia.cl/provi/site/edic/base/port/inicio.html</t>
+  </si>
+  <si>
+    <t>https://www.mpudahuel.cl/sitio/</t>
+  </si>
+  <si>
+    <t>https://www.mpuentealto.cl/</t>
+  </si>
+  <si>
+    <t>http://www.ww2.muniquilicura.cl/</t>
+  </si>
+  <si>
+    <t>https://www.quintanormal.cl/</t>
+  </si>
+  <si>
+    <t>https://www.sanjosedemaipo.cl/</t>
+  </si>
+  <si>
+    <t>https://www.vitacura.cl/</t>
+  </si>
+  <si>
+    <t>https://www.recoleta.cl/?op=pcv</t>
+  </si>
+  <si>
+    <t>https://renca.cl/</t>
+  </si>
+  <si>
+    <t>https://www.sanbernardo.cl/web/</t>
+  </si>
+  <si>
+    <t>https://redsanjoaquin.cl/</t>
+  </si>
+  <si>
+    <t>https://web.sanmiguel.cl/</t>
+  </si>
+  <si>
+    <t>https://www.munisanpedro.cl/</t>
+  </si>
+  <si>
+    <t>http://www.municipalidadsanramon.cl/</t>
+  </si>
+  <si>
+    <t>https://www.munistgo.cl/</t>
+  </si>
+  <si>
+    <t>sitio web para trámites en línea denominado santiagoenlinea.cl no funciona</t>
+  </si>
+  <si>
+    <t>https://www.munitalagante.cl/</t>
+  </si>
+  <si>
+    <t>https://www.muninavidad.cl/</t>
+  </si>
+  <si>
+    <t>https://www.muniolivar.cl/</t>
+  </si>
+  <si>
+    <t>https://www.munipalmilla.cl/</t>
+  </si>
+  <si>
+    <t>http://www.munitiltil.cl/</t>
+  </si>
+  <si>
+    <t>https://www.municipalidadchepica.cl/</t>
+  </si>
+  <si>
+    <t>https://www.municipalidadgraneros.cl/</t>
+  </si>
+  <si>
+    <t>http://municipalidadchimbarongo.cl/</t>
+  </si>
+  <si>
+    <t>https://www.municipalidaddecodegua.cl/</t>
+  </si>
+  <si>
+    <t>https://www.municoinco.cl/index.php</t>
+  </si>
+  <si>
+    <t>http://www.coltauco.cl/Nuevo/index.php</t>
+  </si>
+  <si>
+    <t>http://www.mdonihue.cl/</t>
+  </si>
+  <si>
+    <t>https://www.municipalidadrengo.cl/</t>
+  </si>
+  <si>
+    <t>https://www.munilaestrella.cl/new/</t>
+  </si>
+  <si>
+    <t>https://www.lascabrasmunicipalidad.cl/</t>
+  </si>
+  <si>
+    <t>https://www.litueche.cl/</t>
+  </si>
+  <si>
+    <t>https://www.machali.cl/</t>
+  </si>
+  <si>
+    <t>https://www.pichilemu.cl/</t>
+  </si>
+  <si>
+    <t>https://munilolol.cl/</t>
+  </si>
+  <si>
+    <t>https://muniperalillo.cl/</t>
+  </si>
+  <si>
+    <t>https://www.munimalloa.cl/portal/</t>
+  </si>
+  <si>
+    <t>https://www.marchigue.cl/Muni2.2/</t>
+  </si>
+  <si>
+    <t>https://www.mostazal.cl/home</t>
+  </si>
+  <si>
+    <t>https://www.municipalidadnancagua.cl/web/</t>
+  </si>
+  <si>
+    <t>http://www.comunaparedones.cl/</t>
+  </si>
+  <si>
+    <t>acceso a portal vecino digital</t>
+  </si>
+  <si>
+    <t>solo permiso de circulacion</t>
+  </si>
+  <si>
+    <t>https://mpeumo.cl/wp/</t>
+  </si>
+  <si>
+    <t>https://pichidegua.cl/</t>
+  </si>
+  <si>
+    <t>https://rancagua.cl/</t>
+  </si>
+  <si>
+    <t>https://site.muniplacilla.cl/</t>
+  </si>
+  <si>
+    <t>https://munipumanque.cl/new/</t>
+  </si>
+  <si>
+    <t>http://www.quintadetilcoco.cl/</t>
+  </si>
+  <si>
+    <t>http://www.requinoa.cl/VIREQ/index.php?requinoa=movil_a&amp;ide=322&amp;side=333&amp;titulo=AGENDA%20TELEFONICA&amp;tit2=DEPARTAMENTO%20DE%20TR%C3%81NSITO</t>
+  </si>
+  <si>
+    <t>https://www.munisanfernando.cl/new/</t>
+  </si>
+  <si>
+    <t>http://www.municipalidadsantacruz.cl/</t>
+  </si>
+  <si>
+    <t>https://www.municipalidadsanvicente.cl/</t>
+  </si>
+  <si>
+    <t>ÑUBLE</t>
   </si>
 </sst>
 </file>
@@ -1601,7 +1784,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1611,6 +1794,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1663,7 +1852,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1735,6 +1924,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2055,8 +2251,8 @@
   <dimension ref="A1:AA347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G115" sqref="G115"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B244" sqref="B244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11010,29 +11206,77 @@
       <c r="C112" s="2">
         <v>13120</v>
       </c>
-      <c r="D112" s="13"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="13"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="13"/>
-      <c r="K112" s="2"/>
-      <c r="L112" s="13"/>
-      <c r="M112" s="2"/>
-      <c r="N112" s="13"/>
-      <c r="O112" s="2"/>
-      <c r="P112" s="13"/>
-      <c r="Q112" s="2"/>
-      <c r="R112" s="13"/>
-      <c r="S112" s="2"/>
-      <c r="T112" s="13"/>
-      <c r="U112" s="14"/>
-      <c r="V112" s="13"/>
-      <c r="W112" s="2"/>
-      <c r="X112" s="13"/>
-    </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D112" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="E112" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F112" s="18">
+        <v>0.45069444444444445</v>
+      </c>
+      <c r="G112" s="2">
+        <v>1</v>
+      </c>
+      <c r="H112" s="13">
+        <v>1</v>
+      </c>
+      <c r="I112" s="2">
+        <v>1</v>
+      </c>
+      <c r="J112" s="13">
+        <v>0</v>
+      </c>
+      <c r="K112" s="2">
+        <v>1</v>
+      </c>
+      <c r="L112" s="13">
+        <v>0</v>
+      </c>
+      <c r="M112" s="2">
+        <v>1</v>
+      </c>
+      <c r="N112" s="13">
+        <v>1</v>
+      </c>
+      <c r="O112" s="2">
+        <v>1</v>
+      </c>
+      <c r="P112" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q112" s="2">
+        <v>0</v>
+      </c>
+      <c r="R112" s="13">
+        <v>0</v>
+      </c>
+      <c r="S112" s="2">
+        <v>0</v>
+      </c>
+      <c r="T112" s="13">
+        <v>0</v>
+      </c>
+      <c r="U112" s="14">
+        <v>1</v>
+      </c>
+      <c r="V112" s="13">
+        <v>0</v>
+      </c>
+      <c r="W112" s="2">
+        <v>0</v>
+      </c>
+      <c r="X112" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y112" s="14">
+        <v>22</v>
+      </c>
+      <c r="Z112" s="14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
         <v>189</v>
       </c>
@@ -11042,29 +11286,77 @@
       <c r="C113" s="2">
         <v>13604</v>
       </c>
-      <c r="D113" s="13"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="13"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="13"/>
-      <c r="K113" s="2"/>
-      <c r="L113" s="13"/>
-      <c r="M113" s="2"/>
-      <c r="N113" s="13"/>
-      <c r="O113" s="2"/>
-      <c r="P113" s="13"/>
-      <c r="Q113" s="2"/>
-      <c r="R113" s="13"/>
-      <c r="S113" s="2"/>
-      <c r="T113" s="13"/>
-      <c r="U113" s="14"/>
-      <c r="V113" s="13"/>
-      <c r="W113" s="2"/>
-      <c r="X113" s="13"/>
-    </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D113" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E113" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F113" s="18">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="G113" s="2">
+        <v>0</v>
+      </c>
+      <c r="H113" s="13">
+        <v>1</v>
+      </c>
+      <c r="I113" s="2">
+        <v>1</v>
+      </c>
+      <c r="J113" s="13">
+        <v>0</v>
+      </c>
+      <c r="K113" s="2">
+        <v>1</v>
+      </c>
+      <c r="L113" s="13">
+        <v>0</v>
+      </c>
+      <c r="M113" s="2">
+        <v>1</v>
+      </c>
+      <c r="N113" s="13">
+        <v>1</v>
+      </c>
+      <c r="O113" s="2">
+        <v>1</v>
+      </c>
+      <c r="P113" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q113" s="2">
+        <v>0</v>
+      </c>
+      <c r="R113" s="13">
+        <v>0</v>
+      </c>
+      <c r="S113" s="2">
+        <v>0</v>
+      </c>
+      <c r="T113" s="13">
+        <v>0</v>
+      </c>
+      <c r="U113" s="14">
+        <v>0</v>
+      </c>
+      <c r="V113" s="13">
+        <v>0</v>
+      </c>
+      <c r="W113" s="2">
+        <v>0</v>
+      </c>
+      <c r="X113" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y113" s="14">
+        <v>38</v>
+      </c>
+      <c r="Z113" s="24">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
         <v>180</v>
       </c>
@@ -11074,29 +11366,77 @@
       <c r="C114" s="2">
         <v>13404</v>
       </c>
-      <c r="D114" s="13"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="13"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="13"/>
-      <c r="K114" s="2"/>
-      <c r="L114" s="13"/>
-      <c r="M114" s="2"/>
-      <c r="N114" s="13"/>
-      <c r="O114" s="2"/>
-      <c r="P114" s="13"/>
-      <c r="Q114" s="2"/>
-      <c r="R114" s="13"/>
-      <c r="S114" s="2"/>
-      <c r="T114" s="13"/>
-      <c r="U114" s="14"/>
-      <c r="V114" s="13"/>
-      <c r="W114" s="2"/>
-      <c r="X114" s="13"/>
-    </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D114" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="E114" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F114" s="18">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G114" s="2">
+        <v>0</v>
+      </c>
+      <c r="H114" s="13">
+        <v>1</v>
+      </c>
+      <c r="I114" s="2">
+        <v>1</v>
+      </c>
+      <c r="J114" s="13">
+        <v>0</v>
+      </c>
+      <c r="K114" s="2">
+        <v>0</v>
+      </c>
+      <c r="L114" s="13">
+        <v>0</v>
+      </c>
+      <c r="M114" s="2">
+        <v>1</v>
+      </c>
+      <c r="N114" s="13">
+        <v>0</v>
+      </c>
+      <c r="O114" s="2">
+        <v>1</v>
+      </c>
+      <c r="P114" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q114" s="2">
+        <v>0</v>
+      </c>
+      <c r="R114" s="13">
+        <v>0</v>
+      </c>
+      <c r="S114" s="2">
+        <v>0</v>
+      </c>
+      <c r="T114" s="13">
+        <v>0</v>
+      </c>
+      <c r="U114" s="14">
+        <v>1</v>
+      </c>
+      <c r="V114" s="13">
+        <v>0</v>
+      </c>
+      <c r="W114" s="2">
+        <v>0</v>
+      </c>
+      <c r="X114" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y114" s="14">
+        <v>9</v>
+      </c>
+      <c r="Z114" s="14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
         <v>159</v>
       </c>
@@ -11106,29 +11446,77 @@
       <c r="C115" s="2">
         <v>13121</v>
       </c>
-      <c r="D115" s="13"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="13"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="13"/>
-      <c r="K115" s="2"/>
-      <c r="L115" s="13"/>
-      <c r="M115" s="2"/>
-      <c r="N115" s="13"/>
-      <c r="O115" s="2"/>
-      <c r="P115" s="13"/>
-      <c r="Q115" s="2"/>
-      <c r="R115" s="13"/>
-      <c r="S115" s="2"/>
-      <c r="T115" s="13"/>
-      <c r="U115" s="14"/>
-      <c r="V115" s="13"/>
-      <c r="W115" s="2"/>
-      <c r="X115" s="13"/>
-    </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D115" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="E115" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F115" s="18">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="G115" s="2">
+        <v>0</v>
+      </c>
+      <c r="H115" s="13">
+        <v>1</v>
+      </c>
+      <c r="I115" s="2">
+        <v>1</v>
+      </c>
+      <c r="J115" s="13">
+        <v>0</v>
+      </c>
+      <c r="K115" s="2">
+        <v>0</v>
+      </c>
+      <c r="L115" s="13">
+        <v>0</v>
+      </c>
+      <c r="M115" s="2">
+        <v>1</v>
+      </c>
+      <c r="N115" s="13">
+        <v>1</v>
+      </c>
+      <c r="O115" s="2">
+        <v>1</v>
+      </c>
+      <c r="P115" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q115" s="2">
+        <v>0</v>
+      </c>
+      <c r="R115" s="13">
+        <v>0</v>
+      </c>
+      <c r="S115" s="2">
+        <v>0</v>
+      </c>
+      <c r="T115" s="13">
+        <v>0</v>
+      </c>
+      <c r="U115" s="14">
+        <v>1</v>
+      </c>
+      <c r="V115" s="13">
+        <v>0</v>
+      </c>
+      <c r="W115" s="2">
+        <v>0</v>
+      </c>
+      <c r="X115" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y115" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z115" s="14" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
         <v>190</v>
       </c>
@@ -11138,29 +11526,77 @@
       <c r="C116" s="2">
         <v>13605</v>
       </c>
-      <c r="D116" s="13"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="13"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="13"/>
-      <c r="K116" s="2"/>
-      <c r="L116" s="13"/>
-      <c r="M116" s="2"/>
-      <c r="N116" s="13"/>
-      <c r="O116" s="2"/>
-      <c r="P116" s="13"/>
-      <c r="Q116" s="2"/>
-      <c r="R116" s="13"/>
-      <c r="S116" s="2"/>
-      <c r="T116" s="13"/>
-      <c r="U116" s="14"/>
-      <c r="V116" s="13"/>
-      <c r="W116" s="2"/>
-      <c r="X116" s="13"/>
-    </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D116" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="E116" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F116" s="18">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="G116" s="2">
+        <v>0</v>
+      </c>
+      <c r="H116" s="13">
+        <v>1</v>
+      </c>
+      <c r="I116" s="2">
+        <v>1</v>
+      </c>
+      <c r="J116" s="13">
+        <v>0</v>
+      </c>
+      <c r="K116" s="2">
+        <v>0</v>
+      </c>
+      <c r="L116" s="13">
+        <v>0</v>
+      </c>
+      <c r="M116" s="2">
+        <v>1</v>
+      </c>
+      <c r="N116" s="13">
+        <v>1</v>
+      </c>
+      <c r="O116" s="2">
+        <v>1</v>
+      </c>
+      <c r="P116" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q116" s="2">
+        <v>0</v>
+      </c>
+      <c r="R116" s="13">
+        <v>0</v>
+      </c>
+      <c r="S116" s="2">
+        <v>0</v>
+      </c>
+      <c r="T116" s="13">
+        <v>0</v>
+      </c>
+      <c r="U116" s="14">
+        <v>1</v>
+      </c>
+      <c r="V116" s="13">
+        <v>0</v>
+      </c>
+      <c r="W116" s="2">
+        <v>0</v>
+      </c>
+      <c r="X116" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y116" s="14">
+        <v>46</v>
+      </c>
+      <c r="Z116" s="14">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
         <v>160</v>
       </c>
@@ -11170,29 +11606,77 @@
       <c r="C117" s="2">
         <v>13122</v>
       </c>
-      <c r="D117" s="13"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="13"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="13"/>
-      <c r="K117" s="2"/>
-      <c r="L117" s="13"/>
-      <c r="M117" s="2"/>
-      <c r="N117" s="13"/>
-      <c r="O117" s="2"/>
-      <c r="P117" s="13"/>
-      <c r="Q117" s="2"/>
-      <c r="R117" s="13"/>
-      <c r="S117" s="2"/>
-      <c r="T117" s="13"/>
-      <c r="U117" s="14"/>
-      <c r="V117" s="13"/>
-      <c r="W117" s="2"/>
-      <c r="X117" s="13"/>
-    </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D117" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="E117" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F117" s="18">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="G117" s="2">
+        <v>0</v>
+      </c>
+      <c r="H117" s="13">
+        <v>1</v>
+      </c>
+      <c r="I117" s="2">
+        <v>1</v>
+      </c>
+      <c r="J117" s="13">
+        <v>0</v>
+      </c>
+      <c r="K117" s="2">
+        <v>1</v>
+      </c>
+      <c r="L117" s="13">
+        <v>0</v>
+      </c>
+      <c r="M117" s="2">
+        <v>1</v>
+      </c>
+      <c r="N117" s="13">
+        <v>0</v>
+      </c>
+      <c r="O117" s="2">
+        <v>1</v>
+      </c>
+      <c r="P117" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q117" s="2">
+        <v>1</v>
+      </c>
+      <c r="R117" s="13">
+        <v>1</v>
+      </c>
+      <c r="S117" s="2">
+        <v>1</v>
+      </c>
+      <c r="T117" s="13">
+        <v>1</v>
+      </c>
+      <c r="U117" s="14">
+        <v>1</v>
+      </c>
+      <c r="V117" s="13">
+        <v>0</v>
+      </c>
+      <c r="W117" s="2">
+        <v>0</v>
+      </c>
+      <c r="X117" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y117" s="14">
+        <v>36</v>
+      </c>
+      <c r="Z117" s="14">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
         <v>172</v>
       </c>
@@ -11202,29 +11686,77 @@
       <c r="C118" s="2">
         <v>13202</v>
       </c>
-      <c r="D118" s="13"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="13"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="13"/>
-      <c r="K118" s="2"/>
-      <c r="L118" s="13"/>
-      <c r="M118" s="2"/>
-      <c r="N118" s="13"/>
-      <c r="O118" s="2"/>
-      <c r="P118" s="13"/>
-      <c r="Q118" s="2"/>
-      <c r="R118" s="13"/>
-      <c r="S118" s="2"/>
-      <c r="T118" s="13"/>
-      <c r="U118" s="14"/>
-      <c r="V118" s="13"/>
-      <c r="W118" s="2"/>
-      <c r="X118" s="13"/>
-    </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D118" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="E118" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F118" s="18">
+        <v>0.4770833333333333</v>
+      </c>
+      <c r="G118" s="2">
+        <v>0</v>
+      </c>
+      <c r="H118" s="13">
+        <v>1</v>
+      </c>
+      <c r="I118" s="2">
+        <v>1</v>
+      </c>
+      <c r="J118" s="13">
+        <v>0</v>
+      </c>
+      <c r="K118" s="2">
+        <v>1</v>
+      </c>
+      <c r="L118" s="13">
+        <v>0</v>
+      </c>
+      <c r="M118" s="2">
+        <v>1</v>
+      </c>
+      <c r="N118" s="13">
+        <v>0</v>
+      </c>
+      <c r="O118" s="2">
+        <v>1</v>
+      </c>
+      <c r="P118" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q118" s="2">
+        <v>0</v>
+      </c>
+      <c r="R118" s="13">
+        <v>0</v>
+      </c>
+      <c r="S118" s="2">
+        <v>0</v>
+      </c>
+      <c r="T118" s="13">
+        <v>0</v>
+      </c>
+      <c r="U118" s="14">
+        <v>1</v>
+      </c>
+      <c r="V118" s="13">
+        <v>0</v>
+      </c>
+      <c r="W118" s="2">
+        <v>0</v>
+      </c>
+      <c r="X118" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y118" s="14">
+        <v>33</v>
+      </c>
+      <c r="Z118" s="14">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
         <v>161</v>
       </c>
@@ -11234,29 +11766,77 @@
       <c r="C119" s="2">
         <v>13123</v>
       </c>
-      <c r="D119" s="13"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="13"/>
-      <c r="I119" s="2"/>
-      <c r="J119" s="13"/>
-      <c r="K119" s="2"/>
-      <c r="L119" s="13"/>
-      <c r="M119" s="2"/>
-      <c r="N119" s="13"/>
-      <c r="O119" s="2"/>
-      <c r="P119" s="13"/>
-      <c r="Q119" s="2"/>
-      <c r="R119" s="13"/>
-      <c r="S119" s="2"/>
-      <c r="T119" s="13"/>
-      <c r="U119" s="14"/>
-      <c r="V119" s="13"/>
-      <c r="W119" s="2"/>
-      <c r="X119" s="13"/>
-    </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D119" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="E119" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F119" s="18">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="G119" s="2">
+        <v>0</v>
+      </c>
+      <c r="H119" s="13">
+        <v>1</v>
+      </c>
+      <c r="I119" s="2">
+        <v>1</v>
+      </c>
+      <c r="J119" s="13">
+        <v>0</v>
+      </c>
+      <c r="K119" s="2">
+        <v>1</v>
+      </c>
+      <c r="L119" s="13">
+        <v>0</v>
+      </c>
+      <c r="M119" s="2">
+        <v>1</v>
+      </c>
+      <c r="N119" s="13">
+        <v>1</v>
+      </c>
+      <c r="O119" s="2">
+        <v>1</v>
+      </c>
+      <c r="P119" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q119" s="2">
+        <v>0</v>
+      </c>
+      <c r="R119" s="13">
+        <v>0</v>
+      </c>
+      <c r="S119" s="2">
+        <v>0</v>
+      </c>
+      <c r="T119" s="13">
+        <v>0</v>
+      </c>
+      <c r="U119" s="14">
+        <v>1</v>
+      </c>
+      <c r="V119" s="13">
+        <v>0</v>
+      </c>
+      <c r="W119" s="2">
+        <v>0</v>
+      </c>
+      <c r="X119" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y119" s="14">
+        <v>32</v>
+      </c>
+      <c r="Z119" s="14">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
         <v>162</v>
       </c>
@@ -11266,29 +11846,77 @@
       <c r="C120" s="2">
         <v>13124</v>
       </c>
-      <c r="D120" s="13"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="13"/>
-      <c r="I120" s="2"/>
-      <c r="J120" s="13"/>
-      <c r="K120" s="2"/>
-      <c r="L120" s="13"/>
-      <c r="M120" s="2"/>
-      <c r="N120" s="13"/>
-      <c r="O120" s="2"/>
-      <c r="P120" s="13"/>
-      <c r="Q120" s="2"/>
-      <c r="R120" s="13"/>
-      <c r="S120" s="2"/>
-      <c r="T120" s="13"/>
-      <c r="U120" s="14"/>
-      <c r="V120" s="13"/>
-      <c r="W120" s="2"/>
-      <c r="X120" s="13"/>
-    </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D120" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="E120" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F120" s="18">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="G120" s="2">
+        <v>0</v>
+      </c>
+      <c r="H120" s="13">
+        <v>1</v>
+      </c>
+      <c r="I120" s="2">
+        <v>0</v>
+      </c>
+      <c r="J120" s="13">
+        <v>0</v>
+      </c>
+      <c r="K120" s="2">
+        <v>0</v>
+      </c>
+      <c r="L120" s="13">
+        <v>0</v>
+      </c>
+      <c r="M120" s="2">
+        <v>1</v>
+      </c>
+      <c r="N120" s="13">
+        <v>1</v>
+      </c>
+      <c r="O120" s="2">
+        <v>1</v>
+      </c>
+      <c r="P120" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q120" s="2">
+        <v>0</v>
+      </c>
+      <c r="R120" s="13">
+        <v>0</v>
+      </c>
+      <c r="S120" s="2">
+        <v>0</v>
+      </c>
+      <c r="T120" s="13">
+        <v>0</v>
+      </c>
+      <c r="U120" s="14">
+        <v>1</v>
+      </c>
+      <c r="V120" s="13">
+        <v>0</v>
+      </c>
+      <c r="W120" s="2">
+        <v>0</v>
+      </c>
+      <c r="X120" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y120" s="14">
+        <v>12</v>
+      </c>
+      <c r="Z120" s="14">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
         <v>171</v>
       </c>
@@ -11298,29 +11926,77 @@
       <c r="C121" s="2">
         <v>13201</v>
       </c>
-      <c r="D121" s="13"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="13"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="13"/>
-      <c r="K121" s="2"/>
-      <c r="L121" s="13"/>
-      <c r="M121" s="2"/>
-      <c r="N121" s="13"/>
-      <c r="O121" s="2"/>
-      <c r="P121" s="13"/>
-      <c r="Q121" s="2"/>
-      <c r="R121" s="13"/>
-      <c r="S121" s="2"/>
-      <c r="T121" s="13"/>
-      <c r="U121" s="14"/>
-      <c r="V121" s="13"/>
-      <c r="W121" s="2"/>
-      <c r="X121" s="13"/>
-    </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D121" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="E121" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F121" s="18">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="G121" s="2">
+        <v>1</v>
+      </c>
+      <c r="H121" s="13">
+        <v>1</v>
+      </c>
+      <c r="I121" s="2">
+        <v>1</v>
+      </c>
+      <c r="J121" s="13">
+        <v>0</v>
+      </c>
+      <c r="K121" s="2">
+        <v>0</v>
+      </c>
+      <c r="L121" s="13">
+        <v>0</v>
+      </c>
+      <c r="M121" s="2">
+        <v>1</v>
+      </c>
+      <c r="N121" s="13">
+        <v>0</v>
+      </c>
+      <c r="O121" s="2">
+        <v>1</v>
+      </c>
+      <c r="P121" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q121" s="2">
+        <v>0</v>
+      </c>
+      <c r="R121" s="13">
+        <v>0</v>
+      </c>
+      <c r="S121" s="2">
+        <v>0</v>
+      </c>
+      <c r="T121" s="13">
+        <v>0</v>
+      </c>
+      <c r="U121" s="14">
+        <v>1</v>
+      </c>
+      <c r="V121" s="13">
+        <v>0</v>
+      </c>
+      <c r="W121" s="2">
+        <v>0</v>
+      </c>
+      <c r="X121" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y121" s="14">
+        <v>4</v>
+      </c>
+      <c r="Z121" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
         <v>163</v>
       </c>
@@ -11330,29 +12006,77 @@
       <c r="C122" s="2">
         <v>13125</v>
       </c>
-      <c r="D122" s="13"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="13"/>
-      <c r="I122" s="2"/>
-      <c r="J122" s="13"/>
-      <c r="K122" s="2"/>
-      <c r="L122" s="13"/>
-      <c r="M122" s="2"/>
-      <c r="N122" s="13"/>
-      <c r="O122" s="2"/>
-      <c r="P122" s="13"/>
-      <c r="Q122" s="2"/>
-      <c r="R122" s="13"/>
-      <c r="S122" s="2"/>
-      <c r="T122" s="13"/>
-      <c r="U122" s="14"/>
-      <c r="V122" s="13"/>
-      <c r="W122" s="2"/>
-      <c r="X122" s="13"/>
-    </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D122" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E122" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F122" s="18">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="G122" s="2">
+        <v>0</v>
+      </c>
+      <c r="H122" s="13">
+        <v>1</v>
+      </c>
+      <c r="I122" s="2">
+        <v>1</v>
+      </c>
+      <c r="J122" s="13">
+        <v>0</v>
+      </c>
+      <c r="K122" s="2">
+        <v>1</v>
+      </c>
+      <c r="L122" s="13">
+        <v>0</v>
+      </c>
+      <c r="M122" s="2">
+        <v>1</v>
+      </c>
+      <c r="N122" s="13">
+        <v>1</v>
+      </c>
+      <c r="O122" s="2">
+        <v>1</v>
+      </c>
+      <c r="P122" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q122" s="2">
+        <v>0</v>
+      </c>
+      <c r="R122" s="13">
+        <v>0</v>
+      </c>
+      <c r="S122" s="2">
+        <v>0</v>
+      </c>
+      <c r="T122" s="13">
+        <v>0</v>
+      </c>
+      <c r="U122" s="14">
+        <v>1</v>
+      </c>
+      <c r="V122" s="13">
+        <v>0</v>
+      </c>
+      <c r="W122" s="2">
+        <v>0</v>
+      </c>
+      <c r="X122" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y122" s="14">
+        <v>16</v>
+      </c>
+      <c r="Z122" s="14">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
         <v>164</v>
       </c>
@@ -11362,29 +12086,77 @@
       <c r="C123" s="2">
         <v>13126</v>
       </c>
-      <c r="D123" s="13"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="13"/>
-      <c r="I123" s="2"/>
-      <c r="J123" s="13"/>
-      <c r="K123" s="2"/>
-      <c r="L123" s="13"/>
-      <c r="M123" s="2"/>
-      <c r="N123" s="13"/>
-      <c r="O123" s="2"/>
-      <c r="P123" s="13"/>
-      <c r="Q123" s="2"/>
-      <c r="R123" s="13"/>
-      <c r="S123" s="2"/>
-      <c r="T123" s="13"/>
-      <c r="U123" s="14"/>
-      <c r="V123" s="13"/>
-      <c r="W123" s="2"/>
-      <c r="X123" s="13"/>
-    </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D123" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E123" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F123" s="18">
+        <v>0.62638888888888888</v>
+      </c>
+      <c r="G123" s="2">
+        <v>0</v>
+      </c>
+      <c r="H123" s="13">
+        <v>1</v>
+      </c>
+      <c r="I123" s="2">
+        <v>1</v>
+      </c>
+      <c r="J123" s="13">
+        <v>0</v>
+      </c>
+      <c r="K123" s="2">
+        <v>1</v>
+      </c>
+      <c r="L123" s="13">
+        <v>0</v>
+      </c>
+      <c r="M123" s="2">
+        <v>1</v>
+      </c>
+      <c r="N123" s="13">
+        <v>0</v>
+      </c>
+      <c r="O123" s="2">
+        <v>1</v>
+      </c>
+      <c r="P123" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q123" s="2">
+        <v>0</v>
+      </c>
+      <c r="R123" s="13">
+        <v>0</v>
+      </c>
+      <c r="S123" s="2">
+        <v>0</v>
+      </c>
+      <c r="T123" s="13">
+        <v>0</v>
+      </c>
+      <c r="U123" s="14">
+        <v>0</v>
+      </c>
+      <c r="V123" s="13">
+        <v>0</v>
+      </c>
+      <c r="W123" s="2">
+        <v>0</v>
+      </c>
+      <c r="X123" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y123" s="14">
+        <v>40</v>
+      </c>
+      <c r="Z123" s="14">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
         <v>165</v>
       </c>
@@ -11394,29 +12166,77 @@
       <c r="C124" s="2">
         <v>13127</v>
       </c>
-      <c r="D124" s="13"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="13"/>
-      <c r="I124" s="2"/>
-      <c r="J124" s="13"/>
-      <c r="K124" s="2"/>
-      <c r="L124" s="13"/>
-      <c r="M124" s="2"/>
-      <c r="N124" s="13"/>
-      <c r="O124" s="2"/>
-      <c r="P124" s="13"/>
-      <c r="Q124" s="2"/>
-      <c r="R124" s="13"/>
-      <c r="S124" s="2"/>
-      <c r="T124" s="13"/>
-      <c r="U124" s="14"/>
-      <c r="V124" s="13"/>
-      <c r="W124" s="2"/>
-      <c r="X124" s="13"/>
-    </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D124" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="E124" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F124" s="18">
+        <v>0.63124999999999998</v>
+      </c>
+      <c r="G124" s="2">
+        <v>0</v>
+      </c>
+      <c r="H124" s="13">
+        <v>1</v>
+      </c>
+      <c r="I124" s="2">
+        <v>1</v>
+      </c>
+      <c r="J124" s="13">
+        <v>0</v>
+      </c>
+      <c r="K124" s="2">
+        <v>1</v>
+      </c>
+      <c r="L124" s="13">
+        <v>0</v>
+      </c>
+      <c r="M124" s="2">
+        <v>1</v>
+      </c>
+      <c r="N124" s="13">
+        <v>0</v>
+      </c>
+      <c r="O124" s="2">
+        <v>1</v>
+      </c>
+      <c r="P124" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q124" s="2">
+        <v>0</v>
+      </c>
+      <c r="R124" s="13">
+        <v>0</v>
+      </c>
+      <c r="S124" s="2">
+        <v>0</v>
+      </c>
+      <c r="T124" s="13">
+        <v>0</v>
+      </c>
+      <c r="U124" s="14">
+        <v>1</v>
+      </c>
+      <c r="V124" s="13">
+        <v>0</v>
+      </c>
+      <c r="W124" s="2">
+        <v>0</v>
+      </c>
+      <c r="X124" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y124" s="14">
+        <v>14</v>
+      </c>
+      <c r="Z124" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
         <v>166</v>
       </c>
@@ -11426,29 +12246,77 @@
       <c r="C125" s="2">
         <v>13128</v>
       </c>
-      <c r="D125" s="13"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="13"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="13"/>
-      <c r="I125" s="2"/>
-      <c r="J125" s="13"/>
-      <c r="K125" s="2"/>
-      <c r="L125" s="13"/>
-      <c r="M125" s="2"/>
-      <c r="N125" s="13"/>
-      <c r="O125" s="2"/>
-      <c r="P125" s="13"/>
-      <c r="Q125" s="2"/>
-      <c r="R125" s="13"/>
-      <c r="S125" s="2"/>
-      <c r="T125" s="13"/>
-      <c r="U125" s="14"/>
-      <c r="V125" s="13"/>
-      <c r="W125" s="2"/>
-      <c r="X125" s="13"/>
-    </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D125" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="E125" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F125" s="18">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="G125" s="2">
+        <v>1</v>
+      </c>
+      <c r="H125" s="13">
+        <v>1</v>
+      </c>
+      <c r="I125" s="2">
+        <v>1</v>
+      </c>
+      <c r="J125" s="13">
+        <v>1</v>
+      </c>
+      <c r="K125" s="2">
+        <v>0</v>
+      </c>
+      <c r="L125" s="13">
+        <v>0</v>
+      </c>
+      <c r="M125" s="2">
+        <v>1</v>
+      </c>
+      <c r="N125" s="13">
+        <v>1</v>
+      </c>
+      <c r="O125" s="2">
+        <v>1</v>
+      </c>
+      <c r="P125" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q125" s="2">
+        <v>0</v>
+      </c>
+      <c r="R125" s="13">
+        <v>0</v>
+      </c>
+      <c r="S125" s="2">
+        <v>0</v>
+      </c>
+      <c r="T125" s="13">
+        <v>0</v>
+      </c>
+      <c r="U125" s="14">
+        <v>1</v>
+      </c>
+      <c r="V125" s="13">
+        <v>0</v>
+      </c>
+      <c r="W125" s="2">
+        <v>0</v>
+      </c>
+      <c r="X125" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y125" s="14">
+        <v>11</v>
+      </c>
+      <c r="Z125" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
         <v>177</v>
       </c>
@@ -11458,29 +12326,77 @@
       <c r="C126" s="2">
         <v>13401</v>
       </c>
-      <c r="D126" s="13"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="13"/>
-      <c r="I126" s="2"/>
-      <c r="J126" s="13"/>
-      <c r="K126" s="2"/>
-      <c r="L126" s="13"/>
-      <c r="M126" s="2"/>
-      <c r="N126" s="13"/>
-      <c r="O126" s="2"/>
-      <c r="P126" s="13"/>
-      <c r="Q126" s="2"/>
-      <c r="R126" s="13"/>
-      <c r="S126" s="2"/>
-      <c r="T126" s="13"/>
-      <c r="U126" s="14"/>
-      <c r="V126" s="13"/>
-      <c r="W126" s="2"/>
-      <c r="X126" s="13"/>
-    </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D126" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="E126" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F126" s="18">
+        <v>0.63611111111111118</v>
+      </c>
+      <c r="G126" s="2">
+        <v>1</v>
+      </c>
+      <c r="H126" s="13">
+        <v>1</v>
+      </c>
+      <c r="I126" s="2">
+        <v>0</v>
+      </c>
+      <c r="J126" s="13">
+        <v>0</v>
+      </c>
+      <c r="K126" s="2">
+        <v>0</v>
+      </c>
+      <c r="L126" s="13">
+        <v>0</v>
+      </c>
+      <c r="M126" s="2">
+        <v>1</v>
+      </c>
+      <c r="N126" s="13">
+        <v>0</v>
+      </c>
+      <c r="O126" s="2">
+        <v>1</v>
+      </c>
+      <c r="P126" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q126" s="2">
+        <v>0</v>
+      </c>
+      <c r="R126" s="13">
+        <v>0</v>
+      </c>
+      <c r="S126" s="2">
+        <v>0</v>
+      </c>
+      <c r="T126" s="13">
+        <v>0</v>
+      </c>
+      <c r="U126" s="14">
+        <v>1</v>
+      </c>
+      <c r="V126" s="13">
+        <v>0</v>
+      </c>
+      <c r="W126" s="2">
+        <v>0</v>
+      </c>
+      <c r="X126" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y126" s="14">
+        <v>41</v>
+      </c>
+      <c r="Z126" s="14">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
         <v>167</v>
       </c>
@@ -11490,29 +12406,77 @@
       <c r="C127" s="2">
         <v>13129</v>
       </c>
-      <c r="D127" s="13"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="13"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="13"/>
-      <c r="I127" s="2"/>
-      <c r="J127" s="13"/>
-      <c r="K127" s="2"/>
-      <c r="L127" s="13"/>
-      <c r="M127" s="2"/>
-      <c r="N127" s="13"/>
-      <c r="O127" s="2"/>
-      <c r="P127" s="13"/>
-      <c r="Q127" s="2"/>
-      <c r="R127" s="13"/>
-      <c r="S127" s="2"/>
-      <c r="T127" s="13"/>
-      <c r="U127" s="14"/>
-      <c r="V127" s="13"/>
-      <c r="W127" s="2"/>
-      <c r="X127" s="13"/>
-    </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D127" s="27" t="s">
+        <v>520</v>
+      </c>
+      <c r="E127" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F127" s="18">
+        <v>0.64166666666666672</v>
+      </c>
+      <c r="G127" s="21">
+        <v>0</v>
+      </c>
+      <c r="H127" s="28">
+        <v>1</v>
+      </c>
+      <c r="I127" s="21">
+        <v>1</v>
+      </c>
+      <c r="J127" s="28">
+        <v>0</v>
+      </c>
+      <c r="K127" s="21">
+        <v>0</v>
+      </c>
+      <c r="L127" s="28">
+        <v>0</v>
+      </c>
+      <c r="M127" s="21">
+        <v>1</v>
+      </c>
+      <c r="N127" s="28">
+        <v>1</v>
+      </c>
+      <c r="O127" s="21">
+        <v>1</v>
+      </c>
+      <c r="P127" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q127" s="2">
+        <v>0</v>
+      </c>
+      <c r="R127" s="13">
+        <v>0</v>
+      </c>
+      <c r="S127" s="2">
+        <v>0</v>
+      </c>
+      <c r="T127" s="13">
+        <v>0</v>
+      </c>
+      <c r="U127" s="14">
+        <v>1</v>
+      </c>
+      <c r="V127" s="13">
+        <v>0</v>
+      </c>
+      <c r="W127" s="2">
+        <v>0</v>
+      </c>
+      <c r="X127" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y127" s="14">
+        <v>14</v>
+      </c>
+      <c r="Z127" s="14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
         <v>173</v>
       </c>
@@ -11522,29 +12486,77 @@
       <c r="C128" s="2">
         <v>13203</v>
       </c>
-      <c r="D128" s="13"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="13"/>
-      <c r="I128" s="2"/>
-      <c r="J128" s="13"/>
-      <c r="K128" s="2"/>
-      <c r="L128" s="13"/>
-      <c r="M128" s="2"/>
-      <c r="N128" s="13"/>
-      <c r="O128" s="2"/>
-      <c r="P128" s="13"/>
-      <c r="Q128" s="2"/>
-      <c r="R128" s="13"/>
-      <c r="S128" s="2"/>
-      <c r="T128" s="13"/>
-      <c r="U128" s="14"/>
-      <c r="V128" s="13"/>
-      <c r="W128" s="2"/>
-      <c r="X128" s="13"/>
-    </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D128" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="E128" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F128" s="18">
+        <v>0.6381944444444444</v>
+      </c>
+      <c r="G128" s="2">
+        <v>1</v>
+      </c>
+      <c r="H128" s="13">
+        <v>1</v>
+      </c>
+      <c r="I128" s="2">
+        <v>1</v>
+      </c>
+      <c r="J128" s="13">
+        <v>0</v>
+      </c>
+      <c r="K128" s="2">
+        <v>1</v>
+      </c>
+      <c r="L128" s="13">
+        <v>0</v>
+      </c>
+      <c r="M128" s="2">
+        <v>1</v>
+      </c>
+      <c r="N128" s="13">
+        <v>0</v>
+      </c>
+      <c r="O128" s="2">
+        <v>1</v>
+      </c>
+      <c r="P128" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q128" s="2">
+        <v>1</v>
+      </c>
+      <c r="R128" s="13">
+        <v>1</v>
+      </c>
+      <c r="S128" s="2">
+        <v>1</v>
+      </c>
+      <c r="T128" s="13">
+        <v>1</v>
+      </c>
+      <c r="U128" s="14">
+        <v>1</v>
+      </c>
+      <c r="V128" s="13">
+        <v>0</v>
+      </c>
+      <c r="W128" s="2">
+        <v>0</v>
+      </c>
+      <c r="X128" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y128" s="14">
+        <v>30</v>
+      </c>
+      <c r="Z128" s="14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
         <v>168</v>
       </c>
@@ -11554,29 +12566,77 @@
       <c r="C129" s="2">
         <v>13130</v>
       </c>
-      <c r="D129" s="13"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="13"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="13"/>
-      <c r="I129" s="2"/>
-      <c r="J129" s="13"/>
-      <c r="K129" s="2"/>
-      <c r="L129" s="13"/>
-      <c r="M129" s="2"/>
-      <c r="N129" s="13"/>
-      <c r="O129" s="2"/>
-      <c r="P129" s="13"/>
-      <c r="Q129" s="2"/>
-      <c r="R129" s="13"/>
-      <c r="S129" s="2"/>
-      <c r="T129" s="13"/>
-      <c r="U129" s="14"/>
-      <c r="V129" s="13"/>
-      <c r="W129" s="2"/>
-      <c r="X129" s="13"/>
-    </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D129" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="E129" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F129" s="18">
+        <v>0.64513888888888882</v>
+      </c>
+      <c r="G129" s="2">
+        <v>1</v>
+      </c>
+      <c r="H129" s="13">
+        <v>1</v>
+      </c>
+      <c r="I129" s="2">
+        <v>0</v>
+      </c>
+      <c r="J129" s="13">
+        <v>0</v>
+      </c>
+      <c r="K129" s="2">
+        <v>0</v>
+      </c>
+      <c r="L129" s="13">
+        <v>0</v>
+      </c>
+      <c r="M129" s="2">
+        <v>1</v>
+      </c>
+      <c r="N129" s="13">
+        <v>1</v>
+      </c>
+      <c r="O129" s="2">
+        <v>1</v>
+      </c>
+      <c r="P129" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q129" s="2">
+        <v>0</v>
+      </c>
+      <c r="R129" s="13">
+        <v>0</v>
+      </c>
+      <c r="S129" s="2">
+        <v>0</v>
+      </c>
+      <c r="T129" s="13">
+        <v>0</v>
+      </c>
+      <c r="U129" s="14">
+        <v>1</v>
+      </c>
+      <c r="V129" s="13">
+        <v>0</v>
+      </c>
+      <c r="W129" s="2">
+        <v>0</v>
+      </c>
+      <c r="X129" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y129" s="14">
+        <v>5</v>
+      </c>
+      <c r="Z129" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
         <v>185</v>
       </c>
@@ -11586,29 +12646,77 @@
       <c r="C130" s="2">
         <v>13505</v>
       </c>
-      <c r="D130" s="13"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="13"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="13"/>
-      <c r="I130" s="2"/>
-      <c r="J130" s="13"/>
-      <c r="K130" s="2"/>
-      <c r="L130" s="13"/>
-      <c r="M130" s="2"/>
-      <c r="N130" s="13"/>
-      <c r="O130" s="2"/>
-      <c r="P130" s="13"/>
-      <c r="Q130" s="2"/>
-      <c r="R130" s="13"/>
-      <c r="S130" s="2"/>
-      <c r="T130" s="13"/>
-      <c r="U130" s="14"/>
-      <c r="V130" s="13"/>
-      <c r="W130" s="2"/>
-      <c r="X130" s="13"/>
-    </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D130" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="E130" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F130" s="18">
+        <v>0.6479166666666667</v>
+      </c>
+      <c r="G130" s="2">
+        <v>0</v>
+      </c>
+      <c r="H130" s="13">
+        <v>1</v>
+      </c>
+      <c r="I130" s="2">
+        <v>1</v>
+      </c>
+      <c r="J130" s="13">
+        <v>0</v>
+      </c>
+      <c r="K130" s="2">
+        <v>0</v>
+      </c>
+      <c r="L130" s="13">
+        <v>0</v>
+      </c>
+      <c r="M130" s="2">
+        <v>1</v>
+      </c>
+      <c r="N130" s="13">
+        <v>1</v>
+      </c>
+      <c r="O130" s="2">
+        <v>1</v>
+      </c>
+      <c r="P130" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q130" s="2">
+        <v>0</v>
+      </c>
+      <c r="R130" s="13">
+        <v>0</v>
+      </c>
+      <c r="S130" s="2">
+        <v>0</v>
+      </c>
+      <c r="T130" s="13">
+        <v>0</v>
+      </c>
+      <c r="U130" s="14">
+        <v>1</v>
+      </c>
+      <c r="V130" s="13">
+        <v>0</v>
+      </c>
+      <c r="W130" s="2">
+        <v>0</v>
+      </c>
+      <c r="X130" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y130" s="14">
+        <v>26</v>
+      </c>
+      <c r="Z130" s="14">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
         <v>169</v>
       </c>
@@ -11618,29 +12726,77 @@
       <c r="C131" s="2">
         <v>13131</v>
       </c>
-      <c r="D131" s="13"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="13"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="13"/>
-      <c r="I131" s="2"/>
-      <c r="J131" s="13"/>
-      <c r="K131" s="2"/>
-      <c r="L131" s="13"/>
-      <c r="M131" s="2"/>
-      <c r="N131" s="13"/>
-      <c r="O131" s="2"/>
-      <c r="P131" s="13"/>
-      <c r="Q131" s="2"/>
-      <c r="R131" s="13"/>
-      <c r="S131" s="2"/>
-      <c r="T131" s="13"/>
-      <c r="U131" s="14"/>
-      <c r="V131" s="13"/>
-      <c r="W131" s="2"/>
-      <c r="X131" s="13"/>
-    </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D131" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="E131" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F131" s="18">
+        <v>0.65069444444444446</v>
+      </c>
+      <c r="G131" s="2">
+        <v>0</v>
+      </c>
+      <c r="H131" s="13">
+        <v>1</v>
+      </c>
+      <c r="I131" s="2">
+        <v>1</v>
+      </c>
+      <c r="J131" s="13">
+        <v>0</v>
+      </c>
+      <c r="K131" s="2">
+        <v>1</v>
+      </c>
+      <c r="L131" s="13">
+        <v>0</v>
+      </c>
+      <c r="M131" s="2">
+        <v>1</v>
+      </c>
+      <c r="N131" s="13">
+        <v>1</v>
+      </c>
+      <c r="O131" s="2">
+        <v>1</v>
+      </c>
+      <c r="P131" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q131" s="2">
+        <v>0</v>
+      </c>
+      <c r="R131" s="13">
+        <v>0</v>
+      </c>
+      <c r="S131" s="2">
+        <v>0</v>
+      </c>
+      <c r="T131" s="13">
+        <v>0</v>
+      </c>
+      <c r="U131" s="14">
+        <v>1</v>
+      </c>
+      <c r="V131" s="13">
+        <v>0</v>
+      </c>
+      <c r="W131" s="2">
+        <v>0</v>
+      </c>
+      <c r="X131" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y131" s="14">
+        <v>72</v>
+      </c>
+      <c r="Z131" s="14">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
         <v>139</v>
       </c>
@@ -11650,29 +12806,80 @@
       <c r="C132" s="2">
         <v>13101</v>
       </c>
-      <c r="D132" s="13"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="13"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="13"/>
-      <c r="I132" s="2"/>
-      <c r="J132" s="13"/>
-      <c r="K132" s="2"/>
-      <c r="L132" s="13"/>
-      <c r="M132" s="2"/>
-      <c r="N132" s="13"/>
-      <c r="O132" s="2"/>
-      <c r="P132" s="13"/>
-      <c r="Q132" s="2"/>
-      <c r="R132" s="13"/>
-      <c r="S132" s="2"/>
-      <c r="T132" s="13"/>
-      <c r="U132" s="14"/>
-      <c r="V132" s="13"/>
-      <c r="W132" s="2"/>
-      <c r="X132" s="13"/>
-    </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D132" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="E132" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F132" s="18">
+        <v>0.65347222222222223</v>
+      </c>
+      <c r="G132" s="2">
+        <v>0</v>
+      </c>
+      <c r="H132" s="13">
+        <v>1</v>
+      </c>
+      <c r="I132" s="2">
+        <v>1</v>
+      </c>
+      <c r="J132" s="13">
+        <v>1</v>
+      </c>
+      <c r="K132" s="2">
+        <v>0</v>
+      </c>
+      <c r="L132" s="13">
+        <v>0</v>
+      </c>
+      <c r="M132" s="2">
+        <v>1</v>
+      </c>
+      <c r="N132" s="13">
+        <v>1</v>
+      </c>
+      <c r="O132" s="2">
+        <v>1</v>
+      </c>
+      <c r="P132" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q132" s="2">
+        <v>0</v>
+      </c>
+      <c r="R132" s="13">
+        <v>0</v>
+      </c>
+      <c r="S132" s="2">
+        <v>0</v>
+      </c>
+      <c r="T132" s="13">
+        <v>0</v>
+      </c>
+      <c r="U132" s="14">
+        <v>0</v>
+      </c>
+      <c r="V132" s="13">
+        <v>0</v>
+      </c>
+      <c r="W132" s="2">
+        <v>0</v>
+      </c>
+      <c r="X132" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y132" s="14">
+        <v>6</v>
+      </c>
+      <c r="Z132" s="14">
+        <v>25</v>
+      </c>
+      <c r="AA132" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
         <v>186</v>
       </c>
@@ -11682,29 +12889,77 @@
       <c r="C133" s="2">
         <v>13601</v>
       </c>
-      <c r="D133" s="13"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="13"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="13"/>
-      <c r="I133" s="2"/>
-      <c r="J133" s="13"/>
-      <c r="K133" s="2"/>
-      <c r="L133" s="13"/>
-      <c r="M133" s="2"/>
-      <c r="N133" s="13"/>
-      <c r="O133" s="2"/>
-      <c r="P133" s="13"/>
-      <c r="Q133" s="2"/>
-      <c r="R133" s="13"/>
-      <c r="S133" s="2"/>
-      <c r="T133" s="13"/>
-      <c r="U133" s="14"/>
-      <c r="V133" s="13"/>
-      <c r="W133" s="2"/>
-      <c r="X133" s="13"/>
-    </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D133" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="E133" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F133" s="18">
+        <v>0.65555555555555556</v>
+      </c>
+      <c r="G133" s="2">
+        <v>0</v>
+      </c>
+      <c r="H133" s="13">
+        <v>1</v>
+      </c>
+      <c r="I133" s="2">
+        <v>0</v>
+      </c>
+      <c r="J133" s="13">
+        <v>0</v>
+      </c>
+      <c r="K133" s="2">
+        <v>0</v>
+      </c>
+      <c r="L133" s="13">
+        <v>0</v>
+      </c>
+      <c r="M133" s="2">
+        <v>1</v>
+      </c>
+      <c r="N133" s="13">
+        <v>1</v>
+      </c>
+      <c r="O133" s="2">
+        <v>1</v>
+      </c>
+      <c r="P133" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q133" s="2">
+        <v>0</v>
+      </c>
+      <c r="R133" s="13">
+        <v>0</v>
+      </c>
+      <c r="S133" s="2">
+        <v>0</v>
+      </c>
+      <c r="T133" s="13">
+        <v>0</v>
+      </c>
+      <c r="U133" s="14">
+        <v>1</v>
+      </c>
+      <c r="V133" s="13">
+        <v>0</v>
+      </c>
+      <c r="W133" s="2">
+        <v>0</v>
+      </c>
+      <c r="X133" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y133" s="14">
+        <v>28</v>
+      </c>
+      <c r="Z133" s="14">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
         <v>176</v>
       </c>
@@ -11714,29 +12969,77 @@
       <c r="C134" s="2">
         <v>13303</v>
       </c>
-      <c r="D134" s="13"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="13"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="13"/>
-      <c r="I134" s="2"/>
-      <c r="J134" s="13"/>
-      <c r="K134" s="2"/>
-      <c r="L134" s="13"/>
-      <c r="M134" s="2"/>
-      <c r="N134" s="13"/>
-      <c r="O134" s="2"/>
-      <c r="P134" s="13"/>
-      <c r="Q134" s="2"/>
-      <c r="R134" s="13"/>
-      <c r="S134" s="2"/>
-      <c r="T134" s="13"/>
-      <c r="U134" s="14"/>
-      <c r="V134" s="13"/>
-      <c r="W134" s="2"/>
-      <c r="X134" s="13"/>
-    </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D134" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="E134" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F134" s="18">
+        <v>0.65902777777777777</v>
+      </c>
+      <c r="G134" s="2">
+        <v>0</v>
+      </c>
+      <c r="H134" s="13">
+        <v>1</v>
+      </c>
+      <c r="I134" s="2">
+        <v>1</v>
+      </c>
+      <c r="J134" s="13">
+        <v>0</v>
+      </c>
+      <c r="K134" s="2">
+        <v>1</v>
+      </c>
+      <c r="L134" s="13">
+        <v>0</v>
+      </c>
+      <c r="M134" s="2">
+        <v>1</v>
+      </c>
+      <c r="N134" s="13">
+        <v>1</v>
+      </c>
+      <c r="O134" s="2">
+        <v>1</v>
+      </c>
+      <c r="P134" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q134" s="2">
+        <v>0</v>
+      </c>
+      <c r="R134" s="13">
+        <v>0</v>
+      </c>
+      <c r="S134" s="2">
+        <v>0</v>
+      </c>
+      <c r="T134" s="13">
+        <v>0</v>
+      </c>
+      <c r="U134" s="14">
+        <v>1</v>
+      </c>
+      <c r="V134" s="13">
+        <v>0</v>
+      </c>
+      <c r="W134" s="2">
+        <v>0</v>
+      </c>
+      <c r="X134" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y134" s="14">
+        <v>12</v>
+      </c>
+      <c r="Z134" s="14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>170</v>
       </c>
@@ -11746,29 +13049,77 @@
       <c r="C135" s="2">
         <v>13132</v>
       </c>
-      <c r="D135" s="13"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="13"/>
-      <c r="G135" s="2"/>
-      <c r="H135" s="13"/>
-      <c r="I135" s="2"/>
-      <c r="J135" s="13"/>
-      <c r="K135" s="2"/>
-      <c r="L135" s="13"/>
-      <c r="M135" s="2"/>
-      <c r="N135" s="13"/>
-      <c r="O135" s="2"/>
-      <c r="P135" s="13"/>
-      <c r="Q135" s="2"/>
-      <c r="R135" s="13"/>
-      <c r="S135" s="2"/>
-      <c r="T135" s="13"/>
-      <c r="U135" s="14"/>
-      <c r="V135" s="13"/>
-      <c r="W135" s="2"/>
-      <c r="X135" s="13"/>
-    </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D135" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E135" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F135" s="18">
+        <v>0.66180555555555554</v>
+      </c>
+      <c r="G135" s="2">
+        <v>1</v>
+      </c>
+      <c r="H135" s="13">
+        <v>1</v>
+      </c>
+      <c r="I135" s="2">
+        <v>1</v>
+      </c>
+      <c r="J135" s="13">
+        <v>0</v>
+      </c>
+      <c r="K135" s="2">
+        <v>0</v>
+      </c>
+      <c r="L135" s="13">
+        <v>0</v>
+      </c>
+      <c r="M135" s="2">
+        <v>1</v>
+      </c>
+      <c r="N135" s="13">
+        <v>1</v>
+      </c>
+      <c r="O135" s="2">
+        <v>1</v>
+      </c>
+      <c r="P135" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q135" s="2">
+        <v>1</v>
+      </c>
+      <c r="R135" s="13">
+        <v>1</v>
+      </c>
+      <c r="S135" s="2">
+        <v>1</v>
+      </c>
+      <c r="T135" s="13">
+        <v>1</v>
+      </c>
+      <c r="U135" s="14">
+        <v>1</v>
+      </c>
+      <c r="V135" s="13">
+        <v>0</v>
+      </c>
+      <c r="W135" s="2">
+        <v>0</v>
+      </c>
+      <c r="X135" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y135" s="14">
+        <v>27</v>
+      </c>
+      <c r="Z135" s="14">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
         <v>235</v>
       </c>
@@ -11778,29 +13129,80 @@
       <c r="C136" s="2">
         <v>6302</v>
       </c>
-      <c r="D136" s="13"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="13"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="13"/>
-      <c r="I136" s="2"/>
-      <c r="J136" s="15"/>
-      <c r="K136" s="2"/>
-      <c r="L136" s="13"/>
-      <c r="M136" s="2"/>
-      <c r="N136" s="13"/>
-      <c r="O136" s="2"/>
-      <c r="P136" s="13"/>
-      <c r="Q136" s="2"/>
-      <c r="R136" s="13"/>
-      <c r="S136" s="2"/>
-      <c r="T136" s="13"/>
-      <c r="U136" s="14"/>
-      <c r="V136" s="13"/>
-      <c r="W136" s="2"/>
-      <c r="X136" s="13"/>
-    </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D136" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="E136" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F136" s="18">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="L136" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="M136" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="N136" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="O136" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="P136" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q136" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="R136" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="S136" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="T136" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="U136" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="V136" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="W136" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="X136" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y136" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z136" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA136" s="25" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
         <v>236</v>
       </c>
@@ -11810,29 +13212,77 @@
       <c r="C137" s="2">
         <v>6303</v>
       </c>
-      <c r="D137" s="13"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="13"/>
-      <c r="G137" s="2"/>
-      <c r="H137" s="13"/>
-      <c r="I137" s="2"/>
-      <c r="J137" s="13"/>
-      <c r="K137" s="2"/>
-      <c r="L137" s="13"/>
-      <c r="M137" s="2"/>
-      <c r="N137" s="13"/>
-      <c r="O137" s="2"/>
-      <c r="P137" s="13"/>
-      <c r="Q137" s="2"/>
-      <c r="R137" s="13"/>
-      <c r="S137" s="2"/>
-      <c r="T137" s="13"/>
-      <c r="U137" s="14"/>
-      <c r="V137" s="13"/>
-      <c r="W137" s="2"/>
-      <c r="X137" s="13"/>
-    </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D137" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="E137" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F137" s="18">
+        <v>0.66736111111111107</v>
+      </c>
+      <c r="G137" s="2">
+        <v>0</v>
+      </c>
+      <c r="H137" s="13">
+        <v>1</v>
+      </c>
+      <c r="I137" s="2">
+        <v>0</v>
+      </c>
+      <c r="J137" s="13">
+        <v>0</v>
+      </c>
+      <c r="K137" s="2">
+        <v>0</v>
+      </c>
+      <c r="L137" s="13">
+        <v>0</v>
+      </c>
+      <c r="M137" s="2">
+        <v>1</v>
+      </c>
+      <c r="N137" s="13">
+        <v>0</v>
+      </c>
+      <c r="O137" s="2">
+        <v>1</v>
+      </c>
+      <c r="P137" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q137" s="2">
+        <v>0</v>
+      </c>
+      <c r="R137" s="13">
+        <v>0</v>
+      </c>
+      <c r="S137" s="2">
+        <v>0</v>
+      </c>
+      <c r="T137" s="13">
+        <v>0</v>
+      </c>
+      <c r="U137" s="14">
+        <v>1</v>
+      </c>
+      <c r="V137" s="13">
+        <v>0</v>
+      </c>
+      <c r="W137" s="2">
+        <v>0</v>
+      </c>
+      <c r="X137" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y137" s="26">
+        <v>11</v>
+      </c>
+      <c r="Z137" s="20">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
         <v>237</v>
       </c>
@@ -11842,29 +13292,77 @@
       <c r="C138" s="2">
         <v>6102</v>
       </c>
-      <c r="D138" s="13"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="13"/>
-      <c r="G138" s="2"/>
-      <c r="H138" s="13"/>
-      <c r="I138" s="2"/>
-      <c r="J138" s="13"/>
-      <c r="K138" s="2"/>
-      <c r="L138" s="13"/>
-      <c r="M138" s="2"/>
-      <c r="N138" s="13"/>
-      <c r="O138" s="2"/>
-      <c r="P138" s="13"/>
-      <c r="Q138" s="2"/>
-      <c r="R138" s="13"/>
-      <c r="S138" s="2"/>
-      <c r="T138" s="13"/>
-      <c r="U138" s="14"/>
-      <c r="V138" s="13"/>
-      <c r="W138" s="2"/>
-      <c r="X138" s="13"/>
-    </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D138" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="E138" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F138" s="18">
+        <v>0.66875000000000007</v>
+      </c>
+      <c r="G138" s="2">
+        <v>0</v>
+      </c>
+      <c r="H138" s="13">
+        <v>0</v>
+      </c>
+      <c r="I138" s="2">
+        <v>0</v>
+      </c>
+      <c r="J138" s="13">
+        <v>0</v>
+      </c>
+      <c r="K138" s="2">
+        <v>0</v>
+      </c>
+      <c r="L138" s="13">
+        <v>0</v>
+      </c>
+      <c r="M138" s="2">
+        <v>1</v>
+      </c>
+      <c r="N138" s="13">
+        <v>1</v>
+      </c>
+      <c r="O138" s="2">
+        <v>1</v>
+      </c>
+      <c r="P138" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q138" s="2">
+        <v>0</v>
+      </c>
+      <c r="R138" s="13">
+        <v>0</v>
+      </c>
+      <c r="S138" s="2">
+        <v>0</v>
+      </c>
+      <c r="T138" s="13">
+        <v>0</v>
+      </c>
+      <c r="U138" s="14">
+        <v>1</v>
+      </c>
+      <c r="V138" s="13">
+        <v>0</v>
+      </c>
+      <c r="W138" s="2">
+        <v>0</v>
+      </c>
+      <c r="X138" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y138" s="26">
+        <v>31</v>
+      </c>
+      <c r="Z138" s="20">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
         <v>238</v>
       </c>
@@ -11874,29 +13372,77 @@
       <c r="C139" s="2">
         <v>6103</v>
       </c>
-      <c r="D139" s="13"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="13"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="13"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="13"/>
-      <c r="K139" s="2"/>
-      <c r="L139" s="13"/>
-      <c r="M139" s="2"/>
-      <c r="N139" s="13"/>
-      <c r="O139" s="2"/>
-      <c r="P139" s="13"/>
-      <c r="Q139" s="2"/>
-      <c r="R139" s="13"/>
-      <c r="S139" s="2"/>
-      <c r="T139" s="13"/>
-      <c r="U139" s="14"/>
-      <c r="V139" s="13"/>
-      <c r="W139" s="2"/>
-      <c r="X139" s="13"/>
-    </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D139" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="E139" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F139" s="18">
+        <v>0.67083333333333339</v>
+      </c>
+      <c r="G139" s="2">
+        <v>0</v>
+      </c>
+      <c r="H139" s="13">
+        <v>1</v>
+      </c>
+      <c r="I139" s="2">
+        <v>0</v>
+      </c>
+      <c r="J139" s="13">
+        <v>1</v>
+      </c>
+      <c r="K139" s="2">
+        <v>0</v>
+      </c>
+      <c r="L139" s="13">
+        <v>0</v>
+      </c>
+      <c r="M139" s="2">
+        <v>1</v>
+      </c>
+      <c r="N139" s="13">
+        <v>1</v>
+      </c>
+      <c r="O139" s="2">
+        <v>1</v>
+      </c>
+      <c r="P139" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q139" s="2">
+        <v>0</v>
+      </c>
+      <c r="R139" s="13">
+        <v>0</v>
+      </c>
+      <c r="S139" s="2">
+        <v>0</v>
+      </c>
+      <c r="T139" s="13">
+        <v>0</v>
+      </c>
+      <c r="U139" s="14">
+        <v>1</v>
+      </c>
+      <c r="V139" s="13">
+        <v>0</v>
+      </c>
+      <c r="W139" s="2">
+        <v>0</v>
+      </c>
+      <c r="X139" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y139" s="26">
+        <v>36</v>
+      </c>
+      <c r="Z139" s="20">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
         <v>239</v>
       </c>
@@ -11906,29 +13452,77 @@
       <c r="C140" s="2">
         <v>6104</v>
       </c>
-      <c r="D140" s="13"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="13"/>
-      <c r="G140" s="2"/>
-      <c r="H140" s="13"/>
-      <c r="I140" s="2"/>
-      <c r="J140" s="13"/>
-      <c r="K140" s="2"/>
-      <c r="L140" s="13"/>
-      <c r="M140" s="2"/>
-      <c r="N140" s="13"/>
-      <c r="O140" s="2"/>
-      <c r="P140" s="13"/>
-      <c r="Q140" s="2"/>
-      <c r="R140" s="13"/>
-      <c r="S140" s="2"/>
-      <c r="T140" s="13"/>
-      <c r="U140" s="14"/>
-      <c r="V140" s="13"/>
-      <c r="W140" s="2"/>
-      <c r="X140" s="13"/>
-    </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D140" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="E140" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F140" s="18">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="G140" s="2">
+        <v>0</v>
+      </c>
+      <c r="H140" s="13">
+        <v>1</v>
+      </c>
+      <c r="I140" s="2">
+        <v>0</v>
+      </c>
+      <c r="J140" s="13">
+        <v>0</v>
+      </c>
+      <c r="K140" s="2">
+        <v>1</v>
+      </c>
+      <c r="L140" s="13">
+        <v>0</v>
+      </c>
+      <c r="M140" s="2">
+        <v>0</v>
+      </c>
+      <c r="N140" s="13">
+        <v>1</v>
+      </c>
+      <c r="O140" s="2">
+        <v>1</v>
+      </c>
+      <c r="P140" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q140" s="2">
+        <v>0</v>
+      </c>
+      <c r="R140" s="13">
+        <v>0</v>
+      </c>
+      <c r="S140" s="2">
+        <v>0</v>
+      </c>
+      <c r="T140" s="13">
+        <v>0</v>
+      </c>
+      <c r="U140" s="14">
+        <v>1</v>
+      </c>
+      <c r="V140" s="13">
+        <v>0</v>
+      </c>
+      <c r="W140" s="2">
+        <v>0</v>
+      </c>
+      <c r="X140" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y140" s="26">
+        <v>23</v>
+      </c>
+      <c r="Z140" s="20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
         <v>240</v>
       </c>
@@ -11938,29 +13532,80 @@
       <c r="C141" s="2">
         <v>6105</v>
       </c>
-      <c r="D141" s="13"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="13"/>
-      <c r="G141" s="2"/>
-      <c r="H141" s="13"/>
-      <c r="I141" s="2"/>
-      <c r="J141" s="13"/>
-      <c r="K141" s="2"/>
-      <c r="L141" s="13"/>
-      <c r="M141" s="2"/>
-      <c r="N141" s="13"/>
-      <c r="O141" s="2"/>
-      <c r="P141" s="13"/>
-      <c r="Q141" s="2"/>
-      <c r="R141" s="13"/>
-      <c r="S141" s="2"/>
-      <c r="T141" s="13"/>
-      <c r="U141" s="14"/>
-      <c r="V141" s="13"/>
-      <c r="W141" s="2"/>
-      <c r="X141" s="13"/>
-    </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D141" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="E141" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F141" s="18">
+        <v>0.67638888888888893</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="J141" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="L141" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="M141" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="N141" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="O141" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="P141" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q141" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="R141" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="S141" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="T141" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="U141" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="V141" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="W141" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="X141" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y141" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z141" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA141" s="25" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
         <v>241</v>
       </c>
@@ -11970,29 +13615,77 @@
       <c r="C142" s="2">
         <v>6106</v>
       </c>
-      <c r="D142" s="13"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="13"/>
-      <c r="G142" s="2"/>
-      <c r="H142" s="13"/>
-      <c r="I142" s="2"/>
-      <c r="J142" s="13"/>
-      <c r="K142" s="2"/>
-      <c r="L142" s="13"/>
-      <c r="M142" s="2"/>
-      <c r="N142" s="13"/>
-      <c r="O142" s="2"/>
-      <c r="P142" s="13"/>
-      <c r="Q142" s="2"/>
-      <c r="R142" s="13"/>
-      <c r="S142" s="2"/>
-      <c r="T142" s="13"/>
-      <c r="U142" s="14"/>
-      <c r="V142" s="13"/>
-      <c r="W142" s="2"/>
-      <c r="X142" s="13"/>
-    </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D142" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="E142" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F142" s="18">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="G142" s="2">
+        <v>0</v>
+      </c>
+      <c r="H142" s="13">
+        <v>1</v>
+      </c>
+      <c r="I142" s="2">
+        <v>0</v>
+      </c>
+      <c r="J142" s="13">
+        <v>0</v>
+      </c>
+      <c r="K142" s="2">
+        <v>0</v>
+      </c>
+      <c r="L142" s="13">
+        <v>0</v>
+      </c>
+      <c r="M142" s="2">
+        <v>1</v>
+      </c>
+      <c r="N142" s="13">
+        <v>1</v>
+      </c>
+      <c r="O142" s="2">
+        <v>1</v>
+      </c>
+      <c r="P142" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q142" s="2">
+        <v>0</v>
+      </c>
+      <c r="R142" s="13">
+        <v>0</v>
+      </c>
+      <c r="S142" s="2">
+        <v>0</v>
+      </c>
+      <c r="T142" s="13">
+        <v>0</v>
+      </c>
+      <c r="U142" s="14">
+        <v>0</v>
+      </c>
+      <c r="V142" s="13">
+        <v>0</v>
+      </c>
+      <c r="W142" s="2">
+        <v>0</v>
+      </c>
+      <c r="X142" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y142" s="26">
+        <v>15</v>
+      </c>
+      <c r="Z142" s="20">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="143" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
         <v>242</v>
       </c>
@@ -12002,29 +13695,77 @@
       <c r="C143" s="2">
         <v>6202</v>
       </c>
-      <c r="D143" s="13"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="13"/>
-      <c r="G143" s="2"/>
-      <c r="H143" s="13"/>
-      <c r="I143" s="2"/>
-      <c r="J143" s="13"/>
-      <c r="K143" s="2"/>
-      <c r="L143" s="13"/>
-      <c r="M143" s="2"/>
-      <c r="N143" s="13"/>
-      <c r="O143" s="2"/>
-      <c r="P143" s="13"/>
-      <c r="Q143" s="2"/>
-      <c r="R143" s="13"/>
-      <c r="S143" s="2"/>
-      <c r="T143" s="13"/>
-      <c r="U143" s="14"/>
-      <c r="V143" s="13"/>
-      <c r="W143" s="2"/>
-      <c r="X143" s="13"/>
-    </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D143" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="E143" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F143" s="18">
+        <v>0.67847222222222225</v>
+      </c>
+      <c r="G143" s="2">
+        <v>0</v>
+      </c>
+      <c r="H143" s="13">
+        <v>1</v>
+      </c>
+      <c r="I143" s="2">
+        <v>0</v>
+      </c>
+      <c r="J143" s="13">
+        <v>0</v>
+      </c>
+      <c r="K143" s="2">
+        <v>1</v>
+      </c>
+      <c r="L143" s="13">
+        <v>0</v>
+      </c>
+      <c r="M143" s="2">
+        <v>1</v>
+      </c>
+      <c r="N143" s="13">
+        <v>1</v>
+      </c>
+      <c r="O143" s="2">
+        <v>1</v>
+      </c>
+      <c r="P143" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q143" s="2">
+        <v>0</v>
+      </c>
+      <c r="R143" s="13">
+        <v>0</v>
+      </c>
+      <c r="S143" s="2">
+        <v>0</v>
+      </c>
+      <c r="T143" s="13">
+        <v>0</v>
+      </c>
+      <c r="U143" s="14">
+        <v>1</v>
+      </c>
+      <c r="V143" s="13">
+        <v>0</v>
+      </c>
+      <c r="W143" s="2">
+        <v>0</v>
+      </c>
+      <c r="X143" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y143" s="26">
+        <v>24</v>
+      </c>
+      <c r="Z143" s="20">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="144" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
         <v>243</v>
       </c>
@@ -12034,29 +13775,77 @@
       <c r="C144" s="2">
         <v>6107</v>
       </c>
-      <c r="D144" s="13"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="13"/>
-      <c r="G144" s="2"/>
-      <c r="H144" s="13"/>
-      <c r="I144" s="2"/>
-      <c r="J144" s="13"/>
-      <c r="K144" s="2"/>
-      <c r="L144" s="13"/>
-      <c r="M144" s="2"/>
-      <c r="N144" s="13"/>
-      <c r="O144" s="2"/>
-      <c r="P144" s="13"/>
-      <c r="Q144" s="2"/>
-      <c r="R144" s="13"/>
-      <c r="S144" s="2"/>
-      <c r="T144" s="13"/>
-      <c r="U144" s="14"/>
-      <c r="V144" s="13"/>
-      <c r="W144" s="2"/>
-      <c r="X144" s="13"/>
-    </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D144" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="E144" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F144" s="18">
+        <v>0.69930555555555562</v>
+      </c>
+      <c r="G144" s="2">
+        <v>0</v>
+      </c>
+      <c r="H144" s="13">
+        <v>1</v>
+      </c>
+      <c r="I144" s="2">
+        <v>1</v>
+      </c>
+      <c r="J144" s="13">
+        <v>0</v>
+      </c>
+      <c r="K144" s="2">
+        <v>1</v>
+      </c>
+      <c r="L144" s="13">
+        <v>0</v>
+      </c>
+      <c r="M144" s="2">
+        <v>1</v>
+      </c>
+      <c r="N144" s="13">
+        <v>0</v>
+      </c>
+      <c r="O144" s="2">
+        <v>1</v>
+      </c>
+      <c r="P144" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q144" s="2">
+        <v>0</v>
+      </c>
+      <c r="R144" s="13">
+        <v>0</v>
+      </c>
+      <c r="S144" s="2">
+        <v>0</v>
+      </c>
+      <c r="T144" s="13">
+        <v>0</v>
+      </c>
+      <c r="U144" s="14">
+        <v>1</v>
+      </c>
+      <c r="V144" s="13">
+        <v>0</v>
+      </c>
+      <c r="W144" s="2">
+        <v>0</v>
+      </c>
+      <c r="X144" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y144" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z144" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
         <v>244</v>
       </c>
@@ -12066,29 +13855,77 @@
       <c r="C145" s="2">
         <v>6203</v>
       </c>
-      <c r="D145" s="13"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="13"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="13"/>
-      <c r="I145" s="2"/>
-      <c r="J145" s="13"/>
-      <c r="K145" s="2"/>
-      <c r="L145" s="13"/>
-      <c r="M145" s="2"/>
-      <c r="N145" s="13"/>
-      <c r="O145" s="2"/>
-      <c r="P145" s="13"/>
-      <c r="Q145" s="2"/>
-      <c r="R145" s="13"/>
-      <c r="S145" s="2"/>
-      <c r="T145" s="13"/>
-      <c r="U145" s="14"/>
-      <c r="V145" s="13"/>
-      <c r="W145" s="2"/>
-      <c r="X145" s="13"/>
-    </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D145" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="E145" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F145" s="18">
+        <v>0.70208333333333339</v>
+      </c>
+      <c r="G145" s="2">
+        <v>0</v>
+      </c>
+      <c r="H145" s="13">
+        <v>1</v>
+      </c>
+      <c r="I145" s="2">
+        <v>0</v>
+      </c>
+      <c r="J145" s="13">
+        <v>0</v>
+      </c>
+      <c r="K145" s="2">
+        <v>0</v>
+      </c>
+      <c r="L145" s="13">
+        <v>0</v>
+      </c>
+      <c r="M145" s="2">
+        <v>1</v>
+      </c>
+      <c r="N145" s="13">
+        <v>1</v>
+      </c>
+      <c r="O145" s="2">
+        <v>1</v>
+      </c>
+      <c r="P145" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q145" s="2">
+        <v>0</v>
+      </c>
+      <c r="R145" s="13">
+        <v>0</v>
+      </c>
+      <c r="S145" s="2">
+        <v>0</v>
+      </c>
+      <c r="T145" s="13">
+        <v>0</v>
+      </c>
+      <c r="U145" s="14">
+        <v>1</v>
+      </c>
+      <c r="V145" s="13">
+        <v>0</v>
+      </c>
+      <c r="W145" s="2">
+        <v>0</v>
+      </c>
+      <c r="X145" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y145" s="26">
+        <v>2</v>
+      </c>
+      <c r="Z145" s="20">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
         <v>245</v>
       </c>
@@ -12098,29 +13935,77 @@
       <c r="C146" s="2">
         <v>6304</v>
       </c>
-      <c r="D146" s="13"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="13"/>
-      <c r="G146" s="2"/>
-      <c r="H146" s="13"/>
-      <c r="I146" s="2"/>
-      <c r="J146" s="13"/>
-      <c r="K146" s="2"/>
-      <c r="L146" s="13"/>
-      <c r="M146" s="2"/>
-      <c r="N146" s="13"/>
-      <c r="O146" s="2"/>
-      <c r="P146" s="13"/>
-      <c r="Q146" s="2"/>
-      <c r="R146" s="13"/>
-      <c r="S146" s="2"/>
-      <c r="T146" s="13"/>
-      <c r="U146" s="14"/>
-      <c r="V146" s="13"/>
-      <c r="W146" s="2"/>
-      <c r="X146" s="13"/>
-    </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D146" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="E146" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F146" s="18">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="G146" s="2">
+        <v>0</v>
+      </c>
+      <c r="H146" s="13">
+        <v>1</v>
+      </c>
+      <c r="I146" s="2">
+        <v>1</v>
+      </c>
+      <c r="J146" s="13">
+        <v>0</v>
+      </c>
+      <c r="K146" s="2">
+        <v>0</v>
+      </c>
+      <c r="L146" s="13">
+        <v>0</v>
+      </c>
+      <c r="M146" s="2">
+        <v>0</v>
+      </c>
+      <c r="N146" s="13">
+        <v>0</v>
+      </c>
+      <c r="O146" s="2">
+        <v>1</v>
+      </c>
+      <c r="P146" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q146" s="2">
+        <v>0</v>
+      </c>
+      <c r="R146" s="13">
+        <v>0</v>
+      </c>
+      <c r="S146" s="2">
+        <v>0</v>
+      </c>
+      <c r="T146" s="13">
+        <v>0</v>
+      </c>
+      <c r="U146" s="14">
+        <v>1</v>
+      </c>
+      <c r="V146" s="13">
+        <v>0</v>
+      </c>
+      <c r="W146" s="2">
+        <v>0</v>
+      </c>
+      <c r="X146" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y146" s="26">
+        <v>73</v>
+      </c>
+      <c r="Z146" s="20">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
         <v>246</v>
       </c>
@@ -12130,29 +14015,77 @@
       <c r="C147" s="2">
         <v>6108</v>
       </c>
-      <c r="D147" s="13"/>
-      <c r="E147" s="2"/>
-      <c r="F147" s="13"/>
-      <c r="G147" s="2"/>
-      <c r="H147" s="13"/>
-      <c r="I147" s="2"/>
-      <c r="J147" s="13"/>
-      <c r="K147" s="2"/>
-      <c r="L147" s="13"/>
-      <c r="M147" s="2"/>
-      <c r="N147" s="13"/>
-      <c r="O147" s="2"/>
-      <c r="P147" s="13"/>
-      <c r="Q147" s="2"/>
-      <c r="R147" s="13"/>
-      <c r="S147" s="2"/>
-      <c r="T147" s="13"/>
-      <c r="U147" s="14"/>
-      <c r="V147" s="13"/>
-      <c r="W147" s="2"/>
-      <c r="X147" s="13"/>
-    </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D147" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="E147" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F147" s="18">
+        <v>0.70624999999999993</v>
+      </c>
+      <c r="G147" s="2">
+        <v>0</v>
+      </c>
+      <c r="H147" s="13">
+        <v>1</v>
+      </c>
+      <c r="I147" s="2">
+        <v>1</v>
+      </c>
+      <c r="J147" s="13">
+        <v>0</v>
+      </c>
+      <c r="K147" s="2">
+        <v>1</v>
+      </c>
+      <c r="L147" s="13">
+        <v>0</v>
+      </c>
+      <c r="M147" s="2">
+        <v>1</v>
+      </c>
+      <c r="N147" s="13">
+        <v>0</v>
+      </c>
+      <c r="O147" s="2">
+        <v>1</v>
+      </c>
+      <c r="P147" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q147" s="2">
+        <v>0</v>
+      </c>
+      <c r="R147" s="13">
+        <v>0</v>
+      </c>
+      <c r="S147" s="2">
+        <v>0</v>
+      </c>
+      <c r="T147" s="13">
+        <v>0</v>
+      </c>
+      <c r="U147" s="14">
+        <v>0</v>
+      </c>
+      <c r="V147" s="13">
+        <v>0</v>
+      </c>
+      <c r="W147" s="2">
+        <v>0</v>
+      </c>
+      <c r="X147" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y147" s="26">
+        <v>11</v>
+      </c>
+      <c r="Z147" s="20">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="148" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
         <v>247</v>
       </c>
@@ -12162,29 +14095,77 @@
       <c r="C148" s="2">
         <v>6109</v>
       </c>
-      <c r="D148" s="15"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="15"/>
-      <c r="G148" s="3"/>
-      <c r="H148" s="15"/>
-      <c r="I148" s="3"/>
-      <c r="J148" s="15"/>
-      <c r="K148" s="3"/>
-      <c r="L148" s="15"/>
-      <c r="M148" s="3"/>
-      <c r="N148" s="15"/>
-      <c r="O148" s="3"/>
-      <c r="P148" s="15"/>
-      <c r="Q148" s="3"/>
-      <c r="R148" s="15"/>
-      <c r="S148" s="3"/>
-      <c r="T148" s="15"/>
-      <c r="U148" s="14"/>
-      <c r="V148" s="15"/>
-      <c r="W148" s="3"/>
-      <c r="X148" s="15"/>
-    </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D148" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="E148" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F148" s="18">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G148" s="3">
+        <v>0</v>
+      </c>
+      <c r="H148" s="15">
+        <v>1</v>
+      </c>
+      <c r="I148" s="3">
+        <v>0</v>
+      </c>
+      <c r="J148" s="15">
+        <v>0</v>
+      </c>
+      <c r="K148" s="3">
+        <v>1</v>
+      </c>
+      <c r="L148" s="15">
+        <v>0</v>
+      </c>
+      <c r="M148" s="3">
+        <v>1</v>
+      </c>
+      <c r="N148" s="15">
+        <v>1</v>
+      </c>
+      <c r="O148" s="3">
+        <v>0</v>
+      </c>
+      <c r="P148" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q148" s="3">
+        <v>0</v>
+      </c>
+      <c r="R148" s="15">
+        <v>0</v>
+      </c>
+      <c r="S148" s="3">
+        <v>0</v>
+      </c>
+      <c r="T148" s="15">
+        <v>0</v>
+      </c>
+      <c r="U148" s="14">
+        <v>1</v>
+      </c>
+      <c r="V148" s="15">
+        <v>0</v>
+      </c>
+      <c r="W148" s="3">
+        <v>0</v>
+      </c>
+      <c r="X148" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y148" s="26">
+        <v>35</v>
+      </c>
+      <c r="Z148" s="20">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
         <v>248</v>
       </c>
@@ -12194,29 +14175,77 @@
       <c r="C149" s="2">
         <v>6204</v>
       </c>
-      <c r="D149" s="13"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="13"/>
-      <c r="G149" s="2"/>
-      <c r="H149" s="13"/>
-      <c r="I149" s="2"/>
-      <c r="J149" s="13"/>
-      <c r="K149" s="2"/>
-      <c r="L149" s="13"/>
-      <c r="M149" s="2"/>
-      <c r="N149" s="13"/>
-      <c r="O149" s="2"/>
-      <c r="P149" s="13"/>
-      <c r="Q149" s="2"/>
-      <c r="R149" s="13"/>
-      <c r="S149" s="2"/>
-      <c r="T149" s="13"/>
-      <c r="U149" s="14"/>
-      <c r="V149" s="13"/>
-      <c r="W149" s="2"/>
-      <c r="X149" s="13"/>
-    </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D149" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="E149" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F149" s="18">
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="G149" s="2">
+        <v>0</v>
+      </c>
+      <c r="H149" s="13">
+        <v>1</v>
+      </c>
+      <c r="I149" s="2">
+        <v>0</v>
+      </c>
+      <c r="J149" s="13">
+        <v>0</v>
+      </c>
+      <c r="K149" s="2">
+        <v>1</v>
+      </c>
+      <c r="L149" s="13">
+        <v>0</v>
+      </c>
+      <c r="M149" s="2">
+        <v>1</v>
+      </c>
+      <c r="N149" s="13">
+        <v>1</v>
+      </c>
+      <c r="O149" s="2">
+        <v>1</v>
+      </c>
+      <c r="P149" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q149" s="2">
+        <v>0</v>
+      </c>
+      <c r="R149" s="13">
+        <v>0</v>
+      </c>
+      <c r="S149" s="2">
+        <v>0</v>
+      </c>
+      <c r="T149" s="13">
+        <v>0</v>
+      </c>
+      <c r="U149" s="14">
+        <v>1</v>
+      </c>
+      <c r="V149" s="15">
+        <v>0</v>
+      </c>
+      <c r="W149" s="3">
+        <v>0</v>
+      </c>
+      <c r="X149" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y149" s="26">
+        <v>62</v>
+      </c>
+      <c r="Z149" s="20">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="150" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
         <v>249</v>
       </c>
@@ -12226,29 +14255,77 @@
       <c r="C150" s="2">
         <v>6110</v>
       </c>
-      <c r="D150" s="13"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="13"/>
-      <c r="G150" s="2"/>
-      <c r="H150" s="13"/>
-      <c r="I150" s="2"/>
-      <c r="J150" s="13"/>
-      <c r="K150" s="2"/>
-      <c r="L150" s="13"/>
-      <c r="M150" s="2"/>
-      <c r="N150" s="13"/>
-      <c r="O150" s="2"/>
-      <c r="P150" s="13"/>
-      <c r="Q150" s="2"/>
-      <c r="R150" s="13"/>
-      <c r="S150" s="2"/>
-      <c r="T150" s="13"/>
-      <c r="U150" s="14"/>
-      <c r="V150" s="13"/>
-      <c r="W150" s="2"/>
-      <c r="X150" s="13"/>
-    </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D150" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="E150" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F150" s="18">
+        <v>0.71319444444444446</v>
+      </c>
+      <c r="G150" s="2">
+        <v>0</v>
+      </c>
+      <c r="H150" s="13">
+        <v>1</v>
+      </c>
+      <c r="I150" s="2">
+        <v>0</v>
+      </c>
+      <c r="J150" s="13">
+        <v>0</v>
+      </c>
+      <c r="K150" s="2">
+        <v>0</v>
+      </c>
+      <c r="L150" s="13">
+        <v>0</v>
+      </c>
+      <c r="M150" s="2">
+        <v>1</v>
+      </c>
+      <c r="N150" s="13">
+        <v>0</v>
+      </c>
+      <c r="O150" s="2">
+        <v>1</v>
+      </c>
+      <c r="P150" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q150" s="2">
+        <v>0</v>
+      </c>
+      <c r="R150" s="13">
+        <v>0</v>
+      </c>
+      <c r="S150" s="2">
+        <v>0</v>
+      </c>
+      <c r="T150" s="13">
+        <v>0</v>
+      </c>
+      <c r="U150" s="14">
+        <v>0</v>
+      </c>
+      <c r="V150" s="13">
+        <v>0</v>
+      </c>
+      <c r="W150" s="2">
+        <v>0</v>
+      </c>
+      <c r="X150" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y150" s="26">
+        <v>23</v>
+      </c>
+      <c r="Z150" s="20">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="151" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
         <v>250</v>
       </c>
@@ -12258,29 +14335,77 @@
       <c r="C151" s="2">
         <v>6305</v>
       </c>
-      <c r="D151" s="13"/>
-      <c r="E151" s="2"/>
-      <c r="F151" s="13"/>
-      <c r="G151" s="2"/>
-      <c r="H151" s="13"/>
-      <c r="I151" s="2"/>
-      <c r="J151" s="13"/>
-      <c r="K151" s="2"/>
-      <c r="L151" s="13"/>
-      <c r="M151" s="2"/>
-      <c r="N151" s="13"/>
-      <c r="O151" s="2"/>
-      <c r="P151" s="13"/>
-      <c r="Q151" s="2"/>
-      <c r="R151" s="13"/>
-      <c r="S151" s="2"/>
-      <c r="T151" s="13"/>
-      <c r="U151" s="14"/>
-      <c r="V151" s="13"/>
-      <c r="W151" s="2"/>
-      <c r="X151" s="13"/>
-    </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D151" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="E151" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F151" s="18">
+        <v>0.71458333333333324</v>
+      </c>
+      <c r="G151" s="2">
+        <v>0</v>
+      </c>
+      <c r="H151" s="13">
+        <v>1</v>
+      </c>
+      <c r="I151" s="2">
+        <v>1</v>
+      </c>
+      <c r="J151" s="13">
+        <v>0</v>
+      </c>
+      <c r="K151" s="2">
+        <v>1</v>
+      </c>
+      <c r="L151" s="13">
+        <v>0</v>
+      </c>
+      <c r="M151" s="2">
+        <v>0</v>
+      </c>
+      <c r="N151" s="13">
+        <v>0</v>
+      </c>
+      <c r="O151" s="2">
+        <v>0</v>
+      </c>
+      <c r="P151" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q151" s="2">
+        <v>0</v>
+      </c>
+      <c r="R151" s="13">
+        <v>0</v>
+      </c>
+      <c r="S151" s="2">
+        <v>0</v>
+      </c>
+      <c r="T151" s="13">
+        <v>0</v>
+      </c>
+      <c r="U151" s="14">
+        <v>1</v>
+      </c>
+      <c r="V151" s="13">
+        <v>0</v>
+      </c>
+      <c r="W151" s="2">
+        <v>0</v>
+      </c>
+      <c r="X151" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y151" s="26">
+        <v>39</v>
+      </c>
+      <c r="Z151" s="20">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="152" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
         <v>251</v>
       </c>
@@ -12290,29 +14415,77 @@
       <c r="C152" s="2">
         <v>6205</v>
       </c>
-      <c r="D152" s="13"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="13"/>
-      <c r="G152" s="2"/>
-      <c r="H152" s="13"/>
-      <c r="I152" s="2"/>
-      <c r="J152" s="13"/>
-      <c r="K152" s="2"/>
-      <c r="L152" s="13"/>
-      <c r="M152" s="2"/>
-      <c r="N152" s="13"/>
-      <c r="O152" s="2"/>
-      <c r="P152" s="13"/>
-      <c r="Q152" s="2"/>
-      <c r="R152" s="13"/>
-      <c r="S152" s="2"/>
-      <c r="T152" s="13"/>
-      <c r="U152" s="14"/>
-      <c r="V152" s="13"/>
-      <c r="W152" s="2"/>
-      <c r="X152" s="13"/>
-    </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D152" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="E152" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F152" s="18">
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="G152" s="2">
+        <v>0</v>
+      </c>
+      <c r="H152" s="13">
+        <v>1</v>
+      </c>
+      <c r="I152" s="2">
+        <v>0</v>
+      </c>
+      <c r="J152" s="13">
+        <v>0</v>
+      </c>
+      <c r="K152" s="2">
+        <v>1</v>
+      </c>
+      <c r="L152" s="13">
+        <v>0</v>
+      </c>
+      <c r="M152" s="2">
+        <v>1</v>
+      </c>
+      <c r="N152" s="13">
+        <v>1</v>
+      </c>
+      <c r="O152" s="2">
+        <v>1</v>
+      </c>
+      <c r="P152" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q152" s="2">
+        <v>0</v>
+      </c>
+      <c r="R152" s="13">
+        <v>0</v>
+      </c>
+      <c r="S152" s="2">
+        <v>0</v>
+      </c>
+      <c r="T152" s="13">
+        <v>0</v>
+      </c>
+      <c r="U152" s="14">
+        <v>1</v>
+      </c>
+      <c r="V152" s="13">
+        <v>0</v>
+      </c>
+      <c r="W152" s="2">
+        <v>1</v>
+      </c>
+      <c r="X152" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y152" s="26">
+        <v>16</v>
+      </c>
+      <c r="Z152" s="20">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="153" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
         <v>252</v>
       </c>
@@ -12322,29 +14495,77 @@
       <c r="C153" s="2">
         <v>6111</v>
       </c>
-      <c r="D153" s="13"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="13"/>
-      <c r="G153" s="2"/>
-      <c r="H153" s="13"/>
-      <c r="I153" s="2"/>
-      <c r="J153" s="13"/>
-      <c r="K153" s="2"/>
-      <c r="L153" s="13"/>
-      <c r="M153" s="2"/>
-      <c r="N153" s="13"/>
-      <c r="O153" s="2"/>
-      <c r="P153" s="13"/>
-      <c r="Q153" s="2"/>
-      <c r="R153" s="13"/>
-      <c r="S153" s="2"/>
-      <c r="T153" s="13"/>
-      <c r="U153" s="14"/>
-      <c r="V153" s="13"/>
-      <c r="W153" s="2"/>
-      <c r="X153" s="13"/>
-    </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D153" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="E153" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F153" s="18">
+        <v>0.72013888888888899</v>
+      </c>
+      <c r="G153" s="2">
+        <v>0</v>
+      </c>
+      <c r="H153" s="13">
+        <v>1</v>
+      </c>
+      <c r="I153" s="2">
+        <v>0</v>
+      </c>
+      <c r="J153" s="13">
+        <v>0</v>
+      </c>
+      <c r="K153" s="2">
+        <v>0</v>
+      </c>
+      <c r="L153" s="13">
+        <v>0</v>
+      </c>
+      <c r="M153" s="2">
+        <v>1</v>
+      </c>
+      <c r="N153" s="13">
+        <v>1</v>
+      </c>
+      <c r="O153" s="2">
+        <v>1</v>
+      </c>
+      <c r="P153" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q153" s="2">
+        <v>0</v>
+      </c>
+      <c r="R153" s="13">
+        <v>0</v>
+      </c>
+      <c r="S153" s="2">
+        <v>0</v>
+      </c>
+      <c r="T153" s="13">
+        <v>0</v>
+      </c>
+      <c r="U153" s="14">
+        <v>1</v>
+      </c>
+      <c r="V153" s="13">
+        <v>0</v>
+      </c>
+      <c r="W153" s="2">
+        <v>0</v>
+      </c>
+      <c r="X153" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y153" s="26">
+        <v>44</v>
+      </c>
+      <c r="Z153" s="20">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="154" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A154" s="7" t="s">
         <v>253</v>
       </c>
@@ -12354,29 +14575,77 @@
       <c r="C154" s="2">
         <v>6306</v>
       </c>
-      <c r="D154" s="13"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="13"/>
-      <c r="G154" s="2"/>
-      <c r="H154" s="13"/>
-      <c r="I154" s="2"/>
-      <c r="J154" s="13"/>
-      <c r="K154" s="2"/>
-      <c r="L154" s="13"/>
-      <c r="M154" s="2"/>
-      <c r="N154" s="13"/>
-      <c r="O154" s="2"/>
-      <c r="P154" s="13"/>
-      <c r="Q154" s="2"/>
-      <c r="R154" s="13"/>
-      <c r="S154" s="2"/>
-      <c r="T154" s="13"/>
-      <c r="U154" s="14"/>
-      <c r="V154" s="13"/>
-      <c r="W154" s="2"/>
-      <c r="X154" s="13"/>
-    </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D154" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="E154" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F154" s="18">
+        <v>0.72083333333333333</v>
+      </c>
+      <c r="G154" s="2">
+        <v>0</v>
+      </c>
+      <c r="H154" s="13">
+        <v>1</v>
+      </c>
+      <c r="I154" s="2">
+        <v>0</v>
+      </c>
+      <c r="J154" s="13">
+        <v>0</v>
+      </c>
+      <c r="K154" s="2">
+        <v>1</v>
+      </c>
+      <c r="L154" s="13">
+        <v>0</v>
+      </c>
+      <c r="M154" s="2">
+        <v>1</v>
+      </c>
+      <c r="N154" s="13">
+        <v>0</v>
+      </c>
+      <c r="O154" s="2">
+        <v>1</v>
+      </c>
+      <c r="P154" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q154" s="2">
+        <v>0</v>
+      </c>
+      <c r="R154" s="13">
+        <v>0</v>
+      </c>
+      <c r="S154" s="2">
+        <v>0</v>
+      </c>
+      <c r="T154" s="13">
+        <v>0</v>
+      </c>
+      <c r="U154" s="14">
+        <v>1</v>
+      </c>
+      <c r="V154" s="13">
+        <v>0</v>
+      </c>
+      <c r="W154" s="2">
+        <v>0</v>
+      </c>
+      <c r="X154" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y154" s="26">
+        <v>58</v>
+      </c>
+      <c r="Z154" s="20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="155" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
         <v>254</v>
       </c>
@@ -12386,29 +14655,80 @@
       <c r="C155" s="2">
         <v>6206</v>
       </c>
-      <c r="D155" s="13"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="13"/>
-      <c r="G155" s="2"/>
-      <c r="H155" s="13"/>
-      <c r="I155" s="2"/>
-      <c r="J155" s="13"/>
-      <c r="K155" s="2"/>
-      <c r="L155" s="13"/>
-      <c r="M155" s="2"/>
-      <c r="N155" s="13"/>
-      <c r="O155" s="2"/>
-      <c r="P155" s="13"/>
-      <c r="Q155" s="2"/>
-      <c r="R155" s="13"/>
-      <c r="S155" s="2"/>
-      <c r="T155" s="13"/>
-      <c r="U155" s="14"/>
-      <c r="V155" s="13"/>
-      <c r="W155" s="2"/>
-      <c r="X155" s="13"/>
-    </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D155" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="E155" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F155" s="18">
+        <v>0.72430555555555554</v>
+      </c>
+      <c r="G155" s="2">
+        <v>0</v>
+      </c>
+      <c r="H155" s="13">
+        <v>1</v>
+      </c>
+      <c r="I155" s="2">
+        <v>0</v>
+      </c>
+      <c r="J155" s="13">
+        <v>0</v>
+      </c>
+      <c r="K155" s="2">
+        <v>1</v>
+      </c>
+      <c r="L155" s="13">
+        <v>0</v>
+      </c>
+      <c r="M155" s="2">
+        <v>0</v>
+      </c>
+      <c r="N155" s="13">
+        <v>1</v>
+      </c>
+      <c r="O155" s="2">
+        <v>1</v>
+      </c>
+      <c r="P155" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q155" s="2">
+        <v>1</v>
+      </c>
+      <c r="R155" s="13">
+        <v>1</v>
+      </c>
+      <c r="S155" s="2">
+        <v>1</v>
+      </c>
+      <c r="T155" s="13">
+        <v>1</v>
+      </c>
+      <c r="U155" s="14">
+        <v>1</v>
+      </c>
+      <c r="V155" s="13">
+        <v>0</v>
+      </c>
+      <c r="W155" s="2">
+        <v>0</v>
+      </c>
+      <c r="X155" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y155" s="26">
+        <v>11</v>
+      </c>
+      <c r="Z155" s="20">
+        <v>57</v>
+      </c>
+      <c r="AA155" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="156" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A156" s="7" t="s">
         <v>255</v>
       </c>
@@ -12418,29 +14738,80 @@
       <c r="C156" s="2">
         <v>6307</v>
       </c>
-      <c r="D156" s="13"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="13"/>
-      <c r="G156" s="2"/>
-      <c r="H156" s="13"/>
-      <c r="I156" s="2"/>
-      <c r="J156" s="13"/>
-      <c r="K156" s="2"/>
-      <c r="L156" s="13"/>
-      <c r="M156" s="2"/>
-      <c r="N156" s="13"/>
-      <c r="O156" s="2"/>
-      <c r="P156" s="13"/>
-      <c r="Q156" s="2"/>
-      <c r="R156" s="13"/>
-      <c r="S156" s="2"/>
-      <c r="T156" s="13"/>
-      <c r="U156" s="14"/>
-      <c r="V156" s="13"/>
-      <c r="W156" s="2"/>
-      <c r="X156" s="13"/>
-    </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D156" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="E156" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F156" s="18">
+        <v>0.72777777777777775</v>
+      </c>
+      <c r="G156" s="2">
+        <v>0</v>
+      </c>
+      <c r="H156" s="13">
+        <v>1</v>
+      </c>
+      <c r="I156" s="2">
+        <v>1</v>
+      </c>
+      <c r="J156" s="13">
+        <v>0</v>
+      </c>
+      <c r="K156" s="2">
+        <v>0</v>
+      </c>
+      <c r="L156" s="13">
+        <v>0</v>
+      </c>
+      <c r="M156" s="2">
+        <v>1</v>
+      </c>
+      <c r="N156" s="13">
+        <v>0</v>
+      </c>
+      <c r="O156" s="2">
+        <v>1</v>
+      </c>
+      <c r="P156" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q156" s="2">
+        <v>0</v>
+      </c>
+      <c r="R156" s="13">
+        <v>0</v>
+      </c>
+      <c r="S156" s="2">
+        <v>0</v>
+      </c>
+      <c r="T156" s="13">
+        <v>0</v>
+      </c>
+      <c r="U156" s="14">
+        <v>1</v>
+      </c>
+      <c r="V156" s="13">
+        <v>0</v>
+      </c>
+      <c r="W156" s="2">
+        <v>0</v>
+      </c>
+      <c r="X156" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y156" s="26">
+        <v>64</v>
+      </c>
+      <c r="Z156" s="20">
+        <v>68</v>
+      </c>
+      <c r="AA156" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="157" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
         <v>256</v>
       </c>
@@ -12450,29 +14821,77 @@
       <c r="C157" s="2">
         <v>6112</v>
       </c>
-      <c r="D157" s="13"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="13"/>
-      <c r="G157" s="2"/>
-      <c r="H157" s="13"/>
-      <c r="I157" s="2"/>
-      <c r="J157" s="13"/>
-      <c r="K157" s="2"/>
-      <c r="L157" s="13"/>
-      <c r="M157" s="2"/>
-      <c r="N157" s="13"/>
-      <c r="O157" s="2"/>
-      <c r="P157" s="13"/>
-      <c r="Q157" s="2"/>
-      <c r="R157" s="13"/>
-      <c r="S157" s="2"/>
-      <c r="T157" s="13"/>
-      <c r="U157" s="14"/>
-      <c r="V157" s="13"/>
-      <c r="W157" s="2"/>
-      <c r="X157" s="13"/>
-    </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D157" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="E157" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F157" s="18">
+        <v>0.73125000000000007</v>
+      </c>
+      <c r="G157" s="2">
+        <v>0</v>
+      </c>
+      <c r="H157" s="13">
+        <v>1</v>
+      </c>
+      <c r="I157" s="2">
+        <v>0</v>
+      </c>
+      <c r="J157" s="13">
+        <v>0</v>
+      </c>
+      <c r="K157" s="2">
+        <v>0</v>
+      </c>
+      <c r="L157" s="13">
+        <v>0</v>
+      </c>
+      <c r="M157" s="2">
+        <v>1</v>
+      </c>
+      <c r="N157" s="13">
+        <v>1</v>
+      </c>
+      <c r="O157" s="2">
+        <v>1</v>
+      </c>
+      <c r="P157" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q157" s="2">
+        <v>0</v>
+      </c>
+      <c r="R157" s="13">
+        <v>0</v>
+      </c>
+      <c r="S157" s="2">
+        <v>0</v>
+      </c>
+      <c r="T157" s="13">
+        <v>0</v>
+      </c>
+      <c r="U157" s="14">
+        <v>0</v>
+      </c>
+      <c r="V157" s="13">
+        <v>0</v>
+      </c>
+      <c r="W157" s="2">
+        <v>0</v>
+      </c>
+      <c r="X157" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y157" s="26">
+        <v>40</v>
+      </c>
+      <c r="Z157" s="20">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="158" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A158" s="7" t="s">
         <v>257</v>
       </c>
@@ -12482,29 +14901,80 @@
       <c r="C158" s="2">
         <v>6113</v>
       </c>
-      <c r="D158" s="13"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="13"/>
-      <c r="G158" s="2"/>
-      <c r="H158" s="13"/>
-      <c r="I158" s="2"/>
-      <c r="J158" s="13"/>
-      <c r="K158" s="2"/>
-      <c r="L158" s="13"/>
-      <c r="M158" s="2"/>
-      <c r="N158" s="13"/>
-      <c r="O158" s="2"/>
-      <c r="P158" s="13"/>
-      <c r="Q158" s="2"/>
-      <c r="R158" s="13"/>
-      <c r="S158" s="2"/>
-      <c r="T158" s="13"/>
-      <c r="U158" s="14"/>
-      <c r="V158" s="13"/>
-      <c r="W158" s="2"/>
-      <c r="X158" s="13"/>
-    </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D158" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="E158" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F158" s="18">
+        <v>0.73402777777777783</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="J158" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="K158" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="L158" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="M158" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="N158" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="O158" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="P158" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q158" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="R158" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="S158" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="T158" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="U158" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="V158" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="W158" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="X158" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y158" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z158" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA158" s="25" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="159" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
         <v>258</v>
       </c>
@@ -12514,29 +14984,77 @@
       <c r="C159" s="2">
         <v>6201</v>
       </c>
-      <c r="D159" s="13"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="13"/>
-      <c r="G159" s="2"/>
-      <c r="H159" s="13"/>
-      <c r="I159" s="2"/>
-      <c r="J159" s="13"/>
-      <c r="K159" s="2"/>
-      <c r="L159" s="13"/>
-      <c r="M159" s="2"/>
-      <c r="N159" s="13"/>
-      <c r="O159" s="2"/>
-      <c r="P159" s="13"/>
-      <c r="Q159" s="2"/>
-      <c r="R159" s="13"/>
-      <c r="S159" s="2"/>
-      <c r="T159" s="13"/>
-      <c r="U159" s="14"/>
-      <c r="V159" s="13"/>
-      <c r="W159" s="2"/>
-      <c r="X159" s="13"/>
-    </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D159" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="E159" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F159" s="18">
+        <v>0.73541666666666661</v>
+      </c>
+      <c r="G159" s="2">
+        <v>0</v>
+      </c>
+      <c r="H159" s="13">
+        <v>1</v>
+      </c>
+      <c r="I159" s="2">
+        <v>1</v>
+      </c>
+      <c r="J159" s="13">
+        <v>0</v>
+      </c>
+      <c r="K159" s="2">
+        <v>1</v>
+      </c>
+      <c r="L159" s="13">
+        <v>0</v>
+      </c>
+      <c r="M159" s="2">
+        <v>1</v>
+      </c>
+      <c r="N159" s="13">
+        <v>1</v>
+      </c>
+      <c r="O159" s="2">
+        <v>1</v>
+      </c>
+      <c r="P159" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q159" s="2">
+        <v>0</v>
+      </c>
+      <c r="R159" s="13">
+        <v>0</v>
+      </c>
+      <c r="S159" s="2">
+        <v>0</v>
+      </c>
+      <c r="T159" s="13">
+        <v>0</v>
+      </c>
+      <c r="U159" s="14">
+        <v>1</v>
+      </c>
+      <c r="V159" s="13">
+        <v>0</v>
+      </c>
+      <c r="W159" s="2">
+        <v>0</v>
+      </c>
+      <c r="X159" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y159" s="26">
+        <v>39</v>
+      </c>
+      <c r="Z159" s="20">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="160" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A160" s="7" t="s">
         <v>259</v>
       </c>
@@ -12546,29 +15064,77 @@
       <c r="C160" s="2">
         <v>6308</v>
       </c>
-      <c r="D160" s="13"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="13"/>
-      <c r="G160" s="2"/>
-      <c r="H160" s="13"/>
-      <c r="I160" s="2"/>
-      <c r="J160" s="13"/>
-      <c r="K160" s="2"/>
-      <c r="L160" s="13"/>
-      <c r="M160" s="2"/>
-      <c r="N160" s="13"/>
-      <c r="O160" s="2"/>
-      <c r="P160" s="13"/>
-      <c r="Q160" s="2"/>
-      <c r="R160" s="13"/>
-      <c r="S160" s="2"/>
-      <c r="T160" s="13"/>
-      <c r="U160" s="14"/>
-      <c r="V160" s="13"/>
-      <c r="W160" s="2"/>
-      <c r="X160" s="13"/>
-    </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D160" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="E160" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F160" s="18">
+        <v>0.7368055555555556</v>
+      </c>
+      <c r="G160" s="2">
+        <v>0</v>
+      </c>
+      <c r="H160" s="13">
+        <v>0</v>
+      </c>
+      <c r="I160" s="2">
+        <v>1</v>
+      </c>
+      <c r="J160" s="13">
+        <v>0</v>
+      </c>
+      <c r="K160" s="2">
+        <v>1</v>
+      </c>
+      <c r="L160" s="13">
+        <v>0</v>
+      </c>
+      <c r="M160" s="2">
+        <v>1</v>
+      </c>
+      <c r="N160" s="13">
+        <v>0</v>
+      </c>
+      <c r="O160" s="2">
+        <v>0</v>
+      </c>
+      <c r="P160" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q160" s="2">
+        <v>0</v>
+      </c>
+      <c r="R160" s="13">
+        <v>0</v>
+      </c>
+      <c r="S160" s="2">
+        <v>0</v>
+      </c>
+      <c r="T160" s="13">
+        <v>0</v>
+      </c>
+      <c r="U160" s="14">
+        <v>1</v>
+      </c>
+      <c r="V160" s="13">
+        <v>0</v>
+      </c>
+      <c r="W160" s="2">
+        <v>0</v>
+      </c>
+      <c r="X160" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y160" s="26">
+        <v>19</v>
+      </c>
+      <c r="Z160" s="20">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="161" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A161" s="7" t="s">
         <v>260</v>
       </c>
@@ -12578,29 +15144,77 @@
       <c r="C161" s="2">
         <v>6309</v>
       </c>
-      <c r="D161" s="13"/>
-      <c r="E161" s="2"/>
-      <c r="F161" s="13"/>
-      <c r="G161" s="2"/>
-      <c r="H161" s="13"/>
-      <c r="I161" s="2"/>
-      <c r="J161" s="13"/>
-      <c r="K161" s="2"/>
-      <c r="L161" s="13"/>
-      <c r="M161" s="2"/>
-      <c r="N161" s="13"/>
-      <c r="O161" s="2"/>
-      <c r="P161" s="13"/>
-      <c r="Q161" s="2"/>
-      <c r="R161" s="13"/>
-      <c r="S161" s="2"/>
-      <c r="T161" s="13"/>
-      <c r="U161" s="14"/>
-      <c r="V161" s="13"/>
-      <c r="W161" s="2"/>
-      <c r="X161" s="13"/>
-    </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D161" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="E161" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F161" s="18">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="G161" s="2">
+        <v>0</v>
+      </c>
+      <c r="H161" s="13">
+        <v>1</v>
+      </c>
+      <c r="I161" s="2">
+        <v>1</v>
+      </c>
+      <c r="J161" s="13">
+        <v>0</v>
+      </c>
+      <c r="K161" s="2">
+        <v>1</v>
+      </c>
+      <c r="L161" s="13">
+        <v>0</v>
+      </c>
+      <c r="M161" s="2">
+        <v>1</v>
+      </c>
+      <c r="N161" s="13">
+        <v>1</v>
+      </c>
+      <c r="O161" s="2">
+        <v>1</v>
+      </c>
+      <c r="P161" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q161" s="2">
+        <v>0</v>
+      </c>
+      <c r="R161" s="13">
+        <v>0</v>
+      </c>
+      <c r="S161" s="2">
+        <v>0</v>
+      </c>
+      <c r="T161" s="13">
+        <v>0</v>
+      </c>
+      <c r="U161" s="14">
+        <v>0</v>
+      </c>
+      <c r="V161" s="13">
+        <v>0</v>
+      </c>
+      <c r="W161" s="2">
+        <v>0</v>
+      </c>
+      <c r="X161" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y161" s="26">
+        <v>54</v>
+      </c>
+      <c r="Z161" s="20">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A162" s="7" t="s">
         <v>261</v>
       </c>
@@ -12610,29 +15224,77 @@
       <c r="C162" s="2">
         <v>6114</v>
       </c>
-      <c r="D162" s="13"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="13"/>
-      <c r="G162" s="2"/>
-      <c r="H162" s="13"/>
-      <c r="I162" s="2"/>
-      <c r="J162" s="13"/>
-      <c r="K162" s="2"/>
-      <c r="L162" s="13"/>
-      <c r="M162" s="2"/>
-      <c r="N162" s="13"/>
-      <c r="O162" s="2"/>
-      <c r="P162" s="13"/>
-      <c r="Q162" s="2"/>
-      <c r="R162" s="13"/>
-      <c r="S162" s="2"/>
-      <c r="T162" s="13"/>
-      <c r="U162" s="14"/>
-      <c r="V162" s="13"/>
-      <c r="W162" s="2"/>
-      <c r="X162" s="13"/>
-    </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D162" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E162" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F162" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="G162" s="2">
+        <v>0</v>
+      </c>
+      <c r="H162" s="13">
+        <v>1</v>
+      </c>
+      <c r="I162" s="2">
+        <v>1</v>
+      </c>
+      <c r="J162" s="13">
+        <v>0</v>
+      </c>
+      <c r="K162" s="2">
+        <v>0</v>
+      </c>
+      <c r="L162" s="13">
+        <v>0</v>
+      </c>
+      <c r="M162" s="2">
+        <v>1</v>
+      </c>
+      <c r="N162" s="13">
+        <v>1</v>
+      </c>
+      <c r="O162" s="2">
+        <v>1</v>
+      </c>
+      <c r="P162" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q162" s="2">
+        <v>0</v>
+      </c>
+      <c r="R162" s="13">
+        <v>0</v>
+      </c>
+      <c r="S162" s="2">
+        <v>0</v>
+      </c>
+      <c r="T162" s="13">
+        <v>0</v>
+      </c>
+      <c r="U162" s="14">
+        <v>1</v>
+      </c>
+      <c r="V162" s="13">
+        <v>0</v>
+      </c>
+      <c r="W162" s="2">
+        <v>0</v>
+      </c>
+      <c r="X162" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y162" s="26">
+        <v>16</v>
+      </c>
+      <c r="Z162" s="20">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
         <v>262</v>
       </c>
@@ -12642,29 +15304,77 @@
       <c r="C163" s="2">
         <v>6101</v>
       </c>
-      <c r="D163" s="13"/>
-      <c r="E163" s="2"/>
-      <c r="F163" s="13"/>
-      <c r="G163" s="2"/>
-      <c r="H163" s="13"/>
-      <c r="I163" s="2"/>
-      <c r="J163" s="13"/>
-      <c r="K163" s="2"/>
-      <c r="L163" s="13"/>
-      <c r="M163" s="2"/>
-      <c r="N163" s="13"/>
-      <c r="O163" s="2"/>
-      <c r="P163" s="13"/>
-      <c r="Q163" s="2"/>
-      <c r="R163" s="13"/>
-      <c r="S163" s="2"/>
-      <c r="T163" s="13"/>
-      <c r="U163" s="14"/>
-      <c r="V163" s="13"/>
-      <c r="W163" s="2"/>
-      <c r="X163" s="13"/>
-    </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D163" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="E163" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F163" s="18">
+        <v>0.75208333333333333</v>
+      </c>
+      <c r="G163" s="2">
+        <v>0</v>
+      </c>
+      <c r="H163" s="13">
+        <v>1</v>
+      </c>
+      <c r="I163" s="2">
+        <v>0</v>
+      </c>
+      <c r="J163" s="13">
+        <v>0</v>
+      </c>
+      <c r="K163" s="2">
+        <v>1</v>
+      </c>
+      <c r="L163" s="13">
+        <v>0</v>
+      </c>
+      <c r="M163" s="2">
+        <v>1</v>
+      </c>
+      <c r="N163" s="13">
+        <v>0</v>
+      </c>
+      <c r="O163" s="2">
+        <v>1</v>
+      </c>
+      <c r="P163" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q163" s="2">
+        <v>0</v>
+      </c>
+      <c r="R163" s="13">
+        <v>0</v>
+      </c>
+      <c r="S163" s="2">
+        <v>0</v>
+      </c>
+      <c r="T163" s="13">
+        <v>0</v>
+      </c>
+      <c r="U163" s="14">
+        <v>1</v>
+      </c>
+      <c r="V163" s="13">
+        <v>0</v>
+      </c>
+      <c r="W163" s="2">
+        <v>0</v>
+      </c>
+      <c r="X163" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y163" s="26">
+        <v>3</v>
+      </c>
+      <c r="Z163" s="20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
         <v>263</v>
       </c>
@@ -12674,29 +15384,77 @@
       <c r="C164" s="2">
         <v>6115</v>
       </c>
-      <c r="D164" s="13"/>
-      <c r="E164" s="2"/>
-      <c r="F164" s="13"/>
-      <c r="G164" s="2"/>
-      <c r="H164" s="13"/>
-      <c r="I164" s="2"/>
-      <c r="J164" s="13"/>
-      <c r="K164" s="2"/>
-      <c r="L164" s="13"/>
-      <c r="M164" s="2"/>
-      <c r="N164" s="13"/>
-      <c r="O164" s="2"/>
-      <c r="P164" s="13"/>
-      <c r="Q164" s="2"/>
-      <c r="R164" s="13"/>
-      <c r="S164" s="2"/>
-      <c r="T164" s="13"/>
-      <c r="U164" s="14"/>
-      <c r="V164" s="13"/>
-      <c r="W164" s="2"/>
-      <c r="X164" s="13"/>
-    </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D164" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="E164" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F164" s="18">
+        <v>0.75416666666666676</v>
+      </c>
+      <c r="G164" s="2">
+        <v>0</v>
+      </c>
+      <c r="H164" s="13">
+        <v>1</v>
+      </c>
+      <c r="I164" s="2">
+        <v>1</v>
+      </c>
+      <c r="J164" s="13">
+        <v>0</v>
+      </c>
+      <c r="K164" s="2">
+        <v>0</v>
+      </c>
+      <c r="L164" s="13">
+        <v>0</v>
+      </c>
+      <c r="M164" s="2">
+        <v>1</v>
+      </c>
+      <c r="N164" s="13">
+        <v>0</v>
+      </c>
+      <c r="O164" s="2">
+        <v>1</v>
+      </c>
+      <c r="P164" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q164" s="2">
+        <v>0</v>
+      </c>
+      <c r="R164" s="13">
+        <v>0</v>
+      </c>
+      <c r="S164" s="2">
+        <v>0</v>
+      </c>
+      <c r="T164" s="13">
+        <v>0</v>
+      </c>
+      <c r="U164" s="14">
+        <v>1</v>
+      </c>
+      <c r="V164" s="13">
+        <v>0</v>
+      </c>
+      <c r="W164" s="2">
+        <v>0</v>
+      </c>
+      <c r="X164" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y164" s="26">
+        <v>5</v>
+      </c>
+      <c r="Z164" s="20">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A165" s="7" t="s">
         <v>264</v>
       </c>
@@ -12706,29 +15464,77 @@
       <c r="C165" s="2">
         <v>6116</v>
       </c>
-      <c r="D165" s="13"/>
-      <c r="E165" s="2"/>
-      <c r="F165" s="13"/>
-      <c r="G165" s="2"/>
-      <c r="H165" s="13"/>
-      <c r="I165" s="2"/>
-      <c r="J165" s="13"/>
-      <c r="K165" s="2"/>
-      <c r="L165" s="13"/>
-      <c r="M165" s="2"/>
-      <c r="N165" s="13"/>
-      <c r="O165" s="2"/>
-      <c r="P165" s="13"/>
-      <c r="Q165" s="2"/>
-      <c r="R165" s="13"/>
-      <c r="S165" s="2"/>
-      <c r="T165" s="13"/>
-      <c r="U165" s="14"/>
-      <c r="V165" s="13"/>
-      <c r="W165" s="2"/>
-      <c r="X165" s="13"/>
-    </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D165" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="E165" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F165" s="18">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="G165" s="2">
+        <v>0</v>
+      </c>
+      <c r="H165" s="13">
+        <v>1</v>
+      </c>
+      <c r="I165" s="2">
+        <v>0</v>
+      </c>
+      <c r="J165" s="13">
+        <v>0</v>
+      </c>
+      <c r="K165" s="2">
+        <v>1</v>
+      </c>
+      <c r="L165" s="13">
+        <v>0</v>
+      </c>
+      <c r="M165" s="2">
+        <v>1</v>
+      </c>
+      <c r="N165" s="13">
+        <v>1</v>
+      </c>
+      <c r="O165" s="2">
+        <v>1</v>
+      </c>
+      <c r="P165" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q165" s="2">
+        <v>1</v>
+      </c>
+      <c r="R165" s="13">
+        <v>1</v>
+      </c>
+      <c r="S165" s="2">
+        <v>1</v>
+      </c>
+      <c r="T165" s="13">
+        <v>1</v>
+      </c>
+      <c r="U165" s="14">
+        <v>1</v>
+      </c>
+      <c r="V165" s="13">
+        <v>0</v>
+      </c>
+      <c r="W165" s="2">
+        <v>0</v>
+      </c>
+      <c r="X165" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y165" s="26">
+        <v>44</v>
+      </c>
+      <c r="Z165" s="20">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="166" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A166" s="7" t="s">
         <v>265</v>
       </c>
@@ -12738,29 +15544,77 @@
       <c r="C166" s="2">
         <v>6301</v>
       </c>
-      <c r="D166" s="13"/>
-      <c r="E166" s="2"/>
-      <c r="F166" s="13"/>
-      <c r="G166" s="2"/>
-      <c r="H166" s="13"/>
-      <c r="I166" s="2"/>
-      <c r="J166" s="13"/>
-      <c r="K166" s="2"/>
-      <c r="L166" s="13"/>
-      <c r="M166" s="2"/>
-      <c r="N166" s="13"/>
-      <c r="O166" s="2"/>
-      <c r="P166" s="13"/>
-      <c r="Q166" s="2"/>
-      <c r="R166" s="13"/>
-      <c r="S166" s="2"/>
-      <c r="T166" s="13"/>
-      <c r="U166" s="14"/>
-      <c r="V166" s="13"/>
-      <c r="W166" s="2"/>
-      <c r="X166" s="13"/>
-    </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D166" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="E166" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F166" s="18">
+        <v>0.7597222222222223</v>
+      </c>
+      <c r="G166" s="2">
+        <v>0</v>
+      </c>
+      <c r="H166" s="13">
+        <v>1</v>
+      </c>
+      <c r="I166" s="2">
+        <v>1</v>
+      </c>
+      <c r="J166" s="13">
+        <v>0</v>
+      </c>
+      <c r="K166" s="2">
+        <v>0</v>
+      </c>
+      <c r="L166" s="13">
+        <v>0</v>
+      </c>
+      <c r="M166" s="2">
+        <v>1</v>
+      </c>
+      <c r="N166" s="13">
+        <v>0</v>
+      </c>
+      <c r="O166" s="2">
+        <v>1</v>
+      </c>
+      <c r="P166" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q166" s="2">
+        <v>0</v>
+      </c>
+      <c r="R166" s="13">
+        <v>0</v>
+      </c>
+      <c r="S166" s="2">
+        <v>0</v>
+      </c>
+      <c r="T166" s="13">
+        <v>0</v>
+      </c>
+      <c r="U166" s="14">
+        <v>1</v>
+      </c>
+      <c r="V166" s="13">
+        <v>0</v>
+      </c>
+      <c r="W166" s="2">
+        <v>0</v>
+      </c>
+      <c r="X166" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y166" s="26">
+        <v>11</v>
+      </c>
+      <c r="Z166" s="20">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A167" s="8" t="s">
         <v>266</v>
       </c>
@@ -12770,29 +15624,77 @@
       <c r="C167" s="2">
         <v>6310</v>
       </c>
-      <c r="D167" s="13"/>
-      <c r="E167" s="2"/>
-      <c r="F167" s="13"/>
-      <c r="G167" s="2"/>
-      <c r="H167" s="13"/>
-      <c r="I167" s="2"/>
-      <c r="J167" s="13"/>
-      <c r="K167" s="2"/>
-      <c r="L167" s="13"/>
-      <c r="M167" s="2"/>
-      <c r="N167" s="13"/>
-      <c r="O167" s="2"/>
-      <c r="P167" s="13"/>
-      <c r="Q167" s="2"/>
-      <c r="R167" s="13"/>
-      <c r="S167" s="2"/>
-      <c r="T167" s="13"/>
-      <c r="U167" s="14"/>
-      <c r="V167" s="13"/>
-      <c r="W167" s="2"/>
-      <c r="X167" s="13"/>
-    </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D167" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="E167" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F167" s="18">
+        <v>0.76250000000000007</v>
+      </c>
+      <c r="G167" s="2">
+        <v>0</v>
+      </c>
+      <c r="H167" s="13">
+        <v>1</v>
+      </c>
+      <c r="I167" s="2">
+        <v>1</v>
+      </c>
+      <c r="J167" s="13">
+        <v>0</v>
+      </c>
+      <c r="K167" s="2">
+        <v>0</v>
+      </c>
+      <c r="L167" s="13">
+        <v>0</v>
+      </c>
+      <c r="M167" s="2">
+        <v>1</v>
+      </c>
+      <c r="N167" s="13">
+        <v>1</v>
+      </c>
+      <c r="O167" s="2">
+        <v>1</v>
+      </c>
+      <c r="P167" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q167" s="2">
+        <v>0</v>
+      </c>
+      <c r="R167" s="13">
+        <v>0</v>
+      </c>
+      <c r="S167" s="2">
+        <v>0</v>
+      </c>
+      <c r="T167" s="13">
+        <v>0</v>
+      </c>
+      <c r="U167" s="14">
+        <v>1</v>
+      </c>
+      <c r="V167" s="13">
+        <v>0</v>
+      </c>
+      <c r="W167" s="2">
+        <v>0</v>
+      </c>
+      <c r="X167" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y167" s="26">
+        <v>23</v>
+      </c>
+      <c r="Z167" s="20">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A168" s="8" t="s">
         <v>267</v>
       </c>
@@ -12802,29 +15704,80 @@
       <c r="C168" s="2">
         <v>6117</v>
       </c>
-      <c r="D168" s="13"/>
-      <c r="E168" s="2"/>
-      <c r="F168" s="13"/>
-      <c r="G168" s="2"/>
-      <c r="H168" s="13"/>
-      <c r="I168" s="2"/>
-      <c r="J168" s="13"/>
-      <c r="K168" s="2"/>
-      <c r="L168" s="13"/>
-      <c r="M168" s="2"/>
-      <c r="N168" s="13"/>
-      <c r="O168" s="2"/>
-      <c r="P168" s="13"/>
-      <c r="Q168" s="2"/>
-      <c r="R168" s="13"/>
-      <c r="S168" s="2"/>
-      <c r="T168" s="13"/>
-      <c r="U168" s="14"/>
-      <c r="V168" s="13"/>
-      <c r="W168" s="2"/>
-      <c r="X168" s="13"/>
-    </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D168" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="E168" s="12">
+        <v>44509</v>
+      </c>
+      <c r="F168" s="18">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="G168" s="2">
+        <v>1</v>
+      </c>
+      <c r="H168" s="13">
+        <v>1</v>
+      </c>
+      <c r="I168" s="2">
+        <v>1</v>
+      </c>
+      <c r="J168" s="13">
+        <v>1</v>
+      </c>
+      <c r="K168" s="2">
+        <v>1</v>
+      </c>
+      <c r="L168" s="13">
+        <v>0</v>
+      </c>
+      <c r="M168" s="2">
+        <v>1</v>
+      </c>
+      <c r="N168" s="13">
+        <v>1</v>
+      </c>
+      <c r="O168" s="2">
+        <v>1</v>
+      </c>
+      <c r="P168" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q168" s="2">
+        <v>1</v>
+      </c>
+      <c r="R168" s="13">
+        <v>1</v>
+      </c>
+      <c r="S168" s="2">
+        <v>1</v>
+      </c>
+      <c r="T168" s="13">
+        <v>1</v>
+      </c>
+      <c r="U168" s="14">
+        <v>1</v>
+      </c>
+      <c r="V168" s="13">
+        <v>0</v>
+      </c>
+      <c r="W168" s="2">
+        <v>0</v>
+      </c>
+      <c r="X168" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y168" s="26">
+        <v>31</v>
+      </c>
+      <c r="Z168" s="20">
+        <v>85</v>
+      </c>
+      <c r="AA168" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A169" s="7" t="s">
         <v>269</v>
       </c>
@@ -12856,7 +15809,7 @@
       <c r="W169" s="3"/>
       <c r="X169" s="15"/>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A170" s="7" t="s">
         <v>270</v>
       </c>
@@ -12888,7 +15841,7 @@
       <c r="W170" s="2"/>
       <c r="X170" s="13"/>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
         <v>271</v>
       </c>
@@ -12920,7 +15873,7 @@
       <c r="W171" s="2"/>
       <c r="X171" s="13"/>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A172" s="7" t="s">
         <v>272</v>
       </c>
@@ -12952,7 +15905,7 @@
       <c r="W172" s="2"/>
       <c r="X172" s="13"/>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A173" s="7" t="s">
         <v>273</v>
       </c>
@@ -12984,7 +15937,7 @@
       <c r="W173" s="2"/>
       <c r="X173" s="13"/>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A174" s="7" t="s">
         <v>274</v>
       </c>
@@ -13016,7 +15969,7 @@
       <c r="W174" s="2"/>
       <c r="X174" s="13"/>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A175" s="7" t="s">
         <v>275</v>
       </c>
@@ -13048,7 +16001,7 @@
       <c r="W175" s="2"/>
       <c r="X175" s="13"/>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A176" s="7" t="s">
         <v>276</v>
       </c>
@@ -13884,8 +16837,8 @@
       <c r="A202" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B202" s="3" t="s">
-        <v>298</v>
+      <c r="B202" s="29" t="s">
+        <v>563</v>
       </c>
       <c r="C202" s="2">
         <v>16102</v>
@@ -14012,8 +16965,8 @@
       <c r="A206" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B206" s="3" t="s">
-        <v>298</v>
+      <c r="B206" s="29" t="s">
+        <v>563</v>
       </c>
       <c r="C206" s="2">
         <v>16101</v>
@@ -14044,8 +16997,8 @@
       <c r="A207" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B207" s="3" t="s">
-        <v>298</v>
+      <c r="B207" s="29" t="s">
+        <v>563</v>
       </c>
       <c r="C207" s="2">
         <v>16103</v>
@@ -14076,8 +17029,8 @@
       <c r="A208" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B208" s="3" t="s">
-        <v>298</v>
+      <c r="B208" s="29" t="s">
+        <v>563</v>
       </c>
       <c r="C208" s="2">
         <v>16202</v>
@@ -14108,8 +17061,8 @@
       <c r="A209" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B209" s="3" t="s">
-        <v>298</v>
+      <c r="B209" s="29" t="s">
+        <v>563</v>
       </c>
       <c r="C209" s="2">
         <v>16203</v>
@@ -14140,8 +17093,8 @@
       <c r="A210" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B210" s="3" t="s">
-        <v>298</v>
+      <c r="B210" s="29" t="s">
+        <v>563</v>
       </c>
       <c r="C210" s="2">
         <v>16302</v>
@@ -14300,8 +17253,8 @@
       <c r="A215" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B215" s="3" t="s">
-        <v>298</v>
+      <c r="B215" s="29" t="s">
+        <v>563</v>
       </c>
       <c r="C215" s="2">
         <v>16104</v>
@@ -14684,8 +17637,8 @@
       <c r="A227" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B227" s="3" t="s">
-        <v>298</v>
+      <c r="B227" s="29" t="s">
+        <v>563</v>
       </c>
       <c r="C227" s="2">
         <v>16204</v>
@@ -14716,8 +17669,8 @@
       <c r="A228" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B228" s="3" t="s">
-        <v>298</v>
+      <c r="B228" s="29" t="s">
+        <v>563</v>
       </c>
       <c r="C228" s="2">
         <v>16303</v>
@@ -14748,8 +17701,8 @@
       <c r="A229" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B229" s="3" t="s">
-        <v>298</v>
+      <c r="B229" s="29" t="s">
+        <v>563</v>
       </c>
       <c r="C229" s="2">
         <v>16105</v>
@@ -14812,8 +17765,8 @@
       <c r="A231" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B231" s="3" t="s">
-        <v>298</v>
+      <c r="B231" s="29" t="s">
+        <v>563</v>
       </c>
       <c r="C231" s="2">
         <v>16106</v>
@@ -14844,8 +17797,8 @@
       <c r="A232" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B232" s="3" t="s">
-        <v>298</v>
+      <c r="B232" s="29" t="s">
+        <v>563</v>
       </c>
       <c r="C232" s="2">
         <v>16205</v>
@@ -14940,8 +17893,8 @@
       <c r="A235" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B235" s="3" t="s">
-        <v>298</v>
+      <c r="B235" s="29" t="s">
+        <v>563</v>
       </c>
       <c r="C235" s="2">
         <v>16107</v>
@@ -14972,8 +17925,8 @@
       <c r="A236" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B236" s="3" t="s">
-        <v>298</v>
+      <c r="B236" s="29" t="s">
+        <v>563</v>
       </c>
       <c r="C236" s="2">
         <v>16201</v>
@@ -15004,10 +17957,12 @@
       <c r="A237" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B237" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C237" s="4"/>
+      <c r="B237" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="C237" s="4">
+        <v>16206</v>
+      </c>
       <c r="D237" s="16"/>
       <c r="E237" s="4"/>
       <c r="F237" s="16"/>
@@ -15034,8 +17989,8 @@
       <c r="A238" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B238" s="3" t="s">
-        <v>298</v>
+      <c r="B238" s="29" t="s">
+        <v>563</v>
       </c>
       <c r="C238" s="2">
         <v>16301</v>
@@ -15066,8 +18021,8 @@
       <c r="A239" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B239" s="3" t="s">
-        <v>298</v>
+      <c r="B239" s="29" t="s">
+        <v>563</v>
       </c>
       <c r="C239" s="2">
         <v>16304</v>
@@ -15098,8 +18053,8 @@
       <c r="A240" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B240" s="3" t="s">
-        <v>298</v>
+      <c r="B240" s="29" t="s">
+        <v>563</v>
       </c>
       <c r="C240" s="2">
         <v>16108</v>
@@ -15130,8 +18085,8 @@
       <c r="A241" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B241" s="3" t="s">
-        <v>298</v>
+      <c r="B241" s="29" t="s">
+        <v>563</v>
       </c>
       <c r="C241" s="2">
         <v>16305</v>
@@ -15386,8 +18341,8 @@
       <c r="A249" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B249" s="3" t="s">
-        <v>298</v>
+      <c r="B249" s="29" t="s">
+        <v>563</v>
       </c>
       <c r="C249" s="2">
         <v>16207</v>
@@ -15482,8 +18437,8 @@
       <c r="A252" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B252" s="3" t="s">
-        <v>298</v>
+      <c r="B252" s="29" t="s">
+        <v>563</v>
       </c>
       <c r="C252" s="2">
         <v>16109</v>
@@ -16733,7 +19688,9 @@
       <c r="B291" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C291" s="2"/>
+      <c r="C291" s="2">
+        <v>14105</v>
+      </c>
       <c r="D291" s="13"/>
       <c r="E291" s="2"/>
       <c r="F291" s="13"/>
@@ -18203,7 +21160,9 @@
       <c r="B337" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C337" s="2"/>
+      <c r="C337" s="2">
+        <v>12202</v>
+      </c>
       <c r="D337" s="15"/>
       <c r="E337" s="3"/>
       <c r="F337" s="15"/>
@@ -18659,8 +21618,65 @@
     <hyperlink ref="D109" r:id="rId108" xr:uid="{60A01FDF-849F-41B4-BD62-E9908E9F135E}"/>
     <hyperlink ref="D110" r:id="rId109" xr:uid="{D76B8CF9-238A-4E71-B415-C066E827AED6}"/>
     <hyperlink ref="D111" r:id="rId110" xr:uid="{AE381EE2-4DE1-47E5-8262-4FBF7F65592E}"/>
+    <hyperlink ref="D112" r:id="rId111" xr:uid="{23229981-81E6-4D53-BD88-4FA98305B47E}"/>
+    <hyperlink ref="D113" r:id="rId112" xr:uid="{7D7E3591-90E4-40B0-909F-21937C0CD9BA}"/>
+    <hyperlink ref="D114" r:id="rId113" xr:uid="{A9D40D9D-93E0-4D61-95BF-6F645DEE9CAC}"/>
+    <hyperlink ref="D115" r:id="rId114" xr:uid="{F64FADA5-F93C-4E9B-B2B1-03342E186177}"/>
+    <hyperlink ref="D116" r:id="rId115" xr:uid="{F93E28E0-E507-4947-9CA0-40A24E363157}"/>
+    <hyperlink ref="D117" r:id="rId116" xr:uid="{496AECBC-43F5-4ADF-AE2A-EC394639E002}"/>
+    <hyperlink ref="D118" r:id="rId117" xr:uid="{ADB9109C-095A-4177-8279-6B6D0032B723}"/>
+    <hyperlink ref="D119" r:id="rId118" xr:uid="{90C6A7BA-70B5-4D1C-AF9F-AF86A69D3D6B}"/>
+    <hyperlink ref="D120" r:id="rId119" xr:uid="{2B4351A3-FCDB-4C54-BC35-B294946F1647}"/>
+    <hyperlink ref="D121" r:id="rId120" xr:uid="{B3F22943-6EC0-4C5D-A388-7631F5A1DA0E}"/>
+    <hyperlink ref="D122" r:id="rId121" xr:uid="{5B0460C6-17CB-4C78-855B-216EA8FE1DB8}"/>
+    <hyperlink ref="D123" r:id="rId122" xr:uid="{CD72BAE2-5E63-4961-86C7-7091B1A7E88B}"/>
+    <hyperlink ref="D124" r:id="rId123" xr:uid="{1B61367D-BAC6-455E-9721-E43E0662198E}"/>
+    <hyperlink ref="D125" r:id="rId124" xr:uid="{16E0D787-54BC-4081-96A8-D1CD51C42C08}"/>
+    <hyperlink ref="D126" r:id="rId125" xr:uid="{0B056EE8-91FD-4A0A-BCCA-FA56CDF54D4A}"/>
+    <hyperlink ref="D128" r:id="rId126" xr:uid="{3947FCE4-7877-4688-972B-307CF262DC79}"/>
+    <hyperlink ref="D127" r:id="rId127" xr:uid="{7B16A8F5-C620-4FA0-8355-E7D2664825CD}"/>
+    <hyperlink ref="D129" r:id="rId128" xr:uid="{253C6B66-9DF5-4AB5-8B52-7B7FBCCFFD7F}"/>
+    <hyperlink ref="D130" r:id="rId129" xr:uid="{49449DF2-C993-49A3-BF04-A27940876061}"/>
+    <hyperlink ref="D131" r:id="rId130" xr:uid="{8FAC289B-BD00-4F53-A9BB-A28CD05D8860}"/>
+    <hyperlink ref="D132" r:id="rId131" xr:uid="{1595C7CE-E3A5-441E-B2E3-55BB063B16E3}"/>
+    <hyperlink ref="D133" r:id="rId132" xr:uid="{2958D51B-5BEE-4960-A316-4ECAFF38A0D5}"/>
+    <hyperlink ref="D134" r:id="rId133" xr:uid="{B77179F4-2235-40C7-A337-0218385D490C}"/>
+    <hyperlink ref="D135" r:id="rId134" xr:uid="{5DEE884D-DEFF-40A6-AA05-02CE4A451F73}"/>
+    <hyperlink ref="D136" r:id="rId135" xr:uid="{9E058CF6-2218-4182-9778-F0CF8EEABA19}"/>
+    <hyperlink ref="D137" r:id="rId136" xr:uid="{3FCE570F-526B-4D74-88CA-6A45C9BA066F}"/>
+    <hyperlink ref="D138" r:id="rId137" xr:uid="{A92DEC18-BDC4-4BB3-AEFE-13F06CC41966}"/>
+    <hyperlink ref="D139" r:id="rId138" xr:uid="{F9AE68D9-3A07-4345-A061-6F11B715C1E7}"/>
+    <hyperlink ref="D140" r:id="rId139" xr:uid="{C242916B-D39F-4449-BC1F-52A20CBBA39C}"/>
+    <hyperlink ref="D141" r:id="rId140" xr:uid="{85D5D64D-0158-46B9-80F9-86DE48AC2038}"/>
+    <hyperlink ref="D142" r:id="rId141" xr:uid="{B694FAFF-766C-4064-A3AE-F848E17CDE7A}"/>
+    <hyperlink ref="D143" r:id="rId142" xr:uid="{F8DEEEE5-2EF7-4C2C-8E41-286C8B6F681E}"/>
+    <hyperlink ref="D144" r:id="rId143" xr:uid="{86CD0E04-FB3C-4119-AA3D-B7839326004D}"/>
+    <hyperlink ref="D145" r:id="rId144" xr:uid="{EEEE9A77-9E5E-4958-BCD6-13DB1E309B57}"/>
+    <hyperlink ref="D146" r:id="rId145" xr:uid="{EAC9E915-3F90-44F8-899B-9E776CD0378C}"/>
+    <hyperlink ref="D147" r:id="rId146" xr:uid="{D37D7551-2A8F-4E50-A1B6-48462C255239}"/>
+    <hyperlink ref="D148" r:id="rId147" xr:uid="{710A7931-5FC1-4A37-B680-B95D427CD691}"/>
+    <hyperlink ref="D149" r:id="rId148" xr:uid="{75012E06-1EA8-4EA0-9359-3D386E27F269}"/>
+    <hyperlink ref="D150" r:id="rId149" xr:uid="{1D71553D-5C29-4780-AE20-36C28888729C}"/>
+    <hyperlink ref="D151" r:id="rId150" xr:uid="{9CADE84F-DE61-4ECF-ABE2-94B60D8ACDC7}"/>
+    <hyperlink ref="D152" r:id="rId151" xr:uid="{3B3F2420-700F-4475-8C6E-C037A226C278}"/>
+    <hyperlink ref="D153" r:id="rId152" xr:uid="{1CABAB1C-8221-417A-AB99-7F0ABED5C3BA}"/>
+    <hyperlink ref="D154" r:id="rId153" xr:uid="{42F476F3-F2BE-4BE8-BAFF-B56254A1C08A}"/>
+    <hyperlink ref="D155" r:id="rId154" xr:uid="{7D20F3D8-910A-4A03-A404-758A0C761689}"/>
+    <hyperlink ref="D156" r:id="rId155" xr:uid="{256DA6F0-BFAB-452F-8144-613E6794135B}"/>
+    <hyperlink ref="D157" r:id="rId156" xr:uid="{5614B243-F8C4-42B4-ABE0-1E2F0A476BFB}"/>
+    <hyperlink ref="D158" r:id="rId157" xr:uid="{477D61D0-EF81-4047-8300-F8EE2A47420E}"/>
+    <hyperlink ref="D159" r:id="rId158" xr:uid="{9F282F27-7870-4AB1-AB0A-E03B44942192}"/>
+    <hyperlink ref="D160" r:id="rId159" xr:uid="{C8B7829C-E500-4848-839D-D571444E1E94}"/>
+    <hyperlink ref="D161" r:id="rId160" xr:uid="{989F8493-6EEA-4F7D-9D96-4F7856B3765C}"/>
+    <hyperlink ref="D162" r:id="rId161" xr:uid="{9634FC87-3A05-4FAA-83F0-D03C3B5BE979}"/>
+    <hyperlink ref="D163" r:id="rId162" xr:uid="{454C47C6-9257-47A4-BF16-2D8D4D32550B}"/>
+    <hyperlink ref="D164" r:id="rId163" xr:uid="{E88960A9-3D14-48DC-891C-DC62FA71AF12}"/>
+    <hyperlink ref="D165" r:id="rId164" xr:uid="{765D5910-3BC6-4506-A413-5DD9286A7320}"/>
+    <hyperlink ref="D166" r:id="rId165" xr:uid="{F5746B3A-F27A-4EB2-906F-711EE7676414}"/>
+    <hyperlink ref="D167" r:id="rId166" xr:uid="{75087001-9BF1-4A9F-9608-D9CA0D8D6264}"/>
+    <hyperlink ref="D168" r:id="rId167" xr:uid="{54DC994A-6FC7-4514-A898-09EF87E0EDED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId111"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId168"/>
 </worksheet>
 </file>
--- a/raw_data/2021/EGI-2021.xlsx
+++ b/raw_data/2021/EGI-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d135da842735aabe/Documentos/GitHub/e-gov-index/raw_data/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4256" documentId="13_ncr:1_{DA2DAC24-6B37-4FAD-B3D2-40D90F3F52C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19872714-3F61-4CEA-963C-0C8591E350FD}"/>
+  <xr:revisionPtr revIDLastSave="5642" documentId="13_ncr:1_{DA2DAC24-6B37-4FAD-B3D2-40D90F3F52C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF3943F1-401F-48E7-BFFA-6F021FE24A94}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B66F953-E5AF-4F8D-B634-188287D0A235}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="626">
   <si>
     <t>region</t>
   </si>
@@ -1729,6 +1729,192 @@
   </si>
   <si>
     <t>ÑUBLE</t>
+  </si>
+  <si>
+    <t>https://www.cauquenes.cl/</t>
+  </si>
+  <si>
+    <t>https://www.parral.cl/</t>
+  </si>
+  <si>
+    <t>https://www.retiro.cl/</t>
+  </si>
+  <si>
+    <t>https://www.talca.cl/</t>
+  </si>
+  <si>
+    <t>https://chanco.cl/</t>
+  </si>
+  <si>
+    <t>https://empedrado.cl/</t>
+  </si>
+  <si>
+    <t>https://www.municipalidadcolbun.cl</t>
+  </si>
+  <si>
+    <t>http://www.constitucion.cl/</t>
+  </si>
+  <si>
+    <t>http://www.curepto.cl/mcurepto_web/</t>
+  </si>
+  <si>
+    <t>https://web.curico.cl/</t>
+  </si>
+  <si>
+    <t>https://web.molina.cl/</t>
+  </si>
+  <si>
+    <t>https://hualane.cl/SitioMunicipal/</t>
+  </si>
+  <si>
+    <t>https://mlicanten.cl/</t>
+  </si>
+  <si>
+    <t>https://www.munilinares.cl/</t>
+  </si>
+  <si>
+    <t>https://www.munipelluhue.cl/</t>
+  </si>
+  <si>
+    <t>https://www.munivichuquen.cl/</t>
+  </si>
+  <si>
+    <t>https://municipalidadlongavi.cl/</t>
+  </si>
+  <si>
+    <t>http://www.comunademaule.cl/2016/</t>
+  </si>
+  <si>
+    <t>https://www.pelarco.cl/portal/</t>
+  </si>
+  <si>
+    <t>https://www.mpencahue.cl/</t>
+  </si>
+  <si>
+    <t>https://www.munirauco.cl/sitio/</t>
+  </si>
+  <si>
+    <t>https://rioclaro.cl/site/</t>
+  </si>
+  <si>
+    <t>https://muniromeral.cl/romeral/</t>
+  </si>
+  <si>
+    <t>https://www.sagradafamilia.cl/2020/</t>
+  </si>
+  <si>
+    <t>https://www.sanclemente.cl/</t>
+  </si>
+  <si>
+    <t>https://imsanjavier.cl/municipio/</t>
+  </si>
+  <si>
+    <t>https://munisanrafael.cl/</t>
+  </si>
+  <si>
+    <t>https://www.teno.cl/webteno/</t>
+  </si>
+  <si>
+    <t>http://villalegre.cl/</t>
+  </si>
+  <si>
+    <t>http://www.muniyerbasbuenas.cl/web/</t>
+  </si>
+  <si>
+    <t>https://munialtobiobio.cl/</t>
+  </si>
+  <si>
+    <t>https://www.municipalidadantuco.cl/</t>
+  </si>
+  <si>
+    <t>http://www.muniarauco.cl/</t>
+  </si>
+  <si>
+    <t>http://www.municoelemu.cl/</t>
+  </si>
+  <si>
+    <t>http://imb.cl/</t>
+  </si>
+  <si>
+    <t>http://www.cabrero.cl/</t>
+  </si>
+  <si>
+    <t>http://www.coronel.cl/</t>
+  </si>
+  <si>
+    <t>https://municanete.cl/</t>
+  </si>
+  <si>
+    <t>https://www.chiguayante.cl/</t>
+  </si>
+  <si>
+    <t>https://www.contulmo.cl/</t>
+  </si>
+  <si>
+    <t>https://www.lebu.cl/</t>
+  </si>
+  <si>
+    <t>https://www.municipalidadchillan.cl/sitio/</t>
+  </si>
+  <si>
+    <t>https://chillanviejo.cl/</t>
+  </si>
+  <si>
+    <t>https://cobquecura.cl/</t>
+  </si>
+  <si>
+    <t>https://concepcion.cl/</t>
+  </si>
+  <si>
+    <t>https://municoihueco.cl/Inicio/</t>
+  </si>
+  <si>
+    <t>http://www.munichue.cl/</t>
+  </si>
+  <si>
+    <t>http://portal.municipalidadelcarmen.cl/</t>
+  </si>
+  <si>
+    <t>https://muniflorida.cl/</t>
+  </si>
+  <si>
+    <t>https://munilaja.cl/</t>
+  </si>
+  <si>
+    <t>https://munininhue.cl/</t>
+  </si>
+  <si>
+    <t>http://www.hualpenciudad.cl/</t>
+  </si>
+  <si>
+    <t>https://www.munihualqui.cl/</t>
+  </si>
+  <si>
+    <t>https://www.munimulchen.cl/</t>
+  </si>
+  <si>
+    <t>https://www.muninegrete.cl/</t>
+  </si>
+  <si>
+    <t>https://www.munipemuco.cl/</t>
+  </si>
+  <si>
+    <t>https://www.munilosalamos.cl/web/</t>
+  </si>
+  <si>
+    <t>https://www.losangeles.cl/</t>
+  </si>
+  <si>
+    <t>https://www.lota.cl</t>
+  </si>
+  <si>
+    <t>https://www.nacimiento.cl/index.php/es/</t>
+  </si>
+  <si>
+    <t>https://www.muniniquen.cl/Sitio_Municipalidad/web/</t>
+  </si>
+  <si>
+    <t>http://penco.cl/</t>
   </si>
 </sst>
 </file>
@@ -2250,9 +2436,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BB404C-7B3B-4680-835A-AB399C563FB6}">
   <dimension ref="A1:AA347"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B244" sqref="B244"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K228" sqref="K228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15787,27 +15973,75 @@
       <c r="C169" s="2">
         <v>7201</v>
       </c>
-      <c r="D169" s="15"/>
-      <c r="E169" s="3"/>
-      <c r="F169" s="15"/>
-      <c r="G169" s="3"/>
-      <c r="H169" s="15"/>
-      <c r="I169" s="3"/>
-      <c r="J169" s="15"/>
-      <c r="K169" s="3"/>
-      <c r="L169" s="15"/>
-      <c r="M169" s="3"/>
-      <c r="N169" s="15"/>
-      <c r="O169" s="3"/>
-      <c r="P169" s="15"/>
-      <c r="Q169" s="3"/>
-      <c r="R169" s="15"/>
-      <c r="S169" s="3"/>
-      <c r="T169" s="15"/>
-      <c r="U169" s="14"/>
-      <c r="V169" s="15"/>
-      <c r="W169" s="3"/>
-      <c r="X169" s="15"/>
+      <c r="D169" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="E169" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F169" s="18">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="G169" s="3">
+        <v>0</v>
+      </c>
+      <c r="H169" s="15">
+        <v>1</v>
+      </c>
+      <c r="I169" s="3">
+        <v>1</v>
+      </c>
+      <c r="J169" s="15">
+        <v>0</v>
+      </c>
+      <c r="K169" s="3">
+        <v>0</v>
+      </c>
+      <c r="L169" s="15">
+        <v>0</v>
+      </c>
+      <c r="M169" s="3">
+        <v>1</v>
+      </c>
+      <c r="N169" s="15">
+        <v>0</v>
+      </c>
+      <c r="O169" s="3">
+        <v>1</v>
+      </c>
+      <c r="P169" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q169" s="3">
+        <v>1</v>
+      </c>
+      <c r="R169" s="15">
+        <v>1</v>
+      </c>
+      <c r="S169" s="3">
+        <v>1</v>
+      </c>
+      <c r="T169" s="15">
+        <v>1</v>
+      </c>
+      <c r="U169" s="14">
+        <v>1</v>
+      </c>
+      <c r="V169" s="15">
+        <v>0</v>
+      </c>
+      <c r="W169" s="3">
+        <v>0</v>
+      </c>
+      <c r="X169" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y169" s="26">
+        <v>25</v>
+      </c>
+      <c r="Z169" s="20">
+        <v>55</v>
+      </c>
     </row>
     <row r="170" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A170" s="7" t="s">
@@ -15819,27 +16053,75 @@
       <c r="C170" s="2">
         <v>7202</v>
       </c>
-      <c r="D170" s="13"/>
-      <c r="E170" s="2"/>
-      <c r="F170" s="13"/>
-      <c r="G170" s="2"/>
-      <c r="H170" s="13"/>
-      <c r="I170" s="2"/>
-      <c r="J170" s="13"/>
-      <c r="K170" s="2"/>
-      <c r="L170" s="13"/>
-      <c r="M170" s="2"/>
-      <c r="N170" s="13"/>
-      <c r="O170" s="2"/>
-      <c r="P170" s="13"/>
-      <c r="Q170" s="2"/>
-      <c r="R170" s="13"/>
-      <c r="S170" s="2"/>
-      <c r="T170" s="13"/>
-      <c r="U170" s="14"/>
-      <c r="V170" s="13"/>
-      <c r="W170" s="2"/>
-      <c r="X170" s="13"/>
+      <c r="D170" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="E170" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F170" s="18">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="G170" s="2">
+        <v>0</v>
+      </c>
+      <c r="H170" s="13">
+        <v>1</v>
+      </c>
+      <c r="I170" s="2">
+        <v>1</v>
+      </c>
+      <c r="J170" s="13">
+        <v>0</v>
+      </c>
+      <c r="K170" s="2">
+        <v>0</v>
+      </c>
+      <c r="L170" s="13">
+        <v>0</v>
+      </c>
+      <c r="M170" s="2">
+        <v>1</v>
+      </c>
+      <c r="N170" s="13">
+        <v>1</v>
+      </c>
+      <c r="O170" s="2">
+        <v>1</v>
+      </c>
+      <c r="P170" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q170" s="2">
+        <v>0</v>
+      </c>
+      <c r="R170" s="13">
+        <v>0</v>
+      </c>
+      <c r="S170" s="2">
+        <v>0</v>
+      </c>
+      <c r="T170" s="13">
+        <v>0</v>
+      </c>
+      <c r="U170" s="14">
+        <v>1</v>
+      </c>
+      <c r="V170" s="15">
+        <v>0</v>
+      </c>
+      <c r="W170" s="3">
+        <v>0</v>
+      </c>
+      <c r="X170" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y170" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z170" s="14" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="171" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
@@ -15851,27 +16133,78 @@
       <c r="C171" s="2">
         <v>7402</v>
       </c>
-      <c r="D171" s="13"/>
-      <c r="E171" s="2"/>
-      <c r="F171" s="13"/>
-      <c r="G171" s="2"/>
-      <c r="H171" s="13"/>
-      <c r="I171" s="2"/>
-      <c r="J171" s="13"/>
-      <c r="K171" s="2"/>
-      <c r="L171" s="13"/>
-      <c r="M171" s="2"/>
-      <c r="N171" s="13"/>
-      <c r="O171" s="2"/>
-      <c r="P171" s="13"/>
-      <c r="Q171" s="2"/>
-      <c r="R171" s="13"/>
-      <c r="S171" s="2"/>
-      <c r="T171" s="13"/>
-      <c r="U171" s="14"/>
-      <c r="V171" s="13"/>
-      <c r="W171" s="2"/>
-      <c r="X171" s="13"/>
+      <c r="D171" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="E171" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F171" s="18">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="J171" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="K171" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="L171" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="M171" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="N171" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="O171" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="P171" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q171" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="R171" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="S171" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="T171" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="U171" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="V171" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="W171" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="X171" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y171" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z171" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA171" s="25" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="172" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A172" s="7" t="s">
@@ -15883,27 +16216,75 @@
       <c r="C172" s="2">
         <v>7102</v>
       </c>
-      <c r="D172" s="13"/>
-      <c r="E172" s="2"/>
-      <c r="F172" s="13"/>
-      <c r="G172" s="2"/>
-      <c r="H172" s="13"/>
-      <c r="I172" s="2"/>
-      <c r="J172" s="13"/>
-      <c r="K172" s="2"/>
-      <c r="L172" s="13"/>
-      <c r="M172" s="2"/>
-      <c r="N172" s="13"/>
-      <c r="O172" s="2"/>
-      <c r="P172" s="13"/>
-      <c r="Q172" s="2"/>
-      <c r="R172" s="13"/>
-      <c r="S172" s="2"/>
-      <c r="T172" s="13"/>
-      <c r="U172" s="14"/>
-      <c r="V172" s="13"/>
-      <c r="W172" s="2"/>
-      <c r="X172" s="13"/>
+      <c r="D172" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="E172" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F172" s="18">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="G172" s="2">
+        <v>0</v>
+      </c>
+      <c r="H172" s="13">
+        <v>1</v>
+      </c>
+      <c r="I172" s="2">
+        <v>0</v>
+      </c>
+      <c r="J172" s="13">
+        <v>0</v>
+      </c>
+      <c r="K172" s="2">
+        <v>0</v>
+      </c>
+      <c r="L172" s="13">
+        <v>0</v>
+      </c>
+      <c r="M172" s="2">
+        <v>1</v>
+      </c>
+      <c r="N172" s="13">
+        <v>0</v>
+      </c>
+      <c r="O172" s="2">
+        <v>1</v>
+      </c>
+      <c r="P172" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q172" s="2">
+        <v>0</v>
+      </c>
+      <c r="R172" s="13">
+        <v>0</v>
+      </c>
+      <c r="S172" s="2">
+        <v>0</v>
+      </c>
+      <c r="T172" s="13">
+        <v>0</v>
+      </c>
+      <c r="U172" s="14">
+        <v>1</v>
+      </c>
+      <c r="V172" s="13">
+        <v>0</v>
+      </c>
+      <c r="W172" s="2">
+        <v>0</v>
+      </c>
+      <c r="X172" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y172" s="26">
+        <v>48</v>
+      </c>
+      <c r="Z172" s="20">
+        <v>70</v>
+      </c>
     </row>
     <row r="173" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A173" s="7" t="s">
@@ -15915,27 +16296,75 @@
       <c r="C173" s="2">
         <v>7103</v>
       </c>
-      <c r="D173" s="13"/>
-      <c r="E173" s="2"/>
-      <c r="F173" s="13"/>
-      <c r="G173" s="2"/>
-      <c r="H173" s="13"/>
-      <c r="I173" s="2"/>
-      <c r="J173" s="13"/>
-      <c r="K173" s="2"/>
-      <c r="L173" s="13"/>
-      <c r="M173" s="2"/>
-      <c r="N173" s="13"/>
-      <c r="O173" s="2"/>
-      <c r="P173" s="13"/>
-      <c r="Q173" s="2"/>
-      <c r="R173" s="13"/>
-      <c r="S173" s="2"/>
-      <c r="T173" s="13"/>
-      <c r="U173" s="14"/>
-      <c r="V173" s="13"/>
-      <c r="W173" s="2"/>
-      <c r="X173" s="13"/>
+      <c r="D173" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="E173" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F173" s="18">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="G173" s="2">
+        <v>1</v>
+      </c>
+      <c r="H173" s="13">
+        <v>1</v>
+      </c>
+      <c r="I173" s="2">
+        <v>1</v>
+      </c>
+      <c r="J173" s="13">
+        <v>0</v>
+      </c>
+      <c r="K173" s="2">
+        <v>1</v>
+      </c>
+      <c r="L173" s="13">
+        <v>0</v>
+      </c>
+      <c r="M173" s="2">
+        <v>1</v>
+      </c>
+      <c r="N173" s="13">
+        <v>0</v>
+      </c>
+      <c r="O173" s="2">
+        <v>1</v>
+      </c>
+      <c r="P173" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q173" s="2">
+        <v>0</v>
+      </c>
+      <c r="R173" s="13">
+        <v>0</v>
+      </c>
+      <c r="S173" s="2">
+        <v>0</v>
+      </c>
+      <c r="T173" s="13">
+        <v>0</v>
+      </c>
+      <c r="U173" s="14">
+        <v>0</v>
+      </c>
+      <c r="V173" s="13">
+        <v>0</v>
+      </c>
+      <c r="W173" s="2">
+        <v>0</v>
+      </c>
+      <c r="X173" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y173" s="26">
+        <v>13</v>
+      </c>
+      <c r="Z173" s="20">
+        <v>49</v>
+      </c>
     </row>
     <row r="174" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A174" s="7" t="s">
@@ -15947,27 +16376,75 @@
       <c r="C174" s="2">
         <v>7301</v>
       </c>
-      <c r="D174" s="13"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="13"/>
-      <c r="G174" s="2"/>
-      <c r="H174" s="13"/>
-      <c r="I174" s="2"/>
-      <c r="J174" s="13"/>
-      <c r="K174" s="2"/>
-      <c r="L174" s="13"/>
-      <c r="M174" s="2"/>
-      <c r="N174" s="13"/>
-      <c r="O174" s="2"/>
-      <c r="P174" s="13"/>
-      <c r="Q174" s="2"/>
-      <c r="R174" s="13"/>
-      <c r="S174" s="2"/>
-      <c r="T174" s="13"/>
-      <c r="U174" s="14"/>
-      <c r="V174" s="13"/>
-      <c r="W174" s="2"/>
-      <c r="X174" s="13"/>
+      <c r="D174" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="E174" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F174" s="18">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="G174" s="2">
+        <v>0</v>
+      </c>
+      <c r="H174" s="13">
+        <v>1</v>
+      </c>
+      <c r="I174" s="2">
+        <v>1</v>
+      </c>
+      <c r="J174" s="13">
+        <v>0</v>
+      </c>
+      <c r="K174" s="2">
+        <v>1</v>
+      </c>
+      <c r="L174" s="13">
+        <v>0</v>
+      </c>
+      <c r="M174" s="2">
+        <v>1</v>
+      </c>
+      <c r="N174" s="13">
+        <v>0</v>
+      </c>
+      <c r="O174" s="2">
+        <v>1</v>
+      </c>
+      <c r="P174" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q174" s="2">
+        <v>0</v>
+      </c>
+      <c r="R174" s="13">
+        <v>0</v>
+      </c>
+      <c r="S174" s="2">
+        <v>0</v>
+      </c>
+      <c r="T174" s="13">
+        <v>0</v>
+      </c>
+      <c r="U174" s="14">
+        <v>1</v>
+      </c>
+      <c r="V174" s="13">
+        <v>0</v>
+      </c>
+      <c r="W174" s="2">
+        <v>0</v>
+      </c>
+      <c r="X174" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y174" s="26">
+        <v>38</v>
+      </c>
+      <c r="Z174" s="20">
+        <v>44</v>
+      </c>
     </row>
     <row r="175" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A175" s="7" t="s">
@@ -15979,27 +16456,75 @@
       <c r="C175" s="2">
         <v>7104</v>
       </c>
-      <c r="D175" s="13"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="13"/>
-      <c r="G175" s="2"/>
-      <c r="H175" s="13"/>
-      <c r="I175" s="2"/>
-      <c r="J175" s="13"/>
-      <c r="K175" s="2"/>
-      <c r="L175" s="13"/>
-      <c r="M175" s="2"/>
-      <c r="N175" s="13"/>
-      <c r="O175" s="2"/>
-      <c r="P175" s="13"/>
-      <c r="Q175" s="2"/>
-      <c r="R175" s="13"/>
-      <c r="S175" s="2"/>
-      <c r="T175" s="13"/>
-      <c r="U175" s="14"/>
-      <c r="V175" s="13"/>
-      <c r="W175" s="2"/>
-      <c r="X175" s="13"/>
+      <c r="D175" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="E175" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F175" s="18">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="G175" s="2">
+        <v>0</v>
+      </c>
+      <c r="H175" s="13">
+        <v>1</v>
+      </c>
+      <c r="I175" s="2">
+        <v>0</v>
+      </c>
+      <c r="J175" s="13">
+        <v>0</v>
+      </c>
+      <c r="K175" s="2">
+        <v>1</v>
+      </c>
+      <c r="L175" s="13">
+        <v>0</v>
+      </c>
+      <c r="M175" s="2">
+        <v>1</v>
+      </c>
+      <c r="N175" s="13">
+        <v>1</v>
+      </c>
+      <c r="O175" s="2">
+        <v>1</v>
+      </c>
+      <c r="P175" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q175" s="2">
+        <v>0</v>
+      </c>
+      <c r="R175" s="13">
+        <v>0</v>
+      </c>
+      <c r="S175" s="2">
+        <v>0</v>
+      </c>
+      <c r="T175" s="13">
+        <v>0</v>
+      </c>
+      <c r="U175" s="14">
+        <v>1</v>
+      </c>
+      <c r="V175" s="13">
+        <v>0</v>
+      </c>
+      <c r="W175" s="2">
+        <v>0</v>
+      </c>
+      <c r="X175" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y175" s="26">
+        <v>9</v>
+      </c>
+      <c r="Z175" s="20">
+        <v>27</v>
+      </c>
     </row>
     <row r="176" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A176" s="7" t="s">
@@ -16011,29 +16536,77 @@
       <c r="C176" s="2">
         <v>7302</v>
       </c>
-      <c r="D176" s="13"/>
-      <c r="E176" s="2"/>
-      <c r="F176" s="13"/>
-      <c r="G176" s="2"/>
-      <c r="H176" s="13"/>
-      <c r="I176" s="2"/>
-      <c r="J176" s="13"/>
-      <c r="K176" s="2"/>
-      <c r="L176" s="13"/>
-      <c r="M176" s="2"/>
-      <c r="N176" s="13"/>
-      <c r="O176" s="2"/>
-      <c r="P176" s="13"/>
-      <c r="Q176" s="2"/>
-      <c r="R176" s="13"/>
-      <c r="S176" s="2"/>
-      <c r="T176" s="13"/>
-      <c r="U176" s="14"/>
-      <c r="V176" s="13"/>
-      <c r="W176" s="2"/>
-      <c r="X176" s="13"/>
-    </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D176" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="E176" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F176" s="18">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="G176" s="2">
+        <v>0</v>
+      </c>
+      <c r="H176" s="13">
+        <v>1</v>
+      </c>
+      <c r="I176" s="2">
+        <v>1</v>
+      </c>
+      <c r="J176" s="13">
+        <v>0</v>
+      </c>
+      <c r="K176" s="2">
+        <v>0</v>
+      </c>
+      <c r="L176" s="13">
+        <v>0</v>
+      </c>
+      <c r="M176" s="2">
+        <v>1</v>
+      </c>
+      <c r="N176" s="13">
+        <v>1</v>
+      </c>
+      <c r="O176" s="2">
+        <v>1</v>
+      </c>
+      <c r="P176" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q176" s="2">
+        <v>0</v>
+      </c>
+      <c r="R176" s="13">
+        <v>0</v>
+      </c>
+      <c r="S176" s="2">
+        <v>0</v>
+      </c>
+      <c r="T176" s="13">
+        <v>0</v>
+      </c>
+      <c r="U176" s="14">
+        <v>1</v>
+      </c>
+      <c r="V176" s="13">
+        <v>0</v>
+      </c>
+      <c r="W176" s="2">
+        <v>0</v>
+      </c>
+      <c r="X176" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y176" s="26">
+        <v>16</v>
+      </c>
+      <c r="Z176" s="20">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="177" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
         <v>277</v>
       </c>
@@ -16043,29 +16616,77 @@
       <c r="C177" s="2">
         <v>7303</v>
       </c>
-      <c r="D177" s="13"/>
-      <c r="E177" s="2"/>
-      <c r="F177" s="13"/>
-      <c r="G177" s="2"/>
-      <c r="H177" s="13"/>
-      <c r="I177" s="2"/>
-      <c r="J177" s="13"/>
-      <c r="K177" s="2"/>
-      <c r="L177" s="13"/>
-      <c r="M177" s="2"/>
-      <c r="N177" s="13"/>
-      <c r="O177" s="2"/>
-      <c r="P177" s="13"/>
-      <c r="Q177" s="2"/>
-      <c r="R177" s="13"/>
-      <c r="S177" s="2"/>
-      <c r="T177" s="13"/>
-      <c r="U177" s="14"/>
-      <c r="V177" s="13"/>
-      <c r="W177" s="2"/>
-      <c r="X177" s="13"/>
-    </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D177" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="E177" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F177" s="18">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="G177" s="2">
+        <v>0</v>
+      </c>
+      <c r="H177" s="13">
+        <v>1</v>
+      </c>
+      <c r="I177" s="2">
+        <v>0</v>
+      </c>
+      <c r="J177" s="13">
+        <v>0</v>
+      </c>
+      <c r="K177" s="2">
+        <v>0</v>
+      </c>
+      <c r="L177" s="13">
+        <v>0</v>
+      </c>
+      <c r="M177" s="2">
+        <v>1</v>
+      </c>
+      <c r="N177" s="13">
+        <v>0</v>
+      </c>
+      <c r="O177" s="2">
+        <v>1</v>
+      </c>
+      <c r="P177" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q177" s="2">
+        <v>0</v>
+      </c>
+      <c r="R177" s="13">
+        <v>0</v>
+      </c>
+      <c r="S177" s="2">
+        <v>0</v>
+      </c>
+      <c r="T177" s="13">
+        <v>0</v>
+      </c>
+      <c r="U177" s="14">
+        <v>1</v>
+      </c>
+      <c r="V177" s="13">
+        <v>0</v>
+      </c>
+      <c r="W177" s="2">
+        <v>0</v>
+      </c>
+      <c r="X177" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y177" s="26">
+        <v>12</v>
+      </c>
+      <c r="Z177" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A178" s="7" t="s">
         <v>278</v>
       </c>
@@ -16075,29 +16696,77 @@
       <c r="C178" s="2">
         <v>7401</v>
       </c>
-      <c r="D178" s="13"/>
-      <c r="E178" s="2"/>
-      <c r="F178" s="13"/>
-      <c r="G178" s="2"/>
-      <c r="H178" s="13"/>
-      <c r="I178" s="2"/>
-      <c r="J178" s="13"/>
-      <c r="K178" s="2"/>
-      <c r="L178" s="13"/>
-      <c r="M178" s="2"/>
-      <c r="N178" s="13"/>
-      <c r="O178" s="2"/>
-      <c r="P178" s="13"/>
-      <c r="Q178" s="2"/>
-      <c r="R178" s="13"/>
-      <c r="S178" s="2"/>
-      <c r="T178" s="13"/>
-      <c r="U178" s="14"/>
-      <c r="V178" s="13"/>
-      <c r="W178" s="2"/>
-      <c r="X178" s="13"/>
-    </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D178" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="E178" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F178" s="18">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="G178" s="2">
+        <v>1</v>
+      </c>
+      <c r="H178" s="13">
+        <v>0</v>
+      </c>
+      <c r="I178" s="2">
+        <v>0</v>
+      </c>
+      <c r="J178" s="13">
+        <v>0</v>
+      </c>
+      <c r="K178" s="2">
+        <v>0</v>
+      </c>
+      <c r="L178" s="13">
+        <v>0</v>
+      </c>
+      <c r="M178" s="2">
+        <v>1</v>
+      </c>
+      <c r="N178" s="13">
+        <v>0</v>
+      </c>
+      <c r="O178" s="2">
+        <v>1</v>
+      </c>
+      <c r="P178" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q178" s="2">
+        <v>0</v>
+      </c>
+      <c r="R178" s="13">
+        <v>0</v>
+      </c>
+      <c r="S178" s="2">
+        <v>0</v>
+      </c>
+      <c r="T178" s="13">
+        <v>0</v>
+      </c>
+      <c r="U178" s="14">
+        <v>1</v>
+      </c>
+      <c r="V178" s="13">
+        <v>0</v>
+      </c>
+      <c r="W178" s="2">
+        <v>0</v>
+      </c>
+      <c r="X178" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y178" s="26">
+        <v>30</v>
+      </c>
+      <c r="Z178" s="20">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
         <v>279</v>
       </c>
@@ -16107,29 +16776,77 @@
       <c r="C179" s="2">
         <v>7403</v>
       </c>
-      <c r="D179" s="13"/>
-      <c r="E179" s="2"/>
-      <c r="F179" s="13"/>
-      <c r="G179" s="2"/>
-      <c r="H179" s="13"/>
-      <c r="I179" s="2"/>
-      <c r="J179" s="13"/>
-      <c r="K179" s="2"/>
-      <c r="L179" s="13"/>
-      <c r="M179" s="2"/>
-      <c r="N179" s="13"/>
-      <c r="O179" s="2"/>
-      <c r="P179" s="13"/>
-      <c r="Q179" s="2"/>
-      <c r="R179" s="13"/>
-      <c r="S179" s="2"/>
-      <c r="T179" s="13"/>
-      <c r="U179" s="14"/>
-      <c r="V179" s="13"/>
-      <c r="W179" s="2"/>
-      <c r="X179" s="13"/>
-    </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D179" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="E179" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F179" s="18">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="G179" s="2">
+        <v>0</v>
+      </c>
+      <c r="H179" s="13">
+        <v>1</v>
+      </c>
+      <c r="I179" s="2">
+        <v>1</v>
+      </c>
+      <c r="J179" s="13">
+        <v>0</v>
+      </c>
+      <c r="K179" s="2">
+        <v>0</v>
+      </c>
+      <c r="L179" s="13">
+        <v>0</v>
+      </c>
+      <c r="M179" s="2">
+        <v>1</v>
+      </c>
+      <c r="N179" s="13">
+        <v>0</v>
+      </c>
+      <c r="O179" s="2">
+        <v>1</v>
+      </c>
+      <c r="P179" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q179" s="2">
+        <v>0</v>
+      </c>
+      <c r="R179" s="13">
+        <v>0</v>
+      </c>
+      <c r="S179" s="2">
+        <v>0</v>
+      </c>
+      <c r="T179" s="13">
+        <v>0</v>
+      </c>
+      <c r="U179" s="14">
+        <v>1</v>
+      </c>
+      <c r="V179" s="13">
+        <v>0</v>
+      </c>
+      <c r="W179" s="2">
+        <v>0</v>
+      </c>
+      <c r="X179" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y179" s="26">
+        <v>9</v>
+      </c>
+      <c r="Z179" s="20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="180" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A180" s="7" t="s">
         <v>268</v>
       </c>
@@ -16139,29 +16856,77 @@
       <c r="C180" s="2">
         <v>7105</v>
       </c>
-      <c r="D180" s="13"/>
-      <c r="E180" s="2"/>
-      <c r="F180" s="13"/>
-      <c r="G180" s="2"/>
-      <c r="H180" s="13"/>
-      <c r="I180" s="2"/>
-      <c r="J180" s="13"/>
-      <c r="K180" s="2"/>
-      <c r="L180" s="13"/>
-      <c r="M180" s="2"/>
-      <c r="N180" s="13"/>
-      <c r="O180" s="2"/>
-      <c r="P180" s="13"/>
-      <c r="Q180" s="2"/>
-      <c r="R180" s="13"/>
-      <c r="S180" s="2"/>
-      <c r="T180" s="13"/>
-      <c r="U180" s="14"/>
-      <c r="V180" s="13"/>
-      <c r="W180" s="2"/>
-      <c r="X180" s="13"/>
-    </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D180" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="E180" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F180" s="18">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="G180" s="2">
+        <v>0</v>
+      </c>
+      <c r="H180" s="13">
+        <v>0</v>
+      </c>
+      <c r="I180" s="2">
+        <v>0</v>
+      </c>
+      <c r="J180" s="13">
+        <v>0</v>
+      </c>
+      <c r="K180" s="2">
+        <v>0</v>
+      </c>
+      <c r="L180" s="13">
+        <v>0</v>
+      </c>
+      <c r="M180" s="2">
+        <v>1</v>
+      </c>
+      <c r="N180" s="13">
+        <v>1</v>
+      </c>
+      <c r="O180" s="2">
+        <v>1</v>
+      </c>
+      <c r="P180" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q180" s="2">
+        <v>0</v>
+      </c>
+      <c r="R180" s="13">
+        <v>0</v>
+      </c>
+      <c r="S180" s="2">
+        <v>0</v>
+      </c>
+      <c r="T180" s="13">
+        <v>0</v>
+      </c>
+      <c r="U180" s="14">
+        <v>1</v>
+      </c>
+      <c r="V180" s="13">
+        <v>0</v>
+      </c>
+      <c r="W180" s="2">
+        <v>0</v>
+      </c>
+      <c r="X180" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y180" s="26">
+        <v>66</v>
+      </c>
+      <c r="Z180" s="20">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="181" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
         <v>280</v>
       </c>
@@ -16171,29 +16936,77 @@
       <c r="C181" s="2">
         <v>7304</v>
       </c>
-      <c r="D181" s="13"/>
-      <c r="E181" s="2"/>
-      <c r="F181" s="13"/>
-      <c r="G181" s="2"/>
-      <c r="H181" s="13"/>
-      <c r="I181" s="2"/>
-      <c r="J181" s="13"/>
-      <c r="K181" s="2"/>
-      <c r="L181" s="13"/>
-      <c r="M181" s="2"/>
-      <c r="N181" s="13"/>
-      <c r="O181" s="2"/>
-      <c r="P181" s="13"/>
-      <c r="Q181" s="2"/>
-      <c r="R181" s="13"/>
-      <c r="S181" s="2"/>
-      <c r="T181" s="13"/>
-      <c r="U181" s="14"/>
-      <c r="V181" s="13"/>
-      <c r="W181" s="2"/>
-      <c r="X181" s="13"/>
-    </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D181" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="E181" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F181" s="18">
+        <v>0.51111111111111118</v>
+      </c>
+      <c r="G181" s="2">
+        <v>0</v>
+      </c>
+      <c r="H181" s="13">
+        <v>1</v>
+      </c>
+      <c r="I181" s="2">
+        <v>1</v>
+      </c>
+      <c r="J181" s="13">
+        <v>0</v>
+      </c>
+      <c r="K181" s="2">
+        <v>1</v>
+      </c>
+      <c r="L181" s="13">
+        <v>0</v>
+      </c>
+      <c r="M181" s="2">
+        <v>1</v>
+      </c>
+      <c r="N181" s="13">
+        <v>0</v>
+      </c>
+      <c r="O181" s="2">
+        <v>0</v>
+      </c>
+      <c r="P181" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q181" s="2">
+        <v>0</v>
+      </c>
+      <c r="R181" s="13">
+        <v>0</v>
+      </c>
+      <c r="S181" s="2">
+        <v>0</v>
+      </c>
+      <c r="T181" s="13">
+        <v>0</v>
+      </c>
+      <c r="U181" s="14">
+        <v>1</v>
+      </c>
+      <c r="V181" s="13">
+        <v>0</v>
+      </c>
+      <c r="W181" s="2">
+        <v>0</v>
+      </c>
+      <c r="X181" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y181" s="26">
+        <v>22</v>
+      </c>
+      <c r="Z181" s="20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="182" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A182" s="7" t="s">
         <v>281</v>
       </c>
@@ -16203,29 +17016,77 @@
       <c r="C182" s="2">
         <v>7404</v>
       </c>
-      <c r="D182" s="13"/>
-      <c r="E182" s="2"/>
-      <c r="F182" s="13"/>
-      <c r="G182" s="2"/>
-      <c r="H182" s="13"/>
-      <c r="I182" s="2"/>
-      <c r="J182" s="13"/>
-      <c r="K182" s="2"/>
-      <c r="L182" s="13"/>
-      <c r="M182" s="2"/>
-      <c r="N182" s="13"/>
-      <c r="O182" s="2"/>
-      <c r="P182" s="13"/>
-      <c r="Q182" s="2"/>
-      <c r="R182" s="13"/>
-      <c r="S182" s="2"/>
-      <c r="T182" s="13"/>
-      <c r="U182" s="14"/>
-      <c r="V182" s="13"/>
-      <c r="W182" s="2"/>
-      <c r="X182" s="13"/>
-    </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D182" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="E182" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F182" s="18">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="G182" s="2">
+        <v>0</v>
+      </c>
+      <c r="H182" s="13">
+        <v>1</v>
+      </c>
+      <c r="I182" s="2">
+        <v>0</v>
+      </c>
+      <c r="J182" s="13">
+        <v>0</v>
+      </c>
+      <c r="K182" s="2">
+        <v>0</v>
+      </c>
+      <c r="L182" s="13">
+        <v>0</v>
+      </c>
+      <c r="M182" s="2">
+        <v>1</v>
+      </c>
+      <c r="N182" s="13">
+        <v>1</v>
+      </c>
+      <c r="O182" s="2">
+        <v>1</v>
+      </c>
+      <c r="P182" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q182" s="2">
+        <v>0</v>
+      </c>
+      <c r="R182" s="13">
+        <v>0</v>
+      </c>
+      <c r="S182" s="2">
+        <v>0</v>
+      </c>
+      <c r="T182" s="13">
+        <v>0</v>
+      </c>
+      <c r="U182" s="14">
+        <v>1</v>
+      </c>
+      <c r="V182" s="13">
+        <v>0</v>
+      </c>
+      <c r="W182" s="2">
+        <v>0</v>
+      </c>
+      <c r="X182" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y182" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z182" s="20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="183" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A183" s="7" t="s">
         <v>282</v>
       </c>
@@ -16235,29 +17096,77 @@
       <c r="C183" s="2">
         <v>7106</v>
       </c>
-      <c r="D183" s="13"/>
-      <c r="E183" s="2"/>
-      <c r="F183" s="13"/>
-      <c r="G183" s="2"/>
-      <c r="H183" s="13"/>
-      <c r="I183" s="2"/>
-      <c r="J183" s="13"/>
-      <c r="K183" s="2"/>
-      <c r="L183" s="13"/>
-      <c r="M183" s="2"/>
-      <c r="N183" s="13"/>
-      <c r="O183" s="2"/>
-      <c r="P183" s="13"/>
-      <c r="Q183" s="2"/>
-      <c r="R183" s="13"/>
-      <c r="S183" s="2"/>
-      <c r="T183" s="13"/>
-      <c r="U183" s="14"/>
-      <c r="V183" s="13"/>
-      <c r="W183" s="2"/>
-      <c r="X183" s="13"/>
-    </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D183" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="E183" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F183" s="18">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="G183" s="2">
+        <v>0</v>
+      </c>
+      <c r="H183" s="13">
+        <v>1</v>
+      </c>
+      <c r="I183" s="2">
+        <v>1</v>
+      </c>
+      <c r="J183" s="13">
+        <v>0</v>
+      </c>
+      <c r="K183" s="2">
+        <v>0</v>
+      </c>
+      <c r="L183" s="13">
+        <v>0</v>
+      </c>
+      <c r="M183" s="2">
+        <v>1</v>
+      </c>
+      <c r="N183" s="13">
+        <v>1</v>
+      </c>
+      <c r="O183" s="2">
+        <v>1</v>
+      </c>
+      <c r="P183" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q183" s="2">
+        <v>0</v>
+      </c>
+      <c r="R183" s="13">
+        <v>0</v>
+      </c>
+      <c r="S183" s="2">
+        <v>0</v>
+      </c>
+      <c r="T183" s="13">
+        <v>0</v>
+      </c>
+      <c r="U183" s="14">
+        <v>0</v>
+      </c>
+      <c r="V183" s="13">
+        <v>0</v>
+      </c>
+      <c r="W183" s="2">
+        <v>0</v>
+      </c>
+      <c r="X183" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y183" s="26">
+        <v>23</v>
+      </c>
+      <c r="Z183" s="20">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="184" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A184" s="7" t="s">
         <v>283</v>
       </c>
@@ -16267,29 +17176,77 @@
       <c r="C184" s="2">
         <v>7203</v>
       </c>
-      <c r="D184" s="13"/>
-      <c r="E184" s="2"/>
-      <c r="F184" s="13"/>
-      <c r="G184" s="2"/>
-      <c r="H184" s="13"/>
-      <c r="I184" s="2"/>
-      <c r="J184" s="13"/>
-      <c r="K184" s="2"/>
-      <c r="L184" s="13"/>
-      <c r="M184" s="2"/>
-      <c r="N184" s="13"/>
-      <c r="O184" s="2"/>
-      <c r="P184" s="13"/>
-      <c r="Q184" s="2"/>
-      <c r="R184" s="13"/>
-      <c r="S184" s="2"/>
-      <c r="T184" s="13"/>
-      <c r="U184" s="14"/>
-      <c r="V184" s="13"/>
-      <c r="W184" s="2"/>
-      <c r="X184" s="13"/>
-    </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D184" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="E184" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F184" s="18">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="G184" s="2">
+        <v>1</v>
+      </c>
+      <c r="H184" s="13">
+        <v>1</v>
+      </c>
+      <c r="I184" s="2">
+        <v>0</v>
+      </c>
+      <c r="J184" s="13">
+        <v>0</v>
+      </c>
+      <c r="K184" s="2">
+        <v>1</v>
+      </c>
+      <c r="L184" s="13">
+        <v>0</v>
+      </c>
+      <c r="M184" s="2">
+        <v>1</v>
+      </c>
+      <c r="N184" s="13">
+        <v>1</v>
+      </c>
+      <c r="O184" s="2">
+        <v>1</v>
+      </c>
+      <c r="P184" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q184" s="2">
+        <v>0</v>
+      </c>
+      <c r="R184" s="13">
+        <v>0</v>
+      </c>
+      <c r="S184" s="2">
+        <v>0</v>
+      </c>
+      <c r="T184" s="13">
+        <v>0</v>
+      </c>
+      <c r="U184" s="14">
+        <v>1</v>
+      </c>
+      <c r="V184" s="13">
+        <v>0</v>
+      </c>
+      <c r="W184" s="2">
+        <v>0</v>
+      </c>
+      <c r="X184" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y184" s="26">
+        <v>3</v>
+      </c>
+      <c r="Z184" s="20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="185" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A185" s="7" t="s">
         <v>284</v>
       </c>
@@ -16299,29 +17256,77 @@
       <c r="C185" s="2">
         <v>7107</v>
       </c>
-      <c r="D185" s="13"/>
-      <c r="E185" s="2"/>
-      <c r="F185" s="13"/>
-      <c r="G185" s="2"/>
-      <c r="H185" s="13"/>
-      <c r="I185" s="2"/>
-      <c r="J185" s="13"/>
-      <c r="K185" s="2"/>
-      <c r="L185" s="13"/>
-      <c r="M185" s="2"/>
-      <c r="N185" s="13"/>
-      <c r="O185" s="2"/>
-      <c r="P185" s="13"/>
-      <c r="Q185" s="2"/>
-      <c r="R185" s="13"/>
-      <c r="S185" s="2"/>
-      <c r="T185" s="13"/>
-      <c r="U185" s="14"/>
-      <c r="V185" s="13"/>
-      <c r="W185" s="2"/>
-      <c r="X185" s="13"/>
-    </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D185" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="E185" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F185" s="18">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G185" s="2">
+        <v>1</v>
+      </c>
+      <c r="H185" s="13">
+        <v>1</v>
+      </c>
+      <c r="I185" s="2">
+        <v>0</v>
+      </c>
+      <c r="J185" s="13">
+        <v>0</v>
+      </c>
+      <c r="K185" s="2">
+        <v>0</v>
+      </c>
+      <c r="L185" s="13">
+        <v>0</v>
+      </c>
+      <c r="M185" s="2">
+        <v>1</v>
+      </c>
+      <c r="N185" s="13">
+        <v>0</v>
+      </c>
+      <c r="O185" s="2">
+        <v>1</v>
+      </c>
+      <c r="P185" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q185" s="2">
+        <v>0</v>
+      </c>
+      <c r="R185" s="13">
+        <v>0</v>
+      </c>
+      <c r="S185" s="2">
+        <v>0</v>
+      </c>
+      <c r="T185" s="13">
+        <v>0</v>
+      </c>
+      <c r="U185" s="14">
+        <v>1</v>
+      </c>
+      <c r="V185" s="13">
+        <v>0</v>
+      </c>
+      <c r="W185" s="2">
+        <v>0</v>
+      </c>
+      <c r="X185" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y185" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z185" s="14" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="186" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A186" s="7" t="s">
         <v>285</v>
       </c>
@@ -16331,29 +17336,77 @@
       <c r="C186" s="2">
         <v>7305</v>
       </c>
-      <c r="D186" s="13"/>
-      <c r="E186" s="2"/>
-      <c r="F186" s="13"/>
-      <c r="G186" s="2"/>
-      <c r="H186" s="13"/>
-      <c r="I186" s="2"/>
-      <c r="J186" s="13"/>
-      <c r="K186" s="2"/>
-      <c r="L186" s="13"/>
-      <c r="M186" s="2"/>
-      <c r="N186" s="13"/>
-      <c r="O186" s="2"/>
-      <c r="P186" s="13"/>
-      <c r="Q186" s="2"/>
-      <c r="R186" s="13"/>
-      <c r="S186" s="2"/>
-      <c r="T186" s="13"/>
-      <c r="U186" s="14"/>
-      <c r="V186" s="13"/>
-      <c r="W186" s="2"/>
-      <c r="X186" s="13"/>
-    </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D186" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="E186" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F186" s="18">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="G186" s="2">
+        <v>0</v>
+      </c>
+      <c r="H186" s="13">
+        <v>0</v>
+      </c>
+      <c r="I186" s="2">
+        <v>1</v>
+      </c>
+      <c r="J186" s="13">
+        <v>0</v>
+      </c>
+      <c r="K186" s="2">
+        <v>1</v>
+      </c>
+      <c r="L186" s="13">
+        <v>0</v>
+      </c>
+      <c r="M186" s="2">
+        <v>1</v>
+      </c>
+      <c r="N186" s="13">
+        <v>0</v>
+      </c>
+      <c r="O186" s="2">
+        <v>0</v>
+      </c>
+      <c r="P186" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q186" s="2">
+        <v>0</v>
+      </c>
+      <c r="R186" s="13">
+        <v>0</v>
+      </c>
+      <c r="S186" s="2">
+        <v>0</v>
+      </c>
+      <c r="T186" s="13">
+        <v>0</v>
+      </c>
+      <c r="U186" s="14">
+        <v>1</v>
+      </c>
+      <c r="V186" s="13">
+        <v>0</v>
+      </c>
+      <c r="W186" s="2">
+        <v>0</v>
+      </c>
+      <c r="X186" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y186" s="14">
+        <v>16</v>
+      </c>
+      <c r="Z186" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="187" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A187" s="7" t="s">
         <v>286</v>
       </c>
@@ -16363,29 +17416,77 @@
       <c r="C187" s="2">
         <v>7405</v>
       </c>
-      <c r="D187" s="13"/>
-      <c r="E187" s="2"/>
-      <c r="F187" s="13"/>
-      <c r="G187" s="2"/>
-      <c r="H187" s="13"/>
-      <c r="I187" s="2"/>
-      <c r="J187" s="13"/>
-      <c r="K187" s="2"/>
-      <c r="L187" s="13"/>
-      <c r="M187" s="2"/>
-      <c r="N187" s="13"/>
-      <c r="O187" s="2"/>
-      <c r="P187" s="13"/>
-      <c r="Q187" s="2"/>
-      <c r="R187" s="13"/>
-      <c r="S187" s="2"/>
-      <c r="T187" s="13"/>
-      <c r="U187" s="14"/>
-      <c r="V187" s="13"/>
-      <c r="W187" s="2"/>
-      <c r="X187" s="13"/>
-    </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D187" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="E187" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F187" s="18">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="G187" s="2">
+        <v>0</v>
+      </c>
+      <c r="H187" s="13">
+        <v>0</v>
+      </c>
+      <c r="I187" s="2">
+        <v>0</v>
+      </c>
+      <c r="J187" s="13">
+        <v>0</v>
+      </c>
+      <c r="K187" s="2">
+        <v>0</v>
+      </c>
+      <c r="L187" s="13">
+        <v>0</v>
+      </c>
+      <c r="M187" s="2">
+        <v>1</v>
+      </c>
+      <c r="N187" s="13">
+        <v>1</v>
+      </c>
+      <c r="O187" s="2">
+        <v>1</v>
+      </c>
+      <c r="P187" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q187" s="2">
+        <v>0</v>
+      </c>
+      <c r="R187" s="13">
+        <v>0</v>
+      </c>
+      <c r="S187" s="2">
+        <v>0</v>
+      </c>
+      <c r="T187" s="13">
+        <v>0</v>
+      </c>
+      <c r="U187" s="14">
+        <v>0</v>
+      </c>
+      <c r="V187" s="13">
+        <v>0</v>
+      </c>
+      <c r="W187" s="2">
+        <v>0</v>
+      </c>
+      <c r="X187" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y187" s="14">
+        <v>36</v>
+      </c>
+      <c r="Z187" s="14">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="188" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A188" s="7" t="s">
         <v>287</v>
       </c>
@@ -16395,29 +17496,77 @@
       <c r="C188" s="2">
         <v>7108</v>
       </c>
-      <c r="D188" s="13"/>
-      <c r="E188" s="2"/>
-      <c r="F188" s="13"/>
-      <c r="G188" s="2"/>
-      <c r="H188" s="13"/>
-      <c r="I188" s="2"/>
-      <c r="J188" s="13"/>
-      <c r="K188" s="2"/>
-      <c r="L188" s="13"/>
-      <c r="M188" s="2"/>
-      <c r="N188" s="13"/>
-      <c r="O188" s="2"/>
-      <c r="P188" s="13"/>
-      <c r="Q188" s="2"/>
-      <c r="R188" s="13"/>
-      <c r="S188" s="2"/>
-      <c r="T188" s="13"/>
-      <c r="U188" s="14"/>
-      <c r="V188" s="13"/>
-      <c r="W188" s="2"/>
-      <c r="X188" s="13"/>
-    </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D188" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="E188" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F188" s="18">
+        <v>0.52847222222222223</v>
+      </c>
+      <c r="G188" s="2">
+        <v>0</v>
+      </c>
+      <c r="H188" s="13">
+        <v>1</v>
+      </c>
+      <c r="I188" s="2">
+        <v>1</v>
+      </c>
+      <c r="J188" s="13">
+        <v>0</v>
+      </c>
+      <c r="K188" s="2">
+        <v>1</v>
+      </c>
+      <c r="L188" s="13">
+        <v>0</v>
+      </c>
+      <c r="M188" s="2">
+        <v>1</v>
+      </c>
+      <c r="N188" s="13">
+        <v>0</v>
+      </c>
+      <c r="O188" s="2">
+        <v>1</v>
+      </c>
+      <c r="P188" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q188" s="2">
+        <v>0</v>
+      </c>
+      <c r="R188" s="13">
+        <v>0</v>
+      </c>
+      <c r="S188" s="2">
+        <v>0</v>
+      </c>
+      <c r="T188" s="13">
+        <v>0</v>
+      </c>
+      <c r="U188" s="14">
+        <v>1</v>
+      </c>
+      <c r="V188" s="13">
+        <v>0</v>
+      </c>
+      <c r="W188" s="2">
+        <v>0</v>
+      </c>
+      <c r="X188" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y188" s="14">
+        <v>20</v>
+      </c>
+      <c r="Z188" s="14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="189" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
         <v>288</v>
       </c>
@@ -16427,29 +17576,77 @@
       <c r="C189" s="2">
         <v>7306</v>
       </c>
-      <c r="D189" s="13"/>
-      <c r="E189" s="2"/>
-      <c r="F189" s="13"/>
-      <c r="G189" s="2"/>
-      <c r="H189" s="13"/>
-      <c r="I189" s="2"/>
-      <c r="J189" s="13"/>
-      <c r="K189" s="2"/>
-      <c r="L189" s="13"/>
-      <c r="M189" s="2"/>
-      <c r="N189" s="13"/>
-      <c r="O189" s="2"/>
-      <c r="P189" s="13"/>
-      <c r="Q189" s="2"/>
-      <c r="R189" s="13"/>
-      <c r="S189" s="2"/>
-      <c r="T189" s="13"/>
-      <c r="U189" s="14"/>
-      <c r="V189" s="13"/>
-      <c r="W189" s="2"/>
-      <c r="X189" s="13"/>
-    </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D189" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="E189" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F189" s="18">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="G189" s="2">
+        <v>0</v>
+      </c>
+      <c r="H189" s="13">
+        <v>0</v>
+      </c>
+      <c r="I189" s="2">
+        <v>1</v>
+      </c>
+      <c r="J189" s="13">
+        <v>0</v>
+      </c>
+      <c r="K189" s="2">
+        <v>0</v>
+      </c>
+      <c r="L189" s="13">
+        <v>0</v>
+      </c>
+      <c r="M189" s="2">
+        <v>1</v>
+      </c>
+      <c r="N189" s="13">
+        <v>0</v>
+      </c>
+      <c r="O189" s="2">
+        <v>1</v>
+      </c>
+      <c r="P189" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q189" s="2">
+        <v>0</v>
+      </c>
+      <c r="R189" s="13">
+        <v>0</v>
+      </c>
+      <c r="S189" s="2">
+        <v>0</v>
+      </c>
+      <c r="T189" s="13">
+        <v>0</v>
+      </c>
+      <c r="U189" s="14">
+        <v>1</v>
+      </c>
+      <c r="V189" s="13">
+        <v>0</v>
+      </c>
+      <c r="W189" s="2">
+        <v>0</v>
+      </c>
+      <c r="X189" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y189" s="14">
+        <v>43</v>
+      </c>
+      <c r="Z189" s="14">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="190" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A190" s="7" t="s">
         <v>289</v>
       </c>
@@ -16459,29 +17656,77 @@
       <c r="C190" s="2">
         <v>7307</v>
       </c>
-      <c r="D190" s="13"/>
-      <c r="E190" s="2"/>
-      <c r="F190" s="13"/>
-      <c r="G190" s="2"/>
-      <c r="H190" s="13"/>
-      <c r="I190" s="2"/>
-      <c r="J190" s="13"/>
-      <c r="K190" s="2"/>
-      <c r="L190" s="13"/>
-      <c r="M190" s="2"/>
-      <c r="N190" s="13"/>
-      <c r="O190" s="2"/>
-      <c r="P190" s="13"/>
-      <c r="Q190" s="2"/>
-      <c r="R190" s="13"/>
-      <c r="S190" s="2"/>
-      <c r="T190" s="13"/>
-      <c r="U190" s="14"/>
-      <c r="V190" s="13"/>
-      <c r="W190" s="2"/>
-      <c r="X190" s="13"/>
-    </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D190" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="E190" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F190" s="18">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="G190" s="2">
+        <v>0</v>
+      </c>
+      <c r="H190" s="13">
+        <v>1</v>
+      </c>
+      <c r="I190" s="2">
+        <v>1</v>
+      </c>
+      <c r="J190" s="13">
+        <v>0</v>
+      </c>
+      <c r="K190" s="2">
+        <v>0</v>
+      </c>
+      <c r="L190" s="13">
+        <v>0</v>
+      </c>
+      <c r="M190" s="2">
+        <v>1</v>
+      </c>
+      <c r="N190" s="13">
+        <v>1</v>
+      </c>
+      <c r="O190" s="2">
+        <v>1</v>
+      </c>
+      <c r="P190" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q190" s="2">
+        <v>0</v>
+      </c>
+      <c r="R190" s="13">
+        <v>0</v>
+      </c>
+      <c r="S190" s="2">
+        <v>0</v>
+      </c>
+      <c r="T190" s="13">
+        <v>0</v>
+      </c>
+      <c r="U190" s="14">
+        <v>1</v>
+      </c>
+      <c r="V190" s="13">
+        <v>0</v>
+      </c>
+      <c r="W190" s="2">
+        <v>0</v>
+      </c>
+      <c r="X190" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y190" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z190" s="14" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="191" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A191" s="7" t="s">
         <v>290</v>
       </c>
@@ -16491,29 +17736,77 @@
       <c r="C191" s="2">
         <v>7109</v>
       </c>
-      <c r="D191" s="13"/>
-      <c r="E191" s="2"/>
-      <c r="F191" s="13"/>
-      <c r="G191" s="2"/>
-      <c r="H191" s="13"/>
-      <c r="I191" s="2"/>
-      <c r="J191" s="13"/>
-      <c r="K191" s="2"/>
-      <c r="L191" s="13"/>
-      <c r="M191" s="2"/>
-      <c r="N191" s="13"/>
-      <c r="O191" s="2"/>
-      <c r="P191" s="13"/>
-      <c r="Q191" s="2"/>
-      <c r="R191" s="13"/>
-      <c r="S191" s="2"/>
-      <c r="T191" s="13"/>
-      <c r="U191" s="14"/>
-      <c r="V191" s="13"/>
-      <c r="W191" s="2"/>
-      <c r="X191" s="13"/>
-    </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D191" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="E191" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F191" s="18">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="G191" s="2">
+        <v>0</v>
+      </c>
+      <c r="H191" s="13">
+        <v>1</v>
+      </c>
+      <c r="I191" s="2">
+        <v>0</v>
+      </c>
+      <c r="J191" s="13">
+        <v>0</v>
+      </c>
+      <c r="K191" s="2">
+        <v>0</v>
+      </c>
+      <c r="L191" s="13">
+        <v>0</v>
+      </c>
+      <c r="M191" s="2">
+        <v>1</v>
+      </c>
+      <c r="N191" s="13">
+        <v>1</v>
+      </c>
+      <c r="O191" s="2">
+        <v>1</v>
+      </c>
+      <c r="P191" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q191" s="2">
+        <v>0</v>
+      </c>
+      <c r="R191" s="13">
+        <v>0</v>
+      </c>
+      <c r="S191" s="2">
+        <v>0</v>
+      </c>
+      <c r="T191" s="13">
+        <v>0</v>
+      </c>
+      <c r="U191" s="14">
+        <v>1</v>
+      </c>
+      <c r="V191" s="13">
+        <v>0</v>
+      </c>
+      <c r="W191" s="2">
+        <v>0</v>
+      </c>
+      <c r="X191" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y191" s="14">
+        <v>18</v>
+      </c>
+      <c r="Z191" s="14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="192" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A192" s="7" t="s">
         <v>291</v>
       </c>
@@ -16523,29 +17816,77 @@
       <c r="C192" s="2">
         <v>7406</v>
       </c>
-      <c r="D192" s="13"/>
-      <c r="E192" s="2"/>
-      <c r="F192" s="13"/>
-      <c r="G192" s="2"/>
-      <c r="H192" s="13"/>
-      <c r="I192" s="2"/>
-      <c r="J192" s="13"/>
-      <c r="K192" s="2"/>
-      <c r="L192" s="13"/>
-      <c r="M192" s="2"/>
-      <c r="N192" s="13"/>
-      <c r="O192" s="2"/>
-      <c r="P192" s="13"/>
-      <c r="Q192" s="2"/>
-      <c r="R192" s="13"/>
-      <c r="S192" s="2"/>
-      <c r="T192" s="13"/>
-      <c r="U192" s="14"/>
-      <c r="V192" s="13"/>
-      <c r="W192" s="2"/>
-      <c r="X192" s="13"/>
-    </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D192" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="E192" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F192" s="18">
+        <v>0.53888888888888886</v>
+      </c>
+      <c r="G192" s="2">
+        <v>0</v>
+      </c>
+      <c r="H192" s="13">
+        <v>1</v>
+      </c>
+      <c r="I192" s="2">
+        <v>1</v>
+      </c>
+      <c r="J192" s="13">
+        <v>0</v>
+      </c>
+      <c r="K192" s="2">
+        <v>0</v>
+      </c>
+      <c r="L192" s="13">
+        <v>0</v>
+      </c>
+      <c r="M192" s="2">
+        <v>1</v>
+      </c>
+      <c r="N192" s="13">
+        <v>0</v>
+      </c>
+      <c r="O192" s="2">
+        <v>1</v>
+      </c>
+      <c r="P192" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q192" s="2">
+        <v>0</v>
+      </c>
+      <c r="R192" s="13">
+        <v>0</v>
+      </c>
+      <c r="S192" s="2">
+        <v>0</v>
+      </c>
+      <c r="T192" s="13">
+        <v>0</v>
+      </c>
+      <c r="U192" s="14">
+        <v>1</v>
+      </c>
+      <c r="V192" s="13">
+        <v>0</v>
+      </c>
+      <c r="W192" s="2">
+        <v>0</v>
+      </c>
+      <c r="X192" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y192" s="14">
+        <v>9</v>
+      </c>
+      <c r="Z192" s="14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A193" s="7" t="s">
         <v>292</v>
       </c>
@@ -16555,29 +17896,77 @@
       <c r="C193" s="2">
         <v>7110</v>
       </c>
-      <c r="D193" s="13"/>
-      <c r="E193" s="2"/>
-      <c r="F193" s="13"/>
-      <c r="G193" s="2"/>
-      <c r="H193" s="13"/>
-      <c r="I193" s="2"/>
-      <c r="J193" s="13"/>
-      <c r="K193" s="2"/>
-      <c r="L193" s="13"/>
-      <c r="M193" s="2"/>
-      <c r="N193" s="13"/>
-      <c r="O193" s="2"/>
-      <c r="P193" s="13"/>
-      <c r="Q193" s="2"/>
-      <c r="R193" s="13"/>
-      <c r="S193" s="2"/>
-      <c r="T193" s="13"/>
-      <c r="U193" s="14"/>
-      <c r="V193" s="13"/>
-      <c r="W193" s="2"/>
-      <c r="X193" s="13"/>
-    </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D193" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="E193" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F193" s="18">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="G193" s="2">
+        <v>0</v>
+      </c>
+      <c r="H193" s="13">
+        <v>1</v>
+      </c>
+      <c r="I193" s="2">
+        <v>0</v>
+      </c>
+      <c r="J193" s="13">
+        <v>0</v>
+      </c>
+      <c r="K193" s="2">
+        <v>1</v>
+      </c>
+      <c r="L193" s="13">
+        <v>0</v>
+      </c>
+      <c r="M193" s="2">
+        <v>1</v>
+      </c>
+      <c r="N193" s="13">
+        <v>1</v>
+      </c>
+      <c r="O193" s="2">
+        <v>1</v>
+      </c>
+      <c r="P193" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q193" s="2">
+        <v>0</v>
+      </c>
+      <c r="R193" s="13">
+        <v>0</v>
+      </c>
+      <c r="S193" s="2">
+        <v>0</v>
+      </c>
+      <c r="T193" s="13">
+        <v>0</v>
+      </c>
+      <c r="U193" s="14">
+        <v>1</v>
+      </c>
+      <c r="V193" s="13">
+        <v>0</v>
+      </c>
+      <c r="W193" s="2">
+        <v>0</v>
+      </c>
+      <c r="X193" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y193" s="14">
+        <v>66</v>
+      </c>
+      <c r="Z193" s="14">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="194" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A194" s="7" t="s">
         <v>293</v>
       </c>
@@ -16587,29 +17976,77 @@
       <c r="C194" s="2">
         <v>7101</v>
       </c>
-      <c r="D194" s="13"/>
-      <c r="E194" s="2"/>
-      <c r="F194" s="13"/>
-      <c r="G194" s="2"/>
-      <c r="H194" s="13"/>
-      <c r="I194" s="2"/>
-      <c r="J194" s="13"/>
-      <c r="K194" s="2"/>
-      <c r="L194" s="13"/>
-      <c r="M194" s="2"/>
-      <c r="N194" s="13"/>
-      <c r="O194" s="2"/>
-      <c r="P194" s="13"/>
-      <c r="Q194" s="2"/>
-      <c r="R194" s="13"/>
-      <c r="S194" s="2"/>
-      <c r="T194" s="13"/>
-      <c r="U194" s="14"/>
-      <c r="V194" s="13"/>
-      <c r="W194" s="2"/>
-      <c r="X194" s="13"/>
-    </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D194" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="E194" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F194" s="18">
+        <v>0.54583333333333328</v>
+      </c>
+      <c r="G194" s="2">
+        <v>0</v>
+      </c>
+      <c r="H194" s="13">
+        <v>1</v>
+      </c>
+      <c r="I194" s="2">
+        <v>1</v>
+      </c>
+      <c r="J194" s="13">
+        <v>0</v>
+      </c>
+      <c r="K194" s="2">
+        <v>1</v>
+      </c>
+      <c r="L194" s="13">
+        <v>0</v>
+      </c>
+      <c r="M194" s="2">
+        <v>1</v>
+      </c>
+      <c r="N194" s="13">
+        <v>1</v>
+      </c>
+      <c r="O194" s="2">
+        <v>1</v>
+      </c>
+      <c r="P194" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q194" s="2">
+        <v>0</v>
+      </c>
+      <c r="R194" s="13">
+        <v>0</v>
+      </c>
+      <c r="S194" s="2">
+        <v>0</v>
+      </c>
+      <c r="T194" s="13">
+        <v>0</v>
+      </c>
+      <c r="U194" s="14">
+        <v>1</v>
+      </c>
+      <c r="V194" s="13">
+        <v>0</v>
+      </c>
+      <c r="W194" s="2">
+        <v>0</v>
+      </c>
+      <c r="X194" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y194" s="14">
+        <v>20</v>
+      </c>
+      <c r="Z194" s="14">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="195" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A195" s="7" t="s">
         <v>294</v>
       </c>
@@ -16619,29 +18056,77 @@
       <c r="C195" s="2">
         <v>7308</v>
       </c>
-      <c r="D195" s="13"/>
-      <c r="E195" s="2"/>
-      <c r="F195" s="13"/>
-      <c r="G195" s="2"/>
-      <c r="H195" s="13"/>
-      <c r="I195" s="2"/>
-      <c r="J195" s="13"/>
-      <c r="K195" s="2"/>
-      <c r="L195" s="13"/>
-      <c r="M195" s="2"/>
-      <c r="N195" s="13"/>
-      <c r="O195" s="2"/>
-      <c r="P195" s="13"/>
-      <c r="Q195" s="2"/>
-      <c r="R195" s="13"/>
-      <c r="S195" s="2"/>
-      <c r="T195" s="13"/>
-      <c r="U195" s="14"/>
-      <c r="V195" s="13"/>
-      <c r="W195" s="2"/>
-      <c r="X195" s="13"/>
-    </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D195" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="E195" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F195" s="18">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="G195" s="2">
+        <v>0</v>
+      </c>
+      <c r="H195" s="13">
+        <v>1</v>
+      </c>
+      <c r="I195" s="2">
+        <v>1</v>
+      </c>
+      <c r="J195" s="13">
+        <v>0</v>
+      </c>
+      <c r="K195" s="2">
+        <v>1</v>
+      </c>
+      <c r="L195" s="13">
+        <v>0</v>
+      </c>
+      <c r="M195" s="2">
+        <v>1</v>
+      </c>
+      <c r="N195" s="13">
+        <v>1</v>
+      </c>
+      <c r="O195" s="2">
+        <v>1</v>
+      </c>
+      <c r="P195" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q195" s="2">
+        <v>0</v>
+      </c>
+      <c r="R195" s="13">
+        <v>0</v>
+      </c>
+      <c r="S195" s="2">
+        <v>0</v>
+      </c>
+      <c r="T195" s="13">
+        <v>0</v>
+      </c>
+      <c r="U195" s="14">
+        <v>1</v>
+      </c>
+      <c r="V195" s="13">
+        <v>0</v>
+      </c>
+      <c r="W195" s="2">
+        <v>0</v>
+      </c>
+      <c r="X195" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y195" s="14">
+        <v>55</v>
+      </c>
+      <c r="Z195" s="14">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="196" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A196" s="7" t="s">
         <v>295</v>
       </c>
@@ -16651,29 +18136,77 @@
       <c r="C196" s="2">
         <v>7309</v>
       </c>
-      <c r="D196" s="13"/>
-      <c r="E196" s="2"/>
-      <c r="F196" s="13"/>
-      <c r="G196" s="2"/>
-      <c r="H196" s="13"/>
-      <c r="I196" s="2"/>
-      <c r="J196" s="13"/>
-      <c r="K196" s="2"/>
-      <c r="L196" s="13"/>
-      <c r="M196" s="2"/>
-      <c r="N196" s="13"/>
-      <c r="O196" s="2"/>
-      <c r="P196" s="13"/>
-      <c r="Q196" s="2"/>
-      <c r="R196" s="13"/>
-      <c r="S196" s="2"/>
-      <c r="T196" s="13"/>
-      <c r="U196" s="14"/>
-      <c r="V196" s="13"/>
-      <c r="W196" s="2"/>
-      <c r="X196" s="13"/>
-    </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D196" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="E196" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F196" s="18">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="G196" s="2">
+        <v>0</v>
+      </c>
+      <c r="H196" s="13">
+        <v>1</v>
+      </c>
+      <c r="I196" s="2">
+        <v>1</v>
+      </c>
+      <c r="J196" s="13">
+        <v>0</v>
+      </c>
+      <c r="K196" s="2">
+        <v>0</v>
+      </c>
+      <c r="L196" s="13">
+        <v>0</v>
+      </c>
+      <c r="M196" s="2">
+        <v>1</v>
+      </c>
+      <c r="N196" s="13">
+        <v>0</v>
+      </c>
+      <c r="O196" s="2">
+        <v>1</v>
+      </c>
+      <c r="P196" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q196" s="2">
+        <v>0</v>
+      </c>
+      <c r="R196" s="13">
+        <v>0</v>
+      </c>
+      <c r="S196" s="2">
+        <v>0</v>
+      </c>
+      <c r="T196" s="13">
+        <v>0</v>
+      </c>
+      <c r="U196" s="14">
+        <v>1</v>
+      </c>
+      <c r="V196" s="13">
+        <v>0</v>
+      </c>
+      <c r="W196" s="2">
+        <v>0</v>
+      </c>
+      <c r="X196" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y196" s="14">
+        <v>41</v>
+      </c>
+      <c r="Z196" s="14">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="197" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A197" s="7" t="s">
         <v>296</v>
       </c>
@@ -16683,29 +18216,77 @@
       <c r="C197" s="2">
         <v>7407</v>
       </c>
-      <c r="D197" s="13"/>
-      <c r="E197" s="2"/>
-      <c r="F197" s="13"/>
-      <c r="G197" s="2"/>
-      <c r="H197" s="13"/>
-      <c r="I197" s="2"/>
-      <c r="J197" s="13"/>
-      <c r="K197" s="2"/>
-      <c r="L197" s="13"/>
-      <c r="M197" s="2"/>
-      <c r="N197" s="13"/>
-      <c r="O197" s="2"/>
-      <c r="P197" s="13"/>
-      <c r="Q197" s="2"/>
-      <c r="R197" s="13"/>
-      <c r="S197" s="2"/>
-      <c r="T197" s="13"/>
-      <c r="U197" s="14"/>
-      <c r="V197" s="13"/>
-      <c r="W197" s="2"/>
-      <c r="X197" s="13"/>
-    </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D197" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="E197" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F197" s="18">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="G197" s="2">
+        <v>0</v>
+      </c>
+      <c r="H197" s="13">
+        <v>1</v>
+      </c>
+      <c r="I197" s="2">
+        <v>1</v>
+      </c>
+      <c r="J197" s="13">
+        <v>0</v>
+      </c>
+      <c r="K197" s="2">
+        <v>0</v>
+      </c>
+      <c r="L197" s="13">
+        <v>0</v>
+      </c>
+      <c r="M197" s="2">
+        <v>1</v>
+      </c>
+      <c r="N197" s="13">
+        <v>0</v>
+      </c>
+      <c r="O197" s="2">
+        <v>1</v>
+      </c>
+      <c r="P197" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q197" s="2">
+        <v>0</v>
+      </c>
+      <c r="R197" s="13">
+        <v>0</v>
+      </c>
+      <c r="S197" s="2">
+        <v>0</v>
+      </c>
+      <c r="T197" s="13">
+        <v>0</v>
+      </c>
+      <c r="U197" s="14">
+        <v>1</v>
+      </c>
+      <c r="V197" s="13">
+        <v>0</v>
+      </c>
+      <c r="W197" s="2">
+        <v>0</v>
+      </c>
+      <c r="X197" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y197" s="14">
+        <v>57</v>
+      </c>
+      <c r="Z197" s="14">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="198" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A198" s="7" t="s">
         <v>297</v>
       </c>
@@ -16715,29 +18296,77 @@
       <c r="C198" s="2">
         <v>7408</v>
       </c>
-      <c r="D198" s="13"/>
-      <c r="E198" s="2"/>
-      <c r="F198" s="13"/>
-      <c r="G198" s="2"/>
-      <c r="H198" s="13"/>
-      <c r="I198" s="2"/>
-      <c r="J198" s="13"/>
-      <c r="K198" s="2"/>
-      <c r="L198" s="13"/>
-      <c r="M198" s="2"/>
-      <c r="N198" s="13"/>
-      <c r="O198" s="2"/>
-      <c r="P198" s="13"/>
-      <c r="Q198" s="2"/>
-      <c r="R198" s="13"/>
-      <c r="S198" s="2"/>
-      <c r="T198" s="13"/>
-      <c r="U198" s="14"/>
-      <c r="V198" s="13"/>
-      <c r="W198" s="2"/>
-      <c r="X198" s="13"/>
-    </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D198" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="E198" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F198" s="18">
+        <v>0.55486111111111114</v>
+      </c>
+      <c r="G198" s="2">
+        <v>0</v>
+      </c>
+      <c r="H198" s="13">
+        <v>1</v>
+      </c>
+      <c r="I198" s="2">
+        <v>1</v>
+      </c>
+      <c r="J198" s="13">
+        <v>0</v>
+      </c>
+      <c r="K198" s="2">
+        <v>0</v>
+      </c>
+      <c r="L198" s="13">
+        <v>0</v>
+      </c>
+      <c r="M198" s="2">
+        <v>1</v>
+      </c>
+      <c r="N198" s="13">
+        <v>0</v>
+      </c>
+      <c r="O198" s="2">
+        <v>1</v>
+      </c>
+      <c r="P198" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q198" s="2">
+        <v>0</v>
+      </c>
+      <c r="R198" s="13">
+        <v>0</v>
+      </c>
+      <c r="S198" s="2">
+        <v>0</v>
+      </c>
+      <c r="T198" s="13">
+        <v>0</v>
+      </c>
+      <c r="U198" s="14">
+        <v>1</v>
+      </c>
+      <c r="V198" s="13">
+        <v>0</v>
+      </c>
+      <c r="W198" s="2">
+        <v>0</v>
+      </c>
+      <c r="X198" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y198" s="14">
+        <v>33</v>
+      </c>
+      <c r="Z198" s="14">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="199" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
         <v>85</v>
       </c>
@@ -16747,29 +18376,77 @@
       <c r="C199" s="2">
         <v>8314</v>
       </c>
-      <c r="D199" s="13"/>
-      <c r="E199" s="2"/>
-      <c r="F199" s="13"/>
-      <c r="G199" s="2"/>
-      <c r="H199" s="13"/>
-      <c r="I199" s="2"/>
-      <c r="J199" s="13"/>
-      <c r="K199" s="2"/>
-      <c r="L199" s="13"/>
-      <c r="M199" s="2"/>
-      <c r="N199" s="13"/>
-      <c r="O199" s="2"/>
-      <c r="P199" s="13"/>
-      <c r="Q199" s="2"/>
-      <c r="R199" s="13"/>
-      <c r="S199" s="2"/>
-      <c r="T199" s="13"/>
-      <c r="U199" s="14"/>
-      <c r="V199" s="13"/>
-      <c r="W199" s="2"/>
-      <c r="X199" s="13"/>
-    </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D199" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="E199" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F199" s="18">
+        <v>0.55763888888888891</v>
+      </c>
+      <c r="G199" s="2">
+        <v>0</v>
+      </c>
+      <c r="H199" s="13">
+        <v>1</v>
+      </c>
+      <c r="I199" s="2">
+        <v>0</v>
+      </c>
+      <c r="J199" s="13">
+        <v>0</v>
+      </c>
+      <c r="K199" s="2">
+        <v>1</v>
+      </c>
+      <c r="L199" s="13">
+        <v>0</v>
+      </c>
+      <c r="M199" s="2">
+        <v>1</v>
+      </c>
+      <c r="N199" s="13">
+        <v>0</v>
+      </c>
+      <c r="O199" s="2">
+        <v>1</v>
+      </c>
+      <c r="P199" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q199" s="2">
+        <v>0</v>
+      </c>
+      <c r="R199" s="13">
+        <v>0</v>
+      </c>
+      <c r="S199" s="2">
+        <v>0</v>
+      </c>
+      <c r="T199" s="13">
+        <v>0</v>
+      </c>
+      <c r="U199" s="14">
+        <v>1</v>
+      </c>
+      <c r="V199" s="13">
+        <v>0</v>
+      </c>
+      <c r="W199" s="2">
+        <v>0</v>
+      </c>
+      <c r="X199" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y199" s="14">
+        <v>24</v>
+      </c>
+      <c r="Z199" s="14">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="200" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A200" s="7" t="s">
         <v>73</v>
       </c>
@@ -16779,29 +18456,77 @@
       <c r="C200" s="2">
         <v>8302</v>
       </c>
-      <c r="D200" s="13"/>
-      <c r="E200" s="2"/>
-      <c r="F200" s="13"/>
-      <c r="G200" s="2"/>
-      <c r="H200" s="13"/>
-      <c r="I200" s="2"/>
-      <c r="J200" s="13"/>
-      <c r="K200" s="2"/>
-      <c r="L200" s="13"/>
-      <c r="M200" s="2"/>
-      <c r="N200" s="13"/>
-      <c r="O200" s="2"/>
-      <c r="P200" s="13"/>
-      <c r="Q200" s="2"/>
-      <c r="R200" s="13"/>
-      <c r="S200" s="2"/>
-      <c r="T200" s="13"/>
-      <c r="U200" s="14"/>
-      <c r="V200" s="13"/>
-      <c r="W200" s="2"/>
-      <c r="X200" s="13"/>
-    </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D200" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="E200" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F200" s="18">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="G200" s="2">
+        <v>0</v>
+      </c>
+      <c r="H200" s="13">
+        <v>1</v>
+      </c>
+      <c r="I200" s="2">
+        <v>1</v>
+      </c>
+      <c r="J200" s="13">
+        <v>0</v>
+      </c>
+      <c r="K200" s="2">
+        <v>0</v>
+      </c>
+      <c r="L200" s="13">
+        <v>0</v>
+      </c>
+      <c r="M200" s="2">
+        <v>1</v>
+      </c>
+      <c r="N200" s="13">
+        <v>0</v>
+      </c>
+      <c r="O200" s="2">
+        <v>1</v>
+      </c>
+      <c r="P200" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q200" s="2">
+        <v>0</v>
+      </c>
+      <c r="R200" s="13">
+        <v>0</v>
+      </c>
+      <c r="S200" s="2">
+        <v>0</v>
+      </c>
+      <c r="T200" s="13">
+        <v>0</v>
+      </c>
+      <c r="U200" s="14">
+        <v>1</v>
+      </c>
+      <c r="V200" s="13">
+        <v>0</v>
+      </c>
+      <c r="W200" s="2">
+        <v>0</v>
+      </c>
+      <c r="X200" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y200" s="14">
+        <v>66</v>
+      </c>
+      <c r="Z200" s="14">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="201" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A201" s="7" t="s">
         <v>66</v>
       </c>
@@ -16811,29 +18536,80 @@
       <c r="C201" s="2">
         <v>8202</v>
       </c>
-      <c r="D201" s="13"/>
-      <c r="E201" s="2"/>
-      <c r="F201" s="13"/>
-      <c r="G201" s="2"/>
-      <c r="H201" s="13"/>
-      <c r="I201" s="2"/>
-      <c r="J201" s="13"/>
-      <c r="K201" s="2"/>
-      <c r="L201" s="13"/>
-      <c r="M201" s="2"/>
-      <c r="N201" s="13"/>
-      <c r="O201" s="2"/>
-      <c r="P201" s="13"/>
-      <c r="Q201" s="2"/>
-      <c r="R201" s="13"/>
-      <c r="S201" s="2"/>
-      <c r="T201" s="13"/>
-      <c r="U201" s="14"/>
-      <c r="V201" s="13"/>
-      <c r="W201" s="2"/>
-      <c r="X201" s="13"/>
-    </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D201" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="E201" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F201" s="18">
+        <v>0.64166666666666672</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="I201" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="J201" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="K201" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="L201" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="M201" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="N201" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="O201" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="P201" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q201" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="R201" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="S201" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="T201" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="U201" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="V201" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="W201" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="X201" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y201" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z201" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA201" s="25" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="202" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A202" s="7" t="s">
         <v>87</v>
       </c>
@@ -16843,29 +18619,77 @@
       <c r="C202" s="2">
         <v>16102</v>
       </c>
-      <c r="D202" s="13"/>
-      <c r="E202" s="2"/>
-      <c r="F202" s="13"/>
-      <c r="G202" s="2"/>
-      <c r="H202" s="13"/>
-      <c r="I202" s="2"/>
-      <c r="J202" s="13"/>
-      <c r="K202" s="2"/>
-      <c r="L202" s="13"/>
-      <c r="M202" s="2"/>
-      <c r="N202" s="13"/>
-      <c r="O202" s="2"/>
-      <c r="P202" s="13"/>
-      <c r="Q202" s="2"/>
-      <c r="R202" s="13"/>
-      <c r="S202" s="2"/>
-      <c r="T202" s="13"/>
-      <c r="U202" s="14"/>
-      <c r="V202" s="13"/>
-      <c r="W202" s="2"/>
-      <c r="X202" s="13"/>
-    </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D202" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="E202" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F202" s="18">
+        <v>0.6430555555555556</v>
+      </c>
+      <c r="G202" s="2">
+        <v>1</v>
+      </c>
+      <c r="H202" s="13">
+        <v>1</v>
+      </c>
+      <c r="I202" s="2">
+        <v>1</v>
+      </c>
+      <c r="J202" s="13">
+        <v>0</v>
+      </c>
+      <c r="K202" s="2">
+        <v>0</v>
+      </c>
+      <c r="L202" s="13">
+        <v>0</v>
+      </c>
+      <c r="M202" s="2">
+        <v>1</v>
+      </c>
+      <c r="N202" s="13">
+        <v>1</v>
+      </c>
+      <c r="O202" s="2">
+        <v>0</v>
+      </c>
+      <c r="P202" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q202" s="2">
+        <v>0</v>
+      </c>
+      <c r="R202" s="13">
+        <v>0</v>
+      </c>
+      <c r="S202" s="2">
+        <v>0</v>
+      </c>
+      <c r="T202" s="13">
+        <v>0</v>
+      </c>
+      <c r="U202" s="14">
+        <v>0</v>
+      </c>
+      <c r="V202" s="13">
+        <v>0</v>
+      </c>
+      <c r="W202" s="2">
+        <v>0</v>
+      </c>
+      <c r="X202" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y202" s="26">
+        <v>34</v>
+      </c>
+      <c r="Z202" s="20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="203" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A203" s="7" t="s">
         <v>74</v>
       </c>
@@ -16875,29 +18699,77 @@
       <c r="C203" s="2">
         <v>8303</v>
       </c>
-      <c r="D203" s="13"/>
-      <c r="E203" s="2"/>
-      <c r="F203" s="13"/>
-      <c r="G203" s="2"/>
-      <c r="H203" s="13"/>
-      <c r="I203" s="2"/>
-      <c r="J203" s="13"/>
-      <c r="K203" s="2"/>
-      <c r="L203" s="13"/>
-      <c r="M203" s="2"/>
-      <c r="N203" s="13"/>
-      <c r="O203" s="2"/>
-      <c r="P203" s="13"/>
-      <c r="Q203" s="2"/>
-      <c r="R203" s="13"/>
-      <c r="S203" s="2"/>
-      <c r="T203" s="13"/>
-      <c r="U203" s="14"/>
-      <c r="V203" s="13"/>
-      <c r="W203" s="2"/>
-      <c r="X203" s="13"/>
-    </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D203" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="E203" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F203" s="18">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G203" s="2">
+        <v>1</v>
+      </c>
+      <c r="H203" s="13">
+        <v>1</v>
+      </c>
+      <c r="I203" s="2">
+        <v>0</v>
+      </c>
+      <c r="J203" s="13">
+        <v>0</v>
+      </c>
+      <c r="K203" s="2">
+        <v>1</v>
+      </c>
+      <c r="L203" s="13">
+        <v>0</v>
+      </c>
+      <c r="M203" s="2">
+        <v>1</v>
+      </c>
+      <c r="N203" s="13">
+        <v>0</v>
+      </c>
+      <c r="O203" s="2">
+        <v>1</v>
+      </c>
+      <c r="P203" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q203" s="2">
+        <v>0</v>
+      </c>
+      <c r="R203" s="13">
+        <v>0</v>
+      </c>
+      <c r="S203" s="2">
+        <v>0</v>
+      </c>
+      <c r="T203" s="13">
+        <v>0</v>
+      </c>
+      <c r="U203" s="14">
+        <v>1</v>
+      </c>
+      <c r="V203" s="13">
+        <v>0</v>
+      </c>
+      <c r="W203" s="2">
+        <v>0</v>
+      </c>
+      <c r="X203" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y203" s="26">
+        <v>32</v>
+      </c>
+      <c r="Z203" s="20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="204" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A204" s="7" t="s">
         <v>67</v>
       </c>
@@ -16907,29 +18779,77 @@
       <c r="C204" s="2">
         <v>8203</v>
       </c>
-      <c r="D204" s="13"/>
-      <c r="E204" s="2"/>
-      <c r="F204" s="13"/>
-      <c r="G204" s="2"/>
-      <c r="H204" s="13"/>
-      <c r="I204" s="2"/>
-      <c r="J204" s="13"/>
-      <c r="K204" s="2"/>
-      <c r="L204" s="13"/>
-      <c r="M204" s="2"/>
-      <c r="N204" s="13"/>
-      <c r="O204" s="2"/>
-      <c r="P204" s="13"/>
-      <c r="Q204" s="2"/>
-      <c r="R204" s="13"/>
-      <c r="S204" s="2"/>
-      <c r="T204" s="13"/>
-      <c r="U204" s="14"/>
-      <c r="V204" s="13"/>
-      <c r="W204" s="2"/>
-      <c r="X204" s="13"/>
-    </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D204" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="E204" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F204" s="18">
+        <v>0.64861111111111114</v>
+      </c>
+      <c r="G204" s="2">
+        <v>1</v>
+      </c>
+      <c r="H204" s="13">
+        <v>1</v>
+      </c>
+      <c r="I204" s="2">
+        <v>1</v>
+      </c>
+      <c r="J204" s="13">
+        <v>0</v>
+      </c>
+      <c r="K204" s="2">
+        <v>1</v>
+      </c>
+      <c r="L204" s="13">
+        <v>0</v>
+      </c>
+      <c r="M204" s="2">
+        <v>1</v>
+      </c>
+      <c r="N204" s="13">
+        <v>0</v>
+      </c>
+      <c r="O204" s="2">
+        <v>1</v>
+      </c>
+      <c r="P204" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q204" s="2">
+        <v>0</v>
+      </c>
+      <c r="R204" s="13">
+        <v>0</v>
+      </c>
+      <c r="S204" s="2">
+        <v>0</v>
+      </c>
+      <c r="T204" s="13">
+        <v>0</v>
+      </c>
+      <c r="U204" s="14">
+        <v>1</v>
+      </c>
+      <c r="V204" s="13">
+        <v>0</v>
+      </c>
+      <c r="W204" s="2">
+        <v>0</v>
+      </c>
+      <c r="X204" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y204" s="26">
+        <v>43</v>
+      </c>
+      <c r="Z204" s="20">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="205" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A205" s="7" t="s">
         <v>55</v>
       </c>
@@ -16939,29 +18859,77 @@
       <c r="C205" s="2">
         <v>8103</v>
       </c>
-      <c r="D205" s="13"/>
-      <c r="E205" s="2"/>
-      <c r="F205" s="13"/>
-      <c r="G205" s="2"/>
-      <c r="H205" s="13"/>
-      <c r="I205" s="2"/>
-      <c r="J205" s="13"/>
-      <c r="K205" s="2"/>
-      <c r="L205" s="13"/>
-      <c r="M205" s="2"/>
-      <c r="N205" s="13"/>
-      <c r="O205" s="2"/>
-      <c r="P205" s="13"/>
-      <c r="Q205" s="2"/>
-      <c r="R205" s="13"/>
-      <c r="S205" s="2"/>
-      <c r="T205" s="13"/>
-      <c r="U205" s="14"/>
-      <c r="V205" s="13"/>
-      <c r="W205" s="2"/>
-      <c r="X205" s="13"/>
-    </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D205" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="E205" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F205" s="18">
+        <v>0.65</v>
+      </c>
+      <c r="G205" s="2">
+        <v>0</v>
+      </c>
+      <c r="H205" s="13">
+        <v>1</v>
+      </c>
+      <c r="I205" s="2">
+        <v>1</v>
+      </c>
+      <c r="J205" s="13">
+        <v>0</v>
+      </c>
+      <c r="K205" s="2">
+        <v>0</v>
+      </c>
+      <c r="L205" s="13">
+        <v>0</v>
+      </c>
+      <c r="M205" s="2">
+        <v>1</v>
+      </c>
+      <c r="N205" s="13">
+        <v>0</v>
+      </c>
+      <c r="O205" s="2">
+        <v>1</v>
+      </c>
+      <c r="P205" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q205" s="2">
+        <v>0</v>
+      </c>
+      <c r="R205" s="13">
+        <v>0</v>
+      </c>
+      <c r="S205" s="2">
+        <v>0</v>
+      </c>
+      <c r="T205" s="13">
+        <v>0</v>
+      </c>
+      <c r="U205" s="14">
+        <v>1</v>
+      </c>
+      <c r="V205" s="13">
+        <v>0</v>
+      </c>
+      <c r="W205" s="2">
+        <v>0</v>
+      </c>
+      <c r="X205" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y205" s="26">
+        <v>36</v>
+      </c>
+      <c r="Z205" s="20">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="206" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A206" s="7" t="s">
         <v>86</v>
       </c>
@@ -16971,29 +18939,77 @@
       <c r="C206" s="2">
         <v>16101</v>
       </c>
-      <c r="D206" s="13"/>
-      <c r="E206" s="2"/>
-      <c r="F206" s="13"/>
-      <c r="G206" s="2"/>
-      <c r="H206" s="13"/>
-      <c r="I206" s="2"/>
-      <c r="J206" s="13"/>
-      <c r="K206" s="2"/>
-      <c r="L206" s="13"/>
-      <c r="M206" s="2"/>
-      <c r="N206" s="13"/>
-      <c r="O206" s="2"/>
-      <c r="P206" s="13"/>
-      <c r="Q206" s="2"/>
-      <c r="R206" s="13"/>
-      <c r="S206" s="2"/>
-      <c r="T206" s="13"/>
-      <c r="U206" s="14"/>
-      <c r="V206" s="13"/>
-      <c r="W206" s="2"/>
-      <c r="X206" s="13"/>
-    </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D206" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="E206" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F206" s="18">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="G206" s="2">
+        <v>1</v>
+      </c>
+      <c r="H206" s="13">
+        <v>1</v>
+      </c>
+      <c r="I206" s="2">
+        <v>0</v>
+      </c>
+      <c r="J206" s="13">
+        <v>0</v>
+      </c>
+      <c r="K206" s="2">
+        <v>1</v>
+      </c>
+      <c r="L206" s="13">
+        <v>0</v>
+      </c>
+      <c r="M206" s="2">
+        <v>1</v>
+      </c>
+      <c r="N206" s="13">
+        <v>0</v>
+      </c>
+      <c r="O206" s="2">
+        <v>1</v>
+      </c>
+      <c r="P206" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q206" s="2">
+        <v>0</v>
+      </c>
+      <c r="R206" s="13">
+        <v>0</v>
+      </c>
+      <c r="S206" s="2">
+        <v>0</v>
+      </c>
+      <c r="T206" s="13">
+        <v>0</v>
+      </c>
+      <c r="U206" s="14">
+        <v>1</v>
+      </c>
+      <c r="V206" s="13">
+        <v>0</v>
+      </c>
+      <c r="W206" s="2">
+        <v>0</v>
+      </c>
+      <c r="X206" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y206" s="26">
+        <v>41</v>
+      </c>
+      <c r="Z206" s="20">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="207" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A207" s="7" t="s">
         <v>91</v>
       </c>
@@ -17003,29 +19019,77 @@
       <c r="C207" s="2">
         <v>16103</v>
       </c>
-      <c r="D207" s="13"/>
-      <c r="E207" s="2"/>
-      <c r="F207" s="13"/>
-      <c r="G207" s="2"/>
-      <c r="H207" s="13"/>
-      <c r="I207" s="2"/>
-      <c r="J207" s="13"/>
-      <c r="K207" s="2"/>
-      <c r="L207" s="13"/>
-      <c r="M207" s="2"/>
-      <c r="N207" s="13"/>
-      <c r="O207" s="2"/>
-      <c r="P207" s="13"/>
-      <c r="Q207" s="2"/>
-      <c r="R207" s="13"/>
-      <c r="S207" s="2"/>
-      <c r="T207" s="13"/>
-      <c r="U207" s="14"/>
-      <c r="V207" s="13"/>
-      <c r="W207" s="2"/>
-      <c r="X207" s="13"/>
-    </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D207" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="E207" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F207" s="18">
+        <v>0.65486111111111112</v>
+      </c>
+      <c r="G207" s="2">
+        <v>0</v>
+      </c>
+      <c r="H207" s="13">
+        <v>1</v>
+      </c>
+      <c r="I207" s="2">
+        <v>0</v>
+      </c>
+      <c r="J207" s="13">
+        <v>0</v>
+      </c>
+      <c r="K207" s="2">
+        <v>1</v>
+      </c>
+      <c r="L207" s="13">
+        <v>0</v>
+      </c>
+      <c r="M207" s="2">
+        <v>1</v>
+      </c>
+      <c r="N207" s="13">
+        <v>1</v>
+      </c>
+      <c r="O207" s="2">
+        <v>1</v>
+      </c>
+      <c r="P207" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q207" s="2">
+        <v>0</v>
+      </c>
+      <c r="R207" s="13">
+        <v>0</v>
+      </c>
+      <c r="S207" s="2">
+        <v>0</v>
+      </c>
+      <c r="T207" s="13">
+        <v>0</v>
+      </c>
+      <c r="U207" s="14">
+        <v>1</v>
+      </c>
+      <c r="V207" s="13">
+        <v>0</v>
+      </c>
+      <c r="W207" s="2">
+        <v>0</v>
+      </c>
+      <c r="X207" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y207" s="26">
+        <v>30</v>
+      </c>
+      <c r="Z207" s="20">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="208" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A208" s="7" t="s">
         <v>88</v>
       </c>
@@ -17035,29 +19099,77 @@
       <c r="C208" s="2">
         <v>16202</v>
       </c>
-      <c r="D208" s="13"/>
-      <c r="E208" s="2"/>
-      <c r="F208" s="13"/>
-      <c r="G208" s="2"/>
-      <c r="H208" s="13"/>
-      <c r="I208" s="2"/>
-      <c r="J208" s="13"/>
-      <c r="K208" s="2"/>
-      <c r="L208" s="13"/>
-      <c r="M208" s="2"/>
-      <c r="N208" s="13"/>
-      <c r="O208" s="2"/>
-      <c r="P208" s="13"/>
-      <c r="Q208" s="2"/>
-      <c r="R208" s="13"/>
-      <c r="S208" s="2"/>
-      <c r="T208" s="13"/>
-      <c r="U208" s="14"/>
-      <c r="V208" s="13"/>
-      <c r="W208" s="2"/>
-      <c r="X208" s="13"/>
-    </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D208" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="E208" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F208" s="18">
+        <v>0.65694444444444444</v>
+      </c>
+      <c r="G208" s="2">
+        <v>0</v>
+      </c>
+      <c r="H208" s="13">
+        <v>1</v>
+      </c>
+      <c r="I208" s="2">
+        <v>0</v>
+      </c>
+      <c r="J208" s="13">
+        <v>0</v>
+      </c>
+      <c r="K208" s="2">
+        <v>1</v>
+      </c>
+      <c r="L208" s="13">
+        <v>0</v>
+      </c>
+      <c r="M208" s="2">
+        <v>1</v>
+      </c>
+      <c r="N208" s="13">
+        <v>0</v>
+      </c>
+      <c r="O208" s="2">
+        <v>1</v>
+      </c>
+      <c r="P208" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q208" s="2">
+        <v>0</v>
+      </c>
+      <c r="R208" s="13">
+        <v>0</v>
+      </c>
+      <c r="S208" s="2">
+        <v>0</v>
+      </c>
+      <c r="T208" s="13">
+        <v>0</v>
+      </c>
+      <c r="U208" s="14">
+        <v>1</v>
+      </c>
+      <c r="V208" s="13">
+        <v>0</v>
+      </c>
+      <c r="W208" s="2">
+        <v>0</v>
+      </c>
+      <c r="X208" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y208" s="26">
+        <v>4</v>
+      </c>
+      <c r="Z208" s="20">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="209" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
         <v>89</v>
       </c>
@@ -17067,29 +19179,77 @@
       <c r="C209" s="2">
         <v>16203</v>
       </c>
-      <c r="D209" s="13"/>
-      <c r="E209" s="2"/>
-      <c r="F209" s="13"/>
-      <c r="G209" s="2"/>
-      <c r="H209" s="13"/>
-      <c r="I209" s="2"/>
-      <c r="J209" s="13"/>
-      <c r="K209" s="2"/>
-      <c r="L209" s="13"/>
-      <c r="M209" s="2"/>
-      <c r="N209" s="13"/>
-      <c r="O209" s="2"/>
-      <c r="P209" s="13"/>
-      <c r="Q209" s="2"/>
-      <c r="R209" s="13"/>
-      <c r="S209" s="2"/>
-      <c r="T209" s="13"/>
-      <c r="U209" s="14"/>
-      <c r="V209" s="13"/>
-      <c r="W209" s="2"/>
-      <c r="X209" s="13"/>
-    </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D209" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="E209" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F209" s="18">
+        <v>0.65902777777777777</v>
+      </c>
+      <c r="G209" s="2">
+        <v>0</v>
+      </c>
+      <c r="H209" s="13">
+        <v>1</v>
+      </c>
+      <c r="I209" s="2">
+        <v>1</v>
+      </c>
+      <c r="J209" s="13">
+        <v>0</v>
+      </c>
+      <c r="K209" s="2">
+        <v>1</v>
+      </c>
+      <c r="L209" s="13">
+        <v>0</v>
+      </c>
+      <c r="M209" s="2">
+        <v>1</v>
+      </c>
+      <c r="N209" s="13">
+        <v>1</v>
+      </c>
+      <c r="O209" s="2">
+        <v>1</v>
+      </c>
+      <c r="P209" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q209" s="2">
+        <v>0</v>
+      </c>
+      <c r="R209" s="13">
+        <v>0</v>
+      </c>
+      <c r="S209" s="2">
+        <v>0</v>
+      </c>
+      <c r="T209" s="13">
+        <v>0</v>
+      </c>
+      <c r="U209" s="14">
+        <v>1</v>
+      </c>
+      <c r="V209" s="13">
+        <v>0</v>
+      </c>
+      <c r="W209" s="2">
+        <v>0</v>
+      </c>
+      <c r="X209" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y209" s="26">
+        <v>13</v>
+      </c>
+      <c r="Z209" s="20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="210" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A210" s="7" t="s">
         <v>90</v>
       </c>
@@ -17099,29 +19259,77 @@
       <c r="C210" s="2">
         <v>16302</v>
       </c>
-      <c r="D210" s="13"/>
-      <c r="E210" s="2"/>
-      <c r="F210" s="13"/>
-      <c r="G210" s="2"/>
-      <c r="H210" s="13"/>
-      <c r="I210" s="2"/>
-      <c r="J210" s="13"/>
-      <c r="K210" s="2"/>
-      <c r="L210" s="13"/>
-      <c r="M210" s="2"/>
-      <c r="N210" s="13"/>
-      <c r="O210" s="2"/>
-      <c r="P210" s="13"/>
-      <c r="Q210" s="2"/>
-      <c r="R210" s="13"/>
-      <c r="S210" s="2"/>
-      <c r="T210" s="13"/>
-      <c r="U210" s="14"/>
-      <c r="V210" s="13"/>
-      <c r="W210" s="2"/>
-      <c r="X210" s="13"/>
-    </row>
-    <row r="211" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D210" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="E210" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F210" s="18">
+        <v>0.66111111111111109</v>
+      </c>
+      <c r="G210" s="2">
+        <v>0</v>
+      </c>
+      <c r="H210" s="13">
+        <v>1</v>
+      </c>
+      <c r="I210" s="2">
+        <v>1</v>
+      </c>
+      <c r="J210" s="13">
+        <v>0</v>
+      </c>
+      <c r="K210" s="2">
+        <v>0</v>
+      </c>
+      <c r="L210" s="13">
+        <v>0</v>
+      </c>
+      <c r="M210" s="2">
+        <v>1</v>
+      </c>
+      <c r="N210" s="13">
+        <v>1</v>
+      </c>
+      <c r="O210" s="2">
+        <v>1</v>
+      </c>
+      <c r="P210" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q210" s="2">
+        <v>0</v>
+      </c>
+      <c r="R210" s="13">
+        <v>0</v>
+      </c>
+      <c r="S210" s="2">
+        <v>0</v>
+      </c>
+      <c r="T210" s="13">
+        <v>0</v>
+      </c>
+      <c r="U210" s="14">
+        <v>1</v>
+      </c>
+      <c r="V210" s="13">
+        <v>0</v>
+      </c>
+      <c r="W210" s="2">
+        <v>0</v>
+      </c>
+      <c r="X210" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y210" s="26">
+        <v>17</v>
+      </c>
+      <c r="Z210" s="20">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="211" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A211" s="7" t="s">
         <v>53</v>
       </c>
@@ -17131,29 +19339,77 @@
       <c r="C211" s="2">
         <v>8101</v>
       </c>
-      <c r="D211" s="13"/>
-      <c r="E211" s="2"/>
-      <c r="F211" s="13"/>
-      <c r="G211" s="2"/>
-      <c r="H211" s="13"/>
-      <c r="I211" s="2"/>
-      <c r="J211" s="13"/>
-      <c r="K211" s="2"/>
-      <c r="L211" s="13"/>
-      <c r="M211" s="2"/>
-      <c r="N211" s="13"/>
-      <c r="O211" s="2"/>
-      <c r="P211" s="13"/>
-      <c r="Q211" s="2"/>
-      <c r="R211" s="13"/>
-      <c r="S211" s="2"/>
-      <c r="T211" s="13"/>
-      <c r="U211" s="14"/>
-      <c r="V211" s="13"/>
-      <c r="W211" s="2"/>
-      <c r="X211" s="13"/>
-    </row>
-    <row r="212" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D211" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="E211" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F211" s="18">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="G211" s="2">
+        <v>1</v>
+      </c>
+      <c r="H211" s="13">
+        <v>1</v>
+      </c>
+      <c r="I211" s="2">
+        <v>1</v>
+      </c>
+      <c r="J211" s="13">
+        <v>0</v>
+      </c>
+      <c r="K211" s="2">
+        <v>0</v>
+      </c>
+      <c r="L211" s="13">
+        <v>0</v>
+      </c>
+      <c r="M211" s="2">
+        <v>1</v>
+      </c>
+      <c r="N211" s="13">
+        <v>0</v>
+      </c>
+      <c r="O211" s="2">
+        <v>1</v>
+      </c>
+      <c r="P211" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q211" s="2">
+        <v>0</v>
+      </c>
+      <c r="R211" s="13">
+        <v>0</v>
+      </c>
+      <c r="S211" s="2">
+        <v>1</v>
+      </c>
+      <c r="T211" s="13">
+        <v>0</v>
+      </c>
+      <c r="U211" s="14">
+        <v>1</v>
+      </c>
+      <c r="V211" s="13">
+        <v>0</v>
+      </c>
+      <c r="W211" s="2">
+        <v>0</v>
+      </c>
+      <c r="X211" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y211" s="26">
+        <v>13</v>
+      </c>
+      <c r="Z211" s="20">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="212" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A212" s="7" t="s">
         <v>68</v>
       </c>
@@ -17163,29 +19419,77 @@
       <c r="C212" s="2">
         <v>8204</v>
       </c>
-      <c r="D212" s="13"/>
-      <c r="E212" s="2"/>
-      <c r="F212" s="13"/>
-      <c r="G212" s="2"/>
-      <c r="H212" s="13"/>
-      <c r="I212" s="2"/>
-      <c r="J212" s="13"/>
-      <c r="K212" s="2"/>
-      <c r="L212" s="13"/>
-      <c r="M212" s="2"/>
-      <c r="N212" s="13"/>
-      <c r="O212" s="2"/>
-      <c r="P212" s="13"/>
-      <c r="Q212" s="2"/>
-      <c r="R212" s="13"/>
-      <c r="S212" s="2"/>
-      <c r="T212" s="13"/>
-      <c r="U212" s="14"/>
-      <c r="V212" s="13"/>
-      <c r="W212" s="2"/>
-      <c r="X212" s="13"/>
-    </row>
-    <row r="213" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D212" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="E212" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F212" s="18">
+        <v>0.66736111111111107</v>
+      </c>
+      <c r="G212" s="2">
+        <v>0</v>
+      </c>
+      <c r="H212" s="13">
+        <v>1</v>
+      </c>
+      <c r="I212" s="2">
+        <v>1</v>
+      </c>
+      <c r="J212" s="13">
+        <v>0</v>
+      </c>
+      <c r="K212" s="2">
+        <v>1</v>
+      </c>
+      <c r="L212" s="13">
+        <v>0</v>
+      </c>
+      <c r="M212" s="2">
+        <v>1</v>
+      </c>
+      <c r="N212" s="13">
+        <v>1</v>
+      </c>
+      <c r="O212" s="2">
+        <v>1</v>
+      </c>
+      <c r="P212" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q212" s="2">
+        <v>0</v>
+      </c>
+      <c r="R212" s="13">
+        <v>0</v>
+      </c>
+      <c r="S212" s="2">
+        <v>0</v>
+      </c>
+      <c r="T212" s="13">
+        <v>0</v>
+      </c>
+      <c r="U212" s="14">
+        <v>1</v>
+      </c>
+      <c r="V212" s="13">
+        <v>0</v>
+      </c>
+      <c r="W212" s="2">
+        <v>0</v>
+      </c>
+      <c r="X212" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y212" s="26">
+        <v>13</v>
+      </c>
+      <c r="Z212" s="20">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="213" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A213" s="7" t="s">
         <v>54</v>
       </c>
@@ -17195,29 +19499,77 @@
       <c r="C213" s="2">
         <v>8102</v>
       </c>
-      <c r="D213" s="13"/>
-      <c r="E213" s="2"/>
-      <c r="F213" s="13"/>
-      <c r="G213" s="2"/>
-      <c r="H213" s="13"/>
-      <c r="I213" s="2"/>
-      <c r="J213" s="13"/>
-      <c r="K213" s="2"/>
-      <c r="L213" s="13"/>
-      <c r="M213" s="2"/>
-      <c r="N213" s="13"/>
-      <c r="O213" s="2"/>
-      <c r="P213" s="13"/>
-      <c r="Q213" s="2"/>
-      <c r="R213" s="13"/>
-      <c r="S213" s="2"/>
-      <c r="T213" s="13"/>
-      <c r="U213" s="14"/>
-      <c r="V213" s="13"/>
-      <c r="W213" s="2"/>
-      <c r="X213" s="13"/>
-    </row>
-    <row r="214" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D213" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="E213" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F213" s="18">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="G213" s="2">
+        <v>0</v>
+      </c>
+      <c r="H213" s="13">
+        <v>1</v>
+      </c>
+      <c r="I213" s="2">
+        <v>0</v>
+      </c>
+      <c r="J213" s="13">
+        <v>0</v>
+      </c>
+      <c r="K213" s="2">
+        <v>0</v>
+      </c>
+      <c r="L213" s="13">
+        <v>0</v>
+      </c>
+      <c r="M213" s="2">
+        <v>1</v>
+      </c>
+      <c r="N213" s="13">
+        <v>0</v>
+      </c>
+      <c r="O213" s="2">
+        <v>1</v>
+      </c>
+      <c r="P213" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q213" s="2">
+        <v>0</v>
+      </c>
+      <c r="R213" s="13">
+        <v>0</v>
+      </c>
+      <c r="S213" s="2">
+        <v>0</v>
+      </c>
+      <c r="T213" s="13">
+        <v>0</v>
+      </c>
+      <c r="U213" s="14">
+        <v>1</v>
+      </c>
+      <c r="V213" s="13">
+        <v>0</v>
+      </c>
+      <c r="W213" s="2">
+        <v>0</v>
+      </c>
+      <c r="X213" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y213" s="26">
+        <v>12</v>
+      </c>
+      <c r="Z213" s="20">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="214" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A214" s="7" t="s">
         <v>69</v>
       </c>
@@ -17227,29 +19579,77 @@
       <c r="C214" s="2">
         <v>8205</v>
       </c>
-      <c r="D214" s="13"/>
-      <c r="E214" s="2"/>
-      <c r="F214" s="13"/>
-      <c r="G214" s="2"/>
-      <c r="H214" s="13"/>
-      <c r="I214" s="2"/>
-      <c r="J214" s="13"/>
-      <c r="K214" s="2"/>
-      <c r="L214" s="13"/>
-      <c r="M214" s="2"/>
-      <c r="N214" s="13"/>
-      <c r="O214" s="2"/>
-      <c r="P214" s="13"/>
-      <c r="Q214" s="2"/>
-      <c r="R214" s="13"/>
-      <c r="S214" s="2"/>
-      <c r="T214" s="13"/>
-      <c r="U214" s="14"/>
-      <c r="V214" s="13"/>
-      <c r="W214" s="2"/>
-      <c r="X214" s="13"/>
-    </row>
-    <row r="215" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D214" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="E214" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F214" s="18">
+        <v>0.69652777777777775</v>
+      </c>
+      <c r="G214" s="2">
+        <v>0</v>
+      </c>
+      <c r="H214" s="13">
+        <v>1</v>
+      </c>
+      <c r="I214" s="2">
+        <v>1</v>
+      </c>
+      <c r="J214" s="13">
+        <v>0</v>
+      </c>
+      <c r="K214" s="2">
+        <v>1</v>
+      </c>
+      <c r="L214" s="13">
+        <v>0</v>
+      </c>
+      <c r="M214" s="2">
+        <v>1</v>
+      </c>
+      <c r="N214" s="13">
+        <v>0</v>
+      </c>
+      <c r="O214" s="2">
+        <v>1</v>
+      </c>
+      <c r="P214" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q214" s="2">
+        <v>0</v>
+      </c>
+      <c r="R214" s="13">
+        <v>0</v>
+      </c>
+      <c r="S214" s="2">
+        <v>0</v>
+      </c>
+      <c r="T214" s="13">
+        <v>0</v>
+      </c>
+      <c r="U214" s="14">
+        <v>1</v>
+      </c>
+      <c r="V214" s="13">
+        <v>0</v>
+      </c>
+      <c r="W214" s="2">
+        <v>0</v>
+      </c>
+      <c r="X214" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y214" s="26">
+        <v>14</v>
+      </c>
+      <c r="Z214" s="20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="215" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A215" s="7" t="s">
         <v>92</v>
       </c>
@@ -17259,29 +19659,77 @@
       <c r="C215" s="2">
         <v>16104</v>
       </c>
-      <c r="D215" s="13"/>
-      <c r="E215" s="2"/>
-      <c r="F215" s="13"/>
-      <c r="G215" s="2"/>
-      <c r="H215" s="13"/>
-      <c r="I215" s="2"/>
-      <c r="J215" s="13"/>
-      <c r="K215" s="2"/>
-      <c r="L215" s="13"/>
-      <c r="M215" s="2"/>
-      <c r="N215" s="13"/>
-      <c r="O215" s="2"/>
-      <c r="P215" s="13"/>
-      <c r="Q215" s="2"/>
-      <c r="R215" s="13"/>
-      <c r="S215" s="2"/>
-      <c r="T215" s="13"/>
-      <c r="U215" s="14"/>
-      <c r="V215" s="13"/>
-      <c r="W215" s="2"/>
-      <c r="X215" s="13"/>
-    </row>
-    <row r="216" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D215" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="E215" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F215" s="18">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="G215" s="2">
+        <v>0</v>
+      </c>
+      <c r="H215" s="13">
+        <v>1</v>
+      </c>
+      <c r="I215" s="2">
+        <v>1</v>
+      </c>
+      <c r="J215" s="13">
+        <v>0</v>
+      </c>
+      <c r="K215" s="2">
+        <v>1</v>
+      </c>
+      <c r="L215" s="13">
+        <v>0</v>
+      </c>
+      <c r="M215" s="2">
+        <v>0</v>
+      </c>
+      <c r="N215" s="13">
+        <v>0</v>
+      </c>
+      <c r="O215" s="2">
+        <v>1</v>
+      </c>
+      <c r="P215" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q215" s="2">
+        <v>0</v>
+      </c>
+      <c r="R215" s="13">
+        <v>0</v>
+      </c>
+      <c r="S215" s="2">
+        <v>0</v>
+      </c>
+      <c r="T215" s="13">
+        <v>0</v>
+      </c>
+      <c r="U215" s="14">
+        <v>0</v>
+      </c>
+      <c r="V215" s="13">
+        <v>0</v>
+      </c>
+      <c r="W215" s="2">
+        <v>0</v>
+      </c>
+      <c r="X215" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y215" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z215" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="216" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A216" s="7" t="s">
         <v>56</v>
       </c>
@@ -17291,29 +19739,77 @@
       <c r="C216" s="2">
         <v>8104</v>
       </c>
-      <c r="D216" s="13"/>
-      <c r="E216" s="2"/>
-      <c r="F216" s="13"/>
-      <c r="G216" s="2"/>
-      <c r="H216" s="13"/>
-      <c r="I216" s="2"/>
-      <c r="J216" s="13"/>
-      <c r="K216" s="2"/>
-      <c r="L216" s="13"/>
-      <c r="M216" s="2"/>
-      <c r="N216" s="13"/>
-      <c r="O216" s="2"/>
-      <c r="P216" s="13"/>
-      <c r="Q216" s="2"/>
-      <c r="R216" s="13"/>
-      <c r="S216" s="2"/>
-      <c r="T216" s="13"/>
-      <c r="U216" s="14"/>
-      <c r="V216" s="13"/>
-      <c r="W216" s="2"/>
-      <c r="X216" s="13"/>
-    </row>
-    <row r="217" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D216" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="E216" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F216" s="18">
+        <v>0.70347222222222217</v>
+      </c>
+      <c r="G216" s="2">
+        <v>1</v>
+      </c>
+      <c r="H216" s="13">
+        <v>1</v>
+      </c>
+      <c r="I216" s="2">
+        <v>1</v>
+      </c>
+      <c r="J216" s="13">
+        <v>0</v>
+      </c>
+      <c r="K216" s="2">
+        <v>1</v>
+      </c>
+      <c r="L216" s="13">
+        <v>0</v>
+      </c>
+      <c r="M216" s="2">
+        <v>1</v>
+      </c>
+      <c r="N216" s="13">
+        <v>1</v>
+      </c>
+      <c r="O216" s="2">
+        <v>1</v>
+      </c>
+      <c r="P216" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q216" s="2">
+        <v>0</v>
+      </c>
+      <c r="R216" s="13">
+        <v>0</v>
+      </c>
+      <c r="S216" s="2">
+        <v>0</v>
+      </c>
+      <c r="T216" s="13">
+        <v>0</v>
+      </c>
+      <c r="U216" s="14">
+        <v>1</v>
+      </c>
+      <c r="V216" s="13">
+        <v>0</v>
+      </c>
+      <c r="W216" s="2">
+        <v>0</v>
+      </c>
+      <c r="X216" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y216" s="26">
+        <v>23</v>
+      </c>
+      <c r="Z216" s="20">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="217" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A217" s="7" t="s">
         <v>64</v>
       </c>
@@ -17323,29 +19819,77 @@
       <c r="C217" s="2">
         <v>8112</v>
       </c>
-      <c r="D217" s="13"/>
-      <c r="E217" s="2"/>
-      <c r="F217" s="13"/>
-      <c r="G217" s="2"/>
-      <c r="H217" s="13"/>
-      <c r="I217" s="2"/>
-      <c r="J217" s="13"/>
-      <c r="K217" s="2"/>
-      <c r="L217" s="13"/>
-      <c r="M217" s="2"/>
-      <c r="N217" s="13"/>
-      <c r="O217" s="2"/>
-      <c r="P217" s="13"/>
-      <c r="Q217" s="2"/>
-      <c r="R217" s="13"/>
-      <c r="S217" s="2"/>
-      <c r="T217" s="13"/>
-      <c r="U217" s="14"/>
-      <c r="V217" s="13"/>
-      <c r="W217" s="2"/>
-      <c r="X217" s="13"/>
-    </row>
-    <row r="218" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D217" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="E217" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F217" s="18">
+        <v>0.70694444444444438</v>
+      </c>
+      <c r="G217" s="2">
+        <v>0</v>
+      </c>
+      <c r="H217" s="13">
+        <v>1</v>
+      </c>
+      <c r="I217" s="2">
+        <v>1</v>
+      </c>
+      <c r="J217" s="13">
+        <v>0</v>
+      </c>
+      <c r="K217" s="2">
+        <v>1</v>
+      </c>
+      <c r="L217" s="13">
+        <v>0</v>
+      </c>
+      <c r="M217" s="2">
+        <v>1</v>
+      </c>
+      <c r="N217" s="13">
+        <v>1</v>
+      </c>
+      <c r="O217" s="2">
+        <v>0</v>
+      </c>
+      <c r="P217" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q217" s="2">
+        <v>0</v>
+      </c>
+      <c r="R217" s="13">
+        <v>0</v>
+      </c>
+      <c r="S217" s="2">
+        <v>0</v>
+      </c>
+      <c r="T217" s="13">
+        <v>0</v>
+      </c>
+      <c r="U217" s="14">
+        <v>1</v>
+      </c>
+      <c r="V217" s="13">
+        <v>0</v>
+      </c>
+      <c r="W217" s="2">
+        <v>0</v>
+      </c>
+      <c r="X217" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y217" s="26">
+        <v>10</v>
+      </c>
+      <c r="Z217" s="20">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="218" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A218" s="7" t="s">
         <v>57</v>
       </c>
@@ -17355,29 +19899,77 @@
       <c r="C218" s="2">
         <v>8105</v>
       </c>
-      <c r="D218" s="13"/>
-      <c r="E218" s="2"/>
-      <c r="F218" s="13"/>
-      <c r="G218" s="2"/>
-      <c r="H218" s="13"/>
-      <c r="I218" s="2"/>
-      <c r="J218" s="13"/>
-      <c r="K218" s="2"/>
-      <c r="L218" s="13"/>
-      <c r="M218" s="2"/>
-      <c r="N218" s="13"/>
-      <c r="O218" s="2"/>
-      <c r="P218" s="13"/>
-      <c r="Q218" s="2"/>
-      <c r="R218" s="13"/>
-      <c r="S218" s="2"/>
-      <c r="T218" s="13"/>
-      <c r="U218" s="14"/>
-      <c r="V218" s="13"/>
-      <c r="W218" s="2"/>
-      <c r="X218" s="13"/>
-    </row>
-    <row r="219" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D218" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="E218" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F218" s="18">
+        <v>0.7090277777777777</v>
+      </c>
+      <c r="G218" s="2">
+        <v>0</v>
+      </c>
+      <c r="H218" s="13">
+        <v>1</v>
+      </c>
+      <c r="I218" s="2">
+        <v>0</v>
+      </c>
+      <c r="J218" s="13">
+        <v>0</v>
+      </c>
+      <c r="K218" s="2">
+        <v>1</v>
+      </c>
+      <c r="L218" s="13">
+        <v>0</v>
+      </c>
+      <c r="M218" s="2">
+        <v>1</v>
+      </c>
+      <c r="N218" s="13">
+        <v>1</v>
+      </c>
+      <c r="O218" s="2">
+        <v>1</v>
+      </c>
+      <c r="P218" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q218" s="2">
+        <v>0</v>
+      </c>
+      <c r="R218" s="13">
+        <v>0</v>
+      </c>
+      <c r="S218" s="2">
+        <v>0</v>
+      </c>
+      <c r="T218" s="13">
+        <v>0</v>
+      </c>
+      <c r="U218" s="14">
+        <v>1</v>
+      </c>
+      <c r="V218" s="13">
+        <v>0</v>
+      </c>
+      <c r="W218" s="2">
+        <v>0</v>
+      </c>
+      <c r="X218" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y218" s="26">
+        <v>71</v>
+      </c>
+      <c r="Z218" s="20">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="219" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A219" s="7" t="s">
         <v>75</v>
       </c>
@@ -17387,29 +19979,77 @@
       <c r="C219" s="2">
         <v>8304</v>
       </c>
-      <c r="D219" s="13"/>
-      <c r="E219" s="2"/>
-      <c r="F219" s="13"/>
-      <c r="G219" s="2"/>
-      <c r="H219" s="13"/>
-      <c r="I219" s="2"/>
-      <c r="J219" s="13"/>
-      <c r="K219" s="2"/>
-      <c r="L219" s="13"/>
-      <c r="M219" s="2"/>
-      <c r="N219" s="13"/>
-      <c r="O219" s="2"/>
-      <c r="P219" s="13"/>
-      <c r="Q219" s="2"/>
-      <c r="R219" s="13"/>
-      <c r="S219" s="2"/>
-      <c r="T219" s="13"/>
-      <c r="U219" s="14"/>
-      <c r="V219" s="13"/>
-      <c r="W219" s="2"/>
-      <c r="X219" s="13"/>
-    </row>
-    <row r="220" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D219" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="E219" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F219" s="18">
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="G219" s="2">
+        <v>0</v>
+      </c>
+      <c r="H219" s="13">
+        <v>1</v>
+      </c>
+      <c r="I219" s="2">
+        <v>1</v>
+      </c>
+      <c r="J219" s="13">
+        <v>0</v>
+      </c>
+      <c r="K219" s="2">
+        <v>1</v>
+      </c>
+      <c r="L219" s="13">
+        <v>0</v>
+      </c>
+      <c r="M219" s="2">
+        <v>1</v>
+      </c>
+      <c r="N219" s="13">
+        <v>0</v>
+      </c>
+      <c r="O219" s="2">
+        <v>1</v>
+      </c>
+      <c r="P219" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q219" s="2">
+        <v>0</v>
+      </c>
+      <c r="R219" s="13">
+        <v>0</v>
+      </c>
+      <c r="S219" s="2">
+        <v>0</v>
+      </c>
+      <c r="T219" s="13">
+        <v>0</v>
+      </c>
+      <c r="U219" s="14">
+        <v>1</v>
+      </c>
+      <c r="V219" s="13">
+        <v>0</v>
+      </c>
+      <c r="W219" s="2">
+        <v>0</v>
+      </c>
+      <c r="X219" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y219" s="26">
+        <v>28</v>
+      </c>
+      <c r="Z219" s="20">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="220" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A220" s="7" t="s">
         <v>65</v>
       </c>
@@ -17419,29 +20059,77 @@
       <c r="C220" s="2">
         <v>8201</v>
       </c>
-      <c r="D220" s="13"/>
-      <c r="E220" s="2"/>
-      <c r="F220" s="13"/>
-      <c r="G220" s="2"/>
-      <c r="H220" s="13"/>
-      <c r="I220" s="2"/>
-      <c r="J220" s="13"/>
-      <c r="K220" s="2"/>
-      <c r="L220" s="13"/>
-      <c r="M220" s="2"/>
-      <c r="N220" s="13"/>
-      <c r="O220" s="2"/>
-      <c r="P220" s="13"/>
-      <c r="Q220" s="2"/>
-      <c r="R220" s="13"/>
-      <c r="S220" s="2"/>
-      <c r="T220" s="13"/>
-      <c r="U220" s="14"/>
-      <c r="V220" s="13"/>
-      <c r="W220" s="2"/>
-      <c r="X220" s="13"/>
-    </row>
-    <row r="221" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D220" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="E220" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F220" s="18">
+        <v>0.71319444444444446</v>
+      </c>
+      <c r="G220" s="2">
+        <v>0</v>
+      </c>
+      <c r="H220" s="13">
+        <v>1</v>
+      </c>
+      <c r="I220" s="2">
+        <v>0</v>
+      </c>
+      <c r="J220" s="13">
+        <v>0</v>
+      </c>
+      <c r="K220" s="2">
+        <v>0</v>
+      </c>
+      <c r="L220" s="13">
+        <v>0</v>
+      </c>
+      <c r="M220" s="2">
+        <v>1</v>
+      </c>
+      <c r="N220" s="13">
+        <v>1</v>
+      </c>
+      <c r="O220" s="2">
+        <v>1</v>
+      </c>
+      <c r="P220" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q220" s="2">
+        <v>0</v>
+      </c>
+      <c r="R220" s="13">
+        <v>0</v>
+      </c>
+      <c r="S220" s="2">
+        <v>0</v>
+      </c>
+      <c r="T220" s="13">
+        <v>0</v>
+      </c>
+      <c r="U220" s="14">
+        <v>1</v>
+      </c>
+      <c r="V220" s="13">
+        <v>0</v>
+      </c>
+      <c r="W220" s="2">
+        <v>0</v>
+      </c>
+      <c r="X220" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y220" s="26">
+        <v>78</v>
+      </c>
+      <c r="Z220" s="20">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="221" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A221" s="7" t="s">
         <v>70</v>
       </c>
@@ -17451,29 +20139,77 @@
       <c r="C221" s="2">
         <v>8206</v>
       </c>
-      <c r="D221" s="13"/>
-      <c r="E221" s="2"/>
-      <c r="F221" s="13"/>
-      <c r="G221" s="2"/>
-      <c r="H221" s="13"/>
-      <c r="I221" s="2"/>
-      <c r="J221" s="13"/>
-      <c r="K221" s="2"/>
-      <c r="L221" s="13"/>
-      <c r="M221" s="2"/>
-      <c r="N221" s="13"/>
-      <c r="O221" s="2"/>
-      <c r="P221" s="13"/>
-      <c r="Q221" s="2"/>
-      <c r="R221" s="13"/>
-      <c r="S221" s="2"/>
-      <c r="T221" s="13"/>
-      <c r="U221" s="14"/>
-      <c r="V221" s="13"/>
-      <c r="W221" s="2"/>
-      <c r="X221" s="13"/>
-    </row>
-    <row r="222" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D221" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="E221" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F221" s="18">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="G221" s="2">
+        <v>0</v>
+      </c>
+      <c r="H221" s="13">
+        <v>1</v>
+      </c>
+      <c r="I221" s="2">
+        <v>1</v>
+      </c>
+      <c r="J221" s="13">
+        <v>0</v>
+      </c>
+      <c r="K221" s="2">
+        <v>0</v>
+      </c>
+      <c r="L221" s="13">
+        <v>0</v>
+      </c>
+      <c r="M221" s="2">
+        <v>0</v>
+      </c>
+      <c r="N221" s="13">
+        <v>0</v>
+      </c>
+      <c r="O221" s="2">
+        <v>1</v>
+      </c>
+      <c r="P221" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q221" s="2">
+        <v>0</v>
+      </c>
+      <c r="R221" s="13">
+        <v>0</v>
+      </c>
+      <c r="S221" s="2">
+        <v>0</v>
+      </c>
+      <c r="T221" s="13">
+        <v>0</v>
+      </c>
+      <c r="U221" s="14">
+        <v>1</v>
+      </c>
+      <c r="V221" s="13">
+        <v>0</v>
+      </c>
+      <c r="W221" s="2">
+        <v>0</v>
+      </c>
+      <c r="X221" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y221" s="26">
+        <v>20</v>
+      </c>
+      <c r="Z221" s="20">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="222" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A222" s="7" t="s">
         <v>72</v>
       </c>
@@ -17483,29 +20219,77 @@
       <c r="C222" s="2">
         <v>8301</v>
       </c>
-      <c r="D222" s="13"/>
-      <c r="E222" s="2"/>
-      <c r="F222" s="13"/>
-      <c r="G222" s="2"/>
-      <c r="H222" s="13"/>
-      <c r="I222" s="2"/>
-      <c r="J222" s="13"/>
-      <c r="K222" s="2"/>
-      <c r="L222" s="13"/>
-      <c r="M222" s="2"/>
-      <c r="N222" s="13"/>
-      <c r="O222" s="2"/>
-      <c r="P222" s="13"/>
-      <c r="Q222" s="2"/>
-      <c r="R222" s="13"/>
-      <c r="S222" s="2"/>
-      <c r="T222" s="13"/>
-      <c r="U222" s="14"/>
-      <c r="V222" s="13"/>
-      <c r="W222" s="2"/>
-      <c r="X222" s="13"/>
-    </row>
-    <row r="223" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D222" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="E222" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F222" s="18">
+        <v>0.71736111111111101</v>
+      </c>
+      <c r="G222" s="2">
+        <v>0</v>
+      </c>
+      <c r="H222" s="13">
+        <v>1</v>
+      </c>
+      <c r="I222" s="2">
+        <v>1</v>
+      </c>
+      <c r="J222" s="13">
+        <v>0</v>
+      </c>
+      <c r="K222" s="2">
+        <v>0</v>
+      </c>
+      <c r="L222" s="13">
+        <v>0</v>
+      </c>
+      <c r="M222" s="2">
+        <v>1</v>
+      </c>
+      <c r="N222" s="13">
+        <v>0</v>
+      </c>
+      <c r="O222" s="2">
+        <v>1</v>
+      </c>
+      <c r="P222" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q222" s="2">
+        <v>0</v>
+      </c>
+      <c r="R222" s="13">
+        <v>0</v>
+      </c>
+      <c r="S222" s="2">
+        <v>0</v>
+      </c>
+      <c r="T222" s="13">
+        <v>0</v>
+      </c>
+      <c r="U222" s="14">
+        <v>1</v>
+      </c>
+      <c r="V222" s="13">
+        <v>0</v>
+      </c>
+      <c r="W222" s="2">
+        <v>0</v>
+      </c>
+      <c r="X222" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y222" s="26">
+        <v>20</v>
+      </c>
+      <c r="Z222" s="20">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="223" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A223" s="7" t="s">
         <v>58</v>
       </c>
@@ -17515,29 +20299,80 @@
       <c r="C223" s="2">
         <v>8106</v>
       </c>
-      <c r="D223" s="13"/>
-      <c r="E223" s="2"/>
-      <c r="F223" s="13"/>
-      <c r="G223" s="2"/>
-      <c r="H223" s="13"/>
-      <c r="I223" s="2"/>
-      <c r="J223" s="13"/>
-      <c r="K223" s="2"/>
-      <c r="L223" s="13"/>
-      <c r="M223" s="2"/>
-      <c r="N223" s="13"/>
-      <c r="O223" s="2"/>
-      <c r="P223" s="13"/>
-      <c r="Q223" s="2"/>
-      <c r="R223" s="13"/>
-      <c r="S223" s="2"/>
-      <c r="T223" s="13"/>
-      <c r="U223" s="14"/>
-      <c r="V223" s="13"/>
-      <c r="W223" s="2"/>
-      <c r="X223" s="13"/>
-    </row>
-    <row r="224" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D223" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="E223" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F223" s="18">
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="H223" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="I223" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="J223" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="K223" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="L223" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="M223" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="N223" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="O223" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="P223" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q223" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="R223" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="S223" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="T223" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="U223" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="V223" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="W223" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="X223" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y223" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z223" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA223" s="25" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="224" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A224" s="7" t="s">
         <v>76</v>
       </c>
@@ -17547,29 +20382,77 @@
       <c r="C224" s="2">
         <v>8305</v>
       </c>
-      <c r="D224" s="13"/>
-      <c r="E224" s="2"/>
-      <c r="F224" s="13"/>
-      <c r="G224" s="2"/>
-      <c r="H224" s="13"/>
-      <c r="I224" s="2"/>
-      <c r="J224" s="13"/>
-      <c r="K224" s="2"/>
-      <c r="L224" s="13"/>
-      <c r="M224" s="2"/>
-      <c r="N224" s="13"/>
-      <c r="O224" s="2"/>
-      <c r="P224" s="13"/>
-      <c r="Q224" s="2"/>
-      <c r="R224" s="13"/>
-      <c r="S224" s="2"/>
-      <c r="T224" s="13"/>
-      <c r="U224" s="14"/>
-      <c r="V224" s="13"/>
-      <c r="W224" s="2"/>
-      <c r="X224" s="13"/>
-    </row>
-    <row r="225" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D224" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="E224" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F224" s="18">
+        <v>0.72013888888888899</v>
+      </c>
+      <c r="G224" s="2">
+        <v>0</v>
+      </c>
+      <c r="H224" s="13">
+        <v>1</v>
+      </c>
+      <c r="I224" s="2">
+        <v>1</v>
+      </c>
+      <c r="J224" s="13">
+        <v>0</v>
+      </c>
+      <c r="K224" s="2">
+        <v>0</v>
+      </c>
+      <c r="L224" s="13">
+        <v>0</v>
+      </c>
+      <c r="M224" s="2">
+        <v>1</v>
+      </c>
+      <c r="N224" s="13">
+        <v>1</v>
+      </c>
+      <c r="O224" s="2">
+        <v>1</v>
+      </c>
+      <c r="P224" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q224" s="2">
+        <v>0</v>
+      </c>
+      <c r="R224" s="13">
+        <v>0</v>
+      </c>
+      <c r="S224" s="2">
+        <v>0</v>
+      </c>
+      <c r="T224" s="13">
+        <v>0</v>
+      </c>
+      <c r="U224" s="14">
+        <v>1</v>
+      </c>
+      <c r="V224" s="13">
+        <v>0</v>
+      </c>
+      <c r="W224" s="2">
+        <v>0</v>
+      </c>
+      <c r="X224" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y224" s="26">
+        <v>52</v>
+      </c>
+      <c r="Z224" s="20">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="225" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
         <v>77</v>
       </c>
@@ -17579,29 +20462,77 @@
       <c r="C225" s="2">
         <v>8306</v>
       </c>
-      <c r="D225" s="13"/>
-      <c r="E225" s="2"/>
-      <c r="F225" s="13"/>
-      <c r="G225" s="2"/>
-      <c r="H225" s="13"/>
-      <c r="I225" s="2"/>
-      <c r="J225" s="13"/>
-      <c r="K225" s="2"/>
-      <c r="L225" s="13"/>
-      <c r="M225" s="2"/>
-      <c r="N225" s="13"/>
-      <c r="O225" s="2"/>
-      <c r="P225" s="13"/>
-      <c r="Q225" s="2"/>
-      <c r="R225" s="13"/>
-      <c r="S225" s="2"/>
-      <c r="T225" s="13"/>
-      <c r="U225" s="14"/>
-      <c r="V225" s="13"/>
-      <c r="W225" s="2"/>
-      <c r="X225" s="13"/>
-    </row>
-    <row r="226" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D225" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="E225" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F225" s="18">
+        <v>0.72638888888888886</v>
+      </c>
+      <c r="G225" s="2">
+        <v>0</v>
+      </c>
+      <c r="H225" s="13">
+        <v>1</v>
+      </c>
+      <c r="I225" s="2">
+        <v>1</v>
+      </c>
+      <c r="J225" s="13">
+        <v>0</v>
+      </c>
+      <c r="K225" s="2">
+        <v>1</v>
+      </c>
+      <c r="L225" s="13">
+        <v>0</v>
+      </c>
+      <c r="M225" s="2">
+        <v>1</v>
+      </c>
+      <c r="N225" s="13">
+        <v>1</v>
+      </c>
+      <c r="O225" s="2">
+        <v>1</v>
+      </c>
+      <c r="P225" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q225" s="2">
+        <v>0</v>
+      </c>
+      <c r="R225" s="13">
+        <v>0</v>
+      </c>
+      <c r="S225" s="2">
+        <v>0</v>
+      </c>
+      <c r="T225" s="13">
+        <v>0</v>
+      </c>
+      <c r="U225" s="14">
+        <v>1</v>
+      </c>
+      <c r="V225" s="13">
+        <v>0</v>
+      </c>
+      <c r="W225" s="2">
+        <v>0</v>
+      </c>
+      <c r="X225" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y225" s="26">
+        <v>16</v>
+      </c>
+      <c r="Z225" s="20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="226" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A226" s="7" t="s">
         <v>78</v>
       </c>
@@ -17611,29 +20542,77 @@
       <c r="C226" s="2">
         <v>8307</v>
       </c>
-      <c r="D226" s="13"/>
-      <c r="E226" s="2"/>
-      <c r="F226" s="13"/>
-      <c r="G226" s="2"/>
-      <c r="H226" s="13"/>
-      <c r="I226" s="2"/>
-      <c r="J226" s="13"/>
-      <c r="K226" s="2"/>
-      <c r="L226" s="13"/>
-      <c r="M226" s="2"/>
-      <c r="N226" s="13"/>
-      <c r="O226" s="2"/>
-      <c r="P226" s="13"/>
-      <c r="Q226" s="2"/>
-      <c r="R226" s="13"/>
-      <c r="S226" s="2"/>
-      <c r="T226" s="13"/>
-      <c r="U226" s="14"/>
-      <c r="V226" s="13"/>
-      <c r="W226" s="2"/>
-      <c r="X226" s="13"/>
-    </row>
-    <row r="227" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D226" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="E226" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F226" s="18">
+        <v>0.7284722222222223</v>
+      </c>
+      <c r="G226" s="2">
+        <v>0</v>
+      </c>
+      <c r="H226" s="13">
+        <v>1</v>
+      </c>
+      <c r="I226" s="2">
+        <v>0</v>
+      </c>
+      <c r="J226" s="13">
+        <v>0</v>
+      </c>
+      <c r="K226" s="2">
+        <v>0</v>
+      </c>
+      <c r="L226" s="13">
+        <v>0</v>
+      </c>
+      <c r="M226" s="2">
+        <v>1</v>
+      </c>
+      <c r="N226" s="13">
+        <v>0</v>
+      </c>
+      <c r="O226" s="2">
+        <v>1</v>
+      </c>
+      <c r="P226" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q226" s="2">
+        <v>0</v>
+      </c>
+      <c r="R226" s="13">
+        <v>0</v>
+      </c>
+      <c r="S226" s="2">
+        <v>0</v>
+      </c>
+      <c r="T226" s="13">
+        <v>0</v>
+      </c>
+      <c r="U226" s="14">
+        <v>1</v>
+      </c>
+      <c r="V226" s="13">
+        <v>0</v>
+      </c>
+      <c r="W226" s="2">
+        <v>0</v>
+      </c>
+      <c r="X226" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y226" s="26">
+        <v>37</v>
+      </c>
+      <c r="Z226" s="20">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="227" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A227" s="7" t="s">
         <v>93</v>
       </c>
@@ -17643,29 +20622,77 @@
       <c r="C227" s="2">
         <v>16204</v>
       </c>
-      <c r="D227" s="13"/>
-      <c r="E227" s="2"/>
-      <c r="F227" s="13"/>
-      <c r="G227" s="2"/>
-      <c r="H227" s="13"/>
-      <c r="I227" s="2"/>
-      <c r="J227" s="13"/>
-      <c r="K227" s="2"/>
-      <c r="L227" s="13"/>
-      <c r="M227" s="2"/>
-      <c r="N227" s="13"/>
-      <c r="O227" s="2"/>
-      <c r="P227" s="13"/>
-      <c r="Q227" s="2"/>
-      <c r="R227" s="13"/>
-      <c r="S227" s="2"/>
-      <c r="T227" s="13"/>
-      <c r="U227" s="14"/>
-      <c r="V227" s="13"/>
-      <c r="W227" s="2"/>
-      <c r="X227" s="13"/>
-    </row>
-    <row r="228" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D227" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="E227" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F227" s="18">
+        <v>0.72986111111111107</v>
+      </c>
+      <c r="G227" s="2">
+        <v>0</v>
+      </c>
+      <c r="H227" s="13">
+        <v>1</v>
+      </c>
+      <c r="I227" s="2">
+        <v>1</v>
+      </c>
+      <c r="J227" s="13">
+        <v>0</v>
+      </c>
+      <c r="K227" s="2">
+        <v>1</v>
+      </c>
+      <c r="L227" s="13">
+        <v>0</v>
+      </c>
+      <c r="M227" s="2">
+        <v>1</v>
+      </c>
+      <c r="N227" s="13">
+        <v>1</v>
+      </c>
+      <c r="O227" s="2">
+        <v>1</v>
+      </c>
+      <c r="P227" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q227" s="2">
+        <v>0</v>
+      </c>
+      <c r="R227" s="13">
+        <v>0</v>
+      </c>
+      <c r="S227" s="2">
+        <v>0</v>
+      </c>
+      <c r="T227" s="13">
+        <v>0</v>
+      </c>
+      <c r="U227" s="14">
+        <v>1</v>
+      </c>
+      <c r="V227" s="13">
+        <v>0</v>
+      </c>
+      <c r="W227" s="2">
+        <v>0</v>
+      </c>
+      <c r="X227" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y227" s="26">
+        <v>22</v>
+      </c>
+      <c r="Z227" s="20">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="228" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A228" s="7" t="s">
         <v>94</v>
       </c>
@@ -17675,29 +20702,77 @@
       <c r="C228" s="2">
         <v>16303</v>
       </c>
-      <c r="D228" s="15"/>
-      <c r="E228" s="3"/>
-      <c r="F228" s="15"/>
-      <c r="G228" s="3"/>
-      <c r="H228" s="15"/>
-      <c r="I228" s="3"/>
-      <c r="J228" s="15"/>
-      <c r="K228" s="3"/>
-      <c r="L228" s="15"/>
-      <c r="M228" s="3"/>
-      <c r="N228" s="15"/>
-      <c r="O228" s="3"/>
-      <c r="P228" s="15"/>
-      <c r="Q228" s="3"/>
-      <c r="R228" s="15"/>
-      <c r="S228" s="3"/>
-      <c r="T228" s="15"/>
-      <c r="U228" s="14"/>
-      <c r="V228" s="15"/>
-      <c r="W228" s="3"/>
-      <c r="X228" s="15"/>
-    </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D228" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="E228" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F228" s="18">
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="G228" s="3">
+        <v>0</v>
+      </c>
+      <c r="H228" s="15">
+        <v>1</v>
+      </c>
+      <c r="I228" s="3">
+        <v>1</v>
+      </c>
+      <c r="J228" s="15">
+        <v>0</v>
+      </c>
+      <c r="K228" s="3">
+        <v>0</v>
+      </c>
+      <c r="L228" s="15">
+        <v>0</v>
+      </c>
+      <c r="M228" s="3">
+        <v>1</v>
+      </c>
+      <c r="N228" s="15">
+        <v>0</v>
+      </c>
+      <c r="O228" s="3">
+        <v>1</v>
+      </c>
+      <c r="P228" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q228" s="3">
+        <v>0</v>
+      </c>
+      <c r="R228" s="15">
+        <v>0</v>
+      </c>
+      <c r="S228" s="3">
+        <v>0</v>
+      </c>
+      <c r="T228" s="15">
+        <v>0</v>
+      </c>
+      <c r="U228" s="14">
+        <v>1</v>
+      </c>
+      <c r="V228" s="15">
+        <v>0</v>
+      </c>
+      <c r="W228" s="3">
+        <v>0</v>
+      </c>
+      <c r="X228" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y228" s="26">
+        <v>20</v>
+      </c>
+      <c r="Z228" s="14" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="229" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A229" s="7" t="s">
         <v>95</v>
       </c>
@@ -17707,29 +20782,77 @@
       <c r="C229" s="2">
         <v>16105</v>
       </c>
-      <c r="D229" s="15"/>
-      <c r="E229" s="3"/>
-      <c r="F229" s="15"/>
-      <c r="G229" s="3"/>
-      <c r="H229" s="15"/>
-      <c r="I229" s="3"/>
-      <c r="J229" s="15"/>
-      <c r="K229" s="3"/>
-      <c r="L229" s="15"/>
-      <c r="M229" s="3"/>
-      <c r="N229" s="15"/>
-      <c r="O229" s="3"/>
-      <c r="P229" s="15"/>
-      <c r="Q229" s="3"/>
-      <c r="R229" s="15"/>
-      <c r="S229" s="3"/>
-      <c r="T229" s="15"/>
-      <c r="U229" s="14"/>
-      <c r="V229" s="15"/>
-      <c r="W229" s="3"/>
-      <c r="X229" s="15"/>
-    </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D229" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="E229" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F229" s="18">
+        <v>0.73541666666666661</v>
+      </c>
+      <c r="G229" s="3">
+        <v>0</v>
+      </c>
+      <c r="H229" s="15">
+        <v>1</v>
+      </c>
+      <c r="I229" s="3">
+        <v>0</v>
+      </c>
+      <c r="J229" s="15">
+        <v>0</v>
+      </c>
+      <c r="K229" s="3">
+        <v>0</v>
+      </c>
+      <c r="L229" s="15">
+        <v>0</v>
+      </c>
+      <c r="M229" s="3">
+        <v>1</v>
+      </c>
+      <c r="N229" s="15">
+        <v>1</v>
+      </c>
+      <c r="O229" s="3">
+        <v>1</v>
+      </c>
+      <c r="P229" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q229" s="2">
+        <v>0</v>
+      </c>
+      <c r="R229" s="13">
+        <v>0</v>
+      </c>
+      <c r="S229" s="2">
+        <v>0</v>
+      </c>
+      <c r="T229" s="13">
+        <v>0</v>
+      </c>
+      <c r="U229" s="14">
+        <v>1</v>
+      </c>
+      <c r="V229" s="15">
+        <v>0</v>
+      </c>
+      <c r="W229" s="3">
+        <v>0</v>
+      </c>
+      <c r="X229" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y229" s="26">
+        <v>40</v>
+      </c>
+      <c r="Z229" s="14">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="230" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A230" s="7" t="s">
         <v>59</v>
       </c>
@@ -17739,29 +20862,77 @@
       <c r="C230" s="2">
         <v>8107</v>
       </c>
-      <c r="D230" s="13"/>
-      <c r="E230" s="2"/>
-      <c r="F230" s="13"/>
-      <c r="G230" s="2"/>
-      <c r="H230" s="13"/>
-      <c r="I230" s="2"/>
-      <c r="J230" s="13"/>
-      <c r="K230" s="2"/>
-      <c r="L230" s="13"/>
-      <c r="M230" s="2"/>
-      <c r="N230" s="13"/>
-      <c r="O230" s="2"/>
-      <c r="P230" s="13"/>
-      <c r="Q230" s="2"/>
-      <c r="R230" s="13"/>
-      <c r="S230" s="2"/>
-      <c r="T230" s="13"/>
-      <c r="U230" s="14"/>
-      <c r="V230" s="13"/>
-      <c r="W230" s="2"/>
-      <c r="X230" s="13"/>
-    </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D230" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="E230" s="12">
+        <v>44510</v>
+      </c>
+      <c r="F230" s="18">
+        <v>0.73819444444444438</v>
+      </c>
+      <c r="G230" s="2">
+        <v>0</v>
+      </c>
+      <c r="H230" s="13">
+        <v>1</v>
+      </c>
+      <c r="I230" s="2">
+        <v>1</v>
+      </c>
+      <c r="J230" s="13">
+        <v>1</v>
+      </c>
+      <c r="K230" s="2">
+        <v>0</v>
+      </c>
+      <c r="L230" s="13">
+        <v>0</v>
+      </c>
+      <c r="M230" s="2">
+        <v>1</v>
+      </c>
+      <c r="N230" s="13">
+        <v>1</v>
+      </c>
+      <c r="O230" s="2">
+        <v>1</v>
+      </c>
+      <c r="P230" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q230" s="2">
+        <v>0</v>
+      </c>
+      <c r="R230" s="13">
+        <v>0</v>
+      </c>
+      <c r="S230" s="2">
+        <v>0</v>
+      </c>
+      <c r="T230" s="13">
+        <v>0</v>
+      </c>
+      <c r="U230" s="14">
+        <v>1</v>
+      </c>
+      <c r="V230" s="13">
+        <v>0</v>
+      </c>
+      <c r="W230" s="2">
+        <v>0</v>
+      </c>
+      <c r="X230" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y230" s="26">
+        <v>23</v>
+      </c>
+      <c r="Z230" s="14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="231" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A231" s="7" t="s">
         <v>96</v>
       </c>
@@ -17793,7 +20964,7 @@
       <c r="W231" s="2"/>
       <c r="X231" s="13"/>
     </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A232" s="7" t="s">
         <v>97</v>
       </c>
@@ -17825,7 +20996,7 @@
       <c r="W232" s="2"/>
       <c r="X232" s="13"/>
     </row>
-    <row r="233" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A233" s="7" t="s">
         <v>79</v>
       </c>
@@ -17857,7 +21028,7 @@
       <c r="W233" s="2"/>
       <c r="X233" s="13"/>
     </row>
-    <row r="234" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A234" s="7" t="s">
         <v>80</v>
       </c>
@@ -17889,7 +21060,7 @@
       <c r="W234" s="2"/>
       <c r="X234" s="13"/>
     </row>
-    <row r="235" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A235" s="7" t="s">
         <v>98</v>
       </c>
@@ -17921,7 +21092,7 @@
       <c r="W235" s="2"/>
       <c r="X235" s="13"/>
     </row>
-    <row r="236" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A236" s="7" t="s">
         <v>99</v>
       </c>
@@ -17953,7 +21124,7 @@
       <c r="W236" s="2"/>
       <c r="X236" s="13"/>
     </row>
-    <row r="237" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A237" s="9" t="s">
         <v>100</v>
       </c>
@@ -17985,7 +21156,7 @@
       <c r="W237" s="4"/>
       <c r="X237" s="16"/>
     </row>
-    <row r="238" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A238" s="7" t="s">
         <v>101</v>
       </c>
@@ -18017,7 +21188,7 @@
       <c r="W238" s="2"/>
       <c r="X238" s="13"/>
     </row>
-    <row r="239" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A239" s="7" t="s">
         <v>102</v>
       </c>
@@ -18049,7 +21220,7 @@
       <c r="W239" s="2"/>
       <c r="X239" s="13"/>
     </row>
-    <row r="240" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A240" s="7" t="s">
         <v>103</v>
       </c>
@@ -21675,8 +24846,70 @@
     <hyperlink ref="D166" r:id="rId165" xr:uid="{F5746B3A-F27A-4EB2-906F-711EE7676414}"/>
     <hyperlink ref="D167" r:id="rId166" xr:uid="{75087001-9BF1-4A9F-9608-D9CA0D8D6264}"/>
     <hyperlink ref="D168" r:id="rId167" xr:uid="{54DC994A-6FC7-4514-A898-09EF87E0EDED}"/>
+    <hyperlink ref="D169" r:id="rId168" xr:uid="{D375E3DD-60FA-4C69-8E26-7C1629C409D3}"/>
+    <hyperlink ref="D170" r:id="rId169" xr:uid="{F87B84FA-C6FF-4088-B0E4-D4CD6C34615F}"/>
+    <hyperlink ref="D171" r:id="rId170" xr:uid="{8B3837F3-09F1-43A9-A498-452D2F76977D}"/>
+    <hyperlink ref="D172" r:id="rId171" xr:uid="{A4843088-C79E-4BAB-BFAE-5E3D7BF614D7}"/>
+    <hyperlink ref="D173" r:id="rId172" xr:uid="{C7684EB9-C827-4E9E-9677-40B9BF010372}"/>
+    <hyperlink ref="D174" r:id="rId173" xr:uid="{AF5C36C3-F9F9-48AA-963D-6625C5624E14}"/>
+    <hyperlink ref="D175" r:id="rId174" xr:uid="{AD9F7C34-9538-4F75-8F61-63801EAAA0F6}"/>
+    <hyperlink ref="D176" r:id="rId175" xr:uid="{CE7C2A19-CF15-4C1C-A910-F3ADCF2FDC8F}"/>
+    <hyperlink ref="D177" r:id="rId176" xr:uid="{89CC4EF8-7CD3-4810-BB7A-B63FCD3EE78E}"/>
+    <hyperlink ref="D178" r:id="rId177" xr:uid="{867BCE2D-B70E-4482-B390-1BFEA99B1F24}"/>
+    <hyperlink ref="D179" r:id="rId178" xr:uid="{FD53371B-6548-4DD8-B351-D4BF0E35EEDD}"/>
+    <hyperlink ref="D180" r:id="rId179" xr:uid="{70A3E614-8BC9-4DC1-A1FC-87F36DEC4FAF}"/>
+    <hyperlink ref="D181" r:id="rId180" xr:uid="{B57B86F3-BF77-4F0E-836C-BE613999AC58}"/>
+    <hyperlink ref="D182" r:id="rId181" xr:uid="{E368B15E-6374-47B8-9319-FD91F204C8F8}"/>
+    <hyperlink ref="D183" r:id="rId182" xr:uid="{A8951729-5818-402B-B04D-9029415984BB}"/>
+    <hyperlink ref="D184" r:id="rId183" xr:uid="{B44D8883-DD55-46BE-8222-046509BF4887}"/>
+    <hyperlink ref="D185" r:id="rId184" xr:uid="{793101E2-EB1E-4888-9A9A-7668E3FA2C92}"/>
+    <hyperlink ref="D186" r:id="rId185" xr:uid="{A1128296-4994-48FF-8AF9-212E9EEAFBF0}"/>
+    <hyperlink ref="D187" r:id="rId186" xr:uid="{9CFEB274-CA18-48A9-982B-D77E984E1054}"/>
+    <hyperlink ref="D188" r:id="rId187" xr:uid="{0385EDFC-33F7-433F-B8C4-75AA33B80ED2}"/>
+    <hyperlink ref="D189" r:id="rId188" xr:uid="{232AE53F-6BFB-4596-A64A-C5563B65A774}"/>
+    <hyperlink ref="D190" r:id="rId189" xr:uid="{08FBBA6E-716F-4786-A319-76ACA2268A79}"/>
+    <hyperlink ref="D191" r:id="rId190" xr:uid="{4F20142D-9107-4AC6-9E24-7BABDFC652F2}"/>
+    <hyperlink ref="D192" r:id="rId191" xr:uid="{BD7C74F5-F069-401D-9BB3-735299447A1F}"/>
+    <hyperlink ref="D193" r:id="rId192" xr:uid="{9B7C53B9-CF62-4CB8-8611-75B36CFDED79}"/>
+    <hyperlink ref="D194" r:id="rId193" xr:uid="{02CD4245-CE23-4D31-A87A-C517382E7691}"/>
+    <hyperlink ref="D195" r:id="rId194" xr:uid="{FD56D49F-D966-4C6A-8DD1-06EE08E3A05D}"/>
+    <hyperlink ref="D196" r:id="rId195" xr:uid="{04C62785-41A7-490A-AFEB-835C022588CE}"/>
+    <hyperlink ref="D197" r:id="rId196" xr:uid="{D6519B47-3A33-46A9-A1C8-53F9DE767F19}"/>
+    <hyperlink ref="D198" r:id="rId197" xr:uid="{9DA997FF-B12B-45AC-878B-FB8A67A4CF4D}"/>
+    <hyperlink ref="D199" r:id="rId198" xr:uid="{2E52689E-121A-47A3-85A9-4C8DC8A6FC5F}"/>
+    <hyperlink ref="D200" r:id="rId199" xr:uid="{E736E95C-C841-4185-990C-6FF6AE2E353D}"/>
+    <hyperlink ref="D201" r:id="rId200" xr:uid="{3789FCC0-BCED-4A6C-B125-02C4FECEB7E0}"/>
+    <hyperlink ref="D202" r:id="rId201" xr:uid="{BF8242EB-C4A2-44BA-B8E3-B423A0028DDE}"/>
+    <hyperlink ref="D203" r:id="rId202" xr:uid="{B69044B3-F82F-4D3C-BC93-51C3615F4908}"/>
+    <hyperlink ref="D204" r:id="rId203" xr:uid="{13067EEA-2029-430C-9023-6C999CD63FD0}"/>
+    <hyperlink ref="D205" r:id="rId204" xr:uid="{CAF2BA73-B848-4A92-8BA4-8433CB79F601}"/>
+    <hyperlink ref="D206" r:id="rId205" xr:uid="{91E05FF7-4B90-461B-8C24-96FCABF53BA8}"/>
+    <hyperlink ref="D207" r:id="rId206" xr:uid="{C128F653-E5D3-4C17-A720-632355F6A0E5}"/>
+    <hyperlink ref="D208" r:id="rId207" xr:uid="{1E12C474-20CF-485B-AFD6-B1C2F02A7E3D}"/>
+    <hyperlink ref="D209" r:id="rId208" xr:uid="{728A3212-D2A6-4465-9CB4-646B60B65BFA}"/>
+    <hyperlink ref="D210" r:id="rId209" xr:uid="{6179AEB4-9C3F-4A33-AB42-314E1989C05B}"/>
+    <hyperlink ref="D211" r:id="rId210" xr:uid="{2D2F68C4-364F-465E-BAB6-87A4D2E57810}"/>
+    <hyperlink ref="D212" r:id="rId211" xr:uid="{36E29285-6015-48E9-BCF9-059B57E2FBA8}"/>
+    <hyperlink ref="D213" r:id="rId212" xr:uid="{BBC3289A-682D-4BA9-B0A7-8496DF747615}"/>
+    <hyperlink ref="D214" r:id="rId213" xr:uid="{CF767B1F-A8A1-444E-829C-F6AF4F2198B5}"/>
+    <hyperlink ref="D215" r:id="rId214" xr:uid="{F57B8DF0-6310-45A4-9B1C-96000AF93F44}"/>
+    <hyperlink ref="D216" r:id="rId215" xr:uid="{A0C89602-9967-4190-ABA4-DE832CB8708C}"/>
+    <hyperlink ref="D217" r:id="rId216" xr:uid="{8F071866-2975-435A-9952-FE9F0193CB0C}"/>
+    <hyperlink ref="D218" r:id="rId217" xr:uid="{CCEB07F1-7333-45E6-915F-02C70BEA60D2}"/>
+    <hyperlink ref="D219" r:id="rId218" xr:uid="{1ADD9E11-FE73-4B72-9954-9A29947C8FAA}"/>
+    <hyperlink ref="D220" r:id="rId219" xr:uid="{10776CDB-42F3-47A1-92DC-0A1C7FAB1BA2}"/>
+    <hyperlink ref="D221" r:id="rId220" xr:uid="{230DFD62-589E-4BF2-960F-4DA43E8B1A0C}"/>
+    <hyperlink ref="D222" r:id="rId221" xr:uid="{C98D9C7C-5D07-4989-AB35-6956CA257A42}"/>
+    <hyperlink ref="D223" r:id="rId222" xr:uid="{5D215697-8BCD-4253-8C34-16C9FF8DAEDA}"/>
+    <hyperlink ref="D224" r:id="rId223" xr:uid="{E048964F-AF1C-4D64-8CE0-D3AD3DE68F79}"/>
+    <hyperlink ref="D225" r:id="rId224" xr:uid="{DD838A81-9D1C-4657-BBB9-2FBE77BD233F}"/>
+    <hyperlink ref="D226" r:id="rId225" xr:uid="{D6A00E51-B230-4675-BB6C-0C4167D800B9}"/>
+    <hyperlink ref="D227" r:id="rId226" xr:uid="{8E624814-D652-4D9D-A1F8-CB1ACA6D535C}"/>
+    <hyperlink ref="D228" r:id="rId227" xr:uid="{164A62F3-3259-4868-8972-EBAF0DE85CC5}"/>
+    <hyperlink ref="D229" r:id="rId228" xr:uid="{FD33E372-2E05-48C3-9268-30EA306DCDA1}"/>
+    <hyperlink ref="D230" r:id="rId229" xr:uid="{ECD02227-69E6-4189-9C0E-8A3944F36481}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId168"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId230"/>
 </worksheet>
 </file>